--- a/Current Cycling/Current Cycling Cabinet PCB Design.xlsx
+++ b/Current Cycling/Current Cycling Cabinet PCB Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Projects\Current Cycling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3737C51D-6802-4AEA-A3E4-D44183CA9B69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBE21CA-49D4-48E0-AABA-451289ECFE78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7669683-8C58-47AD-AB59-72FC40B2BAC7}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="399">
   <si>
     <t>Assembly</t>
   </si>
@@ -1222,9 +1222,6 @@
     <t>Temp 16</t>
   </si>
   <si>
-    <t>Binary</t>
-  </si>
-  <si>
     <t>3 bit - indicates which smoke sensor is used</t>
   </si>
   <si>
@@ -1235,6 +1232,12 @@
   </si>
   <si>
     <t>Active Temp Sensor</t>
+  </si>
+  <si>
+    <t>Beginning of string needs to have a "&lt;" and end of string needs to have a "&gt;"</t>
+  </si>
+  <si>
+    <t>Example: &lt;75.0,3.5,70,50,1,0,0,13,4&gt;</t>
   </si>
 </sst>
 </file>
@@ -1715,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0917387-7D6B-4A20-A541-790136947EE9}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1738,42 +1741,30 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s">
         <v>352</v>
@@ -1784,126 +1775,114 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>352</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>384</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
+      </c>
+      <c r="B8" t="s">
+        <v>352</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="C10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C13" t="s">
         <v>393</v>
       </c>
-      <c r="C11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>354</v>
-      </c>
-      <c r="B16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B17" t="s">
-        <v>352</v>
-      </c>
-      <c r="C17" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>356</v>
-      </c>
-      <c r="B18" t="s">
-        <v>352</v>
-      </c>
-      <c r="C18" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B19" t="s">
-        <v>352</v>
-      </c>
-      <c r="C19" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
         <v>352</v>
@@ -1914,7 +1893,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B21" t="s">
         <v>352</v>
@@ -1925,7 +1904,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B22" t="s">
         <v>352</v>
@@ -1936,7 +1915,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B23" t="s">
         <v>352</v>
@@ -1947,7 +1926,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B24" t="s">
         <v>352</v>
@@ -1958,7 +1937,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
         <v>352</v>
@@ -1969,7 +1948,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B26" t="s">
         <v>352</v>
@@ -1980,7 +1959,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B27" t="s">
         <v>352</v>
@@ -1991,7 +1970,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B28" t="s">
         <v>352</v>
@@ -2002,7 +1981,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B29" t="s">
         <v>352</v>
@@ -2013,7 +1992,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B30" t="s">
         <v>352</v>
@@ -2023,8 +2002,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>392</v>
+      <c r="A31" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="B31" t="s">
         <v>352</v>
@@ -2035,51 +2014,51 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B32" t="s">
         <v>352</v>
       </c>
       <c r="C32" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>371</v>
+      <c r="A33" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="B33" t="s">
         <v>352</v>
       </c>
       <c r="C33" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B34" t="s">
         <v>352</v>
       </c>
       <c r="C34" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="B35" t="s">
         <v>352</v>
       </c>
       <c r="C35" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B36" t="s">
         <v>352</v>
@@ -2090,7 +2069,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B37" t="s">
         <v>352</v>
@@ -2101,7 +2080,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B38" t="s">
         <v>352</v>
@@ -2112,7 +2091,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B39" t="s">
         <v>352</v>
@@ -2123,33 +2102,77 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B40" t="s">
-        <v>379</v>
+        <v>352</v>
+      </c>
+      <c r="C40" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B41" t="s">
-        <v>379</v>
+        <v>352</v>
+      </c>
+      <c r="C41" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s">
-        <v>379</v>
+        <v>352</v>
+      </c>
+      <c r="C42" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>377</v>
+      </c>
+      <c r="B43" t="s">
+        <v>352</v>
+      </c>
+      <c r="C43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>378</v>
+      </c>
+      <c r="B44" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>380</v>
+      </c>
+      <c r="B45" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>383</v>
+      </c>
+      <c r="B46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>390</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>379</v>
       </c>
     </row>

--- a/Current Cycling/Current Cycling Cabinet PCB Design.xlsx
+++ b/Current Cycling/Current Cycling Cabinet PCB Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Projects\Current Cycling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBE21CA-49D4-48E0-AABA-451289ECFE78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905D9D65-F8FF-4B51-B6B7-48CF85993770}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7669683-8C58-47AD-AB59-72FC40B2BAC7}"/>
+    <workbookView xWindow="936" yWindow="936" windowWidth="17280" windowHeight="9024" xr2:uid="{F7669683-8C58-47AD-AB59-72FC40B2BAC7}"/>
   </bookViews>
   <sheets>
     <sheet name="PC to Master Comms" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="401">
   <si>
     <t>Assembly</t>
   </si>
@@ -1238,6 +1238,12 @@
   </si>
   <si>
     <t>Example: &lt;75.0,3.5,70,50,1,0,0,13,4&gt;</t>
+  </si>
+  <si>
+    <t>Currently Operating in a Cyle</t>
+  </si>
+  <si>
+    <t>1 = in a cycle, 0 = not in a cycle</t>
   </si>
 </sst>
 </file>
@@ -1718,40 +1724,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0917387-7D6B-4A20-A541-790136947EE9}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="39.54296875" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>346</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>349</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>385</v>
       </c>
@@ -1795,7 +1801,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>386</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>384</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>389</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>396</v>
       </c>
@@ -1839,7 +1845,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>395</v>
       </c>
@@ -1850,50 +1856,50 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>354</v>
-      </c>
-      <c r="B20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="B21" t="s">
         <v>352</v>
@@ -1902,9 +1908,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>356</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="B22" t="s">
         <v>352</v>
@@ -1913,9 +1919,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>357</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>356</v>
       </c>
       <c r="B23" t="s">
         <v>352</v>
@@ -1924,9 +1930,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>358</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>357</v>
       </c>
       <c r="B24" t="s">
         <v>352</v>
@@ -1935,9 +1941,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>359</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>358</v>
       </c>
       <c r="B25" t="s">
         <v>352</v>
@@ -1946,9 +1952,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>360</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="B26" t="s">
         <v>352</v>
@@ -1957,9 +1963,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>361</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>360</v>
       </c>
       <c r="B27" t="s">
         <v>352</v>
@@ -1968,9 +1974,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>362</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>361</v>
       </c>
       <c r="B28" t="s">
         <v>352</v>
@@ -1979,9 +1985,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>363</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>362</v>
       </c>
       <c r="B29" t="s">
         <v>352</v>
@@ -1990,9 +1996,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>364</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>363</v>
       </c>
       <c r="B30" t="s">
         <v>352</v>
@@ -2001,9 +2007,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>365</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>364</v>
       </c>
       <c r="B31" t="s">
         <v>352</v>
@@ -2012,9 +2018,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>366</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="B32" t="s">
         <v>352</v>
@@ -2023,9 +2029,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>367</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>366</v>
       </c>
       <c r="B33" t="s">
         <v>352</v>
@@ -2034,9 +2040,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>368</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="B34" t="s">
         <v>352</v>
@@ -2045,9 +2051,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B35" t="s">
         <v>352</v>
@@ -2056,20 +2062,20 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="B36" t="s">
         <v>352</v>
       </c>
       <c r="C36" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B37" t="s">
         <v>352</v>
@@ -2078,9 +2084,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B38" t="s">
         <v>352</v>
@@ -2089,9 +2095,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s">
         <v>352</v>
@@ -2100,9 +2106,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s">
         <v>352</v>
@@ -2111,9 +2117,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s">
         <v>352</v>
@@ -2122,9 +2128,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s">
         <v>352</v>
@@ -2133,9 +2139,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s">
         <v>352</v>
@@ -2144,35 +2150,46 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>377</v>
+      </c>
+      <c r="B44" t="s">
+        <v>352</v>
+      </c>
+      <c r="C44" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>378</v>
-      </c>
-      <c r="B44" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>380</v>
       </c>
       <c r="B45" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B46" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>383</v>
+      </c>
+      <c r="B47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>390</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>379</v>
       </c>
     </row>
@@ -2189,24 +2206,24 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="39.54296875" customWidth="1"/>
+    <col min="1" max="1" width="70.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -2217,7 +2234,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -2228,7 +2245,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>349</v>
       </c>
@@ -2239,12 +2256,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2255,7 +2272,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>354</v>
       </c>
@@ -2266,7 +2283,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>355</v>
       </c>
@@ -2277,7 +2294,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -2288,7 +2305,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>357</v>
       </c>
@@ -2299,7 +2316,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>358</v>
       </c>
@@ -2310,7 +2327,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>359</v>
       </c>
@@ -2321,7 +2338,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>360</v>
       </c>
@@ -2332,7 +2349,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>361</v>
       </c>
@@ -2343,7 +2360,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -2354,7 +2371,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>363</v>
       </c>
@@ -2365,7 +2382,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>364</v>
       </c>
@@ -2376,7 +2393,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>365</v>
       </c>
@@ -2387,7 +2404,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -2398,7 +2415,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>367</v>
       </c>
@@ -2409,7 +2426,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>368</v>
       </c>
@@ -2420,7 +2437,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>370</v>
       </c>
@@ -2431,7 +2448,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>371</v>
       </c>
@@ -2442,7 +2459,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>372</v>
       </c>
@@ -2453,7 +2470,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>373</v>
       </c>
@@ -2464,7 +2481,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>374</v>
       </c>
@@ -2475,7 +2492,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>375</v>
       </c>
@@ -2486,7 +2503,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>376</v>
       </c>
@@ -2497,7 +2514,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>377</v>
       </c>
@@ -2508,7 +2525,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>378</v>
       </c>
@@ -2516,7 +2533,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>380</v>
       </c>
@@ -2537,22 +2554,22 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -2560,7 +2577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -2589,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2624,7 +2641,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +2676,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2682,7 +2699,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2702,13 +2719,13 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="E8" s="2"/>
       <c r="J8" s="1"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2736,7 +2753,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2757,15 +2774,15 @@
         <v>548.20000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -2776,7 +2793,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2790,7 +2807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2813,7 +2830,7 @@
         <v>851.65</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2821,10 +2838,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2833,7 +2850,7 @@
         <v>2483.65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2857,907 +2874,907 @@
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="45.453125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="24.1796875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="23.453125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="21.1796875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="20.453125" style="9" customWidth="1"/>
-    <col min="14" max="256" width="9.1796875" style="9"/>
-    <col min="257" max="257" width="10.453125" style="9" customWidth="1"/>
-    <col min="258" max="258" width="19.81640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14" max="256" width="9.140625" style="9"/>
+    <col min="257" max="257" width="10.42578125" style="9" customWidth="1"/>
+    <col min="258" max="258" width="19.85546875" style="9" customWidth="1"/>
     <col min="259" max="259" width="13" style="9" customWidth="1"/>
-    <col min="260" max="260" width="14.26953125" style="9" customWidth="1"/>
-    <col min="261" max="261" width="12.453125" style="9" customWidth="1"/>
-    <col min="262" max="262" width="10.26953125" style="9" customWidth="1"/>
-    <col min="263" max="263" width="17.54296875" style="9" customWidth="1"/>
-    <col min="264" max="264" width="27.453125" style="9" customWidth="1"/>
-    <col min="265" max="265" width="24.1796875" style="9" customWidth="1"/>
-    <col min="266" max="266" width="13.54296875" style="9" customWidth="1"/>
-    <col min="267" max="267" width="23.453125" style="9" customWidth="1"/>
-    <col min="268" max="268" width="21.1796875" style="9" customWidth="1"/>
-    <col min="269" max="269" width="20.453125" style="9" customWidth="1"/>
-    <col min="270" max="512" width="9.1796875" style="9"/>
-    <col min="513" max="513" width="10.453125" style="9" customWidth="1"/>
-    <col min="514" max="514" width="19.81640625" style="9" customWidth="1"/>
+    <col min="260" max="260" width="14.28515625" style="9" customWidth="1"/>
+    <col min="261" max="261" width="12.42578125" style="9" customWidth="1"/>
+    <col min="262" max="262" width="10.28515625" style="9" customWidth="1"/>
+    <col min="263" max="263" width="17.5703125" style="9" customWidth="1"/>
+    <col min="264" max="264" width="27.42578125" style="9" customWidth="1"/>
+    <col min="265" max="265" width="24.140625" style="9" customWidth="1"/>
+    <col min="266" max="266" width="13.5703125" style="9" customWidth="1"/>
+    <col min="267" max="267" width="23.42578125" style="9" customWidth="1"/>
+    <col min="268" max="268" width="21.140625" style="9" customWidth="1"/>
+    <col min="269" max="269" width="20.42578125" style="9" customWidth="1"/>
+    <col min="270" max="512" width="9.140625" style="9"/>
+    <col min="513" max="513" width="10.42578125" style="9" customWidth="1"/>
+    <col min="514" max="514" width="19.85546875" style="9" customWidth="1"/>
     <col min="515" max="515" width="13" style="9" customWidth="1"/>
-    <col min="516" max="516" width="14.26953125" style="9" customWidth="1"/>
-    <col min="517" max="517" width="12.453125" style="9" customWidth="1"/>
-    <col min="518" max="518" width="10.26953125" style="9" customWidth="1"/>
-    <col min="519" max="519" width="17.54296875" style="9" customWidth="1"/>
-    <col min="520" max="520" width="27.453125" style="9" customWidth="1"/>
-    <col min="521" max="521" width="24.1796875" style="9" customWidth="1"/>
-    <col min="522" max="522" width="13.54296875" style="9" customWidth="1"/>
-    <col min="523" max="523" width="23.453125" style="9" customWidth="1"/>
-    <col min="524" max="524" width="21.1796875" style="9" customWidth="1"/>
-    <col min="525" max="525" width="20.453125" style="9" customWidth="1"/>
-    <col min="526" max="768" width="9.1796875" style="9"/>
-    <col min="769" max="769" width="10.453125" style="9" customWidth="1"/>
-    <col min="770" max="770" width="19.81640625" style="9" customWidth="1"/>
+    <col min="516" max="516" width="14.28515625" style="9" customWidth="1"/>
+    <col min="517" max="517" width="12.42578125" style="9" customWidth="1"/>
+    <col min="518" max="518" width="10.28515625" style="9" customWidth="1"/>
+    <col min="519" max="519" width="17.5703125" style="9" customWidth="1"/>
+    <col min="520" max="520" width="27.42578125" style="9" customWidth="1"/>
+    <col min="521" max="521" width="24.140625" style="9" customWidth="1"/>
+    <col min="522" max="522" width="13.5703125" style="9" customWidth="1"/>
+    <col min="523" max="523" width="23.42578125" style="9" customWidth="1"/>
+    <col min="524" max="524" width="21.140625" style="9" customWidth="1"/>
+    <col min="525" max="525" width="20.42578125" style="9" customWidth="1"/>
+    <col min="526" max="768" width="9.140625" style="9"/>
+    <col min="769" max="769" width="10.42578125" style="9" customWidth="1"/>
+    <col min="770" max="770" width="19.85546875" style="9" customWidth="1"/>
     <col min="771" max="771" width="13" style="9" customWidth="1"/>
-    <col min="772" max="772" width="14.26953125" style="9" customWidth="1"/>
-    <col min="773" max="773" width="12.453125" style="9" customWidth="1"/>
-    <col min="774" max="774" width="10.26953125" style="9" customWidth="1"/>
-    <col min="775" max="775" width="17.54296875" style="9" customWidth="1"/>
-    <col min="776" max="776" width="27.453125" style="9" customWidth="1"/>
-    <col min="777" max="777" width="24.1796875" style="9" customWidth="1"/>
-    <col min="778" max="778" width="13.54296875" style="9" customWidth="1"/>
-    <col min="779" max="779" width="23.453125" style="9" customWidth="1"/>
-    <col min="780" max="780" width="21.1796875" style="9" customWidth="1"/>
-    <col min="781" max="781" width="20.453125" style="9" customWidth="1"/>
-    <col min="782" max="1024" width="9.1796875" style="9"/>
-    <col min="1025" max="1025" width="10.453125" style="9" customWidth="1"/>
-    <col min="1026" max="1026" width="19.81640625" style="9" customWidth="1"/>
+    <col min="772" max="772" width="14.28515625" style="9" customWidth="1"/>
+    <col min="773" max="773" width="12.42578125" style="9" customWidth="1"/>
+    <col min="774" max="774" width="10.28515625" style="9" customWidth="1"/>
+    <col min="775" max="775" width="17.5703125" style="9" customWidth="1"/>
+    <col min="776" max="776" width="27.42578125" style="9" customWidth="1"/>
+    <col min="777" max="777" width="24.140625" style="9" customWidth="1"/>
+    <col min="778" max="778" width="13.5703125" style="9" customWidth="1"/>
+    <col min="779" max="779" width="23.42578125" style="9" customWidth="1"/>
+    <col min="780" max="780" width="21.140625" style="9" customWidth="1"/>
+    <col min="781" max="781" width="20.42578125" style="9" customWidth="1"/>
+    <col min="782" max="1024" width="9.140625" style="9"/>
+    <col min="1025" max="1025" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1026" max="1026" width="19.85546875" style="9" customWidth="1"/>
     <col min="1027" max="1027" width="13" style="9" customWidth="1"/>
-    <col min="1028" max="1028" width="14.26953125" style="9" customWidth="1"/>
-    <col min="1029" max="1029" width="12.453125" style="9" customWidth="1"/>
-    <col min="1030" max="1030" width="10.26953125" style="9" customWidth="1"/>
-    <col min="1031" max="1031" width="17.54296875" style="9" customWidth="1"/>
-    <col min="1032" max="1032" width="27.453125" style="9" customWidth="1"/>
-    <col min="1033" max="1033" width="24.1796875" style="9" customWidth="1"/>
-    <col min="1034" max="1034" width="13.54296875" style="9" customWidth="1"/>
-    <col min="1035" max="1035" width="23.453125" style="9" customWidth="1"/>
-    <col min="1036" max="1036" width="21.1796875" style="9" customWidth="1"/>
-    <col min="1037" max="1037" width="20.453125" style="9" customWidth="1"/>
-    <col min="1038" max="1280" width="9.1796875" style="9"/>
-    <col min="1281" max="1281" width="10.453125" style="9" customWidth="1"/>
-    <col min="1282" max="1282" width="19.81640625" style="9" customWidth="1"/>
+    <col min="1028" max="1028" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1029" max="1029" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1030" max="1030" width="10.28515625" style="9" customWidth="1"/>
+    <col min="1031" max="1031" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1032" max="1032" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1033" max="1033" width="24.140625" style="9" customWidth="1"/>
+    <col min="1034" max="1034" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1035" max="1035" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1036" max="1036" width="21.140625" style="9" customWidth="1"/>
+    <col min="1037" max="1037" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1038" max="1280" width="9.140625" style="9"/>
+    <col min="1281" max="1281" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1282" max="1282" width="19.85546875" style="9" customWidth="1"/>
     <col min="1283" max="1283" width="13" style="9" customWidth="1"/>
-    <col min="1284" max="1284" width="14.26953125" style="9" customWidth="1"/>
-    <col min="1285" max="1285" width="12.453125" style="9" customWidth="1"/>
-    <col min="1286" max="1286" width="10.26953125" style="9" customWidth="1"/>
-    <col min="1287" max="1287" width="17.54296875" style="9" customWidth="1"/>
-    <col min="1288" max="1288" width="27.453125" style="9" customWidth="1"/>
-    <col min="1289" max="1289" width="24.1796875" style="9" customWidth="1"/>
-    <col min="1290" max="1290" width="13.54296875" style="9" customWidth="1"/>
-    <col min="1291" max="1291" width="23.453125" style="9" customWidth="1"/>
-    <col min="1292" max="1292" width="21.1796875" style="9" customWidth="1"/>
-    <col min="1293" max="1293" width="20.453125" style="9" customWidth="1"/>
-    <col min="1294" max="1536" width="9.1796875" style="9"/>
-    <col min="1537" max="1537" width="10.453125" style="9" customWidth="1"/>
-    <col min="1538" max="1538" width="19.81640625" style="9" customWidth="1"/>
+    <col min="1284" max="1284" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1285" max="1285" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1286" max="1286" width="10.28515625" style="9" customWidth="1"/>
+    <col min="1287" max="1287" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1288" max="1288" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1289" max="1289" width="24.140625" style="9" customWidth="1"/>
+    <col min="1290" max="1290" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1291" max="1291" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1292" max="1292" width="21.140625" style="9" customWidth="1"/>
+    <col min="1293" max="1293" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1294" max="1536" width="9.140625" style="9"/>
+    <col min="1537" max="1537" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1538" max="1538" width="19.85546875" style="9" customWidth="1"/>
     <col min="1539" max="1539" width="13" style="9" customWidth="1"/>
-    <col min="1540" max="1540" width="14.26953125" style="9" customWidth="1"/>
-    <col min="1541" max="1541" width="12.453125" style="9" customWidth="1"/>
-    <col min="1542" max="1542" width="10.26953125" style="9" customWidth="1"/>
-    <col min="1543" max="1543" width="17.54296875" style="9" customWidth="1"/>
-    <col min="1544" max="1544" width="27.453125" style="9" customWidth="1"/>
-    <col min="1545" max="1545" width="24.1796875" style="9" customWidth="1"/>
-    <col min="1546" max="1546" width="13.54296875" style="9" customWidth="1"/>
-    <col min="1547" max="1547" width="23.453125" style="9" customWidth="1"/>
-    <col min="1548" max="1548" width="21.1796875" style="9" customWidth="1"/>
-    <col min="1549" max="1549" width="20.453125" style="9" customWidth="1"/>
-    <col min="1550" max="1792" width="9.1796875" style="9"/>
-    <col min="1793" max="1793" width="10.453125" style="9" customWidth="1"/>
-    <col min="1794" max="1794" width="19.81640625" style="9" customWidth="1"/>
+    <col min="1540" max="1540" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1541" max="1541" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1542" max="1542" width="10.28515625" style="9" customWidth="1"/>
+    <col min="1543" max="1543" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1544" max="1544" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1545" max="1545" width="24.140625" style="9" customWidth="1"/>
+    <col min="1546" max="1546" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1547" max="1547" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1548" max="1548" width="21.140625" style="9" customWidth="1"/>
+    <col min="1549" max="1549" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1550" max="1792" width="9.140625" style="9"/>
+    <col min="1793" max="1793" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1794" max="1794" width="19.85546875" style="9" customWidth="1"/>
     <col min="1795" max="1795" width="13" style="9" customWidth="1"/>
-    <col min="1796" max="1796" width="14.26953125" style="9" customWidth="1"/>
-    <col min="1797" max="1797" width="12.453125" style="9" customWidth="1"/>
-    <col min="1798" max="1798" width="10.26953125" style="9" customWidth="1"/>
-    <col min="1799" max="1799" width="17.54296875" style="9" customWidth="1"/>
-    <col min="1800" max="1800" width="27.453125" style="9" customWidth="1"/>
-    <col min="1801" max="1801" width="24.1796875" style="9" customWidth="1"/>
-    <col min="1802" max="1802" width="13.54296875" style="9" customWidth="1"/>
-    <col min="1803" max="1803" width="23.453125" style="9" customWidth="1"/>
-    <col min="1804" max="1804" width="21.1796875" style="9" customWidth="1"/>
-    <col min="1805" max="1805" width="20.453125" style="9" customWidth="1"/>
-    <col min="1806" max="2048" width="9.1796875" style="9"/>
-    <col min="2049" max="2049" width="10.453125" style="9" customWidth="1"/>
-    <col min="2050" max="2050" width="19.81640625" style="9" customWidth="1"/>
+    <col min="1796" max="1796" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1797" max="1797" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1798" max="1798" width="10.28515625" style="9" customWidth="1"/>
+    <col min="1799" max="1799" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1800" max="1800" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1801" max="1801" width="24.140625" style="9" customWidth="1"/>
+    <col min="1802" max="1802" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1803" max="1803" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1804" max="1804" width="21.140625" style="9" customWidth="1"/>
+    <col min="1805" max="1805" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1806" max="2048" width="9.140625" style="9"/>
+    <col min="2049" max="2049" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2050" max="2050" width="19.85546875" style="9" customWidth="1"/>
     <col min="2051" max="2051" width="13" style="9" customWidth="1"/>
-    <col min="2052" max="2052" width="14.26953125" style="9" customWidth="1"/>
-    <col min="2053" max="2053" width="12.453125" style="9" customWidth="1"/>
-    <col min="2054" max="2054" width="10.26953125" style="9" customWidth="1"/>
-    <col min="2055" max="2055" width="17.54296875" style="9" customWidth="1"/>
-    <col min="2056" max="2056" width="27.453125" style="9" customWidth="1"/>
-    <col min="2057" max="2057" width="24.1796875" style="9" customWidth="1"/>
-    <col min="2058" max="2058" width="13.54296875" style="9" customWidth="1"/>
-    <col min="2059" max="2059" width="23.453125" style="9" customWidth="1"/>
-    <col min="2060" max="2060" width="21.1796875" style="9" customWidth="1"/>
-    <col min="2061" max="2061" width="20.453125" style="9" customWidth="1"/>
-    <col min="2062" max="2304" width="9.1796875" style="9"/>
-    <col min="2305" max="2305" width="10.453125" style="9" customWidth="1"/>
-    <col min="2306" max="2306" width="19.81640625" style="9" customWidth="1"/>
+    <col min="2052" max="2052" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2053" max="2053" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2054" max="2054" width="10.28515625" style="9" customWidth="1"/>
+    <col min="2055" max="2055" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2056" max="2056" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2057" max="2057" width="24.140625" style="9" customWidth="1"/>
+    <col min="2058" max="2058" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2059" max="2059" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2060" max="2060" width="21.140625" style="9" customWidth="1"/>
+    <col min="2061" max="2061" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2062" max="2304" width="9.140625" style="9"/>
+    <col min="2305" max="2305" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2306" max="2306" width="19.85546875" style="9" customWidth="1"/>
     <col min="2307" max="2307" width="13" style="9" customWidth="1"/>
-    <col min="2308" max="2308" width="14.26953125" style="9" customWidth="1"/>
-    <col min="2309" max="2309" width="12.453125" style="9" customWidth="1"/>
-    <col min="2310" max="2310" width="10.26953125" style="9" customWidth="1"/>
-    <col min="2311" max="2311" width="17.54296875" style="9" customWidth="1"/>
-    <col min="2312" max="2312" width="27.453125" style="9" customWidth="1"/>
-    <col min="2313" max="2313" width="24.1796875" style="9" customWidth="1"/>
-    <col min="2314" max="2314" width="13.54296875" style="9" customWidth="1"/>
-    <col min="2315" max="2315" width="23.453125" style="9" customWidth="1"/>
-    <col min="2316" max="2316" width="21.1796875" style="9" customWidth="1"/>
-    <col min="2317" max="2317" width="20.453125" style="9" customWidth="1"/>
-    <col min="2318" max="2560" width="9.1796875" style="9"/>
-    <col min="2561" max="2561" width="10.453125" style="9" customWidth="1"/>
-    <col min="2562" max="2562" width="19.81640625" style="9" customWidth="1"/>
+    <col min="2308" max="2308" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2309" max="2309" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2310" max="2310" width="10.28515625" style="9" customWidth="1"/>
+    <col min="2311" max="2311" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2312" max="2312" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2313" max="2313" width="24.140625" style="9" customWidth="1"/>
+    <col min="2314" max="2314" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2315" max="2315" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2316" max="2316" width="21.140625" style="9" customWidth="1"/>
+    <col min="2317" max="2317" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2318" max="2560" width="9.140625" style="9"/>
+    <col min="2561" max="2561" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2562" max="2562" width="19.85546875" style="9" customWidth="1"/>
     <col min="2563" max="2563" width="13" style="9" customWidth="1"/>
-    <col min="2564" max="2564" width="14.26953125" style="9" customWidth="1"/>
-    <col min="2565" max="2565" width="12.453125" style="9" customWidth="1"/>
-    <col min="2566" max="2566" width="10.26953125" style="9" customWidth="1"/>
-    <col min="2567" max="2567" width="17.54296875" style="9" customWidth="1"/>
-    <col min="2568" max="2568" width="27.453125" style="9" customWidth="1"/>
-    <col min="2569" max="2569" width="24.1796875" style="9" customWidth="1"/>
-    <col min="2570" max="2570" width="13.54296875" style="9" customWidth="1"/>
-    <col min="2571" max="2571" width="23.453125" style="9" customWidth="1"/>
-    <col min="2572" max="2572" width="21.1796875" style="9" customWidth="1"/>
-    <col min="2573" max="2573" width="20.453125" style="9" customWidth="1"/>
-    <col min="2574" max="2816" width="9.1796875" style="9"/>
-    <col min="2817" max="2817" width="10.453125" style="9" customWidth="1"/>
-    <col min="2818" max="2818" width="19.81640625" style="9" customWidth="1"/>
+    <col min="2564" max="2564" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2565" max="2565" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2566" max="2566" width="10.28515625" style="9" customWidth="1"/>
+    <col min="2567" max="2567" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2568" max="2568" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2569" max="2569" width="24.140625" style="9" customWidth="1"/>
+    <col min="2570" max="2570" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2571" max="2571" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2572" max="2572" width="21.140625" style="9" customWidth="1"/>
+    <col min="2573" max="2573" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2574" max="2816" width="9.140625" style="9"/>
+    <col min="2817" max="2817" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2818" max="2818" width="19.85546875" style="9" customWidth="1"/>
     <col min="2819" max="2819" width="13" style="9" customWidth="1"/>
-    <col min="2820" max="2820" width="14.26953125" style="9" customWidth="1"/>
-    <col min="2821" max="2821" width="12.453125" style="9" customWidth="1"/>
-    <col min="2822" max="2822" width="10.26953125" style="9" customWidth="1"/>
-    <col min="2823" max="2823" width="17.54296875" style="9" customWidth="1"/>
-    <col min="2824" max="2824" width="27.453125" style="9" customWidth="1"/>
-    <col min="2825" max="2825" width="24.1796875" style="9" customWidth="1"/>
-    <col min="2826" max="2826" width="13.54296875" style="9" customWidth="1"/>
-    <col min="2827" max="2827" width="23.453125" style="9" customWidth="1"/>
-    <col min="2828" max="2828" width="21.1796875" style="9" customWidth="1"/>
-    <col min="2829" max="2829" width="20.453125" style="9" customWidth="1"/>
-    <col min="2830" max="3072" width="9.1796875" style="9"/>
-    <col min="3073" max="3073" width="10.453125" style="9" customWidth="1"/>
-    <col min="3074" max="3074" width="19.81640625" style="9" customWidth="1"/>
+    <col min="2820" max="2820" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2821" max="2821" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2822" max="2822" width="10.28515625" style="9" customWidth="1"/>
+    <col min="2823" max="2823" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2824" max="2824" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2825" max="2825" width="24.140625" style="9" customWidth="1"/>
+    <col min="2826" max="2826" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2827" max="2827" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2828" max="2828" width="21.140625" style="9" customWidth="1"/>
+    <col min="2829" max="2829" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2830" max="3072" width="9.140625" style="9"/>
+    <col min="3073" max="3073" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3074" max="3074" width="19.85546875" style="9" customWidth="1"/>
     <col min="3075" max="3075" width="13" style="9" customWidth="1"/>
-    <col min="3076" max="3076" width="14.26953125" style="9" customWidth="1"/>
-    <col min="3077" max="3077" width="12.453125" style="9" customWidth="1"/>
-    <col min="3078" max="3078" width="10.26953125" style="9" customWidth="1"/>
-    <col min="3079" max="3079" width="17.54296875" style="9" customWidth="1"/>
-    <col min="3080" max="3080" width="27.453125" style="9" customWidth="1"/>
-    <col min="3081" max="3081" width="24.1796875" style="9" customWidth="1"/>
-    <col min="3082" max="3082" width="13.54296875" style="9" customWidth="1"/>
-    <col min="3083" max="3083" width="23.453125" style="9" customWidth="1"/>
-    <col min="3084" max="3084" width="21.1796875" style="9" customWidth="1"/>
-    <col min="3085" max="3085" width="20.453125" style="9" customWidth="1"/>
-    <col min="3086" max="3328" width="9.1796875" style="9"/>
-    <col min="3329" max="3329" width="10.453125" style="9" customWidth="1"/>
-    <col min="3330" max="3330" width="19.81640625" style="9" customWidth="1"/>
+    <col min="3076" max="3076" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3077" max="3077" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3078" max="3078" width="10.28515625" style="9" customWidth="1"/>
+    <col min="3079" max="3079" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3080" max="3080" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3081" max="3081" width="24.140625" style="9" customWidth="1"/>
+    <col min="3082" max="3082" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3083" max="3083" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3084" max="3084" width="21.140625" style="9" customWidth="1"/>
+    <col min="3085" max="3085" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3086" max="3328" width="9.140625" style="9"/>
+    <col min="3329" max="3329" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3330" max="3330" width="19.85546875" style="9" customWidth="1"/>
     <col min="3331" max="3331" width="13" style="9" customWidth="1"/>
-    <col min="3332" max="3332" width="14.26953125" style="9" customWidth="1"/>
-    <col min="3333" max="3333" width="12.453125" style="9" customWidth="1"/>
-    <col min="3334" max="3334" width="10.26953125" style="9" customWidth="1"/>
-    <col min="3335" max="3335" width="17.54296875" style="9" customWidth="1"/>
-    <col min="3336" max="3336" width="27.453125" style="9" customWidth="1"/>
-    <col min="3337" max="3337" width="24.1796875" style="9" customWidth="1"/>
-    <col min="3338" max="3338" width="13.54296875" style="9" customWidth="1"/>
-    <col min="3339" max="3339" width="23.453125" style="9" customWidth="1"/>
-    <col min="3340" max="3340" width="21.1796875" style="9" customWidth="1"/>
-    <col min="3341" max="3341" width="20.453125" style="9" customWidth="1"/>
-    <col min="3342" max="3584" width="9.1796875" style="9"/>
-    <col min="3585" max="3585" width="10.453125" style="9" customWidth="1"/>
-    <col min="3586" max="3586" width="19.81640625" style="9" customWidth="1"/>
+    <col min="3332" max="3332" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3333" max="3333" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3334" max="3334" width="10.28515625" style="9" customWidth="1"/>
+    <col min="3335" max="3335" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3336" max="3336" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3337" max="3337" width="24.140625" style="9" customWidth="1"/>
+    <col min="3338" max="3338" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3339" max="3339" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3340" max="3340" width="21.140625" style="9" customWidth="1"/>
+    <col min="3341" max="3341" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3342" max="3584" width="9.140625" style="9"/>
+    <col min="3585" max="3585" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3586" max="3586" width="19.85546875" style="9" customWidth="1"/>
     <col min="3587" max="3587" width="13" style="9" customWidth="1"/>
-    <col min="3588" max="3588" width="14.26953125" style="9" customWidth="1"/>
-    <col min="3589" max="3589" width="12.453125" style="9" customWidth="1"/>
-    <col min="3590" max="3590" width="10.26953125" style="9" customWidth="1"/>
-    <col min="3591" max="3591" width="17.54296875" style="9" customWidth="1"/>
-    <col min="3592" max="3592" width="27.453125" style="9" customWidth="1"/>
-    <col min="3593" max="3593" width="24.1796875" style="9" customWidth="1"/>
-    <col min="3594" max="3594" width="13.54296875" style="9" customWidth="1"/>
-    <col min="3595" max="3595" width="23.453125" style="9" customWidth="1"/>
-    <col min="3596" max="3596" width="21.1796875" style="9" customWidth="1"/>
-    <col min="3597" max="3597" width="20.453125" style="9" customWidth="1"/>
-    <col min="3598" max="3840" width="9.1796875" style="9"/>
-    <col min="3841" max="3841" width="10.453125" style="9" customWidth="1"/>
-    <col min="3842" max="3842" width="19.81640625" style="9" customWidth="1"/>
+    <col min="3588" max="3588" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3589" max="3589" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3590" max="3590" width="10.28515625" style="9" customWidth="1"/>
+    <col min="3591" max="3591" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3592" max="3592" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3593" max="3593" width="24.140625" style="9" customWidth="1"/>
+    <col min="3594" max="3594" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3595" max="3595" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3596" max="3596" width="21.140625" style="9" customWidth="1"/>
+    <col min="3597" max="3597" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3598" max="3840" width="9.140625" style="9"/>
+    <col min="3841" max="3841" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3842" max="3842" width="19.85546875" style="9" customWidth="1"/>
     <col min="3843" max="3843" width="13" style="9" customWidth="1"/>
-    <col min="3844" max="3844" width="14.26953125" style="9" customWidth="1"/>
-    <col min="3845" max="3845" width="12.453125" style="9" customWidth="1"/>
-    <col min="3846" max="3846" width="10.26953125" style="9" customWidth="1"/>
-    <col min="3847" max="3847" width="17.54296875" style="9" customWidth="1"/>
-    <col min="3848" max="3848" width="27.453125" style="9" customWidth="1"/>
-    <col min="3849" max="3849" width="24.1796875" style="9" customWidth="1"/>
-    <col min="3850" max="3850" width="13.54296875" style="9" customWidth="1"/>
-    <col min="3851" max="3851" width="23.453125" style="9" customWidth="1"/>
-    <col min="3852" max="3852" width="21.1796875" style="9" customWidth="1"/>
-    <col min="3853" max="3853" width="20.453125" style="9" customWidth="1"/>
-    <col min="3854" max="4096" width="9.1796875" style="9"/>
-    <col min="4097" max="4097" width="10.453125" style="9" customWidth="1"/>
-    <col min="4098" max="4098" width="19.81640625" style="9" customWidth="1"/>
+    <col min="3844" max="3844" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3845" max="3845" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3846" max="3846" width="10.28515625" style="9" customWidth="1"/>
+    <col min="3847" max="3847" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3848" max="3848" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3849" max="3849" width="24.140625" style="9" customWidth="1"/>
+    <col min="3850" max="3850" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3851" max="3851" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3852" max="3852" width="21.140625" style="9" customWidth="1"/>
+    <col min="3853" max="3853" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3854" max="4096" width="9.140625" style="9"/>
+    <col min="4097" max="4097" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4098" max="4098" width="19.85546875" style="9" customWidth="1"/>
     <col min="4099" max="4099" width="13" style="9" customWidth="1"/>
-    <col min="4100" max="4100" width="14.26953125" style="9" customWidth="1"/>
-    <col min="4101" max="4101" width="12.453125" style="9" customWidth="1"/>
-    <col min="4102" max="4102" width="10.26953125" style="9" customWidth="1"/>
-    <col min="4103" max="4103" width="17.54296875" style="9" customWidth="1"/>
-    <col min="4104" max="4104" width="27.453125" style="9" customWidth="1"/>
-    <col min="4105" max="4105" width="24.1796875" style="9" customWidth="1"/>
-    <col min="4106" max="4106" width="13.54296875" style="9" customWidth="1"/>
-    <col min="4107" max="4107" width="23.453125" style="9" customWidth="1"/>
-    <col min="4108" max="4108" width="21.1796875" style="9" customWidth="1"/>
-    <col min="4109" max="4109" width="20.453125" style="9" customWidth="1"/>
-    <col min="4110" max="4352" width="9.1796875" style="9"/>
-    <col min="4353" max="4353" width="10.453125" style="9" customWidth="1"/>
-    <col min="4354" max="4354" width="19.81640625" style="9" customWidth="1"/>
+    <col min="4100" max="4100" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4101" max="4101" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4102" max="4102" width="10.28515625" style="9" customWidth="1"/>
+    <col min="4103" max="4103" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4104" max="4104" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4105" max="4105" width="24.140625" style="9" customWidth="1"/>
+    <col min="4106" max="4106" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4107" max="4107" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4108" max="4108" width="21.140625" style="9" customWidth="1"/>
+    <col min="4109" max="4109" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4110" max="4352" width="9.140625" style="9"/>
+    <col min="4353" max="4353" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4354" max="4354" width="19.85546875" style="9" customWidth="1"/>
     <col min="4355" max="4355" width="13" style="9" customWidth="1"/>
-    <col min="4356" max="4356" width="14.26953125" style="9" customWidth="1"/>
-    <col min="4357" max="4357" width="12.453125" style="9" customWidth="1"/>
-    <col min="4358" max="4358" width="10.26953125" style="9" customWidth="1"/>
-    <col min="4359" max="4359" width="17.54296875" style="9" customWidth="1"/>
-    <col min="4360" max="4360" width="27.453125" style="9" customWidth="1"/>
-    <col min="4361" max="4361" width="24.1796875" style="9" customWidth="1"/>
-    <col min="4362" max="4362" width="13.54296875" style="9" customWidth="1"/>
-    <col min="4363" max="4363" width="23.453125" style="9" customWidth="1"/>
-    <col min="4364" max="4364" width="21.1796875" style="9" customWidth="1"/>
-    <col min="4365" max="4365" width="20.453125" style="9" customWidth="1"/>
-    <col min="4366" max="4608" width="9.1796875" style="9"/>
-    <col min="4609" max="4609" width="10.453125" style="9" customWidth="1"/>
-    <col min="4610" max="4610" width="19.81640625" style="9" customWidth="1"/>
+    <col min="4356" max="4356" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4357" max="4357" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4358" max="4358" width="10.28515625" style="9" customWidth="1"/>
+    <col min="4359" max="4359" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4360" max="4360" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4361" max="4361" width="24.140625" style="9" customWidth="1"/>
+    <col min="4362" max="4362" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4363" max="4363" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4364" max="4364" width="21.140625" style="9" customWidth="1"/>
+    <col min="4365" max="4365" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4366" max="4608" width="9.140625" style="9"/>
+    <col min="4609" max="4609" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4610" max="4610" width="19.85546875" style="9" customWidth="1"/>
     <col min="4611" max="4611" width="13" style="9" customWidth="1"/>
-    <col min="4612" max="4612" width="14.26953125" style="9" customWidth="1"/>
-    <col min="4613" max="4613" width="12.453125" style="9" customWidth="1"/>
-    <col min="4614" max="4614" width="10.26953125" style="9" customWidth="1"/>
-    <col min="4615" max="4615" width="17.54296875" style="9" customWidth="1"/>
-    <col min="4616" max="4616" width="27.453125" style="9" customWidth="1"/>
-    <col min="4617" max="4617" width="24.1796875" style="9" customWidth="1"/>
-    <col min="4618" max="4618" width="13.54296875" style="9" customWidth="1"/>
-    <col min="4619" max="4619" width="23.453125" style="9" customWidth="1"/>
-    <col min="4620" max="4620" width="21.1796875" style="9" customWidth="1"/>
-    <col min="4621" max="4621" width="20.453125" style="9" customWidth="1"/>
-    <col min="4622" max="4864" width="9.1796875" style="9"/>
-    <col min="4865" max="4865" width="10.453125" style="9" customWidth="1"/>
-    <col min="4866" max="4866" width="19.81640625" style="9" customWidth="1"/>
+    <col min="4612" max="4612" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4613" max="4613" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4614" max="4614" width="10.28515625" style="9" customWidth="1"/>
+    <col min="4615" max="4615" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4616" max="4616" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4617" max="4617" width="24.140625" style="9" customWidth="1"/>
+    <col min="4618" max="4618" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4619" max="4619" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4620" max="4620" width="21.140625" style="9" customWidth="1"/>
+    <col min="4621" max="4621" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4622" max="4864" width="9.140625" style="9"/>
+    <col min="4865" max="4865" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4866" max="4866" width="19.85546875" style="9" customWidth="1"/>
     <col min="4867" max="4867" width="13" style="9" customWidth="1"/>
-    <col min="4868" max="4868" width="14.26953125" style="9" customWidth="1"/>
-    <col min="4869" max="4869" width="12.453125" style="9" customWidth="1"/>
-    <col min="4870" max="4870" width="10.26953125" style="9" customWidth="1"/>
-    <col min="4871" max="4871" width="17.54296875" style="9" customWidth="1"/>
-    <col min="4872" max="4872" width="27.453125" style="9" customWidth="1"/>
-    <col min="4873" max="4873" width="24.1796875" style="9" customWidth="1"/>
-    <col min="4874" max="4874" width="13.54296875" style="9" customWidth="1"/>
-    <col min="4875" max="4875" width="23.453125" style="9" customWidth="1"/>
-    <col min="4876" max="4876" width="21.1796875" style="9" customWidth="1"/>
-    <col min="4877" max="4877" width="20.453125" style="9" customWidth="1"/>
-    <col min="4878" max="5120" width="9.1796875" style="9"/>
-    <col min="5121" max="5121" width="10.453125" style="9" customWidth="1"/>
-    <col min="5122" max="5122" width="19.81640625" style="9" customWidth="1"/>
+    <col min="4868" max="4868" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4869" max="4869" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4870" max="4870" width="10.28515625" style="9" customWidth="1"/>
+    <col min="4871" max="4871" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4872" max="4872" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4873" max="4873" width="24.140625" style="9" customWidth="1"/>
+    <col min="4874" max="4874" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4875" max="4875" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4876" max="4876" width="21.140625" style="9" customWidth="1"/>
+    <col min="4877" max="4877" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4878" max="5120" width="9.140625" style="9"/>
+    <col min="5121" max="5121" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5122" max="5122" width="19.85546875" style="9" customWidth="1"/>
     <col min="5123" max="5123" width="13" style="9" customWidth="1"/>
-    <col min="5124" max="5124" width="14.26953125" style="9" customWidth="1"/>
-    <col min="5125" max="5125" width="12.453125" style="9" customWidth="1"/>
-    <col min="5126" max="5126" width="10.26953125" style="9" customWidth="1"/>
-    <col min="5127" max="5127" width="17.54296875" style="9" customWidth="1"/>
-    <col min="5128" max="5128" width="27.453125" style="9" customWidth="1"/>
-    <col min="5129" max="5129" width="24.1796875" style="9" customWidth="1"/>
-    <col min="5130" max="5130" width="13.54296875" style="9" customWidth="1"/>
-    <col min="5131" max="5131" width="23.453125" style="9" customWidth="1"/>
-    <col min="5132" max="5132" width="21.1796875" style="9" customWidth="1"/>
-    <col min="5133" max="5133" width="20.453125" style="9" customWidth="1"/>
-    <col min="5134" max="5376" width="9.1796875" style="9"/>
-    <col min="5377" max="5377" width="10.453125" style="9" customWidth="1"/>
-    <col min="5378" max="5378" width="19.81640625" style="9" customWidth="1"/>
+    <col min="5124" max="5124" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5125" max="5125" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5126" max="5126" width="10.28515625" style="9" customWidth="1"/>
+    <col min="5127" max="5127" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5128" max="5128" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5129" max="5129" width="24.140625" style="9" customWidth="1"/>
+    <col min="5130" max="5130" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5131" max="5131" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5132" max="5132" width="21.140625" style="9" customWidth="1"/>
+    <col min="5133" max="5133" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5134" max="5376" width="9.140625" style="9"/>
+    <col min="5377" max="5377" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5378" max="5378" width="19.85546875" style="9" customWidth="1"/>
     <col min="5379" max="5379" width="13" style="9" customWidth="1"/>
-    <col min="5380" max="5380" width="14.26953125" style="9" customWidth="1"/>
-    <col min="5381" max="5381" width="12.453125" style="9" customWidth="1"/>
-    <col min="5382" max="5382" width="10.26953125" style="9" customWidth="1"/>
-    <col min="5383" max="5383" width="17.54296875" style="9" customWidth="1"/>
-    <col min="5384" max="5384" width="27.453125" style="9" customWidth="1"/>
-    <col min="5385" max="5385" width="24.1796875" style="9" customWidth="1"/>
-    <col min="5386" max="5386" width="13.54296875" style="9" customWidth="1"/>
-    <col min="5387" max="5387" width="23.453125" style="9" customWidth="1"/>
-    <col min="5388" max="5388" width="21.1796875" style="9" customWidth="1"/>
-    <col min="5389" max="5389" width="20.453125" style="9" customWidth="1"/>
-    <col min="5390" max="5632" width="9.1796875" style="9"/>
-    <col min="5633" max="5633" width="10.453125" style="9" customWidth="1"/>
-    <col min="5634" max="5634" width="19.81640625" style="9" customWidth="1"/>
+    <col min="5380" max="5380" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5381" max="5381" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5382" max="5382" width="10.28515625" style="9" customWidth="1"/>
+    <col min="5383" max="5383" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5384" max="5384" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5385" max="5385" width="24.140625" style="9" customWidth="1"/>
+    <col min="5386" max="5386" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5387" max="5387" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5388" max="5388" width="21.140625" style="9" customWidth="1"/>
+    <col min="5389" max="5389" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5390" max="5632" width="9.140625" style="9"/>
+    <col min="5633" max="5633" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5634" max="5634" width="19.85546875" style="9" customWidth="1"/>
     <col min="5635" max="5635" width="13" style="9" customWidth="1"/>
-    <col min="5636" max="5636" width="14.26953125" style="9" customWidth="1"/>
-    <col min="5637" max="5637" width="12.453125" style="9" customWidth="1"/>
-    <col min="5638" max="5638" width="10.26953125" style="9" customWidth="1"/>
-    <col min="5639" max="5639" width="17.54296875" style="9" customWidth="1"/>
-    <col min="5640" max="5640" width="27.453125" style="9" customWidth="1"/>
-    <col min="5641" max="5641" width="24.1796875" style="9" customWidth="1"/>
-    <col min="5642" max="5642" width="13.54296875" style="9" customWidth="1"/>
-    <col min="5643" max="5643" width="23.453125" style="9" customWidth="1"/>
-    <col min="5644" max="5644" width="21.1796875" style="9" customWidth="1"/>
-    <col min="5645" max="5645" width="20.453125" style="9" customWidth="1"/>
-    <col min="5646" max="5888" width="9.1796875" style="9"/>
-    <col min="5889" max="5889" width="10.453125" style="9" customWidth="1"/>
-    <col min="5890" max="5890" width="19.81640625" style="9" customWidth="1"/>
+    <col min="5636" max="5636" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5637" max="5637" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5638" max="5638" width="10.28515625" style="9" customWidth="1"/>
+    <col min="5639" max="5639" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5640" max="5640" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5641" max="5641" width="24.140625" style="9" customWidth="1"/>
+    <col min="5642" max="5642" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5643" max="5643" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5644" max="5644" width="21.140625" style="9" customWidth="1"/>
+    <col min="5645" max="5645" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5646" max="5888" width="9.140625" style="9"/>
+    <col min="5889" max="5889" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5890" max="5890" width="19.85546875" style="9" customWidth="1"/>
     <col min="5891" max="5891" width="13" style="9" customWidth="1"/>
-    <col min="5892" max="5892" width="14.26953125" style="9" customWidth="1"/>
-    <col min="5893" max="5893" width="12.453125" style="9" customWidth="1"/>
-    <col min="5894" max="5894" width="10.26953125" style="9" customWidth="1"/>
-    <col min="5895" max="5895" width="17.54296875" style="9" customWidth="1"/>
-    <col min="5896" max="5896" width="27.453125" style="9" customWidth="1"/>
-    <col min="5897" max="5897" width="24.1796875" style="9" customWidth="1"/>
-    <col min="5898" max="5898" width="13.54296875" style="9" customWidth="1"/>
-    <col min="5899" max="5899" width="23.453125" style="9" customWidth="1"/>
-    <col min="5900" max="5900" width="21.1796875" style="9" customWidth="1"/>
-    <col min="5901" max="5901" width="20.453125" style="9" customWidth="1"/>
-    <col min="5902" max="6144" width="9.1796875" style="9"/>
-    <col min="6145" max="6145" width="10.453125" style="9" customWidth="1"/>
-    <col min="6146" max="6146" width="19.81640625" style="9" customWidth="1"/>
+    <col min="5892" max="5892" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5893" max="5893" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5894" max="5894" width="10.28515625" style="9" customWidth="1"/>
+    <col min="5895" max="5895" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5896" max="5896" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5897" max="5897" width="24.140625" style="9" customWidth="1"/>
+    <col min="5898" max="5898" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5899" max="5899" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5900" max="5900" width="21.140625" style="9" customWidth="1"/>
+    <col min="5901" max="5901" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5902" max="6144" width="9.140625" style="9"/>
+    <col min="6145" max="6145" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6146" max="6146" width="19.85546875" style="9" customWidth="1"/>
     <col min="6147" max="6147" width="13" style="9" customWidth="1"/>
-    <col min="6148" max="6148" width="14.26953125" style="9" customWidth="1"/>
-    <col min="6149" max="6149" width="12.453125" style="9" customWidth="1"/>
-    <col min="6150" max="6150" width="10.26953125" style="9" customWidth="1"/>
-    <col min="6151" max="6151" width="17.54296875" style="9" customWidth="1"/>
-    <col min="6152" max="6152" width="27.453125" style="9" customWidth="1"/>
-    <col min="6153" max="6153" width="24.1796875" style="9" customWidth="1"/>
-    <col min="6154" max="6154" width="13.54296875" style="9" customWidth="1"/>
-    <col min="6155" max="6155" width="23.453125" style="9" customWidth="1"/>
-    <col min="6156" max="6156" width="21.1796875" style="9" customWidth="1"/>
-    <col min="6157" max="6157" width="20.453125" style="9" customWidth="1"/>
-    <col min="6158" max="6400" width="9.1796875" style="9"/>
-    <col min="6401" max="6401" width="10.453125" style="9" customWidth="1"/>
-    <col min="6402" max="6402" width="19.81640625" style="9" customWidth="1"/>
+    <col min="6148" max="6148" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6149" max="6149" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6150" max="6150" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6151" max="6151" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6152" max="6152" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6153" max="6153" width="24.140625" style="9" customWidth="1"/>
+    <col min="6154" max="6154" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6155" max="6155" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6156" max="6156" width="21.140625" style="9" customWidth="1"/>
+    <col min="6157" max="6157" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6158" max="6400" width="9.140625" style="9"/>
+    <col min="6401" max="6401" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6402" max="6402" width="19.85546875" style="9" customWidth="1"/>
     <col min="6403" max="6403" width="13" style="9" customWidth="1"/>
-    <col min="6404" max="6404" width="14.26953125" style="9" customWidth="1"/>
-    <col min="6405" max="6405" width="12.453125" style="9" customWidth="1"/>
-    <col min="6406" max="6406" width="10.26953125" style="9" customWidth="1"/>
-    <col min="6407" max="6407" width="17.54296875" style="9" customWidth="1"/>
-    <col min="6408" max="6408" width="27.453125" style="9" customWidth="1"/>
-    <col min="6409" max="6409" width="24.1796875" style="9" customWidth="1"/>
-    <col min="6410" max="6410" width="13.54296875" style="9" customWidth="1"/>
-    <col min="6411" max="6411" width="23.453125" style="9" customWidth="1"/>
-    <col min="6412" max="6412" width="21.1796875" style="9" customWidth="1"/>
-    <col min="6413" max="6413" width="20.453125" style="9" customWidth="1"/>
-    <col min="6414" max="6656" width="9.1796875" style="9"/>
-    <col min="6657" max="6657" width="10.453125" style="9" customWidth="1"/>
-    <col min="6658" max="6658" width="19.81640625" style="9" customWidth="1"/>
+    <col min="6404" max="6404" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6405" max="6405" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6406" max="6406" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6407" max="6407" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6408" max="6408" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6409" max="6409" width="24.140625" style="9" customWidth="1"/>
+    <col min="6410" max="6410" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6411" max="6411" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6412" max="6412" width="21.140625" style="9" customWidth="1"/>
+    <col min="6413" max="6413" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6414" max="6656" width="9.140625" style="9"/>
+    <col min="6657" max="6657" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6658" max="6658" width="19.85546875" style="9" customWidth="1"/>
     <col min="6659" max="6659" width="13" style="9" customWidth="1"/>
-    <col min="6660" max="6660" width="14.26953125" style="9" customWidth="1"/>
-    <col min="6661" max="6661" width="12.453125" style="9" customWidth="1"/>
-    <col min="6662" max="6662" width="10.26953125" style="9" customWidth="1"/>
-    <col min="6663" max="6663" width="17.54296875" style="9" customWidth="1"/>
-    <col min="6664" max="6664" width="27.453125" style="9" customWidth="1"/>
-    <col min="6665" max="6665" width="24.1796875" style="9" customWidth="1"/>
-    <col min="6666" max="6666" width="13.54296875" style="9" customWidth="1"/>
-    <col min="6667" max="6667" width="23.453125" style="9" customWidth="1"/>
-    <col min="6668" max="6668" width="21.1796875" style="9" customWidth="1"/>
-    <col min="6669" max="6669" width="20.453125" style="9" customWidth="1"/>
-    <col min="6670" max="6912" width="9.1796875" style="9"/>
-    <col min="6913" max="6913" width="10.453125" style="9" customWidth="1"/>
-    <col min="6914" max="6914" width="19.81640625" style="9" customWidth="1"/>
+    <col min="6660" max="6660" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6661" max="6661" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6662" max="6662" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6663" max="6663" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6664" max="6664" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6665" max="6665" width="24.140625" style="9" customWidth="1"/>
+    <col min="6666" max="6666" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6667" max="6667" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6668" max="6668" width="21.140625" style="9" customWidth="1"/>
+    <col min="6669" max="6669" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6670" max="6912" width="9.140625" style="9"/>
+    <col min="6913" max="6913" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6914" max="6914" width="19.85546875" style="9" customWidth="1"/>
     <col min="6915" max="6915" width="13" style="9" customWidth="1"/>
-    <col min="6916" max="6916" width="14.26953125" style="9" customWidth="1"/>
-    <col min="6917" max="6917" width="12.453125" style="9" customWidth="1"/>
-    <col min="6918" max="6918" width="10.26953125" style="9" customWidth="1"/>
-    <col min="6919" max="6919" width="17.54296875" style="9" customWidth="1"/>
-    <col min="6920" max="6920" width="27.453125" style="9" customWidth="1"/>
-    <col min="6921" max="6921" width="24.1796875" style="9" customWidth="1"/>
-    <col min="6922" max="6922" width="13.54296875" style="9" customWidth="1"/>
-    <col min="6923" max="6923" width="23.453125" style="9" customWidth="1"/>
-    <col min="6924" max="6924" width="21.1796875" style="9" customWidth="1"/>
-    <col min="6925" max="6925" width="20.453125" style="9" customWidth="1"/>
-    <col min="6926" max="7168" width="9.1796875" style="9"/>
-    <col min="7169" max="7169" width="10.453125" style="9" customWidth="1"/>
-    <col min="7170" max="7170" width="19.81640625" style="9" customWidth="1"/>
+    <col min="6916" max="6916" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6917" max="6917" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6918" max="6918" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6919" max="6919" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6920" max="6920" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6921" max="6921" width="24.140625" style="9" customWidth="1"/>
+    <col min="6922" max="6922" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6923" max="6923" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6924" max="6924" width="21.140625" style="9" customWidth="1"/>
+    <col min="6925" max="6925" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6926" max="7168" width="9.140625" style="9"/>
+    <col min="7169" max="7169" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7170" max="7170" width="19.85546875" style="9" customWidth="1"/>
     <col min="7171" max="7171" width="13" style="9" customWidth="1"/>
-    <col min="7172" max="7172" width="14.26953125" style="9" customWidth="1"/>
-    <col min="7173" max="7173" width="12.453125" style="9" customWidth="1"/>
-    <col min="7174" max="7174" width="10.26953125" style="9" customWidth="1"/>
-    <col min="7175" max="7175" width="17.54296875" style="9" customWidth="1"/>
-    <col min="7176" max="7176" width="27.453125" style="9" customWidth="1"/>
-    <col min="7177" max="7177" width="24.1796875" style="9" customWidth="1"/>
-    <col min="7178" max="7178" width="13.54296875" style="9" customWidth="1"/>
-    <col min="7179" max="7179" width="23.453125" style="9" customWidth="1"/>
-    <col min="7180" max="7180" width="21.1796875" style="9" customWidth="1"/>
-    <col min="7181" max="7181" width="20.453125" style="9" customWidth="1"/>
-    <col min="7182" max="7424" width="9.1796875" style="9"/>
-    <col min="7425" max="7425" width="10.453125" style="9" customWidth="1"/>
-    <col min="7426" max="7426" width="19.81640625" style="9" customWidth="1"/>
+    <col min="7172" max="7172" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7173" max="7173" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7174" max="7174" width="10.28515625" style="9" customWidth="1"/>
+    <col min="7175" max="7175" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7176" max="7176" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7177" max="7177" width="24.140625" style="9" customWidth="1"/>
+    <col min="7178" max="7178" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7179" max="7179" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7180" max="7180" width="21.140625" style="9" customWidth="1"/>
+    <col min="7181" max="7181" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7182" max="7424" width="9.140625" style="9"/>
+    <col min="7425" max="7425" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7426" max="7426" width="19.85546875" style="9" customWidth="1"/>
     <col min="7427" max="7427" width="13" style="9" customWidth="1"/>
-    <col min="7428" max="7428" width="14.26953125" style="9" customWidth="1"/>
-    <col min="7429" max="7429" width="12.453125" style="9" customWidth="1"/>
-    <col min="7430" max="7430" width="10.26953125" style="9" customWidth="1"/>
-    <col min="7431" max="7431" width="17.54296875" style="9" customWidth="1"/>
-    <col min="7432" max="7432" width="27.453125" style="9" customWidth="1"/>
-    <col min="7433" max="7433" width="24.1796875" style="9" customWidth="1"/>
-    <col min="7434" max="7434" width="13.54296875" style="9" customWidth="1"/>
-    <col min="7435" max="7435" width="23.453125" style="9" customWidth="1"/>
-    <col min="7436" max="7436" width="21.1796875" style="9" customWidth="1"/>
-    <col min="7437" max="7437" width="20.453125" style="9" customWidth="1"/>
-    <col min="7438" max="7680" width="9.1796875" style="9"/>
-    <col min="7681" max="7681" width="10.453125" style="9" customWidth="1"/>
-    <col min="7682" max="7682" width="19.81640625" style="9" customWidth="1"/>
+    <col min="7428" max="7428" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7429" max="7429" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7430" max="7430" width="10.28515625" style="9" customWidth="1"/>
+    <col min="7431" max="7431" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7432" max="7432" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7433" max="7433" width="24.140625" style="9" customWidth="1"/>
+    <col min="7434" max="7434" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7435" max="7435" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7436" max="7436" width="21.140625" style="9" customWidth="1"/>
+    <col min="7437" max="7437" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7438" max="7680" width="9.140625" style="9"/>
+    <col min="7681" max="7681" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7682" max="7682" width="19.85546875" style="9" customWidth="1"/>
     <col min="7683" max="7683" width="13" style="9" customWidth="1"/>
-    <col min="7684" max="7684" width="14.26953125" style="9" customWidth="1"/>
-    <col min="7685" max="7685" width="12.453125" style="9" customWidth="1"/>
-    <col min="7686" max="7686" width="10.26953125" style="9" customWidth="1"/>
-    <col min="7687" max="7687" width="17.54296875" style="9" customWidth="1"/>
-    <col min="7688" max="7688" width="27.453125" style="9" customWidth="1"/>
-    <col min="7689" max="7689" width="24.1796875" style="9" customWidth="1"/>
-    <col min="7690" max="7690" width="13.54296875" style="9" customWidth="1"/>
-    <col min="7691" max="7691" width="23.453125" style="9" customWidth="1"/>
-    <col min="7692" max="7692" width="21.1796875" style="9" customWidth="1"/>
-    <col min="7693" max="7693" width="20.453125" style="9" customWidth="1"/>
-    <col min="7694" max="7936" width="9.1796875" style="9"/>
-    <col min="7937" max="7937" width="10.453125" style="9" customWidth="1"/>
-    <col min="7938" max="7938" width="19.81640625" style="9" customWidth="1"/>
+    <col min="7684" max="7684" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7685" max="7685" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7686" max="7686" width="10.28515625" style="9" customWidth="1"/>
+    <col min="7687" max="7687" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7688" max="7688" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7689" max="7689" width="24.140625" style="9" customWidth="1"/>
+    <col min="7690" max="7690" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7691" max="7691" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7692" max="7692" width="21.140625" style="9" customWidth="1"/>
+    <col min="7693" max="7693" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7694" max="7936" width="9.140625" style="9"/>
+    <col min="7937" max="7937" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7938" max="7938" width="19.85546875" style="9" customWidth="1"/>
     <col min="7939" max="7939" width="13" style="9" customWidth="1"/>
-    <col min="7940" max="7940" width="14.26953125" style="9" customWidth="1"/>
-    <col min="7941" max="7941" width="12.453125" style="9" customWidth="1"/>
-    <col min="7942" max="7942" width="10.26953125" style="9" customWidth="1"/>
-    <col min="7943" max="7943" width="17.54296875" style="9" customWidth="1"/>
-    <col min="7944" max="7944" width="27.453125" style="9" customWidth="1"/>
-    <col min="7945" max="7945" width="24.1796875" style="9" customWidth="1"/>
-    <col min="7946" max="7946" width="13.54296875" style="9" customWidth="1"/>
-    <col min="7947" max="7947" width="23.453125" style="9" customWidth="1"/>
-    <col min="7948" max="7948" width="21.1796875" style="9" customWidth="1"/>
-    <col min="7949" max="7949" width="20.453125" style="9" customWidth="1"/>
-    <col min="7950" max="8192" width="9.1796875" style="9"/>
-    <col min="8193" max="8193" width="10.453125" style="9" customWidth="1"/>
-    <col min="8194" max="8194" width="19.81640625" style="9" customWidth="1"/>
+    <col min="7940" max="7940" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7941" max="7941" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7942" max="7942" width="10.28515625" style="9" customWidth="1"/>
+    <col min="7943" max="7943" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7944" max="7944" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7945" max="7945" width="24.140625" style="9" customWidth="1"/>
+    <col min="7946" max="7946" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7947" max="7947" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7948" max="7948" width="21.140625" style="9" customWidth="1"/>
+    <col min="7949" max="7949" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7950" max="8192" width="9.140625" style="9"/>
+    <col min="8193" max="8193" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8194" max="8194" width="19.85546875" style="9" customWidth="1"/>
     <col min="8195" max="8195" width="13" style="9" customWidth="1"/>
-    <col min="8196" max="8196" width="14.26953125" style="9" customWidth="1"/>
-    <col min="8197" max="8197" width="12.453125" style="9" customWidth="1"/>
-    <col min="8198" max="8198" width="10.26953125" style="9" customWidth="1"/>
-    <col min="8199" max="8199" width="17.54296875" style="9" customWidth="1"/>
-    <col min="8200" max="8200" width="27.453125" style="9" customWidth="1"/>
-    <col min="8201" max="8201" width="24.1796875" style="9" customWidth="1"/>
-    <col min="8202" max="8202" width="13.54296875" style="9" customWidth="1"/>
-    <col min="8203" max="8203" width="23.453125" style="9" customWidth="1"/>
-    <col min="8204" max="8204" width="21.1796875" style="9" customWidth="1"/>
-    <col min="8205" max="8205" width="20.453125" style="9" customWidth="1"/>
-    <col min="8206" max="8448" width="9.1796875" style="9"/>
-    <col min="8449" max="8449" width="10.453125" style="9" customWidth="1"/>
-    <col min="8450" max="8450" width="19.81640625" style="9" customWidth="1"/>
+    <col min="8196" max="8196" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8197" max="8197" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8198" max="8198" width="10.28515625" style="9" customWidth="1"/>
+    <col min="8199" max="8199" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8200" max="8200" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8201" max="8201" width="24.140625" style="9" customWidth="1"/>
+    <col min="8202" max="8202" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8203" max="8203" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8204" max="8204" width="21.140625" style="9" customWidth="1"/>
+    <col min="8205" max="8205" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8206" max="8448" width="9.140625" style="9"/>
+    <col min="8449" max="8449" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8450" max="8450" width="19.85546875" style="9" customWidth="1"/>
     <col min="8451" max="8451" width="13" style="9" customWidth="1"/>
-    <col min="8452" max="8452" width="14.26953125" style="9" customWidth="1"/>
-    <col min="8453" max="8453" width="12.453125" style="9" customWidth="1"/>
-    <col min="8454" max="8454" width="10.26953125" style="9" customWidth="1"/>
-    <col min="8455" max="8455" width="17.54296875" style="9" customWidth="1"/>
-    <col min="8456" max="8456" width="27.453125" style="9" customWidth="1"/>
-    <col min="8457" max="8457" width="24.1796875" style="9" customWidth="1"/>
-    <col min="8458" max="8458" width="13.54296875" style="9" customWidth="1"/>
-    <col min="8459" max="8459" width="23.453125" style="9" customWidth="1"/>
-    <col min="8460" max="8460" width="21.1796875" style="9" customWidth="1"/>
-    <col min="8461" max="8461" width="20.453125" style="9" customWidth="1"/>
-    <col min="8462" max="8704" width="9.1796875" style="9"/>
-    <col min="8705" max="8705" width="10.453125" style="9" customWidth="1"/>
-    <col min="8706" max="8706" width="19.81640625" style="9" customWidth="1"/>
+    <col min="8452" max="8452" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8453" max="8453" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8454" max="8454" width="10.28515625" style="9" customWidth="1"/>
+    <col min="8455" max="8455" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8456" max="8456" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8457" max="8457" width="24.140625" style="9" customWidth="1"/>
+    <col min="8458" max="8458" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8459" max="8459" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8460" max="8460" width="21.140625" style="9" customWidth="1"/>
+    <col min="8461" max="8461" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8462" max="8704" width="9.140625" style="9"/>
+    <col min="8705" max="8705" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8706" max="8706" width="19.85546875" style="9" customWidth="1"/>
     <col min="8707" max="8707" width="13" style="9" customWidth="1"/>
-    <col min="8708" max="8708" width="14.26953125" style="9" customWidth="1"/>
-    <col min="8709" max="8709" width="12.453125" style="9" customWidth="1"/>
-    <col min="8710" max="8710" width="10.26953125" style="9" customWidth="1"/>
-    <col min="8711" max="8711" width="17.54296875" style="9" customWidth="1"/>
-    <col min="8712" max="8712" width="27.453125" style="9" customWidth="1"/>
-    <col min="8713" max="8713" width="24.1796875" style="9" customWidth="1"/>
-    <col min="8714" max="8714" width="13.54296875" style="9" customWidth="1"/>
-    <col min="8715" max="8715" width="23.453125" style="9" customWidth="1"/>
-    <col min="8716" max="8716" width="21.1796875" style="9" customWidth="1"/>
-    <col min="8717" max="8717" width="20.453125" style="9" customWidth="1"/>
-    <col min="8718" max="8960" width="9.1796875" style="9"/>
-    <col min="8961" max="8961" width="10.453125" style="9" customWidth="1"/>
-    <col min="8962" max="8962" width="19.81640625" style="9" customWidth="1"/>
+    <col min="8708" max="8708" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8709" max="8709" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8710" max="8710" width="10.28515625" style="9" customWidth="1"/>
+    <col min="8711" max="8711" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8712" max="8712" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8713" max="8713" width="24.140625" style="9" customWidth="1"/>
+    <col min="8714" max="8714" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8715" max="8715" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8716" max="8716" width="21.140625" style="9" customWidth="1"/>
+    <col min="8717" max="8717" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8718" max="8960" width="9.140625" style="9"/>
+    <col min="8961" max="8961" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8962" max="8962" width="19.85546875" style="9" customWidth="1"/>
     <col min="8963" max="8963" width="13" style="9" customWidth="1"/>
-    <col min="8964" max="8964" width="14.26953125" style="9" customWidth="1"/>
-    <col min="8965" max="8965" width="12.453125" style="9" customWidth="1"/>
-    <col min="8966" max="8966" width="10.26953125" style="9" customWidth="1"/>
-    <col min="8967" max="8967" width="17.54296875" style="9" customWidth="1"/>
-    <col min="8968" max="8968" width="27.453125" style="9" customWidth="1"/>
-    <col min="8969" max="8969" width="24.1796875" style="9" customWidth="1"/>
-    <col min="8970" max="8970" width="13.54296875" style="9" customWidth="1"/>
-    <col min="8971" max="8971" width="23.453125" style="9" customWidth="1"/>
-    <col min="8972" max="8972" width="21.1796875" style="9" customWidth="1"/>
-    <col min="8973" max="8973" width="20.453125" style="9" customWidth="1"/>
-    <col min="8974" max="9216" width="9.1796875" style="9"/>
-    <col min="9217" max="9217" width="10.453125" style="9" customWidth="1"/>
-    <col min="9218" max="9218" width="19.81640625" style="9" customWidth="1"/>
+    <col min="8964" max="8964" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8965" max="8965" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8966" max="8966" width="10.28515625" style="9" customWidth="1"/>
+    <col min="8967" max="8967" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8968" max="8968" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8969" max="8969" width="24.140625" style="9" customWidth="1"/>
+    <col min="8970" max="8970" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8971" max="8971" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8972" max="8972" width="21.140625" style="9" customWidth="1"/>
+    <col min="8973" max="8973" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8974" max="9216" width="9.140625" style="9"/>
+    <col min="9217" max="9217" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9218" max="9218" width="19.85546875" style="9" customWidth="1"/>
     <col min="9219" max="9219" width="13" style="9" customWidth="1"/>
-    <col min="9220" max="9220" width="14.26953125" style="9" customWidth="1"/>
-    <col min="9221" max="9221" width="12.453125" style="9" customWidth="1"/>
-    <col min="9222" max="9222" width="10.26953125" style="9" customWidth="1"/>
-    <col min="9223" max="9223" width="17.54296875" style="9" customWidth="1"/>
-    <col min="9224" max="9224" width="27.453125" style="9" customWidth="1"/>
-    <col min="9225" max="9225" width="24.1796875" style="9" customWidth="1"/>
-    <col min="9226" max="9226" width="13.54296875" style="9" customWidth="1"/>
-    <col min="9227" max="9227" width="23.453125" style="9" customWidth="1"/>
-    <col min="9228" max="9228" width="21.1796875" style="9" customWidth="1"/>
-    <col min="9229" max="9229" width="20.453125" style="9" customWidth="1"/>
-    <col min="9230" max="9472" width="9.1796875" style="9"/>
-    <col min="9473" max="9473" width="10.453125" style="9" customWidth="1"/>
-    <col min="9474" max="9474" width="19.81640625" style="9" customWidth="1"/>
+    <col min="9220" max="9220" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9221" max="9221" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9222" max="9222" width="10.28515625" style="9" customWidth="1"/>
+    <col min="9223" max="9223" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9224" max="9224" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9225" max="9225" width="24.140625" style="9" customWidth="1"/>
+    <col min="9226" max="9226" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9227" max="9227" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9228" max="9228" width="21.140625" style="9" customWidth="1"/>
+    <col min="9229" max="9229" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9230" max="9472" width="9.140625" style="9"/>
+    <col min="9473" max="9473" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9474" max="9474" width="19.85546875" style="9" customWidth="1"/>
     <col min="9475" max="9475" width="13" style="9" customWidth="1"/>
-    <col min="9476" max="9476" width="14.26953125" style="9" customWidth="1"/>
-    <col min="9477" max="9477" width="12.453125" style="9" customWidth="1"/>
-    <col min="9478" max="9478" width="10.26953125" style="9" customWidth="1"/>
-    <col min="9479" max="9479" width="17.54296875" style="9" customWidth="1"/>
-    <col min="9480" max="9480" width="27.453125" style="9" customWidth="1"/>
-    <col min="9481" max="9481" width="24.1796875" style="9" customWidth="1"/>
-    <col min="9482" max="9482" width="13.54296875" style="9" customWidth="1"/>
-    <col min="9483" max="9483" width="23.453125" style="9" customWidth="1"/>
-    <col min="9484" max="9484" width="21.1796875" style="9" customWidth="1"/>
-    <col min="9485" max="9485" width="20.453125" style="9" customWidth="1"/>
-    <col min="9486" max="9728" width="9.1796875" style="9"/>
-    <col min="9729" max="9729" width="10.453125" style="9" customWidth="1"/>
-    <col min="9730" max="9730" width="19.81640625" style="9" customWidth="1"/>
+    <col min="9476" max="9476" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9477" max="9477" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9478" max="9478" width="10.28515625" style="9" customWidth="1"/>
+    <col min="9479" max="9479" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9480" max="9480" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9481" max="9481" width="24.140625" style="9" customWidth="1"/>
+    <col min="9482" max="9482" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9483" max="9483" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9484" max="9484" width="21.140625" style="9" customWidth="1"/>
+    <col min="9485" max="9485" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9486" max="9728" width="9.140625" style="9"/>
+    <col min="9729" max="9729" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9730" max="9730" width="19.85546875" style="9" customWidth="1"/>
     <col min="9731" max="9731" width="13" style="9" customWidth="1"/>
-    <col min="9732" max="9732" width="14.26953125" style="9" customWidth="1"/>
-    <col min="9733" max="9733" width="12.453125" style="9" customWidth="1"/>
-    <col min="9734" max="9734" width="10.26953125" style="9" customWidth="1"/>
-    <col min="9735" max="9735" width="17.54296875" style="9" customWidth="1"/>
-    <col min="9736" max="9736" width="27.453125" style="9" customWidth="1"/>
-    <col min="9737" max="9737" width="24.1796875" style="9" customWidth="1"/>
-    <col min="9738" max="9738" width="13.54296875" style="9" customWidth="1"/>
-    <col min="9739" max="9739" width="23.453125" style="9" customWidth="1"/>
-    <col min="9740" max="9740" width="21.1796875" style="9" customWidth="1"/>
-    <col min="9741" max="9741" width="20.453125" style="9" customWidth="1"/>
-    <col min="9742" max="9984" width="9.1796875" style="9"/>
-    <col min="9985" max="9985" width="10.453125" style="9" customWidth="1"/>
-    <col min="9986" max="9986" width="19.81640625" style="9" customWidth="1"/>
+    <col min="9732" max="9732" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9733" max="9733" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9734" max="9734" width="10.28515625" style="9" customWidth="1"/>
+    <col min="9735" max="9735" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9736" max="9736" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9737" max="9737" width="24.140625" style="9" customWidth="1"/>
+    <col min="9738" max="9738" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9739" max="9739" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9740" max="9740" width="21.140625" style="9" customWidth="1"/>
+    <col min="9741" max="9741" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9742" max="9984" width="9.140625" style="9"/>
+    <col min="9985" max="9985" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9986" max="9986" width="19.85546875" style="9" customWidth="1"/>
     <col min="9987" max="9987" width="13" style="9" customWidth="1"/>
-    <col min="9988" max="9988" width="14.26953125" style="9" customWidth="1"/>
-    <col min="9989" max="9989" width="12.453125" style="9" customWidth="1"/>
-    <col min="9990" max="9990" width="10.26953125" style="9" customWidth="1"/>
-    <col min="9991" max="9991" width="17.54296875" style="9" customWidth="1"/>
-    <col min="9992" max="9992" width="27.453125" style="9" customWidth="1"/>
-    <col min="9993" max="9993" width="24.1796875" style="9" customWidth="1"/>
-    <col min="9994" max="9994" width="13.54296875" style="9" customWidth="1"/>
-    <col min="9995" max="9995" width="23.453125" style="9" customWidth="1"/>
-    <col min="9996" max="9996" width="21.1796875" style="9" customWidth="1"/>
-    <col min="9997" max="9997" width="20.453125" style="9" customWidth="1"/>
-    <col min="9998" max="10240" width="9.1796875" style="9"/>
-    <col min="10241" max="10241" width="10.453125" style="9" customWidth="1"/>
-    <col min="10242" max="10242" width="19.81640625" style="9" customWidth="1"/>
+    <col min="9988" max="9988" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9989" max="9989" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9990" max="9990" width="10.28515625" style="9" customWidth="1"/>
+    <col min="9991" max="9991" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9992" max="9992" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9993" max="9993" width="24.140625" style="9" customWidth="1"/>
+    <col min="9994" max="9994" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9995" max="9995" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9996" max="9996" width="21.140625" style="9" customWidth="1"/>
+    <col min="9997" max="9997" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9998" max="10240" width="9.140625" style="9"/>
+    <col min="10241" max="10241" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10242" max="10242" width="19.85546875" style="9" customWidth="1"/>
     <col min="10243" max="10243" width="13" style="9" customWidth="1"/>
-    <col min="10244" max="10244" width="14.26953125" style="9" customWidth="1"/>
-    <col min="10245" max="10245" width="12.453125" style="9" customWidth="1"/>
-    <col min="10246" max="10246" width="10.26953125" style="9" customWidth="1"/>
-    <col min="10247" max="10247" width="17.54296875" style="9" customWidth="1"/>
-    <col min="10248" max="10248" width="27.453125" style="9" customWidth="1"/>
-    <col min="10249" max="10249" width="24.1796875" style="9" customWidth="1"/>
-    <col min="10250" max="10250" width="13.54296875" style="9" customWidth="1"/>
-    <col min="10251" max="10251" width="23.453125" style="9" customWidth="1"/>
-    <col min="10252" max="10252" width="21.1796875" style="9" customWidth="1"/>
-    <col min="10253" max="10253" width="20.453125" style="9" customWidth="1"/>
-    <col min="10254" max="10496" width="9.1796875" style="9"/>
-    <col min="10497" max="10497" width="10.453125" style="9" customWidth="1"/>
-    <col min="10498" max="10498" width="19.81640625" style="9" customWidth="1"/>
+    <col min="10244" max="10244" width="14.28515625" style="9" customWidth="1"/>
+    <col min="10245" max="10245" width="12.42578125" style="9" customWidth="1"/>
+    <col min="10246" max="10246" width="10.28515625" style="9" customWidth="1"/>
+    <col min="10247" max="10247" width="17.5703125" style="9" customWidth="1"/>
+    <col min="10248" max="10248" width="27.42578125" style="9" customWidth="1"/>
+    <col min="10249" max="10249" width="24.140625" style="9" customWidth="1"/>
+    <col min="10250" max="10250" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10251" max="10251" width="23.42578125" style="9" customWidth="1"/>
+    <col min="10252" max="10252" width="21.140625" style="9" customWidth="1"/>
+    <col min="10253" max="10253" width="20.42578125" style="9" customWidth="1"/>
+    <col min="10254" max="10496" width="9.140625" style="9"/>
+    <col min="10497" max="10497" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10498" max="10498" width="19.85546875" style="9" customWidth="1"/>
     <col min="10499" max="10499" width="13" style="9" customWidth="1"/>
-    <col min="10500" max="10500" width="14.26953125" style="9" customWidth="1"/>
-    <col min="10501" max="10501" width="12.453125" style="9" customWidth="1"/>
-    <col min="10502" max="10502" width="10.26953125" style="9" customWidth="1"/>
-    <col min="10503" max="10503" width="17.54296875" style="9" customWidth="1"/>
-    <col min="10504" max="10504" width="27.453125" style="9" customWidth="1"/>
-    <col min="10505" max="10505" width="24.1796875" style="9" customWidth="1"/>
-    <col min="10506" max="10506" width="13.54296875" style="9" customWidth="1"/>
-    <col min="10507" max="10507" width="23.453125" style="9" customWidth="1"/>
-    <col min="10508" max="10508" width="21.1796875" style="9" customWidth="1"/>
-    <col min="10509" max="10509" width="20.453125" style="9" customWidth="1"/>
-    <col min="10510" max="10752" width="9.1796875" style="9"/>
-    <col min="10753" max="10753" width="10.453125" style="9" customWidth="1"/>
-    <col min="10754" max="10754" width="19.81640625" style="9" customWidth="1"/>
+    <col min="10500" max="10500" width="14.28515625" style="9" customWidth="1"/>
+    <col min="10501" max="10501" width="12.42578125" style="9" customWidth="1"/>
+    <col min="10502" max="10502" width="10.28515625" style="9" customWidth="1"/>
+    <col min="10503" max="10503" width="17.5703125" style="9" customWidth="1"/>
+    <col min="10504" max="10504" width="27.42578125" style="9" customWidth="1"/>
+    <col min="10505" max="10505" width="24.140625" style="9" customWidth="1"/>
+    <col min="10506" max="10506" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10507" max="10507" width="23.42578125" style="9" customWidth="1"/>
+    <col min="10508" max="10508" width="21.140625" style="9" customWidth="1"/>
+    <col min="10509" max="10509" width="20.42578125" style="9" customWidth="1"/>
+    <col min="10510" max="10752" width="9.140625" style="9"/>
+    <col min="10753" max="10753" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10754" max="10754" width="19.85546875" style="9" customWidth="1"/>
     <col min="10755" max="10755" width="13" style="9" customWidth="1"/>
-    <col min="10756" max="10756" width="14.26953125" style="9" customWidth="1"/>
-    <col min="10757" max="10757" width="12.453125" style="9" customWidth="1"/>
-    <col min="10758" max="10758" width="10.26953125" style="9" customWidth="1"/>
-    <col min="10759" max="10759" width="17.54296875" style="9" customWidth="1"/>
-    <col min="10760" max="10760" width="27.453125" style="9" customWidth="1"/>
-    <col min="10761" max="10761" width="24.1796875" style="9" customWidth="1"/>
-    <col min="10762" max="10762" width="13.54296875" style="9" customWidth="1"/>
-    <col min="10763" max="10763" width="23.453125" style="9" customWidth="1"/>
-    <col min="10764" max="10764" width="21.1796875" style="9" customWidth="1"/>
-    <col min="10765" max="10765" width="20.453125" style="9" customWidth="1"/>
-    <col min="10766" max="11008" width="9.1796875" style="9"/>
-    <col min="11009" max="11009" width="10.453125" style="9" customWidth="1"/>
-    <col min="11010" max="11010" width="19.81640625" style="9" customWidth="1"/>
+    <col min="10756" max="10756" width="14.28515625" style="9" customWidth="1"/>
+    <col min="10757" max="10757" width="12.42578125" style="9" customWidth="1"/>
+    <col min="10758" max="10758" width="10.28515625" style="9" customWidth="1"/>
+    <col min="10759" max="10759" width="17.5703125" style="9" customWidth="1"/>
+    <col min="10760" max="10760" width="27.42578125" style="9" customWidth="1"/>
+    <col min="10761" max="10761" width="24.140625" style="9" customWidth="1"/>
+    <col min="10762" max="10762" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10763" max="10763" width="23.42578125" style="9" customWidth="1"/>
+    <col min="10764" max="10764" width="21.140625" style="9" customWidth="1"/>
+    <col min="10765" max="10765" width="20.42578125" style="9" customWidth="1"/>
+    <col min="10766" max="11008" width="9.140625" style="9"/>
+    <col min="11009" max="11009" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11010" max="11010" width="19.85546875" style="9" customWidth="1"/>
     <col min="11011" max="11011" width="13" style="9" customWidth="1"/>
-    <col min="11012" max="11012" width="14.26953125" style="9" customWidth="1"/>
-    <col min="11013" max="11013" width="12.453125" style="9" customWidth="1"/>
-    <col min="11014" max="11014" width="10.26953125" style="9" customWidth="1"/>
-    <col min="11015" max="11015" width="17.54296875" style="9" customWidth="1"/>
-    <col min="11016" max="11016" width="27.453125" style="9" customWidth="1"/>
-    <col min="11017" max="11017" width="24.1796875" style="9" customWidth="1"/>
-    <col min="11018" max="11018" width="13.54296875" style="9" customWidth="1"/>
-    <col min="11019" max="11019" width="23.453125" style="9" customWidth="1"/>
-    <col min="11020" max="11020" width="21.1796875" style="9" customWidth="1"/>
-    <col min="11021" max="11021" width="20.453125" style="9" customWidth="1"/>
-    <col min="11022" max="11264" width="9.1796875" style="9"/>
-    <col min="11265" max="11265" width="10.453125" style="9" customWidth="1"/>
-    <col min="11266" max="11266" width="19.81640625" style="9" customWidth="1"/>
+    <col min="11012" max="11012" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11013" max="11013" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11014" max="11014" width="10.28515625" style="9" customWidth="1"/>
+    <col min="11015" max="11015" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11016" max="11016" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11017" max="11017" width="24.140625" style="9" customWidth="1"/>
+    <col min="11018" max="11018" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11019" max="11019" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11020" max="11020" width="21.140625" style="9" customWidth="1"/>
+    <col min="11021" max="11021" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11022" max="11264" width="9.140625" style="9"/>
+    <col min="11265" max="11265" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11266" max="11266" width="19.85546875" style="9" customWidth="1"/>
     <col min="11267" max="11267" width="13" style="9" customWidth="1"/>
-    <col min="11268" max="11268" width="14.26953125" style="9" customWidth="1"/>
-    <col min="11269" max="11269" width="12.453125" style="9" customWidth="1"/>
-    <col min="11270" max="11270" width="10.26953125" style="9" customWidth="1"/>
-    <col min="11271" max="11271" width="17.54296875" style="9" customWidth="1"/>
-    <col min="11272" max="11272" width="27.453125" style="9" customWidth="1"/>
-    <col min="11273" max="11273" width="24.1796875" style="9" customWidth="1"/>
-    <col min="11274" max="11274" width="13.54296875" style="9" customWidth="1"/>
-    <col min="11275" max="11275" width="23.453125" style="9" customWidth="1"/>
-    <col min="11276" max="11276" width="21.1796875" style="9" customWidth="1"/>
-    <col min="11277" max="11277" width="20.453125" style="9" customWidth="1"/>
-    <col min="11278" max="11520" width="9.1796875" style="9"/>
-    <col min="11521" max="11521" width="10.453125" style="9" customWidth="1"/>
-    <col min="11522" max="11522" width="19.81640625" style="9" customWidth="1"/>
+    <col min="11268" max="11268" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11269" max="11269" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11270" max="11270" width="10.28515625" style="9" customWidth="1"/>
+    <col min="11271" max="11271" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11272" max="11272" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11273" max="11273" width="24.140625" style="9" customWidth="1"/>
+    <col min="11274" max="11274" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11275" max="11275" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11276" max="11276" width="21.140625" style="9" customWidth="1"/>
+    <col min="11277" max="11277" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11278" max="11520" width="9.140625" style="9"/>
+    <col min="11521" max="11521" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11522" max="11522" width="19.85546875" style="9" customWidth="1"/>
     <col min="11523" max="11523" width="13" style="9" customWidth="1"/>
-    <col min="11524" max="11524" width="14.26953125" style="9" customWidth="1"/>
-    <col min="11525" max="11525" width="12.453125" style="9" customWidth="1"/>
-    <col min="11526" max="11526" width="10.26953125" style="9" customWidth="1"/>
-    <col min="11527" max="11527" width="17.54296875" style="9" customWidth="1"/>
-    <col min="11528" max="11528" width="27.453125" style="9" customWidth="1"/>
-    <col min="11529" max="11529" width="24.1796875" style="9" customWidth="1"/>
-    <col min="11530" max="11530" width="13.54296875" style="9" customWidth="1"/>
-    <col min="11531" max="11531" width="23.453125" style="9" customWidth="1"/>
-    <col min="11532" max="11532" width="21.1796875" style="9" customWidth="1"/>
-    <col min="11533" max="11533" width="20.453125" style="9" customWidth="1"/>
-    <col min="11534" max="11776" width="9.1796875" style="9"/>
-    <col min="11777" max="11777" width="10.453125" style="9" customWidth="1"/>
-    <col min="11778" max="11778" width="19.81640625" style="9" customWidth="1"/>
+    <col min="11524" max="11524" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11525" max="11525" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11526" max="11526" width="10.28515625" style="9" customWidth="1"/>
+    <col min="11527" max="11527" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11528" max="11528" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11529" max="11529" width="24.140625" style="9" customWidth="1"/>
+    <col min="11530" max="11530" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11531" max="11531" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11532" max="11532" width="21.140625" style="9" customWidth="1"/>
+    <col min="11533" max="11533" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11534" max="11776" width="9.140625" style="9"/>
+    <col min="11777" max="11777" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11778" max="11778" width="19.85546875" style="9" customWidth="1"/>
     <col min="11779" max="11779" width="13" style="9" customWidth="1"/>
-    <col min="11780" max="11780" width="14.26953125" style="9" customWidth="1"/>
-    <col min="11781" max="11781" width="12.453125" style="9" customWidth="1"/>
-    <col min="11782" max="11782" width="10.26953125" style="9" customWidth="1"/>
-    <col min="11783" max="11783" width="17.54296875" style="9" customWidth="1"/>
-    <col min="11784" max="11784" width="27.453125" style="9" customWidth="1"/>
-    <col min="11785" max="11785" width="24.1796875" style="9" customWidth="1"/>
-    <col min="11786" max="11786" width="13.54296875" style="9" customWidth="1"/>
-    <col min="11787" max="11787" width="23.453125" style="9" customWidth="1"/>
-    <col min="11788" max="11788" width="21.1796875" style="9" customWidth="1"/>
-    <col min="11789" max="11789" width="20.453125" style="9" customWidth="1"/>
-    <col min="11790" max="12032" width="9.1796875" style="9"/>
-    <col min="12033" max="12033" width="10.453125" style="9" customWidth="1"/>
-    <col min="12034" max="12034" width="19.81640625" style="9" customWidth="1"/>
+    <col min="11780" max="11780" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11781" max="11781" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11782" max="11782" width="10.28515625" style="9" customWidth="1"/>
+    <col min="11783" max="11783" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11784" max="11784" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11785" max="11785" width="24.140625" style="9" customWidth="1"/>
+    <col min="11786" max="11786" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11787" max="11787" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11788" max="11788" width="21.140625" style="9" customWidth="1"/>
+    <col min="11789" max="11789" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11790" max="12032" width="9.140625" style="9"/>
+    <col min="12033" max="12033" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12034" max="12034" width="19.85546875" style="9" customWidth="1"/>
     <col min="12035" max="12035" width="13" style="9" customWidth="1"/>
-    <col min="12036" max="12036" width="14.26953125" style="9" customWidth="1"/>
-    <col min="12037" max="12037" width="12.453125" style="9" customWidth="1"/>
-    <col min="12038" max="12038" width="10.26953125" style="9" customWidth="1"/>
-    <col min="12039" max="12039" width="17.54296875" style="9" customWidth="1"/>
-    <col min="12040" max="12040" width="27.453125" style="9" customWidth="1"/>
-    <col min="12041" max="12041" width="24.1796875" style="9" customWidth="1"/>
-    <col min="12042" max="12042" width="13.54296875" style="9" customWidth="1"/>
-    <col min="12043" max="12043" width="23.453125" style="9" customWidth="1"/>
-    <col min="12044" max="12044" width="21.1796875" style="9" customWidth="1"/>
-    <col min="12045" max="12045" width="20.453125" style="9" customWidth="1"/>
-    <col min="12046" max="12288" width="9.1796875" style="9"/>
-    <col min="12289" max="12289" width="10.453125" style="9" customWidth="1"/>
-    <col min="12290" max="12290" width="19.81640625" style="9" customWidth="1"/>
+    <col min="12036" max="12036" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12037" max="12037" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12038" max="12038" width="10.28515625" style="9" customWidth="1"/>
+    <col min="12039" max="12039" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12040" max="12040" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12041" max="12041" width="24.140625" style="9" customWidth="1"/>
+    <col min="12042" max="12042" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12043" max="12043" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12044" max="12044" width="21.140625" style="9" customWidth="1"/>
+    <col min="12045" max="12045" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12046" max="12288" width="9.140625" style="9"/>
+    <col min="12289" max="12289" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12290" max="12290" width="19.85546875" style="9" customWidth="1"/>
     <col min="12291" max="12291" width="13" style="9" customWidth="1"/>
-    <col min="12292" max="12292" width="14.26953125" style="9" customWidth="1"/>
-    <col min="12293" max="12293" width="12.453125" style="9" customWidth="1"/>
-    <col min="12294" max="12294" width="10.26953125" style="9" customWidth="1"/>
-    <col min="12295" max="12295" width="17.54296875" style="9" customWidth="1"/>
-    <col min="12296" max="12296" width="27.453125" style="9" customWidth="1"/>
-    <col min="12297" max="12297" width="24.1796875" style="9" customWidth="1"/>
-    <col min="12298" max="12298" width="13.54296875" style="9" customWidth="1"/>
-    <col min="12299" max="12299" width="23.453125" style="9" customWidth="1"/>
-    <col min="12300" max="12300" width="21.1796875" style="9" customWidth="1"/>
-    <col min="12301" max="12301" width="20.453125" style="9" customWidth="1"/>
-    <col min="12302" max="12544" width="9.1796875" style="9"/>
-    <col min="12545" max="12545" width="10.453125" style="9" customWidth="1"/>
-    <col min="12546" max="12546" width="19.81640625" style="9" customWidth="1"/>
+    <col min="12292" max="12292" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12293" max="12293" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12294" max="12294" width="10.28515625" style="9" customWidth="1"/>
+    <col min="12295" max="12295" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12296" max="12296" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12297" max="12297" width="24.140625" style="9" customWidth="1"/>
+    <col min="12298" max="12298" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12299" max="12299" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12300" max="12300" width="21.140625" style="9" customWidth="1"/>
+    <col min="12301" max="12301" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12302" max="12544" width="9.140625" style="9"/>
+    <col min="12545" max="12545" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12546" max="12546" width="19.85546875" style="9" customWidth="1"/>
     <col min="12547" max="12547" width="13" style="9" customWidth="1"/>
-    <col min="12548" max="12548" width="14.26953125" style="9" customWidth="1"/>
-    <col min="12549" max="12549" width="12.453125" style="9" customWidth="1"/>
-    <col min="12550" max="12550" width="10.26953125" style="9" customWidth="1"/>
-    <col min="12551" max="12551" width="17.54296875" style="9" customWidth="1"/>
-    <col min="12552" max="12552" width="27.453125" style="9" customWidth="1"/>
-    <col min="12553" max="12553" width="24.1796875" style="9" customWidth="1"/>
-    <col min="12554" max="12554" width="13.54296875" style="9" customWidth="1"/>
-    <col min="12555" max="12555" width="23.453125" style="9" customWidth="1"/>
-    <col min="12556" max="12556" width="21.1796875" style="9" customWidth="1"/>
-    <col min="12557" max="12557" width="20.453125" style="9" customWidth="1"/>
-    <col min="12558" max="12800" width="9.1796875" style="9"/>
-    <col min="12801" max="12801" width="10.453125" style="9" customWidth="1"/>
-    <col min="12802" max="12802" width="19.81640625" style="9" customWidth="1"/>
+    <col min="12548" max="12548" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12549" max="12549" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12550" max="12550" width="10.28515625" style="9" customWidth="1"/>
+    <col min="12551" max="12551" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12552" max="12552" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12553" max="12553" width="24.140625" style="9" customWidth="1"/>
+    <col min="12554" max="12554" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12555" max="12555" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12556" max="12556" width="21.140625" style="9" customWidth="1"/>
+    <col min="12557" max="12557" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12558" max="12800" width="9.140625" style="9"/>
+    <col min="12801" max="12801" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12802" max="12802" width="19.85546875" style="9" customWidth="1"/>
     <col min="12803" max="12803" width="13" style="9" customWidth="1"/>
-    <col min="12804" max="12804" width="14.26953125" style="9" customWidth="1"/>
-    <col min="12805" max="12805" width="12.453125" style="9" customWidth="1"/>
-    <col min="12806" max="12806" width="10.26953125" style="9" customWidth="1"/>
-    <col min="12807" max="12807" width="17.54296875" style="9" customWidth="1"/>
-    <col min="12808" max="12808" width="27.453125" style="9" customWidth="1"/>
-    <col min="12809" max="12809" width="24.1796875" style="9" customWidth="1"/>
-    <col min="12810" max="12810" width="13.54296875" style="9" customWidth="1"/>
-    <col min="12811" max="12811" width="23.453125" style="9" customWidth="1"/>
-    <col min="12812" max="12812" width="21.1796875" style="9" customWidth="1"/>
-    <col min="12813" max="12813" width="20.453125" style="9" customWidth="1"/>
-    <col min="12814" max="13056" width="9.1796875" style="9"/>
-    <col min="13057" max="13057" width="10.453125" style="9" customWidth="1"/>
-    <col min="13058" max="13058" width="19.81640625" style="9" customWidth="1"/>
+    <col min="12804" max="12804" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12805" max="12805" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12806" max="12806" width="10.28515625" style="9" customWidth="1"/>
+    <col min="12807" max="12807" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12808" max="12808" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12809" max="12809" width="24.140625" style="9" customWidth="1"/>
+    <col min="12810" max="12810" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12811" max="12811" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12812" max="12812" width="21.140625" style="9" customWidth="1"/>
+    <col min="12813" max="12813" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12814" max="13056" width="9.140625" style="9"/>
+    <col min="13057" max="13057" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13058" max="13058" width="19.85546875" style="9" customWidth="1"/>
     <col min="13059" max="13059" width="13" style="9" customWidth="1"/>
-    <col min="13060" max="13060" width="14.26953125" style="9" customWidth="1"/>
-    <col min="13061" max="13061" width="12.453125" style="9" customWidth="1"/>
-    <col min="13062" max="13062" width="10.26953125" style="9" customWidth="1"/>
-    <col min="13063" max="13063" width="17.54296875" style="9" customWidth="1"/>
-    <col min="13064" max="13064" width="27.453125" style="9" customWidth="1"/>
-    <col min="13065" max="13065" width="24.1796875" style="9" customWidth="1"/>
-    <col min="13066" max="13066" width="13.54296875" style="9" customWidth="1"/>
-    <col min="13067" max="13067" width="23.453125" style="9" customWidth="1"/>
-    <col min="13068" max="13068" width="21.1796875" style="9" customWidth="1"/>
-    <col min="13069" max="13069" width="20.453125" style="9" customWidth="1"/>
-    <col min="13070" max="13312" width="9.1796875" style="9"/>
-    <col min="13313" max="13313" width="10.453125" style="9" customWidth="1"/>
-    <col min="13314" max="13314" width="19.81640625" style="9" customWidth="1"/>
+    <col min="13060" max="13060" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13061" max="13061" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13062" max="13062" width="10.28515625" style="9" customWidth="1"/>
+    <col min="13063" max="13063" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13064" max="13064" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13065" max="13065" width="24.140625" style="9" customWidth="1"/>
+    <col min="13066" max="13066" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13067" max="13067" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13068" max="13068" width="21.140625" style="9" customWidth="1"/>
+    <col min="13069" max="13069" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13070" max="13312" width="9.140625" style="9"/>
+    <col min="13313" max="13313" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13314" max="13314" width="19.85546875" style="9" customWidth="1"/>
     <col min="13315" max="13315" width="13" style="9" customWidth="1"/>
-    <col min="13316" max="13316" width="14.26953125" style="9" customWidth="1"/>
-    <col min="13317" max="13317" width="12.453125" style="9" customWidth="1"/>
-    <col min="13318" max="13318" width="10.26953125" style="9" customWidth="1"/>
-    <col min="13319" max="13319" width="17.54296875" style="9" customWidth="1"/>
-    <col min="13320" max="13320" width="27.453125" style="9" customWidth="1"/>
-    <col min="13321" max="13321" width="24.1796875" style="9" customWidth="1"/>
-    <col min="13322" max="13322" width="13.54296875" style="9" customWidth="1"/>
-    <col min="13323" max="13323" width="23.453125" style="9" customWidth="1"/>
-    <col min="13324" max="13324" width="21.1796875" style="9" customWidth="1"/>
-    <col min="13325" max="13325" width="20.453125" style="9" customWidth="1"/>
-    <col min="13326" max="13568" width="9.1796875" style="9"/>
-    <col min="13569" max="13569" width="10.453125" style="9" customWidth="1"/>
-    <col min="13570" max="13570" width="19.81640625" style="9" customWidth="1"/>
+    <col min="13316" max="13316" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13317" max="13317" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13318" max="13318" width="10.28515625" style="9" customWidth="1"/>
+    <col min="13319" max="13319" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13320" max="13320" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13321" max="13321" width="24.140625" style="9" customWidth="1"/>
+    <col min="13322" max="13322" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13323" max="13323" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13324" max="13324" width="21.140625" style="9" customWidth="1"/>
+    <col min="13325" max="13325" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13326" max="13568" width="9.140625" style="9"/>
+    <col min="13569" max="13569" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13570" max="13570" width="19.85546875" style="9" customWidth="1"/>
     <col min="13571" max="13571" width="13" style="9" customWidth="1"/>
-    <col min="13572" max="13572" width="14.26953125" style="9" customWidth="1"/>
-    <col min="13573" max="13573" width="12.453125" style="9" customWidth="1"/>
-    <col min="13574" max="13574" width="10.26953125" style="9" customWidth="1"/>
-    <col min="13575" max="13575" width="17.54296875" style="9" customWidth="1"/>
-    <col min="13576" max="13576" width="27.453125" style="9" customWidth="1"/>
-    <col min="13577" max="13577" width="24.1796875" style="9" customWidth="1"/>
-    <col min="13578" max="13578" width="13.54296875" style="9" customWidth="1"/>
-    <col min="13579" max="13579" width="23.453125" style="9" customWidth="1"/>
-    <col min="13580" max="13580" width="21.1796875" style="9" customWidth="1"/>
-    <col min="13581" max="13581" width="20.453125" style="9" customWidth="1"/>
-    <col min="13582" max="13824" width="9.1796875" style="9"/>
-    <col min="13825" max="13825" width="10.453125" style="9" customWidth="1"/>
-    <col min="13826" max="13826" width="19.81640625" style="9" customWidth="1"/>
+    <col min="13572" max="13572" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13573" max="13573" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13574" max="13574" width="10.28515625" style="9" customWidth="1"/>
+    <col min="13575" max="13575" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13576" max="13576" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13577" max="13577" width="24.140625" style="9" customWidth="1"/>
+    <col min="13578" max="13578" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13579" max="13579" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13580" max="13580" width="21.140625" style="9" customWidth="1"/>
+    <col min="13581" max="13581" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13582" max="13824" width="9.140625" style="9"/>
+    <col min="13825" max="13825" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13826" max="13826" width="19.85546875" style="9" customWidth="1"/>
     <col min="13827" max="13827" width="13" style="9" customWidth="1"/>
-    <col min="13828" max="13828" width="14.26953125" style="9" customWidth="1"/>
-    <col min="13829" max="13829" width="12.453125" style="9" customWidth="1"/>
-    <col min="13830" max="13830" width="10.26953125" style="9" customWidth="1"/>
-    <col min="13831" max="13831" width="17.54296875" style="9" customWidth="1"/>
-    <col min="13832" max="13832" width="27.453125" style="9" customWidth="1"/>
-    <col min="13833" max="13833" width="24.1796875" style="9" customWidth="1"/>
-    <col min="13834" max="13834" width="13.54296875" style="9" customWidth="1"/>
-    <col min="13835" max="13835" width="23.453125" style="9" customWidth="1"/>
-    <col min="13836" max="13836" width="21.1796875" style="9" customWidth="1"/>
-    <col min="13837" max="13837" width="20.453125" style="9" customWidth="1"/>
-    <col min="13838" max="14080" width="9.1796875" style="9"/>
-    <col min="14081" max="14081" width="10.453125" style="9" customWidth="1"/>
-    <col min="14082" max="14082" width="19.81640625" style="9" customWidth="1"/>
+    <col min="13828" max="13828" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13829" max="13829" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13830" max="13830" width="10.28515625" style="9" customWidth="1"/>
+    <col min="13831" max="13831" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13832" max="13832" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13833" max="13833" width="24.140625" style="9" customWidth="1"/>
+    <col min="13834" max="13834" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13835" max="13835" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13836" max="13836" width="21.140625" style="9" customWidth="1"/>
+    <col min="13837" max="13837" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13838" max="14080" width="9.140625" style="9"/>
+    <col min="14081" max="14081" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14082" max="14082" width="19.85546875" style="9" customWidth="1"/>
     <col min="14083" max="14083" width="13" style="9" customWidth="1"/>
-    <col min="14084" max="14084" width="14.26953125" style="9" customWidth="1"/>
-    <col min="14085" max="14085" width="12.453125" style="9" customWidth="1"/>
-    <col min="14086" max="14086" width="10.26953125" style="9" customWidth="1"/>
-    <col min="14087" max="14087" width="17.54296875" style="9" customWidth="1"/>
-    <col min="14088" max="14088" width="27.453125" style="9" customWidth="1"/>
-    <col min="14089" max="14089" width="24.1796875" style="9" customWidth="1"/>
-    <col min="14090" max="14090" width="13.54296875" style="9" customWidth="1"/>
-    <col min="14091" max="14091" width="23.453125" style="9" customWidth="1"/>
-    <col min="14092" max="14092" width="21.1796875" style="9" customWidth="1"/>
-    <col min="14093" max="14093" width="20.453125" style="9" customWidth="1"/>
-    <col min="14094" max="14336" width="9.1796875" style="9"/>
-    <col min="14337" max="14337" width="10.453125" style="9" customWidth="1"/>
-    <col min="14338" max="14338" width="19.81640625" style="9" customWidth="1"/>
+    <col min="14084" max="14084" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14085" max="14085" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14086" max="14086" width="10.28515625" style="9" customWidth="1"/>
+    <col min="14087" max="14087" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14088" max="14088" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14089" max="14089" width="24.140625" style="9" customWidth="1"/>
+    <col min="14090" max="14090" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14091" max="14091" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14092" max="14092" width="21.140625" style="9" customWidth="1"/>
+    <col min="14093" max="14093" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14094" max="14336" width="9.140625" style="9"/>
+    <col min="14337" max="14337" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14338" max="14338" width="19.85546875" style="9" customWidth="1"/>
     <col min="14339" max="14339" width="13" style="9" customWidth="1"/>
-    <col min="14340" max="14340" width="14.26953125" style="9" customWidth="1"/>
-    <col min="14341" max="14341" width="12.453125" style="9" customWidth="1"/>
-    <col min="14342" max="14342" width="10.26953125" style="9" customWidth="1"/>
-    <col min="14343" max="14343" width="17.54296875" style="9" customWidth="1"/>
-    <col min="14344" max="14344" width="27.453125" style="9" customWidth="1"/>
-    <col min="14345" max="14345" width="24.1796875" style="9" customWidth="1"/>
-    <col min="14346" max="14346" width="13.54296875" style="9" customWidth="1"/>
-    <col min="14347" max="14347" width="23.453125" style="9" customWidth="1"/>
-    <col min="14348" max="14348" width="21.1796875" style="9" customWidth="1"/>
-    <col min="14349" max="14349" width="20.453125" style="9" customWidth="1"/>
-    <col min="14350" max="14592" width="9.1796875" style="9"/>
-    <col min="14593" max="14593" width="10.453125" style="9" customWidth="1"/>
-    <col min="14594" max="14594" width="19.81640625" style="9" customWidth="1"/>
+    <col min="14340" max="14340" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14341" max="14341" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14342" max="14342" width="10.28515625" style="9" customWidth="1"/>
+    <col min="14343" max="14343" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14344" max="14344" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14345" max="14345" width="24.140625" style="9" customWidth="1"/>
+    <col min="14346" max="14346" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14347" max="14347" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14348" max="14348" width="21.140625" style="9" customWidth="1"/>
+    <col min="14349" max="14349" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14350" max="14592" width="9.140625" style="9"/>
+    <col min="14593" max="14593" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14594" max="14594" width="19.85546875" style="9" customWidth="1"/>
     <col min="14595" max="14595" width="13" style="9" customWidth="1"/>
-    <col min="14596" max="14596" width="14.26953125" style="9" customWidth="1"/>
-    <col min="14597" max="14597" width="12.453125" style="9" customWidth="1"/>
-    <col min="14598" max="14598" width="10.26953125" style="9" customWidth="1"/>
-    <col min="14599" max="14599" width="17.54296875" style="9" customWidth="1"/>
-    <col min="14600" max="14600" width="27.453125" style="9" customWidth="1"/>
-    <col min="14601" max="14601" width="24.1796875" style="9" customWidth="1"/>
-    <col min="14602" max="14602" width="13.54296875" style="9" customWidth="1"/>
-    <col min="14603" max="14603" width="23.453125" style="9" customWidth="1"/>
-    <col min="14604" max="14604" width="21.1796875" style="9" customWidth="1"/>
-    <col min="14605" max="14605" width="20.453125" style="9" customWidth="1"/>
-    <col min="14606" max="14848" width="9.1796875" style="9"/>
-    <col min="14849" max="14849" width="10.453125" style="9" customWidth="1"/>
-    <col min="14850" max="14850" width="19.81640625" style="9" customWidth="1"/>
+    <col min="14596" max="14596" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14597" max="14597" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14598" max="14598" width="10.28515625" style="9" customWidth="1"/>
+    <col min="14599" max="14599" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14600" max="14600" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14601" max="14601" width="24.140625" style="9" customWidth="1"/>
+    <col min="14602" max="14602" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14603" max="14603" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14604" max="14604" width="21.140625" style="9" customWidth="1"/>
+    <col min="14605" max="14605" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14606" max="14848" width="9.140625" style="9"/>
+    <col min="14849" max="14849" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14850" max="14850" width="19.85546875" style="9" customWidth="1"/>
     <col min="14851" max="14851" width="13" style="9" customWidth="1"/>
-    <col min="14852" max="14852" width="14.26953125" style="9" customWidth="1"/>
-    <col min="14853" max="14853" width="12.453125" style="9" customWidth="1"/>
-    <col min="14854" max="14854" width="10.26953125" style="9" customWidth="1"/>
-    <col min="14855" max="14855" width="17.54296875" style="9" customWidth="1"/>
-    <col min="14856" max="14856" width="27.453125" style="9" customWidth="1"/>
-    <col min="14857" max="14857" width="24.1796875" style="9" customWidth="1"/>
-    <col min="14858" max="14858" width="13.54296875" style="9" customWidth="1"/>
-    <col min="14859" max="14859" width="23.453125" style="9" customWidth="1"/>
-    <col min="14860" max="14860" width="21.1796875" style="9" customWidth="1"/>
-    <col min="14861" max="14861" width="20.453125" style="9" customWidth="1"/>
-    <col min="14862" max="15104" width="9.1796875" style="9"/>
-    <col min="15105" max="15105" width="10.453125" style="9" customWidth="1"/>
-    <col min="15106" max="15106" width="19.81640625" style="9" customWidth="1"/>
+    <col min="14852" max="14852" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14853" max="14853" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14854" max="14854" width="10.28515625" style="9" customWidth="1"/>
+    <col min="14855" max="14855" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14856" max="14856" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14857" max="14857" width="24.140625" style="9" customWidth="1"/>
+    <col min="14858" max="14858" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14859" max="14859" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14860" max="14860" width="21.140625" style="9" customWidth="1"/>
+    <col min="14861" max="14861" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14862" max="15104" width="9.140625" style="9"/>
+    <col min="15105" max="15105" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15106" max="15106" width="19.85546875" style="9" customWidth="1"/>
     <col min="15107" max="15107" width="13" style="9" customWidth="1"/>
-    <col min="15108" max="15108" width="14.26953125" style="9" customWidth="1"/>
-    <col min="15109" max="15109" width="12.453125" style="9" customWidth="1"/>
-    <col min="15110" max="15110" width="10.26953125" style="9" customWidth="1"/>
-    <col min="15111" max="15111" width="17.54296875" style="9" customWidth="1"/>
-    <col min="15112" max="15112" width="27.453125" style="9" customWidth="1"/>
-    <col min="15113" max="15113" width="24.1796875" style="9" customWidth="1"/>
-    <col min="15114" max="15114" width="13.54296875" style="9" customWidth="1"/>
-    <col min="15115" max="15115" width="23.453125" style="9" customWidth="1"/>
-    <col min="15116" max="15116" width="21.1796875" style="9" customWidth="1"/>
-    <col min="15117" max="15117" width="20.453125" style="9" customWidth="1"/>
-    <col min="15118" max="15360" width="9.1796875" style="9"/>
-    <col min="15361" max="15361" width="10.453125" style="9" customWidth="1"/>
-    <col min="15362" max="15362" width="19.81640625" style="9" customWidth="1"/>
+    <col min="15108" max="15108" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15109" max="15109" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15110" max="15110" width="10.28515625" style="9" customWidth="1"/>
+    <col min="15111" max="15111" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15112" max="15112" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15113" max="15113" width="24.140625" style="9" customWidth="1"/>
+    <col min="15114" max="15114" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15115" max="15115" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15116" max="15116" width="21.140625" style="9" customWidth="1"/>
+    <col min="15117" max="15117" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15118" max="15360" width="9.140625" style="9"/>
+    <col min="15361" max="15361" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15362" max="15362" width="19.85546875" style="9" customWidth="1"/>
     <col min="15363" max="15363" width="13" style="9" customWidth="1"/>
-    <col min="15364" max="15364" width="14.26953125" style="9" customWidth="1"/>
-    <col min="15365" max="15365" width="12.453125" style="9" customWidth="1"/>
-    <col min="15366" max="15366" width="10.26953125" style="9" customWidth="1"/>
-    <col min="15367" max="15367" width="17.54296875" style="9" customWidth="1"/>
-    <col min="15368" max="15368" width="27.453125" style="9" customWidth="1"/>
-    <col min="15369" max="15369" width="24.1796875" style="9" customWidth="1"/>
-    <col min="15370" max="15370" width="13.54296875" style="9" customWidth="1"/>
-    <col min="15371" max="15371" width="23.453125" style="9" customWidth="1"/>
-    <col min="15372" max="15372" width="21.1796875" style="9" customWidth="1"/>
-    <col min="15373" max="15373" width="20.453125" style="9" customWidth="1"/>
-    <col min="15374" max="15616" width="9.1796875" style="9"/>
-    <col min="15617" max="15617" width="10.453125" style="9" customWidth="1"/>
-    <col min="15618" max="15618" width="19.81640625" style="9" customWidth="1"/>
+    <col min="15364" max="15364" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15365" max="15365" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15366" max="15366" width="10.28515625" style="9" customWidth="1"/>
+    <col min="15367" max="15367" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15368" max="15368" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15369" max="15369" width="24.140625" style="9" customWidth="1"/>
+    <col min="15370" max="15370" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15371" max="15371" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15372" max="15372" width="21.140625" style="9" customWidth="1"/>
+    <col min="15373" max="15373" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15374" max="15616" width="9.140625" style="9"/>
+    <col min="15617" max="15617" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15618" max="15618" width="19.85546875" style="9" customWidth="1"/>
     <col min="15619" max="15619" width="13" style="9" customWidth="1"/>
-    <col min="15620" max="15620" width="14.26953125" style="9" customWidth="1"/>
-    <col min="15621" max="15621" width="12.453125" style="9" customWidth="1"/>
-    <col min="15622" max="15622" width="10.26953125" style="9" customWidth="1"/>
-    <col min="15623" max="15623" width="17.54296875" style="9" customWidth="1"/>
-    <col min="15624" max="15624" width="27.453125" style="9" customWidth="1"/>
-    <col min="15625" max="15625" width="24.1796875" style="9" customWidth="1"/>
-    <col min="15626" max="15626" width="13.54296875" style="9" customWidth="1"/>
-    <col min="15627" max="15627" width="23.453125" style="9" customWidth="1"/>
-    <col min="15628" max="15628" width="21.1796875" style="9" customWidth="1"/>
-    <col min="15629" max="15629" width="20.453125" style="9" customWidth="1"/>
-    <col min="15630" max="15872" width="9.1796875" style="9"/>
-    <col min="15873" max="15873" width="10.453125" style="9" customWidth="1"/>
-    <col min="15874" max="15874" width="19.81640625" style="9" customWidth="1"/>
+    <col min="15620" max="15620" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15621" max="15621" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15622" max="15622" width="10.28515625" style="9" customWidth="1"/>
+    <col min="15623" max="15623" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15624" max="15624" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15625" max="15625" width="24.140625" style="9" customWidth="1"/>
+    <col min="15626" max="15626" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15627" max="15627" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15628" max="15628" width="21.140625" style="9" customWidth="1"/>
+    <col min="15629" max="15629" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15630" max="15872" width="9.140625" style="9"/>
+    <col min="15873" max="15873" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15874" max="15874" width="19.85546875" style="9" customWidth="1"/>
     <col min="15875" max="15875" width="13" style="9" customWidth="1"/>
-    <col min="15876" max="15876" width="14.26953125" style="9" customWidth="1"/>
-    <col min="15877" max="15877" width="12.453125" style="9" customWidth="1"/>
-    <col min="15878" max="15878" width="10.26953125" style="9" customWidth="1"/>
-    <col min="15879" max="15879" width="17.54296875" style="9" customWidth="1"/>
-    <col min="15880" max="15880" width="27.453125" style="9" customWidth="1"/>
-    <col min="15881" max="15881" width="24.1796875" style="9" customWidth="1"/>
-    <col min="15882" max="15882" width="13.54296875" style="9" customWidth="1"/>
-    <col min="15883" max="15883" width="23.453125" style="9" customWidth="1"/>
-    <col min="15884" max="15884" width="21.1796875" style="9" customWidth="1"/>
-    <col min="15885" max="15885" width="20.453125" style="9" customWidth="1"/>
-    <col min="15886" max="16128" width="9.1796875" style="9"/>
-    <col min="16129" max="16129" width="10.453125" style="9" customWidth="1"/>
-    <col min="16130" max="16130" width="19.81640625" style="9" customWidth="1"/>
+    <col min="15876" max="15876" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15877" max="15877" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15878" max="15878" width="10.28515625" style="9" customWidth="1"/>
+    <col min="15879" max="15879" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15880" max="15880" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15881" max="15881" width="24.140625" style="9" customWidth="1"/>
+    <col min="15882" max="15882" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15883" max="15883" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15884" max="15884" width="21.140625" style="9" customWidth="1"/>
+    <col min="15885" max="15885" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15886" max="16128" width="9.140625" style="9"/>
+    <col min="16129" max="16129" width="10.42578125" style="9" customWidth="1"/>
+    <col min="16130" max="16130" width="19.85546875" style="9" customWidth="1"/>
     <col min="16131" max="16131" width="13" style="9" customWidth="1"/>
-    <col min="16132" max="16132" width="14.26953125" style="9" customWidth="1"/>
-    <col min="16133" max="16133" width="12.453125" style="9" customWidth="1"/>
-    <col min="16134" max="16134" width="10.26953125" style="9" customWidth="1"/>
-    <col min="16135" max="16135" width="17.54296875" style="9" customWidth="1"/>
-    <col min="16136" max="16136" width="27.453125" style="9" customWidth="1"/>
-    <col min="16137" max="16137" width="24.1796875" style="9" customWidth="1"/>
-    <col min="16138" max="16138" width="13.54296875" style="9" customWidth="1"/>
-    <col min="16139" max="16139" width="23.453125" style="9" customWidth="1"/>
-    <col min="16140" max="16140" width="21.1796875" style="9" customWidth="1"/>
-    <col min="16141" max="16141" width="20.453125" style="9" customWidth="1"/>
-    <col min="16142" max="16384" width="9.1796875" style="9"/>
+    <col min="16132" max="16132" width="14.28515625" style="9" customWidth="1"/>
+    <col min="16133" max="16133" width="12.42578125" style="9" customWidth="1"/>
+    <col min="16134" max="16134" width="10.28515625" style="9" customWidth="1"/>
+    <col min="16135" max="16135" width="17.5703125" style="9" customWidth="1"/>
+    <col min="16136" max="16136" width="27.42578125" style="9" customWidth="1"/>
+    <col min="16137" max="16137" width="24.140625" style="9" customWidth="1"/>
+    <col min="16138" max="16138" width="13.5703125" style="9" customWidth="1"/>
+    <col min="16139" max="16139" width="23.42578125" style="9" customWidth="1"/>
+    <col min="16140" max="16140" width="21.140625" style="9" customWidth="1"/>
+    <col min="16141" max="16141" width="20.42578125" style="9" customWidth="1"/>
+    <col min="16142" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -3798,7 +3815,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>170</v>
       </c>
@@ -3839,7 +3856,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>170</v>
       </c>
@@ -3880,7 +3897,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>170</v>
       </c>
@@ -3921,7 +3938,7 @@
         <v>0.49809999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>170</v>
       </c>
@@ -3962,7 +3979,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>170</v>
       </c>
@@ -4003,7 +4020,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>170</v>
       </c>
@@ -4044,7 +4061,7 @@
         <v>0.43490000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>170</v>
       </c>
@@ -4085,7 +4102,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="9" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>170</v>
       </c>
@@ -4126,7 +4143,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>170</v>
       </c>
@@ -4167,7 +4184,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>170</v>
       </c>
@@ -4208,7 +4225,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>170</v>
       </c>
@@ -4249,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>170</v>
       </c>
@@ -4290,7 +4307,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>170</v>
       </c>
@@ -4331,7 +4348,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>170</v>
       </c>
@@ -4372,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>170</v>
       </c>
@@ -4413,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>170</v>
       </c>
@@ -4454,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>170</v>
       </c>
@@ -4495,7 +4512,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="19" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>170</v>
       </c>
@@ -4536,7 +4553,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>170</v>
       </c>
@@ -4577,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>170</v>
       </c>
@@ -4618,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>170</v>
       </c>
@@ -4659,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>170</v>
       </c>
@@ -4700,7 +4717,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="24" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>170</v>
       </c>
@@ -4741,7 +4758,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>170</v>
       </c>
@@ -4782,7 +4799,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>170</v>
       </c>
@@ -4823,7 +4840,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>170</v>
       </c>
@@ -4864,7 +4881,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>170</v>
       </c>
@@ -4905,7 +4922,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>170</v>
       </c>
@@ -4946,7 +4963,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>170</v>
       </c>
@@ -4987,7 +5004,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>170</v>
       </c>
@@ -5028,7 +5045,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>170</v>
       </c>
@@ -5069,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>170</v>
       </c>
@@ -5110,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>170</v>
       </c>
@@ -5151,7 +5168,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="35" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>170</v>
       </c>
@@ -5192,7 +5209,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>272</v>
       </c>
@@ -5215,7 +5232,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>273</v>
       </c>
@@ -5233,7 +5250,7 @@
         <v>1053081208</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>275</v>
       </c>
@@ -5250,7 +5267,7 @@
         <v>1053251004</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>278</v>
       </c>
@@ -5267,7 +5284,7 @@
         <v>1053002100</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>280</v>
       </c>
@@ -5284,7 +5301,7 @@
         <v>1053071202</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>281</v>
       </c>
@@ -5301,7 +5318,7 @@
         <v>1053251002</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>286</v>
       </c>
@@ -5318,7 +5335,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
         <v>284</v>
       </c>
@@ -5335,7 +5352,7 @@
         <v>1727090005</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>300</v>
       </c>
@@ -5353,7 +5370,7 @@
         <v>1727182121</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>289</v>
       </c>
@@ -5373,7 +5390,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>293</v>
       </c>
@@ -5393,7 +5410,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>297</v>
       </c>
@@ -5413,7 +5430,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C48" s="9" t="s">
         <v>304</v>
       </c>
@@ -5427,7 +5444,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" s="9" t="s">
         <v>306</v>
       </c>
@@ -5447,7 +5464,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" s="9" t="s">
         <v>310</v>
       </c>
@@ -5461,7 +5478,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" s="9" t="s">
         <v>312</v>
       </c>
@@ -5475,7 +5492,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" s="9" t="s">
         <v>314</v>
       </c>
@@ -5489,7 +5506,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" s="9" t="s">
         <v>316</v>
       </c>
@@ -5503,7 +5520,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54" s="9" t="s">
         <v>318</v>
       </c>
@@ -5546,843 +5563,843 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="79.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.1796875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="23.453125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="21.1796875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="20.453125" style="9" customWidth="1"/>
-    <col min="13" max="256" width="9.1796875" style="9"/>
-    <col min="257" max="257" width="10.453125" style="9" customWidth="1"/>
-    <col min="258" max="258" width="20.7265625" style="9" customWidth="1"/>
-    <col min="259" max="259" width="14.54296875" style="9" customWidth="1"/>
-    <col min="260" max="260" width="14.26953125" style="9" customWidth="1"/>
-    <col min="261" max="261" width="12.453125" style="9" customWidth="1"/>
-    <col min="262" max="262" width="17.54296875" style="9" customWidth="1"/>
-    <col min="263" max="263" width="27.453125" style="9" customWidth="1"/>
-    <col min="264" max="264" width="24.1796875" style="9" customWidth="1"/>
-    <col min="265" max="265" width="13.54296875" style="9" customWidth="1"/>
-    <col min="266" max="266" width="23.453125" style="9" customWidth="1"/>
-    <col min="267" max="267" width="21.1796875" style="9" customWidth="1"/>
-    <col min="268" max="268" width="20.453125" style="9" customWidth="1"/>
-    <col min="269" max="512" width="9.1796875" style="9"/>
-    <col min="513" max="513" width="10.453125" style="9" customWidth="1"/>
-    <col min="514" max="514" width="20.7265625" style="9" customWidth="1"/>
-    <col min="515" max="515" width="14.54296875" style="9" customWidth="1"/>
-    <col min="516" max="516" width="14.26953125" style="9" customWidth="1"/>
-    <col min="517" max="517" width="12.453125" style="9" customWidth="1"/>
-    <col min="518" max="518" width="17.54296875" style="9" customWidth="1"/>
-    <col min="519" max="519" width="27.453125" style="9" customWidth="1"/>
-    <col min="520" max="520" width="24.1796875" style="9" customWidth="1"/>
-    <col min="521" max="521" width="13.54296875" style="9" customWidth="1"/>
-    <col min="522" max="522" width="23.453125" style="9" customWidth="1"/>
-    <col min="523" max="523" width="21.1796875" style="9" customWidth="1"/>
-    <col min="524" max="524" width="20.453125" style="9" customWidth="1"/>
-    <col min="525" max="768" width="9.1796875" style="9"/>
-    <col min="769" max="769" width="10.453125" style="9" customWidth="1"/>
-    <col min="770" max="770" width="20.7265625" style="9" customWidth="1"/>
-    <col min="771" max="771" width="14.54296875" style="9" customWidth="1"/>
-    <col min="772" max="772" width="14.26953125" style="9" customWidth="1"/>
-    <col min="773" max="773" width="12.453125" style="9" customWidth="1"/>
-    <col min="774" max="774" width="17.54296875" style="9" customWidth="1"/>
-    <col min="775" max="775" width="27.453125" style="9" customWidth="1"/>
-    <col min="776" max="776" width="24.1796875" style="9" customWidth="1"/>
-    <col min="777" max="777" width="13.54296875" style="9" customWidth="1"/>
-    <col min="778" max="778" width="23.453125" style="9" customWidth="1"/>
-    <col min="779" max="779" width="21.1796875" style="9" customWidth="1"/>
-    <col min="780" max="780" width="20.453125" style="9" customWidth="1"/>
-    <col min="781" max="1024" width="9.1796875" style="9"/>
-    <col min="1025" max="1025" width="10.453125" style="9" customWidth="1"/>
-    <col min="1026" max="1026" width="20.7265625" style="9" customWidth="1"/>
-    <col min="1027" max="1027" width="14.54296875" style="9" customWidth="1"/>
-    <col min="1028" max="1028" width="14.26953125" style="9" customWidth="1"/>
-    <col min="1029" max="1029" width="12.453125" style="9" customWidth="1"/>
-    <col min="1030" max="1030" width="17.54296875" style="9" customWidth="1"/>
-    <col min="1031" max="1031" width="27.453125" style="9" customWidth="1"/>
-    <col min="1032" max="1032" width="24.1796875" style="9" customWidth="1"/>
-    <col min="1033" max="1033" width="13.54296875" style="9" customWidth="1"/>
-    <col min="1034" max="1034" width="23.453125" style="9" customWidth="1"/>
-    <col min="1035" max="1035" width="21.1796875" style="9" customWidth="1"/>
-    <col min="1036" max="1036" width="20.453125" style="9" customWidth="1"/>
-    <col min="1037" max="1280" width="9.1796875" style="9"/>
-    <col min="1281" max="1281" width="10.453125" style="9" customWidth="1"/>
-    <col min="1282" max="1282" width="20.7265625" style="9" customWidth="1"/>
-    <col min="1283" max="1283" width="14.54296875" style="9" customWidth="1"/>
-    <col min="1284" max="1284" width="14.26953125" style="9" customWidth="1"/>
-    <col min="1285" max="1285" width="12.453125" style="9" customWidth="1"/>
-    <col min="1286" max="1286" width="17.54296875" style="9" customWidth="1"/>
-    <col min="1287" max="1287" width="27.453125" style="9" customWidth="1"/>
-    <col min="1288" max="1288" width="24.1796875" style="9" customWidth="1"/>
-    <col min="1289" max="1289" width="13.54296875" style="9" customWidth="1"/>
-    <col min="1290" max="1290" width="23.453125" style="9" customWidth="1"/>
-    <col min="1291" max="1291" width="21.1796875" style="9" customWidth="1"/>
-    <col min="1292" max="1292" width="20.453125" style="9" customWidth="1"/>
-    <col min="1293" max="1536" width="9.1796875" style="9"/>
-    <col min="1537" max="1537" width="10.453125" style="9" customWidth="1"/>
-    <col min="1538" max="1538" width="20.7265625" style="9" customWidth="1"/>
-    <col min="1539" max="1539" width="14.54296875" style="9" customWidth="1"/>
-    <col min="1540" max="1540" width="14.26953125" style="9" customWidth="1"/>
-    <col min="1541" max="1541" width="12.453125" style="9" customWidth="1"/>
-    <col min="1542" max="1542" width="17.54296875" style="9" customWidth="1"/>
-    <col min="1543" max="1543" width="27.453125" style="9" customWidth="1"/>
-    <col min="1544" max="1544" width="24.1796875" style="9" customWidth="1"/>
-    <col min="1545" max="1545" width="13.54296875" style="9" customWidth="1"/>
-    <col min="1546" max="1546" width="23.453125" style="9" customWidth="1"/>
-    <col min="1547" max="1547" width="21.1796875" style="9" customWidth="1"/>
-    <col min="1548" max="1548" width="20.453125" style="9" customWidth="1"/>
-    <col min="1549" max="1792" width="9.1796875" style="9"/>
-    <col min="1793" max="1793" width="10.453125" style="9" customWidth="1"/>
-    <col min="1794" max="1794" width="20.7265625" style="9" customWidth="1"/>
-    <col min="1795" max="1795" width="14.54296875" style="9" customWidth="1"/>
-    <col min="1796" max="1796" width="14.26953125" style="9" customWidth="1"/>
-    <col min="1797" max="1797" width="12.453125" style="9" customWidth="1"/>
-    <col min="1798" max="1798" width="17.54296875" style="9" customWidth="1"/>
-    <col min="1799" max="1799" width="27.453125" style="9" customWidth="1"/>
-    <col min="1800" max="1800" width="24.1796875" style="9" customWidth="1"/>
-    <col min="1801" max="1801" width="13.54296875" style="9" customWidth="1"/>
-    <col min="1802" max="1802" width="23.453125" style="9" customWidth="1"/>
-    <col min="1803" max="1803" width="21.1796875" style="9" customWidth="1"/>
-    <col min="1804" max="1804" width="20.453125" style="9" customWidth="1"/>
-    <col min="1805" max="2048" width="9.1796875" style="9"/>
-    <col min="2049" max="2049" width="10.453125" style="9" customWidth="1"/>
-    <col min="2050" max="2050" width="20.7265625" style="9" customWidth="1"/>
-    <col min="2051" max="2051" width="14.54296875" style="9" customWidth="1"/>
-    <col min="2052" max="2052" width="14.26953125" style="9" customWidth="1"/>
-    <col min="2053" max="2053" width="12.453125" style="9" customWidth="1"/>
-    <col min="2054" max="2054" width="17.54296875" style="9" customWidth="1"/>
-    <col min="2055" max="2055" width="27.453125" style="9" customWidth="1"/>
-    <col min="2056" max="2056" width="24.1796875" style="9" customWidth="1"/>
-    <col min="2057" max="2057" width="13.54296875" style="9" customWidth="1"/>
-    <col min="2058" max="2058" width="23.453125" style="9" customWidth="1"/>
-    <col min="2059" max="2059" width="21.1796875" style="9" customWidth="1"/>
-    <col min="2060" max="2060" width="20.453125" style="9" customWidth="1"/>
-    <col min="2061" max="2304" width="9.1796875" style="9"/>
-    <col min="2305" max="2305" width="10.453125" style="9" customWidth="1"/>
-    <col min="2306" max="2306" width="20.7265625" style="9" customWidth="1"/>
-    <col min="2307" max="2307" width="14.54296875" style="9" customWidth="1"/>
-    <col min="2308" max="2308" width="14.26953125" style="9" customWidth="1"/>
-    <col min="2309" max="2309" width="12.453125" style="9" customWidth="1"/>
-    <col min="2310" max="2310" width="17.54296875" style="9" customWidth="1"/>
-    <col min="2311" max="2311" width="27.453125" style="9" customWidth="1"/>
-    <col min="2312" max="2312" width="24.1796875" style="9" customWidth="1"/>
-    <col min="2313" max="2313" width="13.54296875" style="9" customWidth="1"/>
-    <col min="2314" max="2314" width="23.453125" style="9" customWidth="1"/>
-    <col min="2315" max="2315" width="21.1796875" style="9" customWidth="1"/>
-    <col min="2316" max="2316" width="20.453125" style="9" customWidth="1"/>
-    <col min="2317" max="2560" width="9.1796875" style="9"/>
-    <col min="2561" max="2561" width="10.453125" style="9" customWidth="1"/>
-    <col min="2562" max="2562" width="20.7265625" style="9" customWidth="1"/>
-    <col min="2563" max="2563" width="14.54296875" style="9" customWidth="1"/>
-    <col min="2564" max="2564" width="14.26953125" style="9" customWidth="1"/>
-    <col min="2565" max="2565" width="12.453125" style="9" customWidth="1"/>
-    <col min="2566" max="2566" width="17.54296875" style="9" customWidth="1"/>
-    <col min="2567" max="2567" width="27.453125" style="9" customWidth="1"/>
-    <col min="2568" max="2568" width="24.1796875" style="9" customWidth="1"/>
-    <col min="2569" max="2569" width="13.54296875" style="9" customWidth="1"/>
-    <col min="2570" max="2570" width="23.453125" style="9" customWidth="1"/>
-    <col min="2571" max="2571" width="21.1796875" style="9" customWidth="1"/>
-    <col min="2572" max="2572" width="20.453125" style="9" customWidth="1"/>
-    <col min="2573" max="2816" width="9.1796875" style="9"/>
-    <col min="2817" max="2817" width="10.453125" style="9" customWidth="1"/>
-    <col min="2818" max="2818" width="20.7265625" style="9" customWidth="1"/>
-    <col min="2819" max="2819" width="14.54296875" style="9" customWidth="1"/>
-    <col min="2820" max="2820" width="14.26953125" style="9" customWidth="1"/>
-    <col min="2821" max="2821" width="12.453125" style="9" customWidth="1"/>
-    <col min="2822" max="2822" width="17.54296875" style="9" customWidth="1"/>
-    <col min="2823" max="2823" width="27.453125" style="9" customWidth="1"/>
-    <col min="2824" max="2824" width="24.1796875" style="9" customWidth="1"/>
-    <col min="2825" max="2825" width="13.54296875" style="9" customWidth="1"/>
-    <col min="2826" max="2826" width="23.453125" style="9" customWidth="1"/>
-    <col min="2827" max="2827" width="21.1796875" style="9" customWidth="1"/>
-    <col min="2828" max="2828" width="20.453125" style="9" customWidth="1"/>
-    <col min="2829" max="3072" width="9.1796875" style="9"/>
-    <col min="3073" max="3073" width="10.453125" style="9" customWidth="1"/>
-    <col min="3074" max="3074" width="20.7265625" style="9" customWidth="1"/>
-    <col min="3075" max="3075" width="14.54296875" style="9" customWidth="1"/>
-    <col min="3076" max="3076" width="14.26953125" style="9" customWidth="1"/>
-    <col min="3077" max="3077" width="12.453125" style="9" customWidth="1"/>
-    <col min="3078" max="3078" width="17.54296875" style="9" customWidth="1"/>
-    <col min="3079" max="3079" width="27.453125" style="9" customWidth="1"/>
-    <col min="3080" max="3080" width="24.1796875" style="9" customWidth="1"/>
-    <col min="3081" max="3081" width="13.54296875" style="9" customWidth="1"/>
-    <col min="3082" max="3082" width="23.453125" style="9" customWidth="1"/>
-    <col min="3083" max="3083" width="21.1796875" style="9" customWidth="1"/>
-    <col min="3084" max="3084" width="20.453125" style="9" customWidth="1"/>
-    <col min="3085" max="3328" width="9.1796875" style="9"/>
-    <col min="3329" max="3329" width="10.453125" style="9" customWidth="1"/>
-    <col min="3330" max="3330" width="20.7265625" style="9" customWidth="1"/>
-    <col min="3331" max="3331" width="14.54296875" style="9" customWidth="1"/>
-    <col min="3332" max="3332" width="14.26953125" style="9" customWidth="1"/>
-    <col min="3333" max="3333" width="12.453125" style="9" customWidth="1"/>
-    <col min="3334" max="3334" width="17.54296875" style="9" customWidth="1"/>
-    <col min="3335" max="3335" width="27.453125" style="9" customWidth="1"/>
-    <col min="3336" max="3336" width="24.1796875" style="9" customWidth="1"/>
-    <col min="3337" max="3337" width="13.54296875" style="9" customWidth="1"/>
-    <col min="3338" max="3338" width="23.453125" style="9" customWidth="1"/>
-    <col min="3339" max="3339" width="21.1796875" style="9" customWidth="1"/>
-    <col min="3340" max="3340" width="20.453125" style="9" customWidth="1"/>
-    <col min="3341" max="3584" width="9.1796875" style="9"/>
-    <col min="3585" max="3585" width="10.453125" style="9" customWidth="1"/>
-    <col min="3586" max="3586" width="20.7265625" style="9" customWidth="1"/>
-    <col min="3587" max="3587" width="14.54296875" style="9" customWidth="1"/>
-    <col min="3588" max="3588" width="14.26953125" style="9" customWidth="1"/>
-    <col min="3589" max="3589" width="12.453125" style="9" customWidth="1"/>
-    <col min="3590" max="3590" width="17.54296875" style="9" customWidth="1"/>
-    <col min="3591" max="3591" width="27.453125" style="9" customWidth="1"/>
-    <col min="3592" max="3592" width="24.1796875" style="9" customWidth="1"/>
-    <col min="3593" max="3593" width="13.54296875" style="9" customWidth="1"/>
-    <col min="3594" max="3594" width="23.453125" style="9" customWidth="1"/>
-    <col min="3595" max="3595" width="21.1796875" style="9" customWidth="1"/>
-    <col min="3596" max="3596" width="20.453125" style="9" customWidth="1"/>
-    <col min="3597" max="3840" width="9.1796875" style="9"/>
-    <col min="3841" max="3841" width="10.453125" style="9" customWidth="1"/>
-    <col min="3842" max="3842" width="20.7265625" style="9" customWidth="1"/>
-    <col min="3843" max="3843" width="14.54296875" style="9" customWidth="1"/>
-    <col min="3844" max="3844" width="14.26953125" style="9" customWidth="1"/>
-    <col min="3845" max="3845" width="12.453125" style="9" customWidth="1"/>
-    <col min="3846" max="3846" width="17.54296875" style="9" customWidth="1"/>
-    <col min="3847" max="3847" width="27.453125" style="9" customWidth="1"/>
-    <col min="3848" max="3848" width="24.1796875" style="9" customWidth="1"/>
-    <col min="3849" max="3849" width="13.54296875" style="9" customWidth="1"/>
-    <col min="3850" max="3850" width="23.453125" style="9" customWidth="1"/>
-    <col min="3851" max="3851" width="21.1796875" style="9" customWidth="1"/>
-    <col min="3852" max="3852" width="20.453125" style="9" customWidth="1"/>
-    <col min="3853" max="4096" width="9.1796875" style="9"/>
-    <col min="4097" max="4097" width="10.453125" style="9" customWidth="1"/>
-    <col min="4098" max="4098" width="20.7265625" style="9" customWidth="1"/>
-    <col min="4099" max="4099" width="14.54296875" style="9" customWidth="1"/>
-    <col min="4100" max="4100" width="14.26953125" style="9" customWidth="1"/>
-    <col min="4101" max="4101" width="12.453125" style="9" customWidth="1"/>
-    <col min="4102" max="4102" width="17.54296875" style="9" customWidth="1"/>
-    <col min="4103" max="4103" width="27.453125" style="9" customWidth="1"/>
-    <col min="4104" max="4104" width="24.1796875" style="9" customWidth="1"/>
-    <col min="4105" max="4105" width="13.54296875" style="9" customWidth="1"/>
-    <col min="4106" max="4106" width="23.453125" style="9" customWidth="1"/>
-    <col min="4107" max="4107" width="21.1796875" style="9" customWidth="1"/>
-    <col min="4108" max="4108" width="20.453125" style="9" customWidth="1"/>
-    <col min="4109" max="4352" width="9.1796875" style="9"/>
-    <col min="4353" max="4353" width="10.453125" style="9" customWidth="1"/>
-    <col min="4354" max="4354" width="20.7265625" style="9" customWidth="1"/>
-    <col min="4355" max="4355" width="14.54296875" style="9" customWidth="1"/>
-    <col min="4356" max="4356" width="14.26953125" style="9" customWidth="1"/>
-    <col min="4357" max="4357" width="12.453125" style="9" customWidth="1"/>
-    <col min="4358" max="4358" width="17.54296875" style="9" customWidth="1"/>
-    <col min="4359" max="4359" width="27.453125" style="9" customWidth="1"/>
-    <col min="4360" max="4360" width="24.1796875" style="9" customWidth="1"/>
-    <col min="4361" max="4361" width="13.54296875" style="9" customWidth="1"/>
-    <col min="4362" max="4362" width="23.453125" style="9" customWidth="1"/>
-    <col min="4363" max="4363" width="21.1796875" style="9" customWidth="1"/>
-    <col min="4364" max="4364" width="20.453125" style="9" customWidth="1"/>
-    <col min="4365" max="4608" width="9.1796875" style="9"/>
-    <col min="4609" max="4609" width="10.453125" style="9" customWidth="1"/>
-    <col min="4610" max="4610" width="20.7265625" style="9" customWidth="1"/>
-    <col min="4611" max="4611" width="14.54296875" style="9" customWidth="1"/>
-    <col min="4612" max="4612" width="14.26953125" style="9" customWidth="1"/>
-    <col min="4613" max="4613" width="12.453125" style="9" customWidth="1"/>
-    <col min="4614" max="4614" width="17.54296875" style="9" customWidth="1"/>
-    <col min="4615" max="4615" width="27.453125" style="9" customWidth="1"/>
-    <col min="4616" max="4616" width="24.1796875" style="9" customWidth="1"/>
-    <col min="4617" max="4617" width="13.54296875" style="9" customWidth="1"/>
-    <col min="4618" max="4618" width="23.453125" style="9" customWidth="1"/>
-    <col min="4619" max="4619" width="21.1796875" style="9" customWidth="1"/>
-    <col min="4620" max="4620" width="20.453125" style="9" customWidth="1"/>
-    <col min="4621" max="4864" width="9.1796875" style="9"/>
-    <col min="4865" max="4865" width="10.453125" style="9" customWidth="1"/>
-    <col min="4866" max="4866" width="20.7265625" style="9" customWidth="1"/>
-    <col min="4867" max="4867" width="14.54296875" style="9" customWidth="1"/>
-    <col min="4868" max="4868" width="14.26953125" style="9" customWidth="1"/>
-    <col min="4869" max="4869" width="12.453125" style="9" customWidth="1"/>
-    <col min="4870" max="4870" width="17.54296875" style="9" customWidth="1"/>
-    <col min="4871" max="4871" width="27.453125" style="9" customWidth="1"/>
-    <col min="4872" max="4872" width="24.1796875" style="9" customWidth="1"/>
-    <col min="4873" max="4873" width="13.54296875" style="9" customWidth="1"/>
-    <col min="4874" max="4874" width="23.453125" style="9" customWidth="1"/>
-    <col min="4875" max="4875" width="21.1796875" style="9" customWidth="1"/>
-    <col min="4876" max="4876" width="20.453125" style="9" customWidth="1"/>
-    <col min="4877" max="5120" width="9.1796875" style="9"/>
-    <col min="5121" max="5121" width="10.453125" style="9" customWidth="1"/>
-    <col min="5122" max="5122" width="20.7265625" style="9" customWidth="1"/>
-    <col min="5123" max="5123" width="14.54296875" style="9" customWidth="1"/>
-    <col min="5124" max="5124" width="14.26953125" style="9" customWidth="1"/>
-    <col min="5125" max="5125" width="12.453125" style="9" customWidth="1"/>
-    <col min="5126" max="5126" width="17.54296875" style="9" customWidth="1"/>
-    <col min="5127" max="5127" width="27.453125" style="9" customWidth="1"/>
-    <col min="5128" max="5128" width="24.1796875" style="9" customWidth="1"/>
-    <col min="5129" max="5129" width="13.54296875" style="9" customWidth="1"/>
-    <col min="5130" max="5130" width="23.453125" style="9" customWidth="1"/>
-    <col min="5131" max="5131" width="21.1796875" style="9" customWidth="1"/>
-    <col min="5132" max="5132" width="20.453125" style="9" customWidth="1"/>
-    <col min="5133" max="5376" width="9.1796875" style="9"/>
-    <col min="5377" max="5377" width="10.453125" style="9" customWidth="1"/>
-    <col min="5378" max="5378" width="20.7265625" style="9" customWidth="1"/>
-    <col min="5379" max="5379" width="14.54296875" style="9" customWidth="1"/>
-    <col min="5380" max="5380" width="14.26953125" style="9" customWidth="1"/>
-    <col min="5381" max="5381" width="12.453125" style="9" customWidth="1"/>
-    <col min="5382" max="5382" width="17.54296875" style="9" customWidth="1"/>
-    <col min="5383" max="5383" width="27.453125" style="9" customWidth="1"/>
-    <col min="5384" max="5384" width="24.1796875" style="9" customWidth="1"/>
-    <col min="5385" max="5385" width="13.54296875" style="9" customWidth="1"/>
-    <col min="5386" max="5386" width="23.453125" style="9" customWidth="1"/>
-    <col min="5387" max="5387" width="21.1796875" style="9" customWidth="1"/>
-    <col min="5388" max="5388" width="20.453125" style="9" customWidth="1"/>
-    <col min="5389" max="5632" width="9.1796875" style="9"/>
-    <col min="5633" max="5633" width="10.453125" style="9" customWidth="1"/>
-    <col min="5634" max="5634" width="20.7265625" style="9" customWidth="1"/>
-    <col min="5635" max="5635" width="14.54296875" style="9" customWidth="1"/>
-    <col min="5636" max="5636" width="14.26953125" style="9" customWidth="1"/>
-    <col min="5637" max="5637" width="12.453125" style="9" customWidth="1"/>
-    <col min="5638" max="5638" width="17.54296875" style="9" customWidth="1"/>
-    <col min="5639" max="5639" width="27.453125" style="9" customWidth="1"/>
-    <col min="5640" max="5640" width="24.1796875" style="9" customWidth="1"/>
-    <col min="5641" max="5641" width="13.54296875" style="9" customWidth="1"/>
-    <col min="5642" max="5642" width="23.453125" style="9" customWidth="1"/>
-    <col min="5643" max="5643" width="21.1796875" style="9" customWidth="1"/>
-    <col min="5644" max="5644" width="20.453125" style="9" customWidth="1"/>
-    <col min="5645" max="5888" width="9.1796875" style="9"/>
-    <col min="5889" max="5889" width="10.453125" style="9" customWidth="1"/>
-    <col min="5890" max="5890" width="20.7265625" style="9" customWidth="1"/>
-    <col min="5891" max="5891" width="14.54296875" style="9" customWidth="1"/>
-    <col min="5892" max="5892" width="14.26953125" style="9" customWidth="1"/>
-    <col min="5893" max="5893" width="12.453125" style="9" customWidth="1"/>
-    <col min="5894" max="5894" width="17.54296875" style="9" customWidth="1"/>
-    <col min="5895" max="5895" width="27.453125" style="9" customWidth="1"/>
-    <col min="5896" max="5896" width="24.1796875" style="9" customWidth="1"/>
-    <col min="5897" max="5897" width="13.54296875" style="9" customWidth="1"/>
-    <col min="5898" max="5898" width="23.453125" style="9" customWidth="1"/>
-    <col min="5899" max="5899" width="21.1796875" style="9" customWidth="1"/>
-    <col min="5900" max="5900" width="20.453125" style="9" customWidth="1"/>
-    <col min="5901" max="6144" width="9.1796875" style="9"/>
-    <col min="6145" max="6145" width="10.453125" style="9" customWidth="1"/>
-    <col min="6146" max="6146" width="20.7265625" style="9" customWidth="1"/>
-    <col min="6147" max="6147" width="14.54296875" style="9" customWidth="1"/>
-    <col min="6148" max="6148" width="14.26953125" style="9" customWidth="1"/>
-    <col min="6149" max="6149" width="12.453125" style="9" customWidth="1"/>
-    <col min="6150" max="6150" width="17.54296875" style="9" customWidth="1"/>
-    <col min="6151" max="6151" width="27.453125" style="9" customWidth="1"/>
-    <col min="6152" max="6152" width="24.1796875" style="9" customWidth="1"/>
-    <col min="6153" max="6153" width="13.54296875" style="9" customWidth="1"/>
-    <col min="6154" max="6154" width="23.453125" style="9" customWidth="1"/>
-    <col min="6155" max="6155" width="21.1796875" style="9" customWidth="1"/>
-    <col min="6156" max="6156" width="20.453125" style="9" customWidth="1"/>
-    <col min="6157" max="6400" width="9.1796875" style="9"/>
-    <col min="6401" max="6401" width="10.453125" style="9" customWidth="1"/>
-    <col min="6402" max="6402" width="20.7265625" style="9" customWidth="1"/>
-    <col min="6403" max="6403" width="14.54296875" style="9" customWidth="1"/>
-    <col min="6404" max="6404" width="14.26953125" style="9" customWidth="1"/>
-    <col min="6405" max="6405" width="12.453125" style="9" customWidth="1"/>
-    <col min="6406" max="6406" width="17.54296875" style="9" customWidth="1"/>
-    <col min="6407" max="6407" width="27.453125" style="9" customWidth="1"/>
-    <col min="6408" max="6408" width="24.1796875" style="9" customWidth="1"/>
-    <col min="6409" max="6409" width="13.54296875" style="9" customWidth="1"/>
-    <col min="6410" max="6410" width="23.453125" style="9" customWidth="1"/>
-    <col min="6411" max="6411" width="21.1796875" style="9" customWidth="1"/>
-    <col min="6412" max="6412" width="20.453125" style="9" customWidth="1"/>
-    <col min="6413" max="6656" width="9.1796875" style="9"/>
-    <col min="6657" max="6657" width="10.453125" style="9" customWidth="1"/>
-    <col min="6658" max="6658" width="20.7265625" style="9" customWidth="1"/>
-    <col min="6659" max="6659" width="14.54296875" style="9" customWidth="1"/>
-    <col min="6660" max="6660" width="14.26953125" style="9" customWidth="1"/>
-    <col min="6661" max="6661" width="12.453125" style="9" customWidth="1"/>
-    <col min="6662" max="6662" width="17.54296875" style="9" customWidth="1"/>
-    <col min="6663" max="6663" width="27.453125" style="9" customWidth="1"/>
-    <col min="6664" max="6664" width="24.1796875" style="9" customWidth="1"/>
-    <col min="6665" max="6665" width="13.54296875" style="9" customWidth="1"/>
-    <col min="6666" max="6666" width="23.453125" style="9" customWidth="1"/>
-    <col min="6667" max="6667" width="21.1796875" style="9" customWidth="1"/>
-    <col min="6668" max="6668" width="20.453125" style="9" customWidth="1"/>
-    <col min="6669" max="6912" width="9.1796875" style="9"/>
-    <col min="6913" max="6913" width="10.453125" style="9" customWidth="1"/>
-    <col min="6914" max="6914" width="20.7265625" style="9" customWidth="1"/>
-    <col min="6915" max="6915" width="14.54296875" style="9" customWidth="1"/>
-    <col min="6916" max="6916" width="14.26953125" style="9" customWidth="1"/>
-    <col min="6917" max="6917" width="12.453125" style="9" customWidth="1"/>
-    <col min="6918" max="6918" width="17.54296875" style="9" customWidth="1"/>
-    <col min="6919" max="6919" width="27.453125" style="9" customWidth="1"/>
-    <col min="6920" max="6920" width="24.1796875" style="9" customWidth="1"/>
-    <col min="6921" max="6921" width="13.54296875" style="9" customWidth="1"/>
-    <col min="6922" max="6922" width="23.453125" style="9" customWidth="1"/>
-    <col min="6923" max="6923" width="21.1796875" style="9" customWidth="1"/>
-    <col min="6924" max="6924" width="20.453125" style="9" customWidth="1"/>
-    <col min="6925" max="7168" width="9.1796875" style="9"/>
-    <col min="7169" max="7169" width="10.453125" style="9" customWidth="1"/>
-    <col min="7170" max="7170" width="20.7265625" style="9" customWidth="1"/>
-    <col min="7171" max="7171" width="14.54296875" style="9" customWidth="1"/>
-    <col min="7172" max="7172" width="14.26953125" style="9" customWidth="1"/>
-    <col min="7173" max="7173" width="12.453125" style="9" customWidth="1"/>
-    <col min="7174" max="7174" width="17.54296875" style="9" customWidth="1"/>
-    <col min="7175" max="7175" width="27.453125" style="9" customWidth="1"/>
-    <col min="7176" max="7176" width="24.1796875" style="9" customWidth="1"/>
-    <col min="7177" max="7177" width="13.54296875" style="9" customWidth="1"/>
-    <col min="7178" max="7178" width="23.453125" style="9" customWidth="1"/>
-    <col min="7179" max="7179" width="21.1796875" style="9" customWidth="1"/>
-    <col min="7180" max="7180" width="20.453125" style="9" customWidth="1"/>
-    <col min="7181" max="7424" width="9.1796875" style="9"/>
-    <col min="7425" max="7425" width="10.453125" style="9" customWidth="1"/>
-    <col min="7426" max="7426" width="20.7265625" style="9" customWidth="1"/>
-    <col min="7427" max="7427" width="14.54296875" style="9" customWidth="1"/>
-    <col min="7428" max="7428" width="14.26953125" style="9" customWidth="1"/>
-    <col min="7429" max="7429" width="12.453125" style="9" customWidth="1"/>
-    <col min="7430" max="7430" width="17.54296875" style="9" customWidth="1"/>
-    <col min="7431" max="7431" width="27.453125" style="9" customWidth="1"/>
-    <col min="7432" max="7432" width="24.1796875" style="9" customWidth="1"/>
-    <col min="7433" max="7433" width="13.54296875" style="9" customWidth="1"/>
-    <col min="7434" max="7434" width="23.453125" style="9" customWidth="1"/>
-    <col min="7435" max="7435" width="21.1796875" style="9" customWidth="1"/>
-    <col min="7436" max="7436" width="20.453125" style="9" customWidth="1"/>
-    <col min="7437" max="7680" width="9.1796875" style="9"/>
-    <col min="7681" max="7681" width="10.453125" style="9" customWidth="1"/>
-    <col min="7682" max="7682" width="20.7265625" style="9" customWidth="1"/>
-    <col min="7683" max="7683" width="14.54296875" style="9" customWidth="1"/>
-    <col min="7684" max="7684" width="14.26953125" style="9" customWidth="1"/>
-    <col min="7685" max="7685" width="12.453125" style="9" customWidth="1"/>
-    <col min="7686" max="7686" width="17.54296875" style="9" customWidth="1"/>
-    <col min="7687" max="7687" width="27.453125" style="9" customWidth="1"/>
-    <col min="7688" max="7688" width="24.1796875" style="9" customWidth="1"/>
-    <col min="7689" max="7689" width="13.54296875" style="9" customWidth="1"/>
-    <col min="7690" max="7690" width="23.453125" style="9" customWidth="1"/>
-    <col min="7691" max="7691" width="21.1796875" style="9" customWidth="1"/>
-    <col min="7692" max="7692" width="20.453125" style="9" customWidth="1"/>
-    <col min="7693" max="7936" width="9.1796875" style="9"/>
-    <col min="7937" max="7937" width="10.453125" style="9" customWidth="1"/>
-    <col min="7938" max="7938" width="20.7265625" style="9" customWidth="1"/>
-    <col min="7939" max="7939" width="14.54296875" style="9" customWidth="1"/>
-    <col min="7940" max="7940" width="14.26953125" style="9" customWidth="1"/>
-    <col min="7941" max="7941" width="12.453125" style="9" customWidth="1"/>
-    <col min="7942" max="7942" width="17.54296875" style="9" customWidth="1"/>
-    <col min="7943" max="7943" width="27.453125" style="9" customWidth="1"/>
-    <col min="7944" max="7944" width="24.1796875" style="9" customWidth="1"/>
-    <col min="7945" max="7945" width="13.54296875" style="9" customWidth="1"/>
-    <col min="7946" max="7946" width="23.453125" style="9" customWidth="1"/>
-    <col min="7947" max="7947" width="21.1796875" style="9" customWidth="1"/>
-    <col min="7948" max="7948" width="20.453125" style="9" customWidth="1"/>
-    <col min="7949" max="8192" width="9.1796875" style="9"/>
-    <col min="8193" max="8193" width="10.453125" style="9" customWidth="1"/>
-    <col min="8194" max="8194" width="20.7265625" style="9" customWidth="1"/>
-    <col min="8195" max="8195" width="14.54296875" style="9" customWidth="1"/>
-    <col min="8196" max="8196" width="14.26953125" style="9" customWidth="1"/>
-    <col min="8197" max="8197" width="12.453125" style="9" customWidth="1"/>
-    <col min="8198" max="8198" width="17.54296875" style="9" customWidth="1"/>
-    <col min="8199" max="8199" width="27.453125" style="9" customWidth="1"/>
-    <col min="8200" max="8200" width="24.1796875" style="9" customWidth="1"/>
-    <col min="8201" max="8201" width="13.54296875" style="9" customWidth="1"/>
-    <col min="8202" max="8202" width="23.453125" style="9" customWidth="1"/>
-    <col min="8203" max="8203" width="21.1796875" style="9" customWidth="1"/>
-    <col min="8204" max="8204" width="20.453125" style="9" customWidth="1"/>
-    <col min="8205" max="8448" width="9.1796875" style="9"/>
-    <col min="8449" max="8449" width="10.453125" style="9" customWidth="1"/>
-    <col min="8450" max="8450" width="20.7265625" style="9" customWidth="1"/>
-    <col min="8451" max="8451" width="14.54296875" style="9" customWidth="1"/>
-    <col min="8452" max="8452" width="14.26953125" style="9" customWidth="1"/>
-    <col min="8453" max="8453" width="12.453125" style="9" customWidth="1"/>
-    <col min="8454" max="8454" width="17.54296875" style="9" customWidth="1"/>
-    <col min="8455" max="8455" width="27.453125" style="9" customWidth="1"/>
-    <col min="8456" max="8456" width="24.1796875" style="9" customWidth="1"/>
-    <col min="8457" max="8457" width="13.54296875" style="9" customWidth="1"/>
-    <col min="8458" max="8458" width="23.453125" style="9" customWidth="1"/>
-    <col min="8459" max="8459" width="21.1796875" style="9" customWidth="1"/>
-    <col min="8460" max="8460" width="20.453125" style="9" customWidth="1"/>
-    <col min="8461" max="8704" width="9.1796875" style="9"/>
-    <col min="8705" max="8705" width="10.453125" style="9" customWidth="1"/>
-    <col min="8706" max="8706" width="20.7265625" style="9" customWidth="1"/>
-    <col min="8707" max="8707" width="14.54296875" style="9" customWidth="1"/>
-    <col min="8708" max="8708" width="14.26953125" style="9" customWidth="1"/>
-    <col min="8709" max="8709" width="12.453125" style="9" customWidth="1"/>
-    <col min="8710" max="8710" width="17.54296875" style="9" customWidth="1"/>
-    <col min="8711" max="8711" width="27.453125" style="9" customWidth="1"/>
-    <col min="8712" max="8712" width="24.1796875" style="9" customWidth="1"/>
-    <col min="8713" max="8713" width="13.54296875" style="9" customWidth="1"/>
-    <col min="8714" max="8714" width="23.453125" style="9" customWidth="1"/>
-    <col min="8715" max="8715" width="21.1796875" style="9" customWidth="1"/>
-    <col min="8716" max="8716" width="20.453125" style="9" customWidth="1"/>
-    <col min="8717" max="8960" width="9.1796875" style="9"/>
-    <col min="8961" max="8961" width="10.453125" style="9" customWidth="1"/>
-    <col min="8962" max="8962" width="20.7265625" style="9" customWidth="1"/>
-    <col min="8963" max="8963" width="14.54296875" style="9" customWidth="1"/>
-    <col min="8964" max="8964" width="14.26953125" style="9" customWidth="1"/>
-    <col min="8965" max="8965" width="12.453125" style="9" customWidth="1"/>
-    <col min="8966" max="8966" width="17.54296875" style="9" customWidth="1"/>
-    <col min="8967" max="8967" width="27.453125" style="9" customWidth="1"/>
-    <col min="8968" max="8968" width="24.1796875" style="9" customWidth="1"/>
-    <col min="8969" max="8969" width="13.54296875" style="9" customWidth="1"/>
-    <col min="8970" max="8970" width="23.453125" style="9" customWidth="1"/>
-    <col min="8971" max="8971" width="21.1796875" style="9" customWidth="1"/>
-    <col min="8972" max="8972" width="20.453125" style="9" customWidth="1"/>
-    <col min="8973" max="9216" width="9.1796875" style="9"/>
-    <col min="9217" max="9217" width="10.453125" style="9" customWidth="1"/>
-    <col min="9218" max="9218" width="20.7265625" style="9" customWidth="1"/>
-    <col min="9219" max="9219" width="14.54296875" style="9" customWidth="1"/>
-    <col min="9220" max="9220" width="14.26953125" style="9" customWidth="1"/>
-    <col min="9221" max="9221" width="12.453125" style="9" customWidth="1"/>
-    <col min="9222" max="9222" width="17.54296875" style="9" customWidth="1"/>
-    <col min="9223" max="9223" width="27.453125" style="9" customWidth="1"/>
-    <col min="9224" max="9224" width="24.1796875" style="9" customWidth="1"/>
-    <col min="9225" max="9225" width="13.54296875" style="9" customWidth="1"/>
-    <col min="9226" max="9226" width="23.453125" style="9" customWidth="1"/>
-    <col min="9227" max="9227" width="21.1796875" style="9" customWidth="1"/>
-    <col min="9228" max="9228" width="20.453125" style="9" customWidth="1"/>
-    <col min="9229" max="9472" width="9.1796875" style="9"/>
-    <col min="9473" max="9473" width="10.453125" style="9" customWidth="1"/>
-    <col min="9474" max="9474" width="20.7265625" style="9" customWidth="1"/>
-    <col min="9475" max="9475" width="14.54296875" style="9" customWidth="1"/>
-    <col min="9476" max="9476" width="14.26953125" style="9" customWidth="1"/>
-    <col min="9477" max="9477" width="12.453125" style="9" customWidth="1"/>
-    <col min="9478" max="9478" width="17.54296875" style="9" customWidth="1"/>
-    <col min="9479" max="9479" width="27.453125" style="9" customWidth="1"/>
-    <col min="9480" max="9480" width="24.1796875" style="9" customWidth="1"/>
-    <col min="9481" max="9481" width="13.54296875" style="9" customWidth="1"/>
-    <col min="9482" max="9482" width="23.453125" style="9" customWidth="1"/>
-    <col min="9483" max="9483" width="21.1796875" style="9" customWidth="1"/>
-    <col min="9484" max="9484" width="20.453125" style="9" customWidth="1"/>
-    <col min="9485" max="9728" width="9.1796875" style="9"/>
-    <col min="9729" max="9729" width="10.453125" style="9" customWidth="1"/>
-    <col min="9730" max="9730" width="20.7265625" style="9" customWidth="1"/>
-    <col min="9731" max="9731" width="14.54296875" style="9" customWidth="1"/>
-    <col min="9732" max="9732" width="14.26953125" style="9" customWidth="1"/>
-    <col min="9733" max="9733" width="12.453125" style="9" customWidth="1"/>
-    <col min="9734" max="9734" width="17.54296875" style="9" customWidth="1"/>
-    <col min="9735" max="9735" width="27.453125" style="9" customWidth="1"/>
-    <col min="9736" max="9736" width="24.1796875" style="9" customWidth="1"/>
-    <col min="9737" max="9737" width="13.54296875" style="9" customWidth="1"/>
-    <col min="9738" max="9738" width="23.453125" style="9" customWidth="1"/>
-    <col min="9739" max="9739" width="21.1796875" style="9" customWidth="1"/>
-    <col min="9740" max="9740" width="20.453125" style="9" customWidth="1"/>
-    <col min="9741" max="9984" width="9.1796875" style="9"/>
-    <col min="9985" max="9985" width="10.453125" style="9" customWidth="1"/>
-    <col min="9986" max="9986" width="20.7265625" style="9" customWidth="1"/>
-    <col min="9987" max="9987" width="14.54296875" style="9" customWidth="1"/>
-    <col min="9988" max="9988" width="14.26953125" style="9" customWidth="1"/>
-    <col min="9989" max="9989" width="12.453125" style="9" customWidth="1"/>
-    <col min="9990" max="9990" width="17.54296875" style="9" customWidth="1"/>
-    <col min="9991" max="9991" width="27.453125" style="9" customWidth="1"/>
-    <col min="9992" max="9992" width="24.1796875" style="9" customWidth="1"/>
-    <col min="9993" max="9993" width="13.54296875" style="9" customWidth="1"/>
-    <col min="9994" max="9994" width="23.453125" style="9" customWidth="1"/>
-    <col min="9995" max="9995" width="21.1796875" style="9" customWidth="1"/>
-    <col min="9996" max="9996" width="20.453125" style="9" customWidth="1"/>
-    <col min="9997" max="10240" width="9.1796875" style="9"/>
-    <col min="10241" max="10241" width="10.453125" style="9" customWidth="1"/>
-    <col min="10242" max="10242" width="20.7265625" style="9" customWidth="1"/>
-    <col min="10243" max="10243" width="14.54296875" style="9" customWidth="1"/>
-    <col min="10244" max="10244" width="14.26953125" style="9" customWidth="1"/>
-    <col min="10245" max="10245" width="12.453125" style="9" customWidth="1"/>
-    <col min="10246" max="10246" width="17.54296875" style="9" customWidth="1"/>
-    <col min="10247" max="10247" width="27.453125" style="9" customWidth="1"/>
-    <col min="10248" max="10248" width="24.1796875" style="9" customWidth="1"/>
-    <col min="10249" max="10249" width="13.54296875" style="9" customWidth="1"/>
-    <col min="10250" max="10250" width="23.453125" style="9" customWidth="1"/>
-    <col min="10251" max="10251" width="21.1796875" style="9" customWidth="1"/>
-    <col min="10252" max="10252" width="20.453125" style="9" customWidth="1"/>
-    <col min="10253" max="10496" width="9.1796875" style="9"/>
-    <col min="10497" max="10497" width="10.453125" style="9" customWidth="1"/>
-    <col min="10498" max="10498" width="20.7265625" style="9" customWidth="1"/>
-    <col min="10499" max="10499" width="14.54296875" style="9" customWidth="1"/>
-    <col min="10500" max="10500" width="14.26953125" style="9" customWidth="1"/>
-    <col min="10501" max="10501" width="12.453125" style="9" customWidth="1"/>
-    <col min="10502" max="10502" width="17.54296875" style="9" customWidth="1"/>
-    <col min="10503" max="10503" width="27.453125" style="9" customWidth="1"/>
-    <col min="10504" max="10504" width="24.1796875" style="9" customWidth="1"/>
-    <col min="10505" max="10505" width="13.54296875" style="9" customWidth="1"/>
-    <col min="10506" max="10506" width="23.453125" style="9" customWidth="1"/>
-    <col min="10507" max="10507" width="21.1796875" style="9" customWidth="1"/>
-    <col min="10508" max="10508" width="20.453125" style="9" customWidth="1"/>
-    <col min="10509" max="10752" width="9.1796875" style="9"/>
-    <col min="10753" max="10753" width="10.453125" style="9" customWidth="1"/>
-    <col min="10754" max="10754" width="20.7265625" style="9" customWidth="1"/>
-    <col min="10755" max="10755" width="14.54296875" style="9" customWidth="1"/>
-    <col min="10756" max="10756" width="14.26953125" style="9" customWidth="1"/>
-    <col min="10757" max="10757" width="12.453125" style="9" customWidth="1"/>
-    <col min="10758" max="10758" width="17.54296875" style="9" customWidth="1"/>
-    <col min="10759" max="10759" width="27.453125" style="9" customWidth="1"/>
-    <col min="10760" max="10760" width="24.1796875" style="9" customWidth="1"/>
-    <col min="10761" max="10761" width="13.54296875" style="9" customWidth="1"/>
-    <col min="10762" max="10762" width="23.453125" style="9" customWidth="1"/>
-    <col min="10763" max="10763" width="21.1796875" style="9" customWidth="1"/>
-    <col min="10764" max="10764" width="20.453125" style="9" customWidth="1"/>
-    <col min="10765" max="11008" width="9.1796875" style="9"/>
-    <col min="11009" max="11009" width="10.453125" style="9" customWidth="1"/>
-    <col min="11010" max="11010" width="20.7265625" style="9" customWidth="1"/>
-    <col min="11011" max="11011" width="14.54296875" style="9" customWidth="1"/>
-    <col min="11012" max="11012" width="14.26953125" style="9" customWidth="1"/>
-    <col min="11013" max="11013" width="12.453125" style="9" customWidth="1"/>
-    <col min="11014" max="11014" width="17.54296875" style="9" customWidth="1"/>
-    <col min="11015" max="11015" width="27.453125" style="9" customWidth="1"/>
-    <col min="11016" max="11016" width="24.1796875" style="9" customWidth="1"/>
-    <col min="11017" max="11017" width="13.54296875" style="9" customWidth="1"/>
-    <col min="11018" max="11018" width="23.453125" style="9" customWidth="1"/>
-    <col min="11019" max="11019" width="21.1796875" style="9" customWidth="1"/>
-    <col min="11020" max="11020" width="20.453125" style="9" customWidth="1"/>
-    <col min="11021" max="11264" width="9.1796875" style="9"/>
-    <col min="11265" max="11265" width="10.453125" style="9" customWidth="1"/>
-    <col min="11266" max="11266" width="20.7265625" style="9" customWidth="1"/>
-    <col min="11267" max="11267" width="14.54296875" style="9" customWidth="1"/>
-    <col min="11268" max="11268" width="14.26953125" style="9" customWidth="1"/>
-    <col min="11269" max="11269" width="12.453125" style="9" customWidth="1"/>
-    <col min="11270" max="11270" width="17.54296875" style="9" customWidth="1"/>
-    <col min="11271" max="11271" width="27.453125" style="9" customWidth="1"/>
-    <col min="11272" max="11272" width="24.1796875" style="9" customWidth="1"/>
-    <col min="11273" max="11273" width="13.54296875" style="9" customWidth="1"/>
-    <col min="11274" max="11274" width="23.453125" style="9" customWidth="1"/>
-    <col min="11275" max="11275" width="21.1796875" style="9" customWidth="1"/>
-    <col min="11276" max="11276" width="20.453125" style="9" customWidth="1"/>
-    <col min="11277" max="11520" width="9.1796875" style="9"/>
-    <col min="11521" max="11521" width="10.453125" style="9" customWidth="1"/>
-    <col min="11522" max="11522" width="20.7265625" style="9" customWidth="1"/>
-    <col min="11523" max="11523" width="14.54296875" style="9" customWidth="1"/>
-    <col min="11524" max="11524" width="14.26953125" style="9" customWidth="1"/>
-    <col min="11525" max="11525" width="12.453125" style="9" customWidth="1"/>
-    <col min="11526" max="11526" width="17.54296875" style="9" customWidth="1"/>
-    <col min="11527" max="11527" width="27.453125" style="9" customWidth="1"/>
-    <col min="11528" max="11528" width="24.1796875" style="9" customWidth="1"/>
-    <col min="11529" max="11529" width="13.54296875" style="9" customWidth="1"/>
-    <col min="11530" max="11530" width="23.453125" style="9" customWidth="1"/>
-    <col min="11531" max="11531" width="21.1796875" style="9" customWidth="1"/>
-    <col min="11532" max="11532" width="20.453125" style="9" customWidth="1"/>
-    <col min="11533" max="11776" width="9.1796875" style="9"/>
-    <col min="11777" max="11777" width="10.453125" style="9" customWidth="1"/>
-    <col min="11778" max="11778" width="20.7265625" style="9" customWidth="1"/>
-    <col min="11779" max="11779" width="14.54296875" style="9" customWidth="1"/>
-    <col min="11780" max="11780" width="14.26953125" style="9" customWidth="1"/>
-    <col min="11781" max="11781" width="12.453125" style="9" customWidth="1"/>
-    <col min="11782" max="11782" width="17.54296875" style="9" customWidth="1"/>
-    <col min="11783" max="11783" width="27.453125" style="9" customWidth="1"/>
-    <col min="11784" max="11784" width="24.1796875" style="9" customWidth="1"/>
-    <col min="11785" max="11785" width="13.54296875" style="9" customWidth="1"/>
-    <col min="11786" max="11786" width="23.453125" style="9" customWidth="1"/>
-    <col min="11787" max="11787" width="21.1796875" style="9" customWidth="1"/>
-    <col min="11788" max="11788" width="20.453125" style="9" customWidth="1"/>
-    <col min="11789" max="12032" width="9.1796875" style="9"/>
-    <col min="12033" max="12033" width="10.453125" style="9" customWidth="1"/>
-    <col min="12034" max="12034" width="20.7265625" style="9" customWidth="1"/>
-    <col min="12035" max="12035" width="14.54296875" style="9" customWidth="1"/>
-    <col min="12036" max="12036" width="14.26953125" style="9" customWidth="1"/>
-    <col min="12037" max="12037" width="12.453125" style="9" customWidth="1"/>
-    <col min="12038" max="12038" width="17.54296875" style="9" customWidth="1"/>
-    <col min="12039" max="12039" width="27.453125" style="9" customWidth="1"/>
-    <col min="12040" max="12040" width="24.1796875" style="9" customWidth="1"/>
-    <col min="12041" max="12041" width="13.54296875" style="9" customWidth="1"/>
-    <col min="12042" max="12042" width="23.453125" style="9" customWidth="1"/>
-    <col min="12043" max="12043" width="21.1796875" style="9" customWidth="1"/>
-    <col min="12044" max="12044" width="20.453125" style="9" customWidth="1"/>
-    <col min="12045" max="12288" width="9.1796875" style="9"/>
-    <col min="12289" max="12289" width="10.453125" style="9" customWidth="1"/>
-    <col min="12290" max="12290" width="20.7265625" style="9" customWidth="1"/>
-    <col min="12291" max="12291" width="14.54296875" style="9" customWidth="1"/>
-    <col min="12292" max="12292" width="14.26953125" style="9" customWidth="1"/>
-    <col min="12293" max="12293" width="12.453125" style="9" customWidth="1"/>
-    <col min="12294" max="12294" width="17.54296875" style="9" customWidth="1"/>
-    <col min="12295" max="12295" width="27.453125" style="9" customWidth="1"/>
-    <col min="12296" max="12296" width="24.1796875" style="9" customWidth="1"/>
-    <col min="12297" max="12297" width="13.54296875" style="9" customWidth="1"/>
-    <col min="12298" max="12298" width="23.453125" style="9" customWidth="1"/>
-    <col min="12299" max="12299" width="21.1796875" style="9" customWidth="1"/>
-    <col min="12300" max="12300" width="20.453125" style="9" customWidth="1"/>
-    <col min="12301" max="12544" width="9.1796875" style="9"/>
-    <col min="12545" max="12545" width="10.453125" style="9" customWidth="1"/>
-    <col min="12546" max="12546" width="20.7265625" style="9" customWidth="1"/>
-    <col min="12547" max="12547" width="14.54296875" style="9" customWidth="1"/>
-    <col min="12548" max="12548" width="14.26953125" style="9" customWidth="1"/>
-    <col min="12549" max="12549" width="12.453125" style="9" customWidth="1"/>
-    <col min="12550" max="12550" width="17.54296875" style="9" customWidth="1"/>
-    <col min="12551" max="12551" width="27.453125" style="9" customWidth="1"/>
-    <col min="12552" max="12552" width="24.1796875" style="9" customWidth="1"/>
-    <col min="12553" max="12553" width="13.54296875" style="9" customWidth="1"/>
-    <col min="12554" max="12554" width="23.453125" style="9" customWidth="1"/>
-    <col min="12555" max="12555" width="21.1796875" style="9" customWidth="1"/>
-    <col min="12556" max="12556" width="20.453125" style="9" customWidth="1"/>
-    <col min="12557" max="12800" width="9.1796875" style="9"/>
-    <col min="12801" max="12801" width="10.453125" style="9" customWidth="1"/>
-    <col min="12802" max="12802" width="20.7265625" style="9" customWidth="1"/>
-    <col min="12803" max="12803" width="14.54296875" style="9" customWidth="1"/>
-    <col min="12804" max="12804" width="14.26953125" style="9" customWidth="1"/>
-    <col min="12805" max="12805" width="12.453125" style="9" customWidth="1"/>
-    <col min="12806" max="12806" width="17.54296875" style="9" customWidth="1"/>
-    <col min="12807" max="12807" width="27.453125" style="9" customWidth="1"/>
-    <col min="12808" max="12808" width="24.1796875" style="9" customWidth="1"/>
-    <col min="12809" max="12809" width="13.54296875" style="9" customWidth="1"/>
-    <col min="12810" max="12810" width="23.453125" style="9" customWidth="1"/>
-    <col min="12811" max="12811" width="21.1796875" style="9" customWidth="1"/>
-    <col min="12812" max="12812" width="20.453125" style="9" customWidth="1"/>
-    <col min="12813" max="13056" width="9.1796875" style="9"/>
-    <col min="13057" max="13057" width="10.453125" style="9" customWidth="1"/>
-    <col min="13058" max="13058" width="20.7265625" style="9" customWidth="1"/>
-    <col min="13059" max="13059" width="14.54296875" style="9" customWidth="1"/>
-    <col min="13060" max="13060" width="14.26953125" style="9" customWidth="1"/>
-    <col min="13061" max="13061" width="12.453125" style="9" customWidth="1"/>
-    <col min="13062" max="13062" width="17.54296875" style="9" customWidth="1"/>
-    <col min="13063" max="13063" width="27.453125" style="9" customWidth="1"/>
-    <col min="13064" max="13064" width="24.1796875" style="9" customWidth="1"/>
-    <col min="13065" max="13065" width="13.54296875" style="9" customWidth="1"/>
-    <col min="13066" max="13066" width="23.453125" style="9" customWidth="1"/>
-    <col min="13067" max="13067" width="21.1796875" style="9" customWidth="1"/>
-    <col min="13068" max="13068" width="20.453125" style="9" customWidth="1"/>
-    <col min="13069" max="13312" width="9.1796875" style="9"/>
-    <col min="13313" max="13313" width="10.453125" style="9" customWidth="1"/>
-    <col min="13314" max="13314" width="20.7265625" style="9" customWidth="1"/>
-    <col min="13315" max="13315" width="14.54296875" style="9" customWidth="1"/>
-    <col min="13316" max="13316" width="14.26953125" style="9" customWidth="1"/>
-    <col min="13317" max="13317" width="12.453125" style="9" customWidth="1"/>
-    <col min="13318" max="13318" width="17.54296875" style="9" customWidth="1"/>
-    <col min="13319" max="13319" width="27.453125" style="9" customWidth="1"/>
-    <col min="13320" max="13320" width="24.1796875" style="9" customWidth="1"/>
-    <col min="13321" max="13321" width="13.54296875" style="9" customWidth="1"/>
-    <col min="13322" max="13322" width="23.453125" style="9" customWidth="1"/>
-    <col min="13323" max="13323" width="21.1796875" style="9" customWidth="1"/>
-    <col min="13324" max="13324" width="20.453125" style="9" customWidth="1"/>
-    <col min="13325" max="13568" width="9.1796875" style="9"/>
-    <col min="13569" max="13569" width="10.453125" style="9" customWidth="1"/>
-    <col min="13570" max="13570" width="20.7265625" style="9" customWidth="1"/>
-    <col min="13571" max="13571" width="14.54296875" style="9" customWidth="1"/>
-    <col min="13572" max="13572" width="14.26953125" style="9" customWidth="1"/>
-    <col min="13573" max="13573" width="12.453125" style="9" customWidth="1"/>
-    <col min="13574" max="13574" width="17.54296875" style="9" customWidth="1"/>
-    <col min="13575" max="13575" width="27.453125" style="9" customWidth="1"/>
-    <col min="13576" max="13576" width="24.1796875" style="9" customWidth="1"/>
-    <col min="13577" max="13577" width="13.54296875" style="9" customWidth="1"/>
-    <col min="13578" max="13578" width="23.453125" style="9" customWidth="1"/>
-    <col min="13579" max="13579" width="21.1796875" style="9" customWidth="1"/>
-    <col min="13580" max="13580" width="20.453125" style="9" customWidth="1"/>
-    <col min="13581" max="13824" width="9.1796875" style="9"/>
-    <col min="13825" max="13825" width="10.453125" style="9" customWidth="1"/>
-    <col min="13826" max="13826" width="20.7265625" style="9" customWidth="1"/>
-    <col min="13827" max="13827" width="14.54296875" style="9" customWidth="1"/>
-    <col min="13828" max="13828" width="14.26953125" style="9" customWidth="1"/>
-    <col min="13829" max="13829" width="12.453125" style="9" customWidth="1"/>
-    <col min="13830" max="13830" width="17.54296875" style="9" customWidth="1"/>
-    <col min="13831" max="13831" width="27.453125" style="9" customWidth="1"/>
-    <col min="13832" max="13832" width="24.1796875" style="9" customWidth="1"/>
-    <col min="13833" max="13833" width="13.54296875" style="9" customWidth="1"/>
-    <col min="13834" max="13834" width="23.453125" style="9" customWidth="1"/>
-    <col min="13835" max="13835" width="21.1796875" style="9" customWidth="1"/>
-    <col min="13836" max="13836" width="20.453125" style="9" customWidth="1"/>
-    <col min="13837" max="14080" width="9.1796875" style="9"/>
-    <col min="14081" max="14081" width="10.453125" style="9" customWidth="1"/>
-    <col min="14082" max="14082" width="20.7265625" style="9" customWidth="1"/>
-    <col min="14083" max="14083" width="14.54296875" style="9" customWidth="1"/>
-    <col min="14084" max="14084" width="14.26953125" style="9" customWidth="1"/>
-    <col min="14085" max="14085" width="12.453125" style="9" customWidth="1"/>
-    <col min="14086" max="14086" width="17.54296875" style="9" customWidth="1"/>
-    <col min="14087" max="14087" width="27.453125" style="9" customWidth="1"/>
-    <col min="14088" max="14088" width="24.1796875" style="9" customWidth="1"/>
-    <col min="14089" max="14089" width="13.54296875" style="9" customWidth="1"/>
-    <col min="14090" max="14090" width="23.453125" style="9" customWidth="1"/>
-    <col min="14091" max="14091" width="21.1796875" style="9" customWidth="1"/>
-    <col min="14092" max="14092" width="20.453125" style="9" customWidth="1"/>
-    <col min="14093" max="14336" width="9.1796875" style="9"/>
-    <col min="14337" max="14337" width="10.453125" style="9" customWidth="1"/>
-    <col min="14338" max="14338" width="20.7265625" style="9" customWidth="1"/>
-    <col min="14339" max="14339" width="14.54296875" style="9" customWidth="1"/>
-    <col min="14340" max="14340" width="14.26953125" style="9" customWidth="1"/>
-    <col min="14341" max="14341" width="12.453125" style="9" customWidth="1"/>
-    <col min="14342" max="14342" width="17.54296875" style="9" customWidth="1"/>
-    <col min="14343" max="14343" width="27.453125" style="9" customWidth="1"/>
-    <col min="14344" max="14344" width="24.1796875" style="9" customWidth="1"/>
-    <col min="14345" max="14345" width="13.54296875" style="9" customWidth="1"/>
-    <col min="14346" max="14346" width="23.453125" style="9" customWidth="1"/>
-    <col min="14347" max="14347" width="21.1796875" style="9" customWidth="1"/>
-    <col min="14348" max="14348" width="20.453125" style="9" customWidth="1"/>
-    <col min="14349" max="14592" width="9.1796875" style="9"/>
-    <col min="14593" max="14593" width="10.453125" style="9" customWidth="1"/>
-    <col min="14594" max="14594" width="20.7265625" style="9" customWidth="1"/>
-    <col min="14595" max="14595" width="14.54296875" style="9" customWidth="1"/>
-    <col min="14596" max="14596" width="14.26953125" style="9" customWidth="1"/>
-    <col min="14597" max="14597" width="12.453125" style="9" customWidth="1"/>
-    <col min="14598" max="14598" width="17.54296875" style="9" customWidth="1"/>
-    <col min="14599" max="14599" width="27.453125" style="9" customWidth="1"/>
-    <col min="14600" max="14600" width="24.1796875" style="9" customWidth="1"/>
-    <col min="14601" max="14601" width="13.54296875" style="9" customWidth="1"/>
-    <col min="14602" max="14602" width="23.453125" style="9" customWidth="1"/>
-    <col min="14603" max="14603" width="21.1796875" style="9" customWidth="1"/>
-    <col min="14604" max="14604" width="20.453125" style="9" customWidth="1"/>
-    <col min="14605" max="14848" width="9.1796875" style="9"/>
-    <col min="14849" max="14849" width="10.453125" style="9" customWidth="1"/>
-    <col min="14850" max="14850" width="20.7265625" style="9" customWidth="1"/>
-    <col min="14851" max="14851" width="14.54296875" style="9" customWidth="1"/>
-    <col min="14852" max="14852" width="14.26953125" style="9" customWidth="1"/>
-    <col min="14853" max="14853" width="12.453125" style="9" customWidth="1"/>
-    <col min="14854" max="14854" width="17.54296875" style="9" customWidth="1"/>
-    <col min="14855" max="14855" width="27.453125" style="9" customWidth="1"/>
-    <col min="14856" max="14856" width="24.1796875" style="9" customWidth="1"/>
-    <col min="14857" max="14857" width="13.54296875" style="9" customWidth="1"/>
-    <col min="14858" max="14858" width="23.453125" style="9" customWidth="1"/>
-    <col min="14859" max="14859" width="21.1796875" style="9" customWidth="1"/>
-    <col min="14860" max="14860" width="20.453125" style="9" customWidth="1"/>
-    <col min="14861" max="15104" width="9.1796875" style="9"/>
-    <col min="15105" max="15105" width="10.453125" style="9" customWidth="1"/>
-    <col min="15106" max="15106" width="20.7265625" style="9" customWidth="1"/>
-    <col min="15107" max="15107" width="14.54296875" style="9" customWidth="1"/>
-    <col min="15108" max="15108" width="14.26953125" style="9" customWidth="1"/>
-    <col min="15109" max="15109" width="12.453125" style="9" customWidth="1"/>
-    <col min="15110" max="15110" width="17.54296875" style="9" customWidth="1"/>
-    <col min="15111" max="15111" width="27.453125" style="9" customWidth="1"/>
-    <col min="15112" max="15112" width="24.1796875" style="9" customWidth="1"/>
-    <col min="15113" max="15113" width="13.54296875" style="9" customWidth="1"/>
-    <col min="15114" max="15114" width="23.453125" style="9" customWidth="1"/>
-    <col min="15115" max="15115" width="21.1796875" style="9" customWidth="1"/>
-    <col min="15116" max="15116" width="20.453125" style="9" customWidth="1"/>
-    <col min="15117" max="15360" width="9.1796875" style="9"/>
-    <col min="15361" max="15361" width="10.453125" style="9" customWidth="1"/>
-    <col min="15362" max="15362" width="20.7265625" style="9" customWidth="1"/>
-    <col min="15363" max="15363" width="14.54296875" style="9" customWidth="1"/>
-    <col min="15364" max="15364" width="14.26953125" style="9" customWidth="1"/>
-    <col min="15365" max="15365" width="12.453125" style="9" customWidth="1"/>
-    <col min="15366" max="15366" width="17.54296875" style="9" customWidth="1"/>
-    <col min="15367" max="15367" width="27.453125" style="9" customWidth="1"/>
-    <col min="15368" max="15368" width="24.1796875" style="9" customWidth="1"/>
-    <col min="15369" max="15369" width="13.54296875" style="9" customWidth="1"/>
-    <col min="15370" max="15370" width="23.453125" style="9" customWidth="1"/>
-    <col min="15371" max="15371" width="21.1796875" style="9" customWidth="1"/>
-    <col min="15372" max="15372" width="20.453125" style="9" customWidth="1"/>
-    <col min="15373" max="15616" width="9.1796875" style="9"/>
-    <col min="15617" max="15617" width="10.453125" style="9" customWidth="1"/>
-    <col min="15618" max="15618" width="20.7265625" style="9" customWidth="1"/>
-    <col min="15619" max="15619" width="14.54296875" style="9" customWidth="1"/>
-    <col min="15620" max="15620" width="14.26953125" style="9" customWidth="1"/>
-    <col min="15621" max="15621" width="12.453125" style="9" customWidth="1"/>
-    <col min="15622" max="15622" width="17.54296875" style="9" customWidth="1"/>
-    <col min="15623" max="15623" width="27.453125" style="9" customWidth="1"/>
-    <col min="15624" max="15624" width="24.1796875" style="9" customWidth="1"/>
-    <col min="15625" max="15625" width="13.54296875" style="9" customWidth="1"/>
-    <col min="15626" max="15626" width="23.453125" style="9" customWidth="1"/>
-    <col min="15627" max="15627" width="21.1796875" style="9" customWidth="1"/>
-    <col min="15628" max="15628" width="20.453125" style="9" customWidth="1"/>
-    <col min="15629" max="15872" width="9.1796875" style="9"/>
-    <col min="15873" max="15873" width="10.453125" style="9" customWidth="1"/>
-    <col min="15874" max="15874" width="20.7265625" style="9" customWidth="1"/>
-    <col min="15875" max="15875" width="14.54296875" style="9" customWidth="1"/>
-    <col min="15876" max="15876" width="14.26953125" style="9" customWidth="1"/>
-    <col min="15877" max="15877" width="12.453125" style="9" customWidth="1"/>
-    <col min="15878" max="15878" width="17.54296875" style="9" customWidth="1"/>
-    <col min="15879" max="15879" width="27.453125" style="9" customWidth="1"/>
-    <col min="15880" max="15880" width="24.1796875" style="9" customWidth="1"/>
-    <col min="15881" max="15881" width="13.54296875" style="9" customWidth="1"/>
-    <col min="15882" max="15882" width="23.453125" style="9" customWidth="1"/>
-    <col min="15883" max="15883" width="21.1796875" style="9" customWidth="1"/>
-    <col min="15884" max="15884" width="20.453125" style="9" customWidth="1"/>
-    <col min="15885" max="16128" width="9.1796875" style="9"/>
-    <col min="16129" max="16129" width="10.453125" style="9" customWidth="1"/>
-    <col min="16130" max="16130" width="20.7265625" style="9" customWidth="1"/>
-    <col min="16131" max="16131" width="14.54296875" style="9" customWidth="1"/>
-    <col min="16132" max="16132" width="14.26953125" style="9" customWidth="1"/>
-    <col min="16133" max="16133" width="12.453125" style="9" customWidth="1"/>
-    <col min="16134" max="16134" width="17.54296875" style="9" customWidth="1"/>
-    <col min="16135" max="16135" width="27.453125" style="9" customWidth="1"/>
-    <col min="16136" max="16136" width="24.1796875" style="9" customWidth="1"/>
-    <col min="16137" max="16137" width="13.54296875" style="9" customWidth="1"/>
-    <col min="16138" max="16138" width="23.453125" style="9" customWidth="1"/>
-    <col min="16139" max="16139" width="21.1796875" style="9" customWidth="1"/>
-    <col min="16140" max="16140" width="20.453125" style="9" customWidth="1"/>
-    <col min="16141" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="79.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13" max="256" width="9.140625" style="9"/>
+    <col min="257" max="257" width="10.42578125" style="9" customWidth="1"/>
+    <col min="258" max="258" width="20.7109375" style="9" customWidth="1"/>
+    <col min="259" max="259" width="14.5703125" style="9" customWidth="1"/>
+    <col min="260" max="260" width="14.28515625" style="9" customWidth="1"/>
+    <col min="261" max="261" width="12.42578125" style="9" customWidth="1"/>
+    <col min="262" max="262" width="17.5703125" style="9" customWidth="1"/>
+    <col min="263" max="263" width="27.42578125" style="9" customWidth="1"/>
+    <col min="264" max="264" width="24.140625" style="9" customWidth="1"/>
+    <col min="265" max="265" width="13.5703125" style="9" customWidth="1"/>
+    <col min="266" max="266" width="23.42578125" style="9" customWidth="1"/>
+    <col min="267" max="267" width="21.140625" style="9" customWidth="1"/>
+    <col min="268" max="268" width="20.42578125" style="9" customWidth="1"/>
+    <col min="269" max="512" width="9.140625" style="9"/>
+    <col min="513" max="513" width="10.42578125" style="9" customWidth="1"/>
+    <col min="514" max="514" width="20.7109375" style="9" customWidth="1"/>
+    <col min="515" max="515" width="14.5703125" style="9" customWidth="1"/>
+    <col min="516" max="516" width="14.28515625" style="9" customWidth="1"/>
+    <col min="517" max="517" width="12.42578125" style="9" customWidth="1"/>
+    <col min="518" max="518" width="17.5703125" style="9" customWidth="1"/>
+    <col min="519" max="519" width="27.42578125" style="9" customWidth="1"/>
+    <col min="520" max="520" width="24.140625" style="9" customWidth="1"/>
+    <col min="521" max="521" width="13.5703125" style="9" customWidth="1"/>
+    <col min="522" max="522" width="23.42578125" style="9" customWidth="1"/>
+    <col min="523" max="523" width="21.140625" style="9" customWidth="1"/>
+    <col min="524" max="524" width="20.42578125" style="9" customWidth="1"/>
+    <col min="525" max="768" width="9.140625" style="9"/>
+    <col min="769" max="769" width="10.42578125" style="9" customWidth="1"/>
+    <col min="770" max="770" width="20.7109375" style="9" customWidth="1"/>
+    <col min="771" max="771" width="14.5703125" style="9" customWidth="1"/>
+    <col min="772" max="772" width="14.28515625" style="9" customWidth="1"/>
+    <col min="773" max="773" width="12.42578125" style="9" customWidth="1"/>
+    <col min="774" max="774" width="17.5703125" style="9" customWidth="1"/>
+    <col min="775" max="775" width="27.42578125" style="9" customWidth="1"/>
+    <col min="776" max="776" width="24.140625" style="9" customWidth="1"/>
+    <col min="777" max="777" width="13.5703125" style="9" customWidth="1"/>
+    <col min="778" max="778" width="23.42578125" style="9" customWidth="1"/>
+    <col min="779" max="779" width="21.140625" style="9" customWidth="1"/>
+    <col min="780" max="780" width="20.42578125" style="9" customWidth="1"/>
+    <col min="781" max="1024" width="9.140625" style="9"/>
+    <col min="1025" max="1025" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1026" max="1026" width="20.7109375" style="9" customWidth="1"/>
+    <col min="1027" max="1027" width="14.5703125" style="9" customWidth="1"/>
+    <col min="1028" max="1028" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1029" max="1029" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1030" max="1030" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1031" max="1031" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1032" max="1032" width="24.140625" style="9" customWidth="1"/>
+    <col min="1033" max="1033" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1034" max="1034" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1035" max="1035" width="21.140625" style="9" customWidth="1"/>
+    <col min="1036" max="1036" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1037" max="1280" width="9.140625" style="9"/>
+    <col min="1281" max="1281" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1282" max="1282" width="20.7109375" style="9" customWidth="1"/>
+    <col min="1283" max="1283" width="14.5703125" style="9" customWidth="1"/>
+    <col min="1284" max="1284" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1285" max="1285" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1286" max="1286" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1287" max="1287" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1288" max="1288" width="24.140625" style="9" customWidth="1"/>
+    <col min="1289" max="1289" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1290" max="1290" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1291" max="1291" width="21.140625" style="9" customWidth="1"/>
+    <col min="1292" max="1292" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1293" max="1536" width="9.140625" style="9"/>
+    <col min="1537" max="1537" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1538" max="1538" width="20.7109375" style="9" customWidth="1"/>
+    <col min="1539" max="1539" width="14.5703125" style="9" customWidth="1"/>
+    <col min="1540" max="1540" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1541" max="1541" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1542" max="1542" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1543" max="1543" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1544" max="1544" width="24.140625" style="9" customWidth="1"/>
+    <col min="1545" max="1545" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1546" max="1546" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1547" max="1547" width="21.140625" style="9" customWidth="1"/>
+    <col min="1548" max="1548" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1549" max="1792" width="9.140625" style="9"/>
+    <col min="1793" max="1793" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1794" max="1794" width="20.7109375" style="9" customWidth="1"/>
+    <col min="1795" max="1795" width="14.5703125" style="9" customWidth="1"/>
+    <col min="1796" max="1796" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1797" max="1797" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1798" max="1798" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1799" max="1799" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1800" max="1800" width="24.140625" style="9" customWidth="1"/>
+    <col min="1801" max="1801" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1802" max="1802" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1803" max="1803" width="21.140625" style="9" customWidth="1"/>
+    <col min="1804" max="1804" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1805" max="2048" width="9.140625" style="9"/>
+    <col min="2049" max="2049" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2050" max="2050" width="20.7109375" style="9" customWidth="1"/>
+    <col min="2051" max="2051" width="14.5703125" style="9" customWidth="1"/>
+    <col min="2052" max="2052" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2053" max="2053" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2054" max="2054" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2055" max="2055" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2056" max="2056" width="24.140625" style="9" customWidth="1"/>
+    <col min="2057" max="2057" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2058" max="2058" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2059" max="2059" width="21.140625" style="9" customWidth="1"/>
+    <col min="2060" max="2060" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2061" max="2304" width="9.140625" style="9"/>
+    <col min="2305" max="2305" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2306" max="2306" width="20.7109375" style="9" customWidth="1"/>
+    <col min="2307" max="2307" width="14.5703125" style="9" customWidth="1"/>
+    <col min="2308" max="2308" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2309" max="2309" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2310" max="2310" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2311" max="2311" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2312" max="2312" width="24.140625" style="9" customWidth="1"/>
+    <col min="2313" max="2313" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2314" max="2314" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2315" max="2315" width="21.140625" style="9" customWidth="1"/>
+    <col min="2316" max="2316" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2317" max="2560" width="9.140625" style="9"/>
+    <col min="2561" max="2561" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2562" max="2562" width="20.7109375" style="9" customWidth="1"/>
+    <col min="2563" max="2563" width="14.5703125" style="9" customWidth="1"/>
+    <col min="2564" max="2564" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2565" max="2565" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2566" max="2566" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2567" max="2567" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2568" max="2568" width="24.140625" style="9" customWidth="1"/>
+    <col min="2569" max="2569" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2570" max="2570" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2571" max="2571" width="21.140625" style="9" customWidth="1"/>
+    <col min="2572" max="2572" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2573" max="2816" width="9.140625" style="9"/>
+    <col min="2817" max="2817" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2818" max="2818" width="20.7109375" style="9" customWidth="1"/>
+    <col min="2819" max="2819" width="14.5703125" style="9" customWidth="1"/>
+    <col min="2820" max="2820" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2821" max="2821" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2822" max="2822" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2823" max="2823" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2824" max="2824" width="24.140625" style="9" customWidth="1"/>
+    <col min="2825" max="2825" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2826" max="2826" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2827" max="2827" width="21.140625" style="9" customWidth="1"/>
+    <col min="2828" max="2828" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2829" max="3072" width="9.140625" style="9"/>
+    <col min="3073" max="3073" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3074" max="3074" width="20.7109375" style="9" customWidth="1"/>
+    <col min="3075" max="3075" width="14.5703125" style="9" customWidth="1"/>
+    <col min="3076" max="3076" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3077" max="3077" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3078" max="3078" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3079" max="3079" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3080" max="3080" width="24.140625" style="9" customWidth="1"/>
+    <col min="3081" max="3081" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3082" max="3082" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3083" max="3083" width="21.140625" style="9" customWidth="1"/>
+    <col min="3084" max="3084" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3085" max="3328" width="9.140625" style="9"/>
+    <col min="3329" max="3329" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3330" max="3330" width="20.7109375" style="9" customWidth="1"/>
+    <col min="3331" max="3331" width="14.5703125" style="9" customWidth="1"/>
+    <col min="3332" max="3332" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3333" max="3333" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3334" max="3334" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3335" max="3335" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3336" max="3336" width="24.140625" style="9" customWidth="1"/>
+    <col min="3337" max="3337" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3338" max="3338" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3339" max="3339" width="21.140625" style="9" customWidth="1"/>
+    <col min="3340" max="3340" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3341" max="3584" width="9.140625" style="9"/>
+    <col min="3585" max="3585" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3586" max="3586" width="20.7109375" style="9" customWidth="1"/>
+    <col min="3587" max="3587" width="14.5703125" style="9" customWidth="1"/>
+    <col min="3588" max="3588" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3589" max="3589" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3590" max="3590" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3591" max="3591" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3592" max="3592" width="24.140625" style="9" customWidth="1"/>
+    <col min="3593" max="3593" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3594" max="3594" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3595" max="3595" width="21.140625" style="9" customWidth="1"/>
+    <col min="3596" max="3596" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3597" max="3840" width="9.140625" style="9"/>
+    <col min="3841" max="3841" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3842" max="3842" width="20.7109375" style="9" customWidth="1"/>
+    <col min="3843" max="3843" width="14.5703125" style="9" customWidth="1"/>
+    <col min="3844" max="3844" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3845" max="3845" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3846" max="3846" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3847" max="3847" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3848" max="3848" width="24.140625" style="9" customWidth="1"/>
+    <col min="3849" max="3849" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3850" max="3850" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3851" max="3851" width="21.140625" style="9" customWidth="1"/>
+    <col min="3852" max="3852" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3853" max="4096" width="9.140625" style="9"/>
+    <col min="4097" max="4097" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4098" max="4098" width="20.7109375" style="9" customWidth="1"/>
+    <col min="4099" max="4099" width="14.5703125" style="9" customWidth="1"/>
+    <col min="4100" max="4100" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4101" max="4101" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4102" max="4102" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4103" max="4103" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4104" max="4104" width="24.140625" style="9" customWidth="1"/>
+    <col min="4105" max="4105" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4106" max="4106" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4107" max="4107" width="21.140625" style="9" customWidth="1"/>
+    <col min="4108" max="4108" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4109" max="4352" width="9.140625" style="9"/>
+    <col min="4353" max="4353" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4354" max="4354" width="20.7109375" style="9" customWidth="1"/>
+    <col min="4355" max="4355" width="14.5703125" style="9" customWidth="1"/>
+    <col min="4356" max="4356" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4357" max="4357" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4358" max="4358" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4359" max="4359" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4360" max="4360" width="24.140625" style="9" customWidth="1"/>
+    <col min="4361" max="4361" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4362" max="4362" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4363" max="4363" width="21.140625" style="9" customWidth="1"/>
+    <col min="4364" max="4364" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4365" max="4608" width="9.140625" style="9"/>
+    <col min="4609" max="4609" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4610" max="4610" width="20.7109375" style="9" customWidth="1"/>
+    <col min="4611" max="4611" width="14.5703125" style="9" customWidth="1"/>
+    <col min="4612" max="4612" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4613" max="4613" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4614" max="4614" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4615" max="4615" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4616" max="4616" width="24.140625" style="9" customWidth="1"/>
+    <col min="4617" max="4617" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4618" max="4618" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4619" max="4619" width="21.140625" style="9" customWidth="1"/>
+    <col min="4620" max="4620" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4621" max="4864" width="9.140625" style="9"/>
+    <col min="4865" max="4865" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4866" max="4866" width="20.7109375" style="9" customWidth="1"/>
+    <col min="4867" max="4867" width="14.5703125" style="9" customWidth="1"/>
+    <col min="4868" max="4868" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4869" max="4869" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4870" max="4870" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4871" max="4871" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4872" max="4872" width="24.140625" style="9" customWidth="1"/>
+    <col min="4873" max="4873" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4874" max="4874" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4875" max="4875" width="21.140625" style="9" customWidth="1"/>
+    <col min="4876" max="4876" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4877" max="5120" width="9.140625" style="9"/>
+    <col min="5121" max="5121" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5122" max="5122" width="20.7109375" style="9" customWidth="1"/>
+    <col min="5123" max="5123" width="14.5703125" style="9" customWidth="1"/>
+    <col min="5124" max="5124" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5125" max="5125" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5126" max="5126" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5127" max="5127" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5128" max="5128" width="24.140625" style="9" customWidth="1"/>
+    <col min="5129" max="5129" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5130" max="5130" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5131" max="5131" width="21.140625" style="9" customWidth="1"/>
+    <col min="5132" max="5132" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5133" max="5376" width="9.140625" style="9"/>
+    <col min="5377" max="5377" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5378" max="5378" width="20.7109375" style="9" customWidth="1"/>
+    <col min="5379" max="5379" width="14.5703125" style="9" customWidth="1"/>
+    <col min="5380" max="5380" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5381" max="5381" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5382" max="5382" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5383" max="5383" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5384" max="5384" width="24.140625" style="9" customWidth="1"/>
+    <col min="5385" max="5385" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5386" max="5386" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5387" max="5387" width="21.140625" style="9" customWidth="1"/>
+    <col min="5388" max="5388" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5389" max="5632" width="9.140625" style="9"/>
+    <col min="5633" max="5633" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5634" max="5634" width="20.7109375" style="9" customWidth="1"/>
+    <col min="5635" max="5635" width="14.5703125" style="9" customWidth="1"/>
+    <col min="5636" max="5636" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5637" max="5637" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5638" max="5638" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5639" max="5639" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5640" max="5640" width="24.140625" style="9" customWidth="1"/>
+    <col min="5641" max="5641" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5642" max="5642" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5643" max="5643" width="21.140625" style="9" customWidth="1"/>
+    <col min="5644" max="5644" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5645" max="5888" width="9.140625" style="9"/>
+    <col min="5889" max="5889" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5890" max="5890" width="20.7109375" style="9" customWidth="1"/>
+    <col min="5891" max="5891" width="14.5703125" style="9" customWidth="1"/>
+    <col min="5892" max="5892" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5893" max="5893" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5894" max="5894" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5895" max="5895" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5896" max="5896" width="24.140625" style="9" customWidth="1"/>
+    <col min="5897" max="5897" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5898" max="5898" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5899" max="5899" width="21.140625" style="9" customWidth="1"/>
+    <col min="5900" max="5900" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5901" max="6144" width="9.140625" style="9"/>
+    <col min="6145" max="6145" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6146" max="6146" width="20.7109375" style="9" customWidth="1"/>
+    <col min="6147" max="6147" width="14.5703125" style="9" customWidth="1"/>
+    <col min="6148" max="6148" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6149" max="6149" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6150" max="6150" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6151" max="6151" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6152" max="6152" width="24.140625" style="9" customWidth="1"/>
+    <col min="6153" max="6153" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6154" max="6154" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6155" max="6155" width="21.140625" style="9" customWidth="1"/>
+    <col min="6156" max="6156" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6157" max="6400" width="9.140625" style="9"/>
+    <col min="6401" max="6401" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6402" max="6402" width="20.7109375" style="9" customWidth="1"/>
+    <col min="6403" max="6403" width="14.5703125" style="9" customWidth="1"/>
+    <col min="6404" max="6404" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6405" max="6405" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6406" max="6406" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6407" max="6407" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6408" max="6408" width="24.140625" style="9" customWidth="1"/>
+    <col min="6409" max="6409" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6410" max="6410" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6411" max="6411" width="21.140625" style="9" customWidth="1"/>
+    <col min="6412" max="6412" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6413" max="6656" width="9.140625" style="9"/>
+    <col min="6657" max="6657" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6658" max="6658" width="20.7109375" style="9" customWidth="1"/>
+    <col min="6659" max="6659" width="14.5703125" style="9" customWidth="1"/>
+    <col min="6660" max="6660" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6661" max="6661" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6662" max="6662" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6663" max="6663" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6664" max="6664" width="24.140625" style="9" customWidth="1"/>
+    <col min="6665" max="6665" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6666" max="6666" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6667" max="6667" width="21.140625" style="9" customWidth="1"/>
+    <col min="6668" max="6668" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6669" max="6912" width="9.140625" style="9"/>
+    <col min="6913" max="6913" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6914" max="6914" width="20.7109375" style="9" customWidth="1"/>
+    <col min="6915" max="6915" width="14.5703125" style="9" customWidth="1"/>
+    <col min="6916" max="6916" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6917" max="6917" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6918" max="6918" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6919" max="6919" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6920" max="6920" width="24.140625" style="9" customWidth="1"/>
+    <col min="6921" max="6921" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6922" max="6922" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6923" max="6923" width="21.140625" style="9" customWidth="1"/>
+    <col min="6924" max="6924" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6925" max="7168" width="9.140625" style="9"/>
+    <col min="7169" max="7169" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7170" max="7170" width="20.7109375" style="9" customWidth="1"/>
+    <col min="7171" max="7171" width="14.5703125" style="9" customWidth="1"/>
+    <col min="7172" max="7172" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7173" max="7173" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7174" max="7174" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7175" max="7175" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7176" max="7176" width="24.140625" style="9" customWidth="1"/>
+    <col min="7177" max="7177" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7178" max="7178" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7179" max="7179" width="21.140625" style="9" customWidth="1"/>
+    <col min="7180" max="7180" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7181" max="7424" width="9.140625" style="9"/>
+    <col min="7425" max="7425" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7426" max="7426" width="20.7109375" style="9" customWidth="1"/>
+    <col min="7427" max="7427" width="14.5703125" style="9" customWidth="1"/>
+    <col min="7428" max="7428" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7429" max="7429" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7430" max="7430" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7431" max="7431" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7432" max="7432" width="24.140625" style="9" customWidth="1"/>
+    <col min="7433" max="7433" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7434" max="7434" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7435" max="7435" width="21.140625" style="9" customWidth="1"/>
+    <col min="7436" max="7436" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7437" max="7680" width="9.140625" style="9"/>
+    <col min="7681" max="7681" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7682" max="7682" width="20.7109375" style="9" customWidth="1"/>
+    <col min="7683" max="7683" width="14.5703125" style="9" customWidth="1"/>
+    <col min="7684" max="7684" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7685" max="7685" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7686" max="7686" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7687" max="7687" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7688" max="7688" width="24.140625" style="9" customWidth="1"/>
+    <col min="7689" max="7689" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7690" max="7690" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7691" max="7691" width="21.140625" style="9" customWidth="1"/>
+    <col min="7692" max="7692" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7693" max="7936" width="9.140625" style="9"/>
+    <col min="7937" max="7937" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7938" max="7938" width="20.7109375" style="9" customWidth="1"/>
+    <col min="7939" max="7939" width="14.5703125" style="9" customWidth="1"/>
+    <col min="7940" max="7940" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7941" max="7941" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7942" max="7942" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7943" max="7943" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7944" max="7944" width="24.140625" style="9" customWidth="1"/>
+    <col min="7945" max="7945" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7946" max="7946" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7947" max="7947" width="21.140625" style="9" customWidth="1"/>
+    <col min="7948" max="7948" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7949" max="8192" width="9.140625" style="9"/>
+    <col min="8193" max="8193" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8194" max="8194" width="20.7109375" style="9" customWidth="1"/>
+    <col min="8195" max="8195" width="14.5703125" style="9" customWidth="1"/>
+    <col min="8196" max="8196" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8197" max="8197" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8198" max="8198" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8199" max="8199" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8200" max="8200" width="24.140625" style="9" customWidth="1"/>
+    <col min="8201" max="8201" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8202" max="8202" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8203" max="8203" width="21.140625" style="9" customWidth="1"/>
+    <col min="8204" max="8204" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8205" max="8448" width="9.140625" style="9"/>
+    <col min="8449" max="8449" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8450" max="8450" width="20.7109375" style="9" customWidth="1"/>
+    <col min="8451" max="8451" width="14.5703125" style="9" customWidth="1"/>
+    <col min="8452" max="8452" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8453" max="8453" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8454" max="8454" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8455" max="8455" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8456" max="8456" width="24.140625" style="9" customWidth="1"/>
+    <col min="8457" max="8457" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8458" max="8458" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8459" max="8459" width="21.140625" style="9" customWidth="1"/>
+    <col min="8460" max="8460" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8461" max="8704" width="9.140625" style="9"/>
+    <col min="8705" max="8705" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8706" max="8706" width="20.7109375" style="9" customWidth="1"/>
+    <col min="8707" max="8707" width="14.5703125" style="9" customWidth="1"/>
+    <col min="8708" max="8708" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8709" max="8709" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8710" max="8710" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8711" max="8711" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8712" max="8712" width="24.140625" style="9" customWidth="1"/>
+    <col min="8713" max="8713" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8714" max="8714" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8715" max="8715" width="21.140625" style="9" customWidth="1"/>
+    <col min="8716" max="8716" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8717" max="8960" width="9.140625" style="9"/>
+    <col min="8961" max="8961" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8962" max="8962" width="20.7109375" style="9" customWidth="1"/>
+    <col min="8963" max="8963" width="14.5703125" style="9" customWidth="1"/>
+    <col min="8964" max="8964" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8965" max="8965" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8966" max="8966" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8967" max="8967" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8968" max="8968" width="24.140625" style="9" customWidth="1"/>
+    <col min="8969" max="8969" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8970" max="8970" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8971" max="8971" width="21.140625" style="9" customWidth="1"/>
+    <col min="8972" max="8972" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8973" max="9216" width="9.140625" style="9"/>
+    <col min="9217" max="9217" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9218" max="9218" width="20.7109375" style="9" customWidth="1"/>
+    <col min="9219" max="9219" width="14.5703125" style="9" customWidth="1"/>
+    <col min="9220" max="9220" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9221" max="9221" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9222" max="9222" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9223" max="9223" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9224" max="9224" width="24.140625" style="9" customWidth="1"/>
+    <col min="9225" max="9225" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9226" max="9226" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9227" max="9227" width="21.140625" style="9" customWidth="1"/>
+    <col min="9228" max="9228" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9229" max="9472" width="9.140625" style="9"/>
+    <col min="9473" max="9473" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9474" max="9474" width="20.7109375" style="9" customWidth="1"/>
+    <col min="9475" max="9475" width="14.5703125" style="9" customWidth="1"/>
+    <col min="9476" max="9476" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9477" max="9477" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9478" max="9478" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9479" max="9479" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9480" max="9480" width="24.140625" style="9" customWidth="1"/>
+    <col min="9481" max="9481" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9482" max="9482" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9483" max="9483" width="21.140625" style="9" customWidth="1"/>
+    <col min="9484" max="9484" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9485" max="9728" width="9.140625" style="9"/>
+    <col min="9729" max="9729" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9730" max="9730" width="20.7109375" style="9" customWidth="1"/>
+    <col min="9731" max="9731" width="14.5703125" style="9" customWidth="1"/>
+    <col min="9732" max="9732" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9733" max="9733" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9734" max="9734" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9735" max="9735" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9736" max="9736" width="24.140625" style="9" customWidth="1"/>
+    <col min="9737" max="9737" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9738" max="9738" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9739" max="9739" width="21.140625" style="9" customWidth="1"/>
+    <col min="9740" max="9740" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9741" max="9984" width="9.140625" style="9"/>
+    <col min="9985" max="9985" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9986" max="9986" width="20.7109375" style="9" customWidth="1"/>
+    <col min="9987" max="9987" width="14.5703125" style="9" customWidth="1"/>
+    <col min="9988" max="9988" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9989" max="9989" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9990" max="9990" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9991" max="9991" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9992" max="9992" width="24.140625" style="9" customWidth="1"/>
+    <col min="9993" max="9993" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9994" max="9994" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9995" max="9995" width="21.140625" style="9" customWidth="1"/>
+    <col min="9996" max="9996" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9997" max="10240" width="9.140625" style="9"/>
+    <col min="10241" max="10241" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10242" max="10242" width="20.7109375" style="9" customWidth="1"/>
+    <col min="10243" max="10243" width="14.5703125" style="9" customWidth="1"/>
+    <col min="10244" max="10244" width="14.28515625" style="9" customWidth="1"/>
+    <col min="10245" max="10245" width="12.42578125" style="9" customWidth="1"/>
+    <col min="10246" max="10246" width="17.5703125" style="9" customWidth="1"/>
+    <col min="10247" max="10247" width="27.42578125" style="9" customWidth="1"/>
+    <col min="10248" max="10248" width="24.140625" style="9" customWidth="1"/>
+    <col min="10249" max="10249" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10250" max="10250" width="23.42578125" style="9" customWidth="1"/>
+    <col min="10251" max="10251" width="21.140625" style="9" customWidth="1"/>
+    <col min="10252" max="10252" width="20.42578125" style="9" customWidth="1"/>
+    <col min="10253" max="10496" width="9.140625" style="9"/>
+    <col min="10497" max="10497" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10498" max="10498" width="20.7109375" style="9" customWidth="1"/>
+    <col min="10499" max="10499" width="14.5703125" style="9" customWidth="1"/>
+    <col min="10500" max="10500" width="14.28515625" style="9" customWidth="1"/>
+    <col min="10501" max="10501" width="12.42578125" style="9" customWidth="1"/>
+    <col min="10502" max="10502" width="17.5703125" style="9" customWidth="1"/>
+    <col min="10503" max="10503" width="27.42578125" style="9" customWidth="1"/>
+    <col min="10504" max="10504" width="24.140625" style="9" customWidth="1"/>
+    <col min="10505" max="10505" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10506" max="10506" width="23.42578125" style="9" customWidth="1"/>
+    <col min="10507" max="10507" width="21.140625" style="9" customWidth="1"/>
+    <col min="10508" max="10508" width="20.42578125" style="9" customWidth="1"/>
+    <col min="10509" max="10752" width="9.140625" style="9"/>
+    <col min="10753" max="10753" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10754" max="10754" width="20.7109375" style="9" customWidth="1"/>
+    <col min="10755" max="10755" width="14.5703125" style="9" customWidth="1"/>
+    <col min="10756" max="10756" width="14.28515625" style="9" customWidth="1"/>
+    <col min="10757" max="10757" width="12.42578125" style="9" customWidth="1"/>
+    <col min="10758" max="10758" width="17.5703125" style="9" customWidth="1"/>
+    <col min="10759" max="10759" width="27.42578125" style="9" customWidth="1"/>
+    <col min="10760" max="10760" width="24.140625" style="9" customWidth="1"/>
+    <col min="10761" max="10761" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10762" max="10762" width="23.42578125" style="9" customWidth="1"/>
+    <col min="10763" max="10763" width="21.140625" style="9" customWidth="1"/>
+    <col min="10764" max="10764" width="20.42578125" style="9" customWidth="1"/>
+    <col min="10765" max="11008" width="9.140625" style="9"/>
+    <col min="11009" max="11009" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11010" max="11010" width="20.7109375" style="9" customWidth="1"/>
+    <col min="11011" max="11011" width="14.5703125" style="9" customWidth="1"/>
+    <col min="11012" max="11012" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11013" max="11013" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11014" max="11014" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11015" max="11015" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11016" max="11016" width="24.140625" style="9" customWidth="1"/>
+    <col min="11017" max="11017" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11018" max="11018" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11019" max="11019" width="21.140625" style="9" customWidth="1"/>
+    <col min="11020" max="11020" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11021" max="11264" width="9.140625" style="9"/>
+    <col min="11265" max="11265" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11266" max="11266" width="20.7109375" style="9" customWidth="1"/>
+    <col min="11267" max="11267" width="14.5703125" style="9" customWidth="1"/>
+    <col min="11268" max="11268" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11269" max="11269" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11270" max="11270" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11271" max="11271" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11272" max="11272" width="24.140625" style="9" customWidth="1"/>
+    <col min="11273" max="11273" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11274" max="11274" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11275" max="11275" width="21.140625" style="9" customWidth="1"/>
+    <col min="11276" max="11276" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11277" max="11520" width="9.140625" style="9"/>
+    <col min="11521" max="11521" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11522" max="11522" width="20.7109375" style="9" customWidth="1"/>
+    <col min="11523" max="11523" width="14.5703125" style="9" customWidth="1"/>
+    <col min="11524" max="11524" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11525" max="11525" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11526" max="11526" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11527" max="11527" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11528" max="11528" width="24.140625" style="9" customWidth="1"/>
+    <col min="11529" max="11529" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11530" max="11530" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11531" max="11531" width="21.140625" style="9" customWidth="1"/>
+    <col min="11532" max="11532" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11533" max="11776" width="9.140625" style="9"/>
+    <col min="11777" max="11777" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11778" max="11778" width="20.7109375" style="9" customWidth="1"/>
+    <col min="11779" max="11779" width="14.5703125" style="9" customWidth="1"/>
+    <col min="11780" max="11780" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11781" max="11781" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11782" max="11782" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11783" max="11783" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11784" max="11784" width="24.140625" style="9" customWidth="1"/>
+    <col min="11785" max="11785" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11786" max="11786" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11787" max="11787" width="21.140625" style="9" customWidth="1"/>
+    <col min="11788" max="11788" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11789" max="12032" width="9.140625" style="9"/>
+    <col min="12033" max="12033" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12034" max="12034" width="20.7109375" style="9" customWidth="1"/>
+    <col min="12035" max="12035" width="14.5703125" style="9" customWidth="1"/>
+    <col min="12036" max="12036" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12037" max="12037" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12038" max="12038" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12039" max="12039" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12040" max="12040" width="24.140625" style="9" customWidth="1"/>
+    <col min="12041" max="12041" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12042" max="12042" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12043" max="12043" width="21.140625" style="9" customWidth="1"/>
+    <col min="12044" max="12044" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12045" max="12288" width="9.140625" style="9"/>
+    <col min="12289" max="12289" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12290" max="12290" width="20.7109375" style="9" customWidth="1"/>
+    <col min="12291" max="12291" width="14.5703125" style="9" customWidth="1"/>
+    <col min="12292" max="12292" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12293" max="12293" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12294" max="12294" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12295" max="12295" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12296" max="12296" width="24.140625" style="9" customWidth="1"/>
+    <col min="12297" max="12297" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12298" max="12298" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12299" max="12299" width="21.140625" style="9" customWidth="1"/>
+    <col min="12300" max="12300" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12301" max="12544" width="9.140625" style="9"/>
+    <col min="12545" max="12545" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12546" max="12546" width="20.7109375" style="9" customWidth="1"/>
+    <col min="12547" max="12547" width="14.5703125" style="9" customWidth="1"/>
+    <col min="12548" max="12548" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12549" max="12549" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12550" max="12550" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12551" max="12551" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12552" max="12552" width="24.140625" style="9" customWidth="1"/>
+    <col min="12553" max="12553" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12554" max="12554" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12555" max="12555" width="21.140625" style="9" customWidth="1"/>
+    <col min="12556" max="12556" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12557" max="12800" width="9.140625" style="9"/>
+    <col min="12801" max="12801" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12802" max="12802" width="20.7109375" style="9" customWidth="1"/>
+    <col min="12803" max="12803" width="14.5703125" style="9" customWidth="1"/>
+    <col min="12804" max="12804" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12805" max="12805" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12806" max="12806" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12807" max="12807" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12808" max="12808" width="24.140625" style="9" customWidth="1"/>
+    <col min="12809" max="12809" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12810" max="12810" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12811" max="12811" width="21.140625" style="9" customWidth="1"/>
+    <col min="12812" max="12812" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12813" max="13056" width="9.140625" style="9"/>
+    <col min="13057" max="13057" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13058" max="13058" width="20.7109375" style="9" customWidth="1"/>
+    <col min="13059" max="13059" width="14.5703125" style="9" customWidth="1"/>
+    <col min="13060" max="13060" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13061" max="13061" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13062" max="13062" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13063" max="13063" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13064" max="13064" width="24.140625" style="9" customWidth="1"/>
+    <col min="13065" max="13065" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13066" max="13066" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13067" max="13067" width="21.140625" style="9" customWidth="1"/>
+    <col min="13068" max="13068" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13069" max="13312" width="9.140625" style="9"/>
+    <col min="13313" max="13313" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13314" max="13314" width="20.7109375" style="9" customWidth="1"/>
+    <col min="13315" max="13315" width="14.5703125" style="9" customWidth="1"/>
+    <col min="13316" max="13316" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13317" max="13317" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13318" max="13318" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13319" max="13319" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13320" max="13320" width="24.140625" style="9" customWidth="1"/>
+    <col min="13321" max="13321" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13322" max="13322" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13323" max="13323" width="21.140625" style="9" customWidth="1"/>
+    <col min="13324" max="13324" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13325" max="13568" width="9.140625" style="9"/>
+    <col min="13569" max="13569" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13570" max="13570" width="20.7109375" style="9" customWidth="1"/>
+    <col min="13571" max="13571" width="14.5703125" style="9" customWidth="1"/>
+    <col min="13572" max="13572" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13573" max="13573" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13574" max="13574" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13575" max="13575" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13576" max="13576" width="24.140625" style="9" customWidth="1"/>
+    <col min="13577" max="13577" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13578" max="13578" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13579" max="13579" width="21.140625" style="9" customWidth="1"/>
+    <col min="13580" max="13580" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13581" max="13824" width="9.140625" style="9"/>
+    <col min="13825" max="13825" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13826" max="13826" width="20.7109375" style="9" customWidth="1"/>
+    <col min="13827" max="13827" width="14.5703125" style="9" customWidth="1"/>
+    <col min="13828" max="13828" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13829" max="13829" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13830" max="13830" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13831" max="13831" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13832" max="13832" width="24.140625" style="9" customWidth="1"/>
+    <col min="13833" max="13833" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13834" max="13834" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13835" max="13835" width="21.140625" style="9" customWidth="1"/>
+    <col min="13836" max="13836" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13837" max="14080" width="9.140625" style="9"/>
+    <col min="14081" max="14081" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14082" max="14082" width="20.7109375" style="9" customWidth="1"/>
+    <col min="14083" max="14083" width="14.5703125" style="9" customWidth="1"/>
+    <col min="14084" max="14084" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14085" max="14085" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14086" max="14086" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14087" max="14087" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14088" max="14088" width="24.140625" style="9" customWidth="1"/>
+    <col min="14089" max="14089" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14090" max="14090" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14091" max="14091" width="21.140625" style="9" customWidth="1"/>
+    <col min="14092" max="14092" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14093" max="14336" width="9.140625" style="9"/>
+    <col min="14337" max="14337" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14338" max="14338" width="20.7109375" style="9" customWidth="1"/>
+    <col min="14339" max="14339" width="14.5703125" style="9" customWidth="1"/>
+    <col min="14340" max="14340" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14341" max="14341" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14342" max="14342" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14343" max="14343" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14344" max="14344" width="24.140625" style="9" customWidth="1"/>
+    <col min="14345" max="14345" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14346" max="14346" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14347" max="14347" width="21.140625" style="9" customWidth="1"/>
+    <col min="14348" max="14348" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14349" max="14592" width="9.140625" style="9"/>
+    <col min="14593" max="14593" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14594" max="14594" width="20.7109375" style="9" customWidth="1"/>
+    <col min="14595" max="14595" width="14.5703125" style="9" customWidth="1"/>
+    <col min="14596" max="14596" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14597" max="14597" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14598" max="14598" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14599" max="14599" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14600" max="14600" width="24.140625" style="9" customWidth="1"/>
+    <col min="14601" max="14601" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14602" max="14602" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14603" max="14603" width="21.140625" style="9" customWidth="1"/>
+    <col min="14604" max="14604" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14605" max="14848" width="9.140625" style="9"/>
+    <col min="14849" max="14849" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14850" max="14850" width="20.7109375" style="9" customWidth="1"/>
+    <col min="14851" max="14851" width="14.5703125" style="9" customWidth="1"/>
+    <col min="14852" max="14852" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14853" max="14853" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14854" max="14854" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14855" max="14855" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14856" max="14856" width="24.140625" style="9" customWidth="1"/>
+    <col min="14857" max="14857" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14858" max="14858" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14859" max="14859" width="21.140625" style="9" customWidth="1"/>
+    <col min="14860" max="14860" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14861" max="15104" width="9.140625" style="9"/>
+    <col min="15105" max="15105" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15106" max="15106" width="20.7109375" style="9" customWidth="1"/>
+    <col min="15107" max="15107" width="14.5703125" style="9" customWidth="1"/>
+    <col min="15108" max="15108" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15109" max="15109" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15110" max="15110" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15111" max="15111" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15112" max="15112" width="24.140625" style="9" customWidth="1"/>
+    <col min="15113" max="15113" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15114" max="15114" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15115" max="15115" width="21.140625" style="9" customWidth="1"/>
+    <col min="15116" max="15116" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15117" max="15360" width="9.140625" style="9"/>
+    <col min="15361" max="15361" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15362" max="15362" width="20.7109375" style="9" customWidth="1"/>
+    <col min="15363" max="15363" width="14.5703125" style="9" customWidth="1"/>
+    <col min="15364" max="15364" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15365" max="15365" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15366" max="15366" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15367" max="15367" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15368" max="15368" width="24.140625" style="9" customWidth="1"/>
+    <col min="15369" max="15369" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15370" max="15370" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15371" max="15371" width="21.140625" style="9" customWidth="1"/>
+    <col min="15372" max="15372" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15373" max="15616" width="9.140625" style="9"/>
+    <col min="15617" max="15617" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15618" max="15618" width="20.7109375" style="9" customWidth="1"/>
+    <col min="15619" max="15619" width="14.5703125" style="9" customWidth="1"/>
+    <col min="15620" max="15620" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15621" max="15621" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15622" max="15622" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15623" max="15623" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15624" max="15624" width="24.140625" style="9" customWidth="1"/>
+    <col min="15625" max="15625" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15626" max="15626" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15627" max="15627" width="21.140625" style="9" customWidth="1"/>
+    <col min="15628" max="15628" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15629" max="15872" width="9.140625" style="9"/>
+    <col min="15873" max="15873" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15874" max="15874" width="20.7109375" style="9" customWidth="1"/>
+    <col min="15875" max="15875" width="14.5703125" style="9" customWidth="1"/>
+    <col min="15876" max="15876" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15877" max="15877" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15878" max="15878" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15879" max="15879" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15880" max="15880" width="24.140625" style="9" customWidth="1"/>
+    <col min="15881" max="15881" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15882" max="15882" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15883" max="15883" width="21.140625" style="9" customWidth="1"/>
+    <col min="15884" max="15884" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15885" max="16128" width="9.140625" style="9"/>
+    <col min="16129" max="16129" width="10.42578125" style="9" customWidth="1"/>
+    <col min="16130" max="16130" width="20.7109375" style="9" customWidth="1"/>
+    <col min="16131" max="16131" width="14.5703125" style="9" customWidth="1"/>
+    <col min="16132" max="16132" width="14.28515625" style="9" customWidth="1"/>
+    <col min="16133" max="16133" width="12.42578125" style="9" customWidth="1"/>
+    <col min="16134" max="16134" width="17.5703125" style="9" customWidth="1"/>
+    <col min="16135" max="16135" width="27.42578125" style="9" customWidth="1"/>
+    <col min="16136" max="16136" width="24.140625" style="9" customWidth="1"/>
+    <col min="16137" max="16137" width="13.5703125" style="9" customWidth="1"/>
+    <col min="16138" max="16138" width="23.42578125" style="9" customWidth="1"/>
+    <col min="16139" max="16139" width="21.140625" style="9" customWidth="1"/>
+    <col min="16140" max="16140" width="20.42578125" style="9" customWidth="1"/>
+    <col min="16141" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -6420,7 +6437,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -6458,7 +6475,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -6496,7 +6513,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -6534,7 +6551,7 @@
         <v>10.86</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>273</v>
       </c>
@@ -6552,7 +6569,7 @@
         <v>1053081208</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>275</v>
       </c>
@@ -6569,7 +6586,7 @@
         <v>1053251004</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>278</v>
       </c>
@@ -6587,7 +6604,7 @@
         <v>1053002100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>280</v>
       </c>
@@ -6604,7 +6621,7 @@
         <v>1053071202</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>281</v>
       </c>
@@ -6621,7 +6638,7 @@
         <v>1053251002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -6642,21 +6659,21 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.1796875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="70.1796875" style="9" customWidth="1"/>
-    <col min="5" max="6" width="9.1796875" style="9"/>
-    <col min="7" max="7" width="19.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="70.140625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="19.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="9"/>
+    <col min="11" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -6688,7 +6705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6720,7 +6737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6752,7 +6769,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6784,7 +6801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6816,7 +6833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6848,7 +6865,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6880,7 +6897,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -6912,7 +6929,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -6944,7 +6961,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -6976,7 +6993,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7008,7 +7025,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7040,7 +7057,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -7072,7 +7089,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -7104,7 +7121,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -7136,7 +7153,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -7168,7 +7185,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -7200,7 +7217,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -7232,7 +7249,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -7264,7 +7281,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -7296,7 +7313,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -7325,7 +7342,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>23</v>
       </c>
@@ -7357,7 +7374,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>333</v>
       </c>
@@ -7374,7 +7391,7 @@
         <v>1053081204</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>281</v>
       </c>
@@ -7392,7 +7409,7 @@
         <v>1053251002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>278</v>
       </c>
@@ -7410,7 +7427,7 @@
         <v>1053002100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>338</v>
       </c>
@@ -7427,7 +7444,7 @@
         <v>1054301204</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>275</v>
       </c>
@@ -7444,7 +7461,7 @@
         <v>1053251004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>341</v>
       </c>
@@ -7461,7 +7478,7 @@
         <v>1053071204</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
         <v>344</v>
       </c>
@@ -7498,13 +7515,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -7515,7 +7532,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>322</v>
       </c>
@@ -7526,7 +7543,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>324</v>
       </c>
@@ -7537,7 +7554,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>326</v>
       </c>
@@ -7548,7 +7565,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>327</v>
       </c>

--- a/Current Cycling/Current Cycling Cabinet PCB Design.xlsx
+++ b/Current Cycling/Current Cycling Cabinet PCB Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Projects\Current Cycling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905D9D65-F8FF-4B51-B6B7-48CF85993770}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005085A9-D701-4FB8-B123-77651B13638C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="936" windowWidth="17280" windowHeight="9024" xr2:uid="{F7669683-8C58-47AD-AB59-72FC40B2BAC7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7669683-8C58-47AD-AB59-72FC40B2BAC7}"/>
   </bookViews>
   <sheets>
     <sheet name="PC to Master Comms" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="404">
   <si>
     <t>Assembly</t>
   </si>
@@ -1244,6 +1244,15 @@
   </si>
   <si>
     <t>1 = in a cycle, 0 = not in a cycle</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>binary set of 1s and 0s depicting which smoke sensor is to be used. MSB is smoke sensor 1</t>
+  </si>
+  <si>
+    <t>binary set of 1s and 0s depicting which temp sensor is to be used. MSB is temp sensor 1</t>
   </si>
 </sst>
 </file>
@@ -1726,38 +1735,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0917387-7D6B-4A20-A541-790136947EE9}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="1" max="1" width="46.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1768,7 +1777,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>346</v>
       </c>
@@ -1779,7 +1788,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>349</v>
       </c>
@@ -1790,7 +1799,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>385</v>
       </c>
@@ -1801,7 +1810,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>386</v>
       </c>
@@ -1812,7 +1821,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>384</v>
       </c>
@@ -1823,7 +1832,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>389</v>
       </c>
@@ -1834,7 +1843,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>396</v>
       </c>
@@ -1845,7 +1854,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>395</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>399</v>
       </c>
@@ -1867,26 +1876,26 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1897,7 +1906,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>354</v>
       </c>
@@ -1908,7 +1917,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>355</v>
       </c>
@@ -1919,7 +1928,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>356</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>357</v>
       </c>
@@ -1941,7 +1950,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>358</v>
       </c>
@@ -1952,7 +1961,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>359</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>360</v>
       </c>
@@ -1974,7 +1983,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>361</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>362</v>
       </c>
@@ -1996,7 +2005,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>363</v>
       </c>
@@ -2007,7 +2016,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>364</v>
       </c>
@@ -2018,7 +2027,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>365</v>
       </c>
@@ -2029,7 +2038,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>366</v>
       </c>
@@ -2040,7 +2049,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>367</v>
       </c>
@@ -2051,7 +2060,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>368</v>
       </c>
@@ -2062,7 +2071,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -2073,7 +2082,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>370</v>
       </c>
@@ -2084,7 +2093,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>371</v>
       </c>
@@ -2095,7 +2104,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>372</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>373</v>
       </c>
@@ -2117,7 +2126,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>374</v>
       </c>
@@ -2128,7 +2137,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>375</v>
       </c>
@@ -2139,7 +2148,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>376</v>
       </c>
@@ -2150,7 +2159,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>377</v>
       </c>
@@ -2161,7 +2170,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>378</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>380</v>
       </c>
@@ -2177,7 +2186,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>383</v>
       </c>
@@ -2185,7 +2194,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>390</v>
       </c>
@@ -2200,30 +2209,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7454D4-F40F-4F45-BDA5-07ADEA391843}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="1" max="1" width="70.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -2234,7 +2243,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -2245,7 +2254,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>349</v>
       </c>
@@ -2256,47 +2265,47 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>354</v>
-      </c>
-      <c r="B10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>356</v>
       </c>
       <c r="B12" t="s">
         <v>352</v>
@@ -2305,9 +2314,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
         <v>352</v>
@@ -2316,9 +2325,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
         <v>352</v>
@@ -2327,9 +2336,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
         <v>352</v>
@@ -2338,9 +2347,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
         <v>352</v>
@@ -2349,9 +2358,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
         <v>352</v>
@@ -2360,9 +2369,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
         <v>352</v>
@@ -2371,9 +2380,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
         <v>352</v>
@@ -2382,9 +2391,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
         <v>352</v>
@@ -2393,9 +2402,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s">
         <v>352</v>
@@ -2404,9 +2413,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B22" t="s">
         <v>352</v>
@@ -2415,9 +2424,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B23" t="s">
         <v>352</v>
@@ -2426,9 +2435,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B24" t="s">
         <v>352</v>
@@ -2437,31 +2446,31 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>370</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="B25" t="s">
         <v>352</v>
       </c>
       <c r="C25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B26" t="s">
         <v>352</v>
       </c>
       <c r="C26" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B27" t="s">
         <v>352</v>
@@ -2470,9 +2479,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B28" t="s">
         <v>352</v>
@@ -2481,9 +2490,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B29" t="s">
         <v>352</v>
@@ -2492,9 +2501,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B30" t="s">
         <v>352</v>
@@ -2503,9 +2512,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B31" t="s">
         <v>352</v>
@@ -2514,9 +2523,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B32" t="s">
         <v>352</v>
@@ -2525,19 +2534,41 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C33" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>377</v>
+      </c>
+      <c r="B34" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>378</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>380</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>379</v>
       </c>
     </row>
@@ -2554,22 +2585,22 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -2577,7 +2608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -2606,7 +2637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2641,7 +2672,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2676,7 +2707,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2699,7 +2730,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2719,13 +2750,13 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
       <c r="E8" s="2"/>
       <c r="J8" s="1"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2753,7 +2784,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2774,15 +2805,15 @@
         <v>548.20000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -2793,7 +2824,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2807,7 +2838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2821,7 +2852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2830,7 +2861,7 @@
         <v>851.65</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2838,10 +2869,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2850,7 +2881,7 @@
         <v>2483.65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2874,907 +2905,907 @@
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="9" customWidth="1"/>
-    <col min="14" max="256" width="9.140625" style="9"/>
-    <col min="257" max="257" width="10.42578125" style="9" customWidth="1"/>
-    <col min="258" max="258" width="19.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" style="9" customWidth="1"/>
+    <col min="14" max="256" width="9.109375" style="9"/>
+    <col min="257" max="257" width="10.44140625" style="9" customWidth="1"/>
+    <col min="258" max="258" width="19.88671875" style="9" customWidth="1"/>
     <col min="259" max="259" width="13" style="9" customWidth="1"/>
-    <col min="260" max="260" width="14.28515625" style="9" customWidth="1"/>
-    <col min="261" max="261" width="12.42578125" style="9" customWidth="1"/>
-    <col min="262" max="262" width="10.28515625" style="9" customWidth="1"/>
-    <col min="263" max="263" width="17.5703125" style="9" customWidth="1"/>
-    <col min="264" max="264" width="27.42578125" style="9" customWidth="1"/>
-    <col min="265" max="265" width="24.140625" style="9" customWidth="1"/>
-    <col min="266" max="266" width="13.5703125" style="9" customWidth="1"/>
-    <col min="267" max="267" width="23.42578125" style="9" customWidth="1"/>
-    <col min="268" max="268" width="21.140625" style="9" customWidth="1"/>
-    <col min="269" max="269" width="20.42578125" style="9" customWidth="1"/>
-    <col min="270" max="512" width="9.140625" style="9"/>
-    <col min="513" max="513" width="10.42578125" style="9" customWidth="1"/>
-    <col min="514" max="514" width="19.85546875" style="9" customWidth="1"/>
+    <col min="260" max="260" width="14.33203125" style="9" customWidth="1"/>
+    <col min="261" max="261" width="12.44140625" style="9" customWidth="1"/>
+    <col min="262" max="262" width="10.33203125" style="9" customWidth="1"/>
+    <col min="263" max="263" width="17.5546875" style="9" customWidth="1"/>
+    <col min="264" max="264" width="27.44140625" style="9" customWidth="1"/>
+    <col min="265" max="265" width="24.109375" style="9" customWidth="1"/>
+    <col min="266" max="266" width="13.5546875" style="9" customWidth="1"/>
+    <col min="267" max="267" width="23.44140625" style="9" customWidth="1"/>
+    <col min="268" max="268" width="21.109375" style="9" customWidth="1"/>
+    <col min="269" max="269" width="20.44140625" style="9" customWidth="1"/>
+    <col min="270" max="512" width="9.109375" style="9"/>
+    <col min="513" max="513" width="10.44140625" style="9" customWidth="1"/>
+    <col min="514" max="514" width="19.88671875" style="9" customWidth="1"/>
     <col min="515" max="515" width="13" style="9" customWidth="1"/>
-    <col min="516" max="516" width="14.28515625" style="9" customWidth="1"/>
-    <col min="517" max="517" width="12.42578125" style="9" customWidth="1"/>
-    <col min="518" max="518" width="10.28515625" style="9" customWidth="1"/>
-    <col min="519" max="519" width="17.5703125" style="9" customWidth="1"/>
-    <col min="520" max="520" width="27.42578125" style="9" customWidth="1"/>
-    <col min="521" max="521" width="24.140625" style="9" customWidth="1"/>
-    <col min="522" max="522" width="13.5703125" style="9" customWidth="1"/>
-    <col min="523" max="523" width="23.42578125" style="9" customWidth="1"/>
-    <col min="524" max="524" width="21.140625" style="9" customWidth="1"/>
-    <col min="525" max="525" width="20.42578125" style="9" customWidth="1"/>
-    <col min="526" max="768" width="9.140625" style="9"/>
-    <col min="769" max="769" width="10.42578125" style="9" customWidth="1"/>
-    <col min="770" max="770" width="19.85546875" style="9" customWidth="1"/>
+    <col min="516" max="516" width="14.33203125" style="9" customWidth="1"/>
+    <col min="517" max="517" width="12.44140625" style="9" customWidth="1"/>
+    <col min="518" max="518" width="10.33203125" style="9" customWidth="1"/>
+    <col min="519" max="519" width="17.5546875" style="9" customWidth="1"/>
+    <col min="520" max="520" width="27.44140625" style="9" customWidth="1"/>
+    <col min="521" max="521" width="24.109375" style="9" customWidth="1"/>
+    <col min="522" max="522" width="13.5546875" style="9" customWidth="1"/>
+    <col min="523" max="523" width="23.44140625" style="9" customWidth="1"/>
+    <col min="524" max="524" width="21.109375" style="9" customWidth="1"/>
+    <col min="525" max="525" width="20.44140625" style="9" customWidth="1"/>
+    <col min="526" max="768" width="9.109375" style="9"/>
+    <col min="769" max="769" width="10.44140625" style="9" customWidth="1"/>
+    <col min="770" max="770" width="19.88671875" style="9" customWidth="1"/>
     <col min="771" max="771" width="13" style="9" customWidth="1"/>
-    <col min="772" max="772" width="14.28515625" style="9" customWidth="1"/>
-    <col min="773" max="773" width="12.42578125" style="9" customWidth="1"/>
-    <col min="774" max="774" width="10.28515625" style="9" customWidth="1"/>
-    <col min="775" max="775" width="17.5703125" style="9" customWidth="1"/>
-    <col min="776" max="776" width="27.42578125" style="9" customWidth="1"/>
-    <col min="777" max="777" width="24.140625" style="9" customWidth="1"/>
-    <col min="778" max="778" width="13.5703125" style="9" customWidth="1"/>
-    <col min="779" max="779" width="23.42578125" style="9" customWidth="1"/>
-    <col min="780" max="780" width="21.140625" style="9" customWidth="1"/>
-    <col min="781" max="781" width="20.42578125" style="9" customWidth="1"/>
-    <col min="782" max="1024" width="9.140625" style="9"/>
-    <col min="1025" max="1025" width="10.42578125" style="9" customWidth="1"/>
-    <col min="1026" max="1026" width="19.85546875" style="9" customWidth="1"/>
+    <col min="772" max="772" width="14.33203125" style="9" customWidth="1"/>
+    <col min="773" max="773" width="12.44140625" style="9" customWidth="1"/>
+    <col min="774" max="774" width="10.33203125" style="9" customWidth="1"/>
+    <col min="775" max="775" width="17.5546875" style="9" customWidth="1"/>
+    <col min="776" max="776" width="27.44140625" style="9" customWidth="1"/>
+    <col min="777" max="777" width="24.109375" style="9" customWidth="1"/>
+    <col min="778" max="778" width="13.5546875" style="9" customWidth="1"/>
+    <col min="779" max="779" width="23.44140625" style="9" customWidth="1"/>
+    <col min="780" max="780" width="21.109375" style="9" customWidth="1"/>
+    <col min="781" max="781" width="20.44140625" style="9" customWidth="1"/>
+    <col min="782" max="1024" width="9.109375" style="9"/>
+    <col min="1025" max="1025" width="10.44140625" style="9" customWidth="1"/>
+    <col min="1026" max="1026" width="19.88671875" style="9" customWidth="1"/>
     <col min="1027" max="1027" width="13" style="9" customWidth="1"/>
-    <col min="1028" max="1028" width="14.28515625" style="9" customWidth="1"/>
-    <col min="1029" max="1029" width="12.42578125" style="9" customWidth="1"/>
-    <col min="1030" max="1030" width="10.28515625" style="9" customWidth="1"/>
-    <col min="1031" max="1031" width="17.5703125" style="9" customWidth="1"/>
-    <col min="1032" max="1032" width="27.42578125" style="9" customWidth="1"/>
-    <col min="1033" max="1033" width="24.140625" style="9" customWidth="1"/>
-    <col min="1034" max="1034" width="13.5703125" style="9" customWidth="1"/>
-    <col min="1035" max="1035" width="23.42578125" style="9" customWidth="1"/>
-    <col min="1036" max="1036" width="21.140625" style="9" customWidth="1"/>
-    <col min="1037" max="1037" width="20.42578125" style="9" customWidth="1"/>
-    <col min="1038" max="1280" width="9.140625" style="9"/>
-    <col min="1281" max="1281" width="10.42578125" style="9" customWidth="1"/>
-    <col min="1282" max="1282" width="19.85546875" style="9" customWidth="1"/>
+    <col min="1028" max="1028" width="14.33203125" style="9" customWidth="1"/>
+    <col min="1029" max="1029" width="12.44140625" style="9" customWidth="1"/>
+    <col min="1030" max="1030" width="10.33203125" style="9" customWidth="1"/>
+    <col min="1031" max="1031" width="17.5546875" style="9" customWidth="1"/>
+    <col min="1032" max="1032" width="27.44140625" style="9" customWidth="1"/>
+    <col min="1033" max="1033" width="24.109375" style="9" customWidth="1"/>
+    <col min="1034" max="1034" width="13.5546875" style="9" customWidth="1"/>
+    <col min="1035" max="1035" width="23.44140625" style="9" customWidth="1"/>
+    <col min="1036" max="1036" width="21.109375" style="9" customWidth="1"/>
+    <col min="1037" max="1037" width="20.44140625" style="9" customWidth="1"/>
+    <col min="1038" max="1280" width="9.109375" style="9"/>
+    <col min="1281" max="1281" width="10.44140625" style="9" customWidth="1"/>
+    <col min="1282" max="1282" width="19.88671875" style="9" customWidth="1"/>
     <col min="1283" max="1283" width="13" style="9" customWidth="1"/>
-    <col min="1284" max="1284" width="14.28515625" style="9" customWidth="1"/>
-    <col min="1285" max="1285" width="12.42578125" style="9" customWidth="1"/>
-    <col min="1286" max="1286" width="10.28515625" style="9" customWidth="1"/>
-    <col min="1287" max="1287" width="17.5703125" style="9" customWidth="1"/>
-    <col min="1288" max="1288" width="27.42578125" style="9" customWidth="1"/>
-    <col min="1289" max="1289" width="24.140625" style="9" customWidth="1"/>
-    <col min="1290" max="1290" width="13.5703125" style="9" customWidth="1"/>
-    <col min="1291" max="1291" width="23.42578125" style="9" customWidth="1"/>
-    <col min="1292" max="1292" width="21.140625" style="9" customWidth="1"/>
-    <col min="1293" max="1293" width="20.42578125" style="9" customWidth="1"/>
-    <col min="1294" max="1536" width="9.140625" style="9"/>
-    <col min="1537" max="1537" width="10.42578125" style="9" customWidth="1"/>
-    <col min="1538" max="1538" width="19.85546875" style="9" customWidth="1"/>
+    <col min="1284" max="1284" width="14.33203125" style="9" customWidth="1"/>
+    <col min="1285" max="1285" width="12.44140625" style="9" customWidth="1"/>
+    <col min="1286" max="1286" width="10.33203125" style="9" customWidth="1"/>
+    <col min="1287" max="1287" width="17.5546875" style="9" customWidth="1"/>
+    <col min="1288" max="1288" width="27.44140625" style="9" customWidth="1"/>
+    <col min="1289" max="1289" width="24.109375" style="9" customWidth="1"/>
+    <col min="1290" max="1290" width="13.5546875" style="9" customWidth="1"/>
+    <col min="1291" max="1291" width="23.44140625" style="9" customWidth="1"/>
+    <col min="1292" max="1292" width="21.109375" style="9" customWidth="1"/>
+    <col min="1293" max="1293" width="20.44140625" style="9" customWidth="1"/>
+    <col min="1294" max="1536" width="9.109375" style="9"/>
+    <col min="1537" max="1537" width="10.44140625" style="9" customWidth="1"/>
+    <col min="1538" max="1538" width="19.88671875" style="9" customWidth="1"/>
     <col min="1539" max="1539" width="13" style="9" customWidth="1"/>
-    <col min="1540" max="1540" width="14.28515625" style="9" customWidth="1"/>
-    <col min="1541" max="1541" width="12.42578125" style="9" customWidth="1"/>
-    <col min="1542" max="1542" width="10.28515625" style="9" customWidth="1"/>
-    <col min="1543" max="1543" width="17.5703125" style="9" customWidth="1"/>
-    <col min="1544" max="1544" width="27.42578125" style="9" customWidth="1"/>
-    <col min="1545" max="1545" width="24.140625" style="9" customWidth="1"/>
-    <col min="1546" max="1546" width="13.5703125" style="9" customWidth="1"/>
-    <col min="1547" max="1547" width="23.42578125" style="9" customWidth="1"/>
-    <col min="1548" max="1548" width="21.140625" style="9" customWidth="1"/>
-    <col min="1549" max="1549" width="20.42578125" style="9" customWidth="1"/>
-    <col min="1550" max="1792" width="9.140625" style="9"/>
-    <col min="1793" max="1793" width="10.42578125" style="9" customWidth="1"/>
-    <col min="1794" max="1794" width="19.85546875" style="9" customWidth="1"/>
+    <col min="1540" max="1540" width="14.33203125" style="9" customWidth="1"/>
+    <col min="1541" max="1541" width="12.44140625" style="9" customWidth="1"/>
+    <col min="1542" max="1542" width="10.33203125" style="9" customWidth="1"/>
+    <col min="1543" max="1543" width="17.5546875" style="9" customWidth="1"/>
+    <col min="1544" max="1544" width="27.44140625" style="9" customWidth="1"/>
+    <col min="1545" max="1545" width="24.109375" style="9" customWidth="1"/>
+    <col min="1546" max="1546" width="13.5546875" style="9" customWidth="1"/>
+    <col min="1547" max="1547" width="23.44140625" style="9" customWidth="1"/>
+    <col min="1548" max="1548" width="21.109375" style="9" customWidth="1"/>
+    <col min="1549" max="1549" width="20.44140625" style="9" customWidth="1"/>
+    <col min="1550" max="1792" width="9.109375" style="9"/>
+    <col min="1793" max="1793" width="10.44140625" style="9" customWidth="1"/>
+    <col min="1794" max="1794" width="19.88671875" style="9" customWidth="1"/>
     <col min="1795" max="1795" width="13" style="9" customWidth="1"/>
-    <col min="1796" max="1796" width="14.28515625" style="9" customWidth="1"/>
-    <col min="1797" max="1797" width="12.42578125" style="9" customWidth="1"/>
-    <col min="1798" max="1798" width="10.28515625" style="9" customWidth="1"/>
-    <col min="1799" max="1799" width="17.5703125" style="9" customWidth="1"/>
-    <col min="1800" max="1800" width="27.42578125" style="9" customWidth="1"/>
-    <col min="1801" max="1801" width="24.140625" style="9" customWidth="1"/>
-    <col min="1802" max="1802" width="13.5703125" style="9" customWidth="1"/>
-    <col min="1803" max="1803" width="23.42578125" style="9" customWidth="1"/>
-    <col min="1804" max="1804" width="21.140625" style="9" customWidth="1"/>
-    <col min="1805" max="1805" width="20.42578125" style="9" customWidth="1"/>
-    <col min="1806" max="2048" width="9.140625" style="9"/>
-    <col min="2049" max="2049" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2050" max="2050" width="19.85546875" style="9" customWidth="1"/>
+    <col min="1796" max="1796" width="14.33203125" style="9" customWidth="1"/>
+    <col min="1797" max="1797" width="12.44140625" style="9" customWidth="1"/>
+    <col min="1798" max="1798" width="10.33203125" style="9" customWidth="1"/>
+    <col min="1799" max="1799" width="17.5546875" style="9" customWidth="1"/>
+    <col min="1800" max="1800" width="27.44140625" style="9" customWidth="1"/>
+    <col min="1801" max="1801" width="24.109375" style="9" customWidth="1"/>
+    <col min="1802" max="1802" width="13.5546875" style="9" customWidth="1"/>
+    <col min="1803" max="1803" width="23.44140625" style="9" customWidth="1"/>
+    <col min="1804" max="1804" width="21.109375" style="9" customWidth="1"/>
+    <col min="1805" max="1805" width="20.44140625" style="9" customWidth="1"/>
+    <col min="1806" max="2048" width="9.109375" style="9"/>
+    <col min="2049" max="2049" width="10.44140625" style="9" customWidth="1"/>
+    <col min="2050" max="2050" width="19.88671875" style="9" customWidth="1"/>
     <col min="2051" max="2051" width="13" style="9" customWidth="1"/>
-    <col min="2052" max="2052" width="14.28515625" style="9" customWidth="1"/>
-    <col min="2053" max="2053" width="12.42578125" style="9" customWidth="1"/>
-    <col min="2054" max="2054" width="10.28515625" style="9" customWidth="1"/>
-    <col min="2055" max="2055" width="17.5703125" style="9" customWidth="1"/>
-    <col min="2056" max="2056" width="27.42578125" style="9" customWidth="1"/>
-    <col min="2057" max="2057" width="24.140625" style="9" customWidth="1"/>
-    <col min="2058" max="2058" width="13.5703125" style="9" customWidth="1"/>
-    <col min="2059" max="2059" width="23.42578125" style="9" customWidth="1"/>
-    <col min="2060" max="2060" width="21.140625" style="9" customWidth="1"/>
-    <col min="2061" max="2061" width="20.42578125" style="9" customWidth="1"/>
-    <col min="2062" max="2304" width="9.140625" style="9"/>
-    <col min="2305" max="2305" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2306" max="2306" width="19.85546875" style="9" customWidth="1"/>
+    <col min="2052" max="2052" width="14.33203125" style="9" customWidth="1"/>
+    <col min="2053" max="2053" width="12.44140625" style="9" customWidth="1"/>
+    <col min="2054" max="2054" width="10.33203125" style="9" customWidth="1"/>
+    <col min="2055" max="2055" width="17.5546875" style="9" customWidth="1"/>
+    <col min="2056" max="2056" width="27.44140625" style="9" customWidth="1"/>
+    <col min="2057" max="2057" width="24.109375" style="9" customWidth="1"/>
+    <col min="2058" max="2058" width="13.5546875" style="9" customWidth="1"/>
+    <col min="2059" max="2059" width="23.44140625" style="9" customWidth="1"/>
+    <col min="2060" max="2060" width="21.109375" style="9" customWidth="1"/>
+    <col min="2061" max="2061" width="20.44140625" style="9" customWidth="1"/>
+    <col min="2062" max="2304" width="9.109375" style="9"/>
+    <col min="2305" max="2305" width="10.44140625" style="9" customWidth="1"/>
+    <col min="2306" max="2306" width="19.88671875" style="9" customWidth="1"/>
     <col min="2307" max="2307" width="13" style="9" customWidth="1"/>
-    <col min="2308" max="2308" width="14.28515625" style="9" customWidth="1"/>
-    <col min="2309" max="2309" width="12.42578125" style="9" customWidth="1"/>
-    <col min="2310" max="2310" width="10.28515625" style="9" customWidth="1"/>
-    <col min="2311" max="2311" width="17.5703125" style="9" customWidth="1"/>
-    <col min="2312" max="2312" width="27.42578125" style="9" customWidth="1"/>
-    <col min="2313" max="2313" width="24.140625" style="9" customWidth="1"/>
-    <col min="2314" max="2314" width="13.5703125" style="9" customWidth="1"/>
-    <col min="2315" max="2315" width="23.42578125" style="9" customWidth="1"/>
-    <col min="2316" max="2316" width="21.140625" style="9" customWidth="1"/>
-    <col min="2317" max="2317" width="20.42578125" style="9" customWidth="1"/>
-    <col min="2318" max="2560" width="9.140625" style="9"/>
-    <col min="2561" max="2561" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2562" max="2562" width="19.85546875" style="9" customWidth="1"/>
+    <col min="2308" max="2308" width="14.33203125" style="9" customWidth="1"/>
+    <col min="2309" max="2309" width="12.44140625" style="9" customWidth="1"/>
+    <col min="2310" max="2310" width="10.33203125" style="9" customWidth="1"/>
+    <col min="2311" max="2311" width="17.5546875" style="9" customWidth="1"/>
+    <col min="2312" max="2312" width="27.44140625" style="9" customWidth="1"/>
+    <col min="2313" max="2313" width="24.109375" style="9" customWidth="1"/>
+    <col min="2314" max="2314" width="13.5546875" style="9" customWidth="1"/>
+    <col min="2315" max="2315" width="23.44140625" style="9" customWidth="1"/>
+    <col min="2316" max="2316" width="21.109375" style="9" customWidth="1"/>
+    <col min="2317" max="2317" width="20.44140625" style="9" customWidth="1"/>
+    <col min="2318" max="2560" width="9.109375" style="9"/>
+    <col min="2561" max="2561" width="10.44140625" style="9" customWidth="1"/>
+    <col min="2562" max="2562" width="19.88671875" style="9" customWidth="1"/>
     <col min="2563" max="2563" width="13" style="9" customWidth="1"/>
-    <col min="2564" max="2564" width="14.28515625" style="9" customWidth="1"/>
-    <col min="2565" max="2565" width="12.42578125" style="9" customWidth="1"/>
-    <col min="2566" max="2566" width="10.28515625" style="9" customWidth="1"/>
-    <col min="2567" max="2567" width="17.5703125" style="9" customWidth="1"/>
-    <col min="2568" max="2568" width="27.42578125" style="9" customWidth="1"/>
-    <col min="2569" max="2569" width="24.140625" style="9" customWidth="1"/>
-    <col min="2570" max="2570" width="13.5703125" style="9" customWidth="1"/>
-    <col min="2571" max="2571" width="23.42578125" style="9" customWidth="1"/>
-    <col min="2572" max="2572" width="21.140625" style="9" customWidth="1"/>
-    <col min="2573" max="2573" width="20.42578125" style="9" customWidth="1"/>
-    <col min="2574" max="2816" width="9.140625" style="9"/>
-    <col min="2817" max="2817" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2818" max="2818" width="19.85546875" style="9" customWidth="1"/>
+    <col min="2564" max="2564" width="14.33203125" style="9" customWidth="1"/>
+    <col min="2565" max="2565" width="12.44140625" style="9" customWidth="1"/>
+    <col min="2566" max="2566" width="10.33203125" style="9" customWidth="1"/>
+    <col min="2567" max="2567" width="17.5546875" style="9" customWidth="1"/>
+    <col min="2568" max="2568" width="27.44140625" style="9" customWidth="1"/>
+    <col min="2569" max="2569" width="24.109375" style="9" customWidth="1"/>
+    <col min="2570" max="2570" width="13.5546875" style="9" customWidth="1"/>
+    <col min="2571" max="2571" width="23.44140625" style="9" customWidth="1"/>
+    <col min="2572" max="2572" width="21.109375" style="9" customWidth="1"/>
+    <col min="2573" max="2573" width="20.44140625" style="9" customWidth="1"/>
+    <col min="2574" max="2816" width="9.109375" style="9"/>
+    <col min="2817" max="2817" width="10.44140625" style="9" customWidth="1"/>
+    <col min="2818" max="2818" width="19.88671875" style="9" customWidth="1"/>
     <col min="2819" max="2819" width="13" style="9" customWidth="1"/>
-    <col min="2820" max="2820" width="14.28515625" style="9" customWidth="1"/>
-    <col min="2821" max="2821" width="12.42578125" style="9" customWidth="1"/>
-    <col min="2822" max="2822" width="10.28515625" style="9" customWidth="1"/>
-    <col min="2823" max="2823" width="17.5703125" style="9" customWidth="1"/>
-    <col min="2824" max="2824" width="27.42578125" style="9" customWidth="1"/>
-    <col min="2825" max="2825" width="24.140625" style="9" customWidth="1"/>
-    <col min="2826" max="2826" width="13.5703125" style="9" customWidth="1"/>
-    <col min="2827" max="2827" width="23.42578125" style="9" customWidth="1"/>
-    <col min="2828" max="2828" width="21.140625" style="9" customWidth="1"/>
-    <col min="2829" max="2829" width="20.42578125" style="9" customWidth="1"/>
-    <col min="2830" max="3072" width="9.140625" style="9"/>
-    <col min="3073" max="3073" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3074" max="3074" width="19.85546875" style="9" customWidth="1"/>
+    <col min="2820" max="2820" width="14.33203125" style="9" customWidth="1"/>
+    <col min="2821" max="2821" width="12.44140625" style="9" customWidth="1"/>
+    <col min="2822" max="2822" width="10.33203125" style="9" customWidth="1"/>
+    <col min="2823" max="2823" width="17.5546875" style="9" customWidth="1"/>
+    <col min="2824" max="2824" width="27.44140625" style="9" customWidth="1"/>
+    <col min="2825" max="2825" width="24.109375" style="9" customWidth="1"/>
+    <col min="2826" max="2826" width="13.5546875" style="9" customWidth="1"/>
+    <col min="2827" max="2827" width="23.44140625" style="9" customWidth="1"/>
+    <col min="2828" max="2828" width="21.109375" style="9" customWidth="1"/>
+    <col min="2829" max="2829" width="20.44140625" style="9" customWidth="1"/>
+    <col min="2830" max="3072" width="9.109375" style="9"/>
+    <col min="3073" max="3073" width="10.44140625" style="9" customWidth="1"/>
+    <col min="3074" max="3074" width="19.88671875" style="9" customWidth="1"/>
     <col min="3075" max="3075" width="13" style="9" customWidth="1"/>
-    <col min="3076" max="3076" width="14.28515625" style="9" customWidth="1"/>
-    <col min="3077" max="3077" width="12.42578125" style="9" customWidth="1"/>
-    <col min="3078" max="3078" width="10.28515625" style="9" customWidth="1"/>
-    <col min="3079" max="3079" width="17.5703125" style="9" customWidth="1"/>
-    <col min="3080" max="3080" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3081" max="3081" width="24.140625" style="9" customWidth="1"/>
-    <col min="3082" max="3082" width="13.5703125" style="9" customWidth="1"/>
-    <col min="3083" max="3083" width="23.42578125" style="9" customWidth="1"/>
-    <col min="3084" max="3084" width="21.140625" style="9" customWidth="1"/>
-    <col min="3085" max="3085" width="20.42578125" style="9" customWidth="1"/>
-    <col min="3086" max="3328" width="9.140625" style="9"/>
-    <col min="3329" max="3329" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3330" max="3330" width="19.85546875" style="9" customWidth="1"/>
+    <col min="3076" max="3076" width="14.33203125" style="9" customWidth="1"/>
+    <col min="3077" max="3077" width="12.44140625" style="9" customWidth="1"/>
+    <col min="3078" max="3078" width="10.33203125" style="9" customWidth="1"/>
+    <col min="3079" max="3079" width="17.5546875" style="9" customWidth="1"/>
+    <col min="3080" max="3080" width="27.44140625" style="9" customWidth="1"/>
+    <col min="3081" max="3081" width="24.109375" style="9" customWidth="1"/>
+    <col min="3082" max="3082" width="13.5546875" style="9" customWidth="1"/>
+    <col min="3083" max="3083" width="23.44140625" style="9" customWidth="1"/>
+    <col min="3084" max="3084" width="21.109375" style="9" customWidth="1"/>
+    <col min="3085" max="3085" width="20.44140625" style="9" customWidth="1"/>
+    <col min="3086" max="3328" width="9.109375" style="9"/>
+    <col min="3329" max="3329" width="10.44140625" style="9" customWidth="1"/>
+    <col min="3330" max="3330" width="19.88671875" style="9" customWidth="1"/>
     <col min="3331" max="3331" width="13" style="9" customWidth="1"/>
-    <col min="3332" max="3332" width="14.28515625" style="9" customWidth="1"/>
-    <col min="3333" max="3333" width="12.42578125" style="9" customWidth="1"/>
-    <col min="3334" max="3334" width="10.28515625" style="9" customWidth="1"/>
-    <col min="3335" max="3335" width="17.5703125" style="9" customWidth="1"/>
-    <col min="3336" max="3336" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3337" max="3337" width="24.140625" style="9" customWidth="1"/>
-    <col min="3338" max="3338" width="13.5703125" style="9" customWidth="1"/>
-    <col min="3339" max="3339" width="23.42578125" style="9" customWidth="1"/>
-    <col min="3340" max="3340" width="21.140625" style="9" customWidth="1"/>
-    <col min="3341" max="3341" width="20.42578125" style="9" customWidth="1"/>
-    <col min="3342" max="3584" width="9.140625" style="9"/>
-    <col min="3585" max="3585" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3586" max="3586" width="19.85546875" style="9" customWidth="1"/>
+    <col min="3332" max="3332" width="14.33203125" style="9" customWidth="1"/>
+    <col min="3333" max="3333" width="12.44140625" style="9" customWidth="1"/>
+    <col min="3334" max="3334" width="10.33203125" style="9" customWidth="1"/>
+    <col min="3335" max="3335" width="17.5546875" style="9" customWidth="1"/>
+    <col min="3336" max="3336" width="27.44140625" style="9" customWidth="1"/>
+    <col min="3337" max="3337" width="24.109375" style="9" customWidth="1"/>
+    <col min="3338" max="3338" width="13.5546875" style="9" customWidth="1"/>
+    <col min="3339" max="3339" width="23.44140625" style="9" customWidth="1"/>
+    <col min="3340" max="3340" width="21.109375" style="9" customWidth="1"/>
+    <col min="3341" max="3341" width="20.44140625" style="9" customWidth="1"/>
+    <col min="3342" max="3584" width="9.109375" style="9"/>
+    <col min="3585" max="3585" width="10.44140625" style="9" customWidth="1"/>
+    <col min="3586" max="3586" width="19.88671875" style="9" customWidth="1"/>
     <col min="3587" max="3587" width="13" style="9" customWidth="1"/>
-    <col min="3588" max="3588" width="14.28515625" style="9" customWidth="1"/>
-    <col min="3589" max="3589" width="12.42578125" style="9" customWidth="1"/>
-    <col min="3590" max="3590" width="10.28515625" style="9" customWidth="1"/>
-    <col min="3591" max="3591" width="17.5703125" style="9" customWidth="1"/>
-    <col min="3592" max="3592" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3593" max="3593" width="24.140625" style="9" customWidth="1"/>
-    <col min="3594" max="3594" width="13.5703125" style="9" customWidth="1"/>
-    <col min="3595" max="3595" width="23.42578125" style="9" customWidth="1"/>
-    <col min="3596" max="3596" width="21.140625" style="9" customWidth="1"/>
-    <col min="3597" max="3597" width="20.42578125" style="9" customWidth="1"/>
-    <col min="3598" max="3840" width="9.140625" style="9"/>
-    <col min="3841" max="3841" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3842" max="3842" width="19.85546875" style="9" customWidth="1"/>
+    <col min="3588" max="3588" width="14.33203125" style="9" customWidth="1"/>
+    <col min="3589" max="3589" width="12.44140625" style="9" customWidth="1"/>
+    <col min="3590" max="3590" width="10.33203125" style="9" customWidth="1"/>
+    <col min="3591" max="3591" width="17.5546875" style="9" customWidth="1"/>
+    <col min="3592" max="3592" width="27.44140625" style="9" customWidth="1"/>
+    <col min="3593" max="3593" width="24.109375" style="9" customWidth="1"/>
+    <col min="3594" max="3594" width="13.5546875" style="9" customWidth="1"/>
+    <col min="3595" max="3595" width="23.44140625" style="9" customWidth="1"/>
+    <col min="3596" max="3596" width="21.109375" style="9" customWidth="1"/>
+    <col min="3597" max="3597" width="20.44140625" style="9" customWidth="1"/>
+    <col min="3598" max="3840" width="9.109375" style="9"/>
+    <col min="3841" max="3841" width="10.44140625" style="9" customWidth="1"/>
+    <col min="3842" max="3842" width="19.88671875" style="9" customWidth="1"/>
     <col min="3843" max="3843" width="13" style="9" customWidth="1"/>
-    <col min="3844" max="3844" width="14.28515625" style="9" customWidth="1"/>
-    <col min="3845" max="3845" width="12.42578125" style="9" customWidth="1"/>
-    <col min="3846" max="3846" width="10.28515625" style="9" customWidth="1"/>
-    <col min="3847" max="3847" width="17.5703125" style="9" customWidth="1"/>
-    <col min="3848" max="3848" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3849" max="3849" width="24.140625" style="9" customWidth="1"/>
-    <col min="3850" max="3850" width="13.5703125" style="9" customWidth="1"/>
-    <col min="3851" max="3851" width="23.42578125" style="9" customWidth="1"/>
-    <col min="3852" max="3852" width="21.140625" style="9" customWidth="1"/>
-    <col min="3853" max="3853" width="20.42578125" style="9" customWidth="1"/>
-    <col min="3854" max="4096" width="9.140625" style="9"/>
-    <col min="4097" max="4097" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4098" max="4098" width="19.85546875" style="9" customWidth="1"/>
+    <col min="3844" max="3844" width="14.33203125" style="9" customWidth="1"/>
+    <col min="3845" max="3845" width="12.44140625" style="9" customWidth="1"/>
+    <col min="3846" max="3846" width="10.33203125" style="9" customWidth="1"/>
+    <col min="3847" max="3847" width="17.5546875" style="9" customWidth="1"/>
+    <col min="3848" max="3848" width="27.44140625" style="9" customWidth="1"/>
+    <col min="3849" max="3849" width="24.109375" style="9" customWidth="1"/>
+    <col min="3850" max="3850" width="13.5546875" style="9" customWidth="1"/>
+    <col min="3851" max="3851" width="23.44140625" style="9" customWidth="1"/>
+    <col min="3852" max="3852" width="21.109375" style="9" customWidth="1"/>
+    <col min="3853" max="3853" width="20.44140625" style="9" customWidth="1"/>
+    <col min="3854" max="4096" width="9.109375" style="9"/>
+    <col min="4097" max="4097" width="10.44140625" style="9" customWidth="1"/>
+    <col min="4098" max="4098" width="19.88671875" style="9" customWidth="1"/>
     <col min="4099" max="4099" width="13" style="9" customWidth="1"/>
-    <col min="4100" max="4100" width="14.28515625" style="9" customWidth="1"/>
-    <col min="4101" max="4101" width="12.42578125" style="9" customWidth="1"/>
-    <col min="4102" max="4102" width="10.28515625" style="9" customWidth="1"/>
-    <col min="4103" max="4103" width="17.5703125" style="9" customWidth="1"/>
-    <col min="4104" max="4104" width="27.42578125" style="9" customWidth="1"/>
-    <col min="4105" max="4105" width="24.140625" style="9" customWidth="1"/>
-    <col min="4106" max="4106" width="13.5703125" style="9" customWidth="1"/>
-    <col min="4107" max="4107" width="23.42578125" style="9" customWidth="1"/>
-    <col min="4108" max="4108" width="21.140625" style="9" customWidth="1"/>
-    <col min="4109" max="4109" width="20.42578125" style="9" customWidth="1"/>
-    <col min="4110" max="4352" width="9.140625" style="9"/>
-    <col min="4353" max="4353" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4354" max="4354" width="19.85546875" style="9" customWidth="1"/>
+    <col min="4100" max="4100" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4101" max="4101" width="12.44140625" style="9" customWidth="1"/>
+    <col min="4102" max="4102" width="10.33203125" style="9" customWidth="1"/>
+    <col min="4103" max="4103" width="17.5546875" style="9" customWidth="1"/>
+    <col min="4104" max="4104" width="27.44140625" style="9" customWidth="1"/>
+    <col min="4105" max="4105" width="24.109375" style="9" customWidth="1"/>
+    <col min="4106" max="4106" width="13.5546875" style="9" customWidth="1"/>
+    <col min="4107" max="4107" width="23.44140625" style="9" customWidth="1"/>
+    <col min="4108" max="4108" width="21.109375" style="9" customWidth="1"/>
+    <col min="4109" max="4109" width="20.44140625" style="9" customWidth="1"/>
+    <col min="4110" max="4352" width="9.109375" style="9"/>
+    <col min="4353" max="4353" width="10.44140625" style="9" customWidth="1"/>
+    <col min="4354" max="4354" width="19.88671875" style="9" customWidth="1"/>
     <col min="4355" max="4355" width="13" style="9" customWidth="1"/>
-    <col min="4356" max="4356" width="14.28515625" style="9" customWidth="1"/>
-    <col min="4357" max="4357" width="12.42578125" style="9" customWidth="1"/>
-    <col min="4358" max="4358" width="10.28515625" style="9" customWidth="1"/>
-    <col min="4359" max="4359" width="17.5703125" style="9" customWidth="1"/>
-    <col min="4360" max="4360" width="27.42578125" style="9" customWidth="1"/>
-    <col min="4361" max="4361" width="24.140625" style="9" customWidth="1"/>
-    <col min="4362" max="4362" width="13.5703125" style="9" customWidth="1"/>
-    <col min="4363" max="4363" width="23.42578125" style="9" customWidth="1"/>
-    <col min="4364" max="4364" width="21.140625" style="9" customWidth="1"/>
-    <col min="4365" max="4365" width="20.42578125" style="9" customWidth="1"/>
-    <col min="4366" max="4608" width="9.140625" style="9"/>
-    <col min="4609" max="4609" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4610" max="4610" width="19.85546875" style="9" customWidth="1"/>
+    <col min="4356" max="4356" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4357" max="4357" width="12.44140625" style="9" customWidth="1"/>
+    <col min="4358" max="4358" width="10.33203125" style="9" customWidth="1"/>
+    <col min="4359" max="4359" width="17.5546875" style="9" customWidth="1"/>
+    <col min="4360" max="4360" width="27.44140625" style="9" customWidth="1"/>
+    <col min="4361" max="4361" width="24.109375" style="9" customWidth="1"/>
+    <col min="4362" max="4362" width="13.5546875" style="9" customWidth="1"/>
+    <col min="4363" max="4363" width="23.44140625" style="9" customWidth="1"/>
+    <col min="4364" max="4364" width="21.109375" style="9" customWidth="1"/>
+    <col min="4365" max="4365" width="20.44140625" style="9" customWidth="1"/>
+    <col min="4366" max="4608" width="9.109375" style="9"/>
+    <col min="4609" max="4609" width="10.44140625" style="9" customWidth="1"/>
+    <col min="4610" max="4610" width="19.88671875" style="9" customWidth="1"/>
     <col min="4611" max="4611" width="13" style="9" customWidth="1"/>
-    <col min="4612" max="4612" width="14.28515625" style="9" customWidth="1"/>
-    <col min="4613" max="4613" width="12.42578125" style="9" customWidth="1"/>
-    <col min="4614" max="4614" width="10.28515625" style="9" customWidth="1"/>
-    <col min="4615" max="4615" width="17.5703125" style="9" customWidth="1"/>
-    <col min="4616" max="4616" width="27.42578125" style="9" customWidth="1"/>
-    <col min="4617" max="4617" width="24.140625" style="9" customWidth="1"/>
-    <col min="4618" max="4618" width="13.5703125" style="9" customWidth="1"/>
-    <col min="4619" max="4619" width="23.42578125" style="9" customWidth="1"/>
-    <col min="4620" max="4620" width="21.140625" style="9" customWidth="1"/>
-    <col min="4621" max="4621" width="20.42578125" style="9" customWidth="1"/>
-    <col min="4622" max="4864" width="9.140625" style="9"/>
-    <col min="4865" max="4865" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4866" max="4866" width="19.85546875" style="9" customWidth="1"/>
+    <col min="4612" max="4612" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4613" max="4613" width="12.44140625" style="9" customWidth="1"/>
+    <col min="4614" max="4614" width="10.33203125" style="9" customWidth="1"/>
+    <col min="4615" max="4615" width="17.5546875" style="9" customWidth="1"/>
+    <col min="4616" max="4616" width="27.44140625" style="9" customWidth="1"/>
+    <col min="4617" max="4617" width="24.109375" style="9" customWidth="1"/>
+    <col min="4618" max="4618" width="13.5546875" style="9" customWidth="1"/>
+    <col min="4619" max="4619" width="23.44140625" style="9" customWidth="1"/>
+    <col min="4620" max="4620" width="21.109375" style="9" customWidth="1"/>
+    <col min="4621" max="4621" width="20.44140625" style="9" customWidth="1"/>
+    <col min="4622" max="4864" width="9.109375" style="9"/>
+    <col min="4865" max="4865" width="10.44140625" style="9" customWidth="1"/>
+    <col min="4866" max="4866" width="19.88671875" style="9" customWidth="1"/>
     <col min="4867" max="4867" width="13" style="9" customWidth="1"/>
-    <col min="4868" max="4868" width="14.28515625" style="9" customWidth="1"/>
-    <col min="4869" max="4869" width="12.42578125" style="9" customWidth="1"/>
-    <col min="4870" max="4870" width="10.28515625" style="9" customWidth="1"/>
-    <col min="4871" max="4871" width="17.5703125" style="9" customWidth="1"/>
-    <col min="4872" max="4872" width="27.42578125" style="9" customWidth="1"/>
-    <col min="4873" max="4873" width="24.140625" style="9" customWidth="1"/>
-    <col min="4874" max="4874" width="13.5703125" style="9" customWidth="1"/>
-    <col min="4875" max="4875" width="23.42578125" style="9" customWidth="1"/>
-    <col min="4876" max="4876" width="21.140625" style="9" customWidth="1"/>
-    <col min="4877" max="4877" width="20.42578125" style="9" customWidth="1"/>
-    <col min="4878" max="5120" width="9.140625" style="9"/>
-    <col min="5121" max="5121" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5122" max="5122" width="19.85546875" style="9" customWidth="1"/>
+    <col min="4868" max="4868" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4869" max="4869" width="12.44140625" style="9" customWidth="1"/>
+    <col min="4870" max="4870" width="10.33203125" style="9" customWidth="1"/>
+    <col min="4871" max="4871" width="17.5546875" style="9" customWidth="1"/>
+    <col min="4872" max="4872" width="27.44140625" style="9" customWidth="1"/>
+    <col min="4873" max="4873" width="24.109375" style="9" customWidth="1"/>
+    <col min="4874" max="4874" width="13.5546875" style="9" customWidth="1"/>
+    <col min="4875" max="4875" width="23.44140625" style="9" customWidth="1"/>
+    <col min="4876" max="4876" width="21.109375" style="9" customWidth="1"/>
+    <col min="4877" max="4877" width="20.44140625" style="9" customWidth="1"/>
+    <col min="4878" max="5120" width="9.109375" style="9"/>
+    <col min="5121" max="5121" width="10.44140625" style="9" customWidth="1"/>
+    <col min="5122" max="5122" width="19.88671875" style="9" customWidth="1"/>
     <col min="5123" max="5123" width="13" style="9" customWidth="1"/>
-    <col min="5124" max="5124" width="14.28515625" style="9" customWidth="1"/>
-    <col min="5125" max="5125" width="12.42578125" style="9" customWidth="1"/>
-    <col min="5126" max="5126" width="10.28515625" style="9" customWidth="1"/>
-    <col min="5127" max="5127" width="17.5703125" style="9" customWidth="1"/>
-    <col min="5128" max="5128" width="27.42578125" style="9" customWidth="1"/>
-    <col min="5129" max="5129" width="24.140625" style="9" customWidth="1"/>
-    <col min="5130" max="5130" width="13.5703125" style="9" customWidth="1"/>
-    <col min="5131" max="5131" width="23.42578125" style="9" customWidth="1"/>
-    <col min="5132" max="5132" width="21.140625" style="9" customWidth="1"/>
-    <col min="5133" max="5133" width="20.42578125" style="9" customWidth="1"/>
-    <col min="5134" max="5376" width="9.140625" style="9"/>
-    <col min="5377" max="5377" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5378" max="5378" width="19.85546875" style="9" customWidth="1"/>
+    <col min="5124" max="5124" width="14.33203125" style="9" customWidth="1"/>
+    <col min="5125" max="5125" width="12.44140625" style="9" customWidth="1"/>
+    <col min="5126" max="5126" width="10.33203125" style="9" customWidth="1"/>
+    <col min="5127" max="5127" width="17.5546875" style="9" customWidth="1"/>
+    <col min="5128" max="5128" width="27.44140625" style="9" customWidth="1"/>
+    <col min="5129" max="5129" width="24.109375" style="9" customWidth="1"/>
+    <col min="5130" max="5130" width="13.5546875" style="9" customWidth="1"/>
+    <col min="5131" max="5131" width="23.44140625" style="9" customWidth="1"/>
+    <col min="5132" max="5132" width="21.109375" style="9" customWidth="1"/>
+    <col min="5133" max="5133" width="20.44140625" style="9" customWidth="1"/>
+    <col min="5134" max="5376" width="9.109375" style="9"/>
+    <col min="5377" max="5377" width="10.44140625" style="9" customWidth="1"/>
+    <col min="5378" max="5378" width="19.88671875" style="9" customWidth="1"/>
     <col min="5379" max="5379" width="13" style="9" customWidth="1"/>
-    <col min="5380" max="5380" width="14.28515625" style="9" customWidth="1"/>
-    <col min="5381" max="5381" width="12.42578125" style="9" customWidth="1"/>
-    <col min="5382" max="5382" width="10.28515625" style="9" customWidth="1"/>
-    <col min="5383" max="5383" width="17.5703125" style="9" customWidth="1"/>
-    <col min="5384" max="5384" width="27.42578125" style="9" customWidth="1"/>
-    <col min="5385" max="5385" width="24.140625" style="9" customWidth="1"/>
-    <col min="5386" max="5386" width="13.5703125" style="9" customWidth="1"/>
-    <col min="5387" max="5387" width="23.42578125" style="9" customWidth="1"/>
-    <col min="5388" max="5388" width="21.140625" style="9" customWidth="1"/>
-    <col min="5389" max="5389" width="20.42578125" style="9" customWidth="1"/>
-    <col min="5390" max="5632" width="9.140625" style="9"/>
-    <col min="5633" max="5633" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5634" max="5634" width="19.85546875" style="9" customWidth="1"/>
+    <col min="5380" max="5380" width="14.33203125" style="9" customWidth="1"/>
+    <col min="5381" max="5381" width="12.44140625" style="9" customWidth="1"/>
+    <col min="5382" max="5382" width="10.33203125" style="9" customWidth="1"/>
+    <col min="5383" max="5383" width="17.5546875" style="9" customWidth="1"/>
+    <col min="5384" max="5384" width="27.44140625" style="9" customWidth="1"/>
+    <col min="5385" max="5385" width="24.109375" style="9" customWidth="1"/>
+    <col min="5386" max="5386" width="13.5546875" style="9" customWidth="1"/>
+    <col min="5387" max="5387" width="23.44140625" style="9" customWidth="1"/>
+    <col min="5388" max="5388" width="21.109375" style="9" customWidth="1"/>
+    <col min="5389" max="5389" width="20.44140625" style="9" customWidth="1"/>
+    <col min="5390" max="5632" width="9.109375" style="9"/>
+    <col min="5633" max="5633" width="10.44140625" style="9" customWidth="1"/>
+    <col min="5634" max="5634" width="19.88671875" style="9" customWidth="1"/>
     <col min="5635" max="5635" width="13" style="9" customWidth="1"/>
-    <col min="5636" max="5636" width="14.28515625" style="9" customWidth="1"/>
-    <col min="5637" max="5637" width="12.42578125" style="9" customWidth="1"/>
-    <col min="5638" max="5638" width="10.28515625" style="9" customWidth="1"/>
-    <col min="5639" max="5639" width="17.5703125" style="9" customWidth="1"/>
-    <col min="5640" max="5640" width="27.42578125" style="9" customWidth="1"/>
-    <col min="5641" max="5641" width="24.140625" style="9" customWidth="1"/>
-    <col min="5642" max="5642" width="13.5703125" style="9" customWidth="1"/>
-    <col min="5643" max="5643" width="23.42578125" style="9" customWidth="1"/>
-    <col min="5644" max="5644" width="21.140625" style="9" customWidth="1"/>
-    <col min="5645" max="5645" width="20.42578125" style="9" customWidth="1"/>
-    <col min="5646" max="5888" width="9.140625" style="9"/>
-    <col min="5889" max="5889" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5890" max="5890" width="19.85546875" style="9" customWidth="1"/>
+    <col min="5636" max="5636" width="14.33203125" style="9" customWidth="1"/>
+    <col min="5637" max="5637" width="12.44140625" style="9" customWidth="1"/>
+    <col min="5638" max="5638" width="10.33203125" style="9" customWidth="1"/>
+    <col min="5639" max="5639" width="17.5546875" style="9" customWidth="1"/>
+    <col min="5640" max="5640" width="27.44140625" style="9" customWidth="1"/>
+    <col min="5641" max="5641" width="24.109375" style="9" customWidth="1"/>
+    <col min="5642" max="5642" width="13.5546875" style="9" customWidth="1"/>
+    <col min="5643" max="5643" width="23.44140625" style="9" customWidth="1"/>
+    <col min="5644" max="5644" width="21.109375" style="9" customWidth="1"/>
+    <col min="5645" max="5645" width="20.44140625" style="9" customWidth="1"/>
+    <col min="5646" max="5888" width="9.109375" style="9"/>
+    <col min="5889" max="5889" width="10.44140625" style="9" customWidth="1"/>
+    <col min="5890" max="5890" width="19.88671875" style="9" customWidth="1"/>
     <col min="5891" max="5891" width="13" style="9" customWidth="1"/>
-    <col min="5892" max="5892" width="14.28515625" style="9" customWidth="1"/>
-    <col min="5893" max="5893" width="12.42578125" style="9" customWidth="1"/>
-    <col min="5894" max="5894" width="10.28515625" style="9" customWidth="1"/>
-    <col min="5895" max="5895" width="17.5703125" style="9" customWidth="1"/>
-    <col min="5896" max="5896" width="27.42578125" style="9" customWidth="1"/>
-    <col min="5897" max="5897" width="24.140625" style="9" customWidth="1"/>
-    <col min="5898" max="5898" width="13.5703125" style="9" customWidth="1"/>
-    <col min="5899" max="5899" width="23.42578125" style="9" customWidth="1"/>
-    <col min="5900" max="5900" width="21.140625" style="9" customWidth="1"/>
-    <col min="5901" max="5901" width="20.42578125" style="9" customWidth="1"/>
-    <col min="5902" max="6144" width="9.140625" style="9"/>
-    <col min="6145" max="6145" width="10.42578125" style="9" customWidth="1"/>
-    <col min="6146" max="6146" width="19.85546875" style="9" customWidth="1"/>
+    <col min="5892" max="5892" width="14.33203125" style="9" customWidth="1"/>
+    <col min="5893" max="5893" width="12.44140625" style="9" customWidth="1"/>
+    <col min="5894" max="5894" width="10.33203125" style="9" customWidth="1"/>
+    <col min="5895" max="5895" width="17.5546875" style="9" customWidth="1"/>
+    <col min="5896" max="5896" width="27.44140625" style="9" customWidth="1"/>
+    <col min="5897" max="5897" width="24.109375" style="9" customWidth="1"/>
+    <col min="5898" max="5898" width="13.5546875" style="9" customWidth="1"/>
+    <col min="5899" max="5899" width="23.44140625" style="9" customWidth="1"/>
+    <col min="5900" max="5900" width="21.109375" style="9" customWidth="1"/>
+    <col min="5901" max="5901" width="20.44140625" style="9" customWidth="1"/>
+    <col min="5902" max="6144" width="9.109375" style="9"/>
+    <col min="6145" max="6145" width="10.44140625" style="9" customWidth="1"/>
+    <col min="6146" max="6146" width="19.88671875" style="9" customWidth="1"/>
     <col min="6147" max="6147" width="13" style="9" customWidth="1"/>
-    <col min="6148" max="6148" width="14.28515625" style="9" customWidth="1"/>
-    <col min="6149" max="6149" width="12.42578125" style="9" customWidth="1"/>
-    <col min="6150" max="6150" width="10.28515625" style="9" customWidth="1"/>
-    <col min="6151" max="6151" width="17.5703125" style="9" customWidth="1"/>
-    <col min="6152" max="6152" width="27.42578125" style="9" customWidth="1"/>
-    <col min="6153" max="6153" width="24.140625" style="9" customWidth="1"/>
-    <col min="6154" max="6154" width="13.5703125" style="9" customWidth="1"/>
-    <col min="6155" max="6155" width="23.42578125" style="9" customWidth="1"/>
-    <col min="6156" max="6156" width="21.140625" style="9" customWidth="1"/>
-    <col min="6157" max="6157" width="20.42578125" style="9" customWidth="1"/>
-    <col min="6158" max="6400" width="9.140625" style="9"/>
-    <col min="6401" max="6401" width="10.42578125" style="9" customWidth="1"/>
-    <col min="6402" max="6402" width="19.85546875" style="9" customWidth="1"/>
+    <col min="6148" max="6148" width="14.33203125" style="9" customWidth="1"/>
+    <col min="6149" max="6149" width="12.44140625" style="9" customWidth="1"/>
+    <col min="6150" max="6150" width="10.33203125" style="9" customWidth="1"/>
+    <col min="6151" max="6151" width="17.5546875" style="9" customWidth="1"/>
+    <col min="6152" max="6152" width="27.44140625" style="9" customWidth="1"/>
+    <col min="6153" max="6153" width="24.109375" style="9" customWidth="1"/>
+    <col min="6154" max="6154" width="13.5546875" style="9" customWidth="1"/>
+    <col min="6155" max="6155" width="23.44140625" style="9" customWidth="1"/>
+    <col min="6156" max="6156" width="21.109375" style="9" customWidth="1"/>
+    <col min="6157" max="6157" width="20.44140625" style="9" customWidth="1"/>
+    <col min="6158" max="6400" width="9.109375" style="9"/>
+    <col min="6401" max="6401" width="10.44140625" style="9" customWidth="1"/>
+    <col min="6402" max="6402" width="19.88671875" style="9" customWidth="1"/>
     <col min="6403" max="6403" width="13" style="9" customWidth="1"/>
-    <col min="6404" max="6404" width="14.28515625" style="9" customWidth="1"/>
-    <col min="6405" max="6405" width="12.42578125" style="9" customWidth="1"/>
-    <col min="6406" max="6406" width="10.28515625" style="9" customWidth="1"/>
-    <col min="6407" max="6407" width="17.5703125" style="9" customWidth="1"/>
-    <col min="6408" max="6408" width="27.42578125" style="9" customWidth="1"/>
-    <col min="6409" max="6409" width="24.140625" style="9" customWidth="1"/>
-    <col min="6410" max="6410" width="13.5703125" style="9" customWidth="1"/>
-    <col min="6411" max="6411" width="23.42578125" style="9" customWidth="1"/>
-    <col min="6412" max="6412" width="21.140625" style="9" customWidth="1"/>
-    <col min="6413" max="6413" width="20.42578125" style="9" customWidth="1"/>
-    <col min="6414" max="6656" width="9.140625" style="9"/>
-    <col min="6657" max="6657" width="10.42578125" style="9" customWidth="1"/>
-    <col min="6658" max="6658" width="19.85546875" style="9" customWidth="1"/>
+    <col min="6404" max="6404" width="14.33203125" style="9" customWidth="1"/>
+    <col min="6405" max="6405" width="12.44140625" style="9" customWidth="1"/>
+    <col min="6406" max="6406" width="10.33203125" style="9" customWidth="1"/>
+    <col min="6407" max="6407" width="17.5546875" style="9" customWidth="1"/>
+    <col min="6408" max="6408" width="27.44140625" style="9" customWidth="1"/>
+    <col min="6409" max="6409" width="24.109375" style="9" customWidth="1"/>
+    <col min="6410" max="6410" width="13.5546875" style="9" customWidth="1"/>
+    <col min="6411" max="6411" width="23.44140625" style="9" customWidth="1"/>
+    <col min="6412" max="6412" width="21.109375" style="9" customWidth="1"/>
+    <col min="6413" max="6413" width="20.44140625" style="9" customWidth="1"/>
+    <col min="6414" max="6656" width="9.109375" style="9"/>
+    <col min="6657" max="6657" width="10.44140625" style="9" customWidth="1"/>
+    <col min="6658" max="6658" width="19.88671875" style="9" customWidth="1"/>
     <col min="6659" max="6659" width="13" style="9" customWidth="1"/>
-    <col min="6660" max="6660" width="14.28515625" style="9" customWidth="1"/>
-    <col min="6661" max="6661" width="12.42578125" style="9" customWidth="1"/>
-    <col min="6662" max="6662" width="10.28515625" style="9" customWidth="1"/>
-    <col min="6663" max="6663" width="17.5703125" style="9" customWidth="1"/>
-    <col min="6664" max="6664" width="27.42578125" style="9" customWidth="1"/>
-    <col min="6665" max="6665" width="24.140625" style="9" customWidth="1"/>
-    <col min="6666" max="6666" width="13.5703125" style="9" customWidth="1"/>
-    <col min="6667" max="6667" width="23.42578125" style="9" customWidth="1"/>
-    <col min="6668" max="6668" width="21.140625" style="9" customWidth="1"/>
-    <col min="6669" max="6669" width="20.42578125" style="9" customWidth="1"/>
-    <col min="6670" max="6912" width="9.140625" style="9"/>
-    <col min="6913" max="6913" width="10.42578125" style="9" customWidth="1"/>
-    <col min="6914" max="6914" width="19.85546875" style="9" customWidth="1"/>
+    <col min="6660" max="6660" width="14.33203125" style="9" customWidth="1"/>
+    <col min="6661" max="6661" width="12.44140625" style="9" customWidth="1"/>
+    <col min="6662" max="6662" width="10.33203125" style="9" customWidth="1"/>
+    <col min="6663" max="6663" width="17.5546875" style="9" customWidth="1"/>
+    <col min="6664" max="6664" width="27.44140625" style="9" customWidth="1"/>
+    <col min="6665" max="6665" width="24.109375" style="9" customWidth="1"/>
+    <col min="6666" max="6666" width="13.5546875" style="9" customWidth="1"/>
+    <col min="6667" max="6667" width="23.44140625" style="9" customWidth="1"/>
+    <col min="6668" max="6668" width="21.109375" style="9" customWidth="1"/>
+    <col min="6669" max="6669" width="20.44140625" style="9" customWidth="1"/>
+    <col min="6670" max="6912" width="9.109375" style="9"/>
+    <col min="6913" max="6913" width="10.44140625" style="9" customWidth="1"/>
+    <col min="6914" max="6914" width="19.88671875" style="9" customWidth="1"/>
     <col min="6915" max="6915" width="13" style="9" customWidth="1"/>
-    <col min="6916" max="6916" width="14.28515625" style="9" customWidth="1"/>
-    <col min="6917" max="6917" width="12.42578125" style="9" customWidth="1"/>
-    <col min="6918" max="6918" width="10.28515625" style="9" customWidth="1"/>
-    <col min="6919" max="6919" width="17.5703125" style="9" customWidth="1"/>
-    <col min="6920" max="6920" width="27.42578125" style="9" customWidth="1"/>
-    <col min="6921" max="6921" width="24.140625" style="9" customWidth="1"/>
-    <col min="6922" max="6922" width="13.5703125" style="9" customWidth="1"/>
-    <col min="6923" max="6923" width="23.42578125" style="9" customWidth="1"/>
-    <col min="6924" max="6924" width="21.140625" style="9" customWidth="1"/>
-    <col min="6925" max="6925" width="20.42578125" style="9" customWidth="1"/>
-    <col min="6926" max="7168" width="9.140625" style="9"/>
-    <col min="7169" max="7169" width="10.42578125" style="9" customWidth="1"/>
-    <col min="7170" max="7170" width="19.85546875" style="9" customWidth="1"/>
+    <col min="6916" max="6916" width="14.33203125" style="9" customWidth="1"/>
+    <col min="6917" max="6917" width="12.44140625" style="9" customWidth="1"/>
+    <col min="6918" max="6918" width="10.33203125" style="9" customWidth="1"/>
+    <col min="6919" max="6919" width="17.5546875" style="9" customWidth="1"/>
+    <col min="6920" max="6920" width="27.44140625" style="9" customWidth="1"/>
+    <col min="6921" max="6921" width="24.109375" style="9" customWidth="1"/>
+    <col min="6922" max="6922" width="13.5546875" style="9" customWidth="1"/>
+    <col min="6923" max="6923" width="23.44140625" style="9" customWidth="1"/>
+    <col min="6924" max="6924" width="21.109375" style="9" customWidth="1"/>
+    <col min="6925" max="6925" width="20.44140625" style="9" customWidth="1"/>
+    <col min="6926" max="7168" width="9.109375" style="9"/>
+    <col min="7169" max="7169" width="10.44140625" style="9" customWidth="1"/>
+    <col min="7170" max="7170" width="19.88671875" style="9" customWidth="1"/>
     <col min="7171" max="7171" width="13" style="9" customWidth="1"/>
-    <col min="7172" max="7172" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7173" max="7173" width="12.42578125" style="9" customWidth="1"/>
-    <col min="7174" max="7174" width="10.28515625" style="9" customWidth="1"/>
-    <col min="7175" max="7175" width="17.5703125" style="9" customWidth="1"/>
-    <col min="7176" max="7176" width="27.42578125" style="9" customWidth="1"/>
-    <col min="7177" max="7177" width="24.140625" style="9" customWidth="1"/>
-    <col min="7178" max="7178" width="13.5703125" style="9" customWidth="1"/>
-    <col min="7179" max="7179" width="23.42578125" style="9" customWidth="1"/>
-    <col min="7180" max="7180" width="21.140625" style="9" customWidth="1"/>
-    <col min="7181" max="7181" width="20.42578125" style="9" customWidth="1"/>
-    <col min="7182" max="7424" width="9.140625" style="9"/>
-    <col min="7425" max="7425" width="10.42578125" style="9" customWidth="1"/>
-    <col min="7426" max="7426" width="19.85546875" style="9" customWidth="1"/>
+    <col min="7172" max="7172" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7173" max="7173" width="12.44140625" style="9" customWidth="1"/>
+    <col min="7174" max="7174" width="10.33203125" style="9" customWidth="1"/>
+    <col min="7175" max="7175" width="17.5546875" style="9" customWidth="1"/>
+    <col min="7176" max="7176" width="27.44140625" style="9" customWidth="1"/>
+    <col min="7177" max="7177" width="24.109375" style="9" customWidth="1"/>
+    <col min="7178" max="7178" width="13.5546875" style="9" customWidth="1"/>
+    <col min="7179" max="7179" width="23.44140625" style="9" customWidth="1"/>
+    <col min="7180" max="7180" width="21.109375" style="9" customWidth="1"/>
+    <col min="7181" max="7181" width="20.44140625" style="9" customWidth="1"/>
+    <col min="7182" max="7424" width="9.109375" style="9"/>
+    <col min="7425" max="7425" width="10.44140625" style="9" customWidth="1"/>
+    <col min="7426" max="7426" width="19.88671875" style="9" customWidth="1"/>
     <col min="7427" max="7427" width="13" style="9" customWidth="1"/>
-    <col min="7428" max="7428" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7429" max="7429" width="12.42578125" style="9" customWidth="1"/>
-    <col min="7430" max="7430" width="10.28515625" style="9" customWidth="1"/>
-    <col min="7431" max="7431" width="17.5703125" style="9" customWidth="1"/>
-    <col min="7432" max="7432" width="27.42578125" style="9" customWidth="1"/>
-    <col min="7433" max="7433" width="24.140625" style="9" customWidth="1"/>
-    <col min="7434" max="7434" width="13.5703125" style="9" customWidth="1"/>
-    <col min="7435" max="7435" width="23.42578125" style="9" customWidth="1"/>
-    <col min="7436" max="7436" width="21.140625" style="9" customWidth="1"/>
-    <col min="7437" max="7437" width="20.42578125" style="9" customWidth="1"/>
-    <col min="7438" max="7680" width="9.140625" style="9"/>
-    <col min="7681" max="7681" width="10.42578125" style="9" customWidth="1"/>
-    <col min="7682" max="7682" width="19.85546875" style="9" customWidth="1"/>
+    <col min="7428" max="7428" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7429" max="7429" width="12.44140625" style="9" customWidth="1"/>
+    <col min="7430" max="7430" width="10.33203125" style="9" customWidth="1"/>
+    <col min="7431" max="7431" width="17.5546875" style="9" customWidth="1"/>
+    <col min="7432" max="7432" width="27.44140625" style="9" customWidth="1"/>
+    <col min="7433" max="7433" width="24.109375" style="9" customWidth="1"/>
+    <col min="7434" max="7434" width="13.5546875" style="9" customWidth="1"/>
+    <col min="7435" max="7435" width="23.44140625" style="9" customWidth="1"/>
+    <col min="7436" max="7436" width="21.109375" style="9" customWidth="1"/>
+    <col min="7437" max="7437" width="20.44140625" style="9" customWidth="1"/>
+    <col min="7438" max="7680" width="9.109375" style="9"/>
+    <col min="7681" max="7681" width="10.44140625" style="9" customWidth="1"/>
+    <col min="7682" max="7682" width="19.88671875" style="9" customWidth="1"/>
     <col min="7683" max="7683" width="13" style="9" customWidth="1"/>
-    <col min="7684" max="7684" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7685" max="7685" width="12.42578125" style="9" customWidth="1"/>
-    <col min="7686" max="7686" width="10.28515625" style="9" customWidth="1"/>
-    <col min="7687" max="7687" width="17.5703125" style="9" customWidth="1"/>
-    <col min="7688" max="7688" width="27.42578125" style="9" customWidth="1"/>
-    <col min="7689" max="7689" width="24.140625" style="9" customWidth="1"/>
-    <col min="7690" max="7690" width="13.5703125" style="9" customWidth="1"/>
-    <col min="7691" max="7691" width="23.42578125" style="9" customWidth="1"/>
-    <col min="7692" max="7692" width="21.140625" style="9" customWidth="1"/>
-    <col min="7693" max="7693" width="20.42578125" style="9" customWidth="1"/>
-    <col min="7694" max="7936" width="9.140625" style="9"/>
-    <col min="7937" max="7937" width="10.42578125" style="9" customWidth="1"/>
-    <col min="7938" max="7938" width="19.85546875" style="9" customWidth="1"/>
+    <col min="7684" max="7684" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7685" max="7685" width="12.44140625" style="9" customWidth="1"/>
+    <col min="7686" max="7686" width="10.33203125" style="9" customWidth="1"/>
+    <col min="7687" max="7687" width="17.5546875" style="9" customWidth="1"/>
+    <col min="7688" max="7688" width="27.44140625" style="9" customWidth="1"/>
+    <col min="7689" max="7689" width="24.109375" style="9" customWidth="1"/>
+    <col min="7690" max="7690" width="13.5546875" style="9" customWidth="1"/>
+    <col min="7691" max="7691" width="23.44140625" style="9" customWidth="1"/>
+    <col min="7692" max="7692" width="21.109375" style="9" customWidth="1"/>
+    <col min="7693" max="7693" width="20.44140625" style="9" customWidth="1"/>
+    <col min="7694" max="7936" width="9.109375" style="9"/>
+    <col min="7937" max="7937" width="10.44140625" style="9" customWidth="1"/>
+    <col min="7938" max="7938" width="19.88671875" style="9" customWidth="1"/>
     <col min="7939" max="7939" width="13" style="9" customWidth="1"/>
-    <col min="7940" max="7940" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7941" max="7941" width="12.42578125" style="9" customWidth="1"/>
-    <col min="7942" max="7942" width="10.28515625" style="9" customWidth="1"/>
-    <col min="7943" max="7943" width="17.5703125" style="9" customWidth="1"/>
-    <col min="7944" max="7944" width="27.42578125" style="9" customWidth="1"/>
-    <col min="7945" max="7945" width="24.140625" style="9" customWidth="1"/>
-    <col min="7946" max="7946" width="13.5703125" style="9" customWidth="1"/>
-    <col min="7947" max="7947" width="23.42578125" style="9" customWidth="1"/>
-    <col min="7948" max="7948" width="21.140625" style="9" customWidth="1"/>
-    <col min="7949" max="7949" width="20.42578125" style="9" customWidth="1"/>
-    <col min="7950" max="8192" width="9.140625" style="9"/>
-    <col min="8193" max="8193" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8194" max="8194" width="19.85546875" style="9" customWidth="1"/>
+    <col min="7940" max="7940" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7941" max="7941" width="12.44140625" style="9" customWidth="1"/>
+    <col min="7942" max="7942" width="10.33203125" style="9" customWidth="1"/>
+    <col min="7943" max="7943" width="17.5546875" style="9" customWidth="1"/>
+    <col min="7944" max="7944" width="27.44140625" style="9" customWidth="1"/>
+    <col min="7945" max="7945" width="24.109375" style="9" customWidth="1"/>
+    <col min="7946" max="7946" width="13.5546875" style="9" customWidth="1"/>
+    <col min="7947" max="7947" width="23.44140625" style="9" customWidth="1"/>
+    <col min="7948" max="7948" width="21.109375" style="9" customWidth="1"/>
+    <col min="7949" max="7949" width="20.44140625" style="9" customWidth="1"/>
+    <col min="7950" max="8192" width="9.109375" style="9"/>
+    <col min="8193" max="8193" width="10.44140625" style="9" customWidth="1"/>
+    <col min="8194" max="8194" width="19.88671875" style="9" customWidth="1"/>
     <col min="8195" max="8195" width="13" style="9" customWidth="1"/>
-    <col min="8196" max="8196" width="14.28515625" style="9" customWidth="1"/>
-    <col min="8197" max="8197" width="12.42578125" style="9" customWidth="1"/>
-    <col min="8198" max="8198" width="10.28515625" style="9" customWidth="1"/>
-    <col min="8199" max="8199" width="17.5703125" style="9" customWidth="1"/>
-    <col min="8200" max="8200" width="27.42578125" style="9" customWidth="1"/>
-    <col min="8201" max="8201" width="24.140625" style="9" customWidth="1"/>
-    <col min="8202" max="8202" width="13.5703125" style="9" customWidth="1"/>
-    <col min="8203" max="8203" width="23.42578125" style="9" customWidth="1"/>
-    <col min="8204" max="8204" width="21.140625" style="9" customWidth="1"/>
-    <col min="8205" max="8205" width="20.42578125" style="9" customWidth="1"/>
-    <col min="8206" max="8448" width="9.140625" style="9"/>
-    <col min="8449" max="8449" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8450" max="8450" width="19.85546875" style="9" customWidth="1"/>
+    <col min="8196" max="8196" width="14.33203125" style="9" customWidth="1"/>
+    <col min="8197" max="8197" width="12.44140625" style="9" customWidth="1"/>
+    <col min="8198" max="8198" width="10.33203125" style="9" customWidth="1"/>
+    <col min="8199" max="8199" width="17.5546875" style="9" customWidth="1"/>
+    <col min="8200" max="8200" width="27.44140625" style="9" customWidth="1"/>
+    <col min="8201" max="8201" width="24.109375" style="9" customWidth="1"/>
+    <col min="8202" max="8202" width="13.5546875" style="9" customWidth="1"/>
+    <col min="8203" max="8203" width="23.44140625" style="9" customWidth="1"/>
+    <col min="8204" max="8204" width="21.109375" style="9" customWidth="1"/>
+    <col min="8205" max="8205" width="20.44140625" style="9" customWidth="1"/>
+    <col min="8206" max="8448" width="9.109375" style="9"/>
+    <col min="8449" max="8449" width="10.44140625" style="9" customWidth="1"/>
+    <col min="8450" max="8450" width="19.88671875" style="9" customWidth="1"/>
     <col min="8451" max="8451" width="13" style="9" customWidth="1"/>
-    <col min="8452" max="8452" width="14.28515625" style="9" customWidth="1"/>
-    <col min="8453" max="8453" width="12.42578125" style="9" customWidth="1"/>
-    <col min="8454" max="8454" width="10.28515625" style="9" customWidth="1"/>
-    <col min="8455" max="8455" width="17.5703125" style="9" customWidth="1"/>
-    <col min="8456" max="8456" width="27.42578125" style="9" customWidth="1"/>
-    <col min="8457" max="8457" width="24.140625" style="9" customWidth="1"/>
-    <col min="8458" max="8458" width="13.5703125" style="9" customWidth="1"/>
-    <col min="8459" max="8459" width="23.42578125" style="9" customWidth="1"/>
-    <col min="8460" max="8460" width="21.140625" style="9" customWidth="1"/>
-    <col min="8461" max="8461" width="20.42578125" style="9" customWidth="1"/>
-    <col min="8462" max="8704" width="9.140625" style="9"/>
-    <col min="8705" max="8705" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8706" max="8706" width="19.85546875" style="9" customWidth="1"/>
+    <col min="8452" max="8452" width="14.33203125" style="9" customWidth="1"/>
+    <col min="8453" max="8453" width="12.44140625" style="9" customWidth="1"/>
+    <col min="8454" max="8454" width="10.33203125" style="9" customWidth="1"/>
+    <col min="8455" max="8455" width="17.5546875" style="9" customWidth="1"/>
+    <col min="8456" max="8456" width="27.44140625" style="9" customWidth="1"/>
+    <col min="8457" max="8457" width="24.109375" style="9" customWidth="1"/>
+    <col min="8458" max="8458" width="13.5546875" style="9" customWidth="1"/>
+    <col min="8459" max="8459" width="23.44140625" style="9" customWidth="1"/>
+    <col min="8460" max="8460" width="21.109375" style="9" customWidth="1"/>
+    <col min="8461" max="8461" width="20.44140625" style="9" customWidth="1"/>
+    <col min="8462" max="8704" width="9.109375" style="9"/>
+    <col min="8705" max="8705" width="10.44140625" style="9" customWidth="1"/>
+    <col min="8706" max="8706" width="19.88671875" style="9" customWidth="1"/>
     <col min="8707" max="8707" width="13" style="9" customWidth="1"/>
-    <col min="8708" max="8708" width="14.28515625" style="9" customWidth="1"/>
-    <col min="8709" max="8709" width="12.42578125" style="9" customWidth="1"/>
-    <col min="8710" max="8710" width="10.28515625" style="9" customWidth="1"/>
-    <col min="8711" max="8711" width="17.5703125" style="9" customWidth="1"/>
-    <col min="8712" max="8712" width="27.42578125" style="9" customWidth="1"/>
-    <col min="8713" max="8713" width="24.140625" style="9" customWidth="1"/>
-    <col min="8714" max="8714" width="13.5703125" style="9" customWidth="1"/>
-    <col min="8715" max="8715" width="23.42578125" style="9" customWidth="1"/>
-    <col min="8716" max="8716" width="21.140625" style="9" customWidth="1"/>
-    <col min="8717" max="8717" width="20.42578125" style="9" customWidth="1"/>
-    <col min="8718" max="8960" width="9.140625" style="9"/>
-    <col min="8961" max="8961" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8962" max="8962" width="19.85546875" style="9" customWidth="1"/>
+    <col min="8708" max="8708" width="14.33203125" style="9" customWidth="1"/>
+    <col min="8709" max="8709" width="12.44140625" style="9" customWidth="1"/>
+    <col min="8710" max="8710" width="10.33203125" style="9" customWidth="1"/>
+    <col min="8711" max="8711" width="17.5546875" style="9" customWidth="1"/>
+    <col min="8712" max="8712" width="27.44140625" style="9" customWidth="1"/>
+    <col min="8713" max="8713" width="24.109375" style="9" customWidth="1"/>
+    <col min="8714" max="8714" width="13.5546875" style="9" customWidth="1"/>
+    <col min="8715" max="8715" width="23.44140625" style="9" customWidth="1"/>
+    <col min="8716" max="8716" width="21.109375" style="9" customWidth="1"/>
+    <col min="8717" max="8717" width="20.44140625" style="9" customWidth="1"/>
+    <col min="8718" max="8960" width="9.109375" style="9"/>
+    <col min="8961" max="8961" width="10.44140625" style="9" customWidth="1"/>
+    <col min="8962" max="8962" width="19.88671875" style="9" customWidth="1"/>
     <col min="8963" max="8963" width="13" style="9" customWidth="1"/>
-    <col min="8964" max="8964" width="14.28515625" style="9" customWidth="1"/>
-    <col min="8965" max="8965" width="12.42578125" style="9" customWidth="1"/>
-    <col min="8966" max="8966" width="10.28515625" style="9" customWidth="1"/>
-    <col min="8967" max="8967" width="17.5703125" style="9" customWidth="1"/>
-    <col min="8968" max="8968" width="27.42578125" style="9" customWidth="1"/>
-    <col min="8969" max="8969" width="24.140625" style="9" customWidth="1"/>
-    <col min="8970" max="8970" width="13.5703125" style="9" customWidth="1"/>
-    <col min="8971" max="8971" width="23.42578125" style="9" customWidth="1"/>
-    <col min="8972" max="8972" width="21.140625" style="9" customWidth="1"/>
-    <col min="8973" max="8973" width="20.42578125" style="9" customWidth="1"/>
-    <col min="8974" max="9216" width="9.140625" style="9"/>
-    <col min="9217" max="9217" width="10.42578125" style="9" customWidth="1"/>
-    <col min="9218" max="9218" width="19.85546875" style="9" customWidth="1"/>
+    <col min="8964" max="8964" width="14.33203125" style="9" customWidth="1"/>
+    <col min="8965" max="8965" width="12.44140625" style="9" customWidth="1"/>
+    <col min="8966" max="8966" width="10.33203125" style="9" customWidth="1"/>
+    <col min="8967" max="8967" width="17.5546875" style="9" customWidth="1"/>
+    <col min="8968" max="8968" width="27.44140625" style="9" customWidth="1"/>
+    <col min="8969" max="8969" width="24.109375" style="9" customWidth="1"/>
+    <col min="8970" max="8970" width="13.5546875" style="9" customWidth="1"/>
+    <col min="8971" max="8971" width="23.44140625" style="9" customWidth="1"/>
+    <col min="8972" max="8972" width="21.109375" style="9" customWidth="1"/>
+    <col min="8973" max="8973" width="20.44140625" style="9" customWidth="1"/>
+    <col min="8974" max="9216" width="9.109375" style="9"/>
+    <col min="9217" max="9217" width="10.44140625" style="9" customWidth="1"/>
+    <col min="9218" max="9218" width="19.88671875" style="9" customWidth="1"/>
     <col min="9219" max="9219" width="13" style="9" customWidth="1"/>
-    <col min="9220" max="9220" width="14.28515625" style="9" customWidth="1"/>
-    <col min="9221" max="9221" width="12.42578125" style="9" customWidth="1"/>
-    <col min="9222" max="9222" width="10.28515625" style="9" customWidth="1"/>
-    <col min="9223" max="9223" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9224" max="9224" width="27.42578125" style="9" customWidth="1"/>
-    <col min="9225" max="9225" width="24.140625" style="9" customWidth="1"/>
-    <col min="9226" max="9226" width="13.5703125" style="9" customWidth="1"/>
-    <col min="9227" max="9227" width="23.42578125" style="9" customWidth="1"/>
-    <col min="9228" max="9228" width="21.140625" style="9" customWidth="1"/>
-    <col min="9229" max="9229" width="20.42578125" style="9" customWidth="1"/>
-    <col min="9230" max="9472" width="9.140625" style="9"/>
-    <col min="9473" max="9473" width="10.42578125" style="9" customWidth="1"/>
-    <col min="9474" max="9474" width="19.85546875" style="9" customWidth="1"/>
+    <col min="9220" max="9220" width="14.33203125" style="9" customWidth="1"/>
+    <col min="9221" max="9221" width="12.44140625" style="9" customWidth="1"/>
+    <col min="9222" max="9222" width="10.33203125" style="9" customWidth="1"/>
+    <col min="9223" max="9223" width="17.5546875" style="9" customWidth="1"/>
+    <col min="9224" max="9224" width="27.44140625" style="9" customWidth="1"/>
+    <col min="9225" max="9225" width="24.109375" style="9" customWidth="1"/>
+    <col min="9226" max="9226" width="13.5546875" style="9" customWidth="1"/>
+    <col min="9227" max="9227" width="23.44140625" style="9" customWidth="1"/>
+    <col min="9228" max="9228" width="21.109375" style="9" customWidth="1"/>
+    <col min="9229" max="9229" width="20.44140625" style="9" customWidth="1"/>
+    <col min="9230" max="9472" width="9.109375" style="9"/>
+    <col min="9473" max="9473" width="10.44140625" style="9" customWidth="1"/>
+    <col min="9474" max="9474" width="19.88671875" style="9" customWidth="1"/>
     <col min="9475" max="9475" width="13" style="9" customWidth="1"/>
-    <col min="9476" max="9476" width="14.28515625" style="9" customWidth="1"/>
-    <col min="9477" max="9477" width="12.42578125" style="9" customWidth="1"/>
-    <col min="9478" max="9478" width="10.28515625" style="9" customWidth="1"/>
-    <col min="9479" max="9479" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9480" max="9480" width="27.42578125" style="9" customWidth="1"/>
-    <col min="9481" max="9481" width="24.140625" style="9" customWidth="1"/>
-    <col min="9482" max="9482" width="13.5703125" style="9" customWidth="1"/>
-    <col min="9483" max="9483" width="23.42578125" style="9" customWidth="1"/>
-    <col min="9484" max="9484" width="21.140625" style="9" customWidth="1"/>
-    <col min="9485" max="9485" width="20.42578125" style="9" customWidth="1"/>
-    <col min="9486" max="9728" width="9.140625" style="9"/>
-    <col min="9729" max="9729" width="10.42578125" style="9" customWidth="1"/>
-    <col min="9730" max="9730" width="19.85546875" style="9" customWidth="1"/>
+    <col min="9476" max="9476" width="14.33203125" style="9" customWidth="1"/>
+    <col min="9477" max="9477" width="12.44140625" style="9" customWidth="1"/>
+    <col min="9478" max="9478" width="10.33203125" style="9" customWidth="1"/>
+    <col min="9479" max="9479" width="17.5546875" style="9" customWidth="1"/>
+    <col min="9480" max="9480" width="27.44140625" style="9" customWidth="1"/>
+    <col min="9481" max="9481" width="24.109375" style="9" customWidth="1"/>
+    <col min="9482" max="9482" width="13.5546875" style="9" customWidth="1"/>
+    <col min="9483" max="9483" width="23.44140625" style="9" customWidth="1"/>
+    <col min="9484" max="9484" width="21.109375" style="9" customWidth="1"/>
+    <col min="9485" max="9485" width="20.44140625" style="9" customWidth="1"/>
+    <col min="9486" max="9728" width="9.109375" style="9"/>
+    <col min="9729" max="9729" width="10.44140625" style="9" customWidth="1"/>
+    <col min="9730" max="9730" width="19.88671875" style="9" customWidth="1"/>
     <col min="9731" max="9731" width="13" style="9" customWidth="1"/>
-    <col min="9732" max="9732" width="14.28515625" style="9" customWidth="1"/>
-    <col min="9733" max="9733" width="12.42578125" style="9" customWidth="1"/>
-    <col min="9734" max="9734" width="10.28515625" style="9" customWidth="1"/>
-    <col min="9735" max="9735" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9736" max="9736" width="27.42578125" style="9" customWidth="1"/>
-    <col min="9737" max="9737" width="24.140625" style="9" customWidth="1"/>
-    <col min="9738" max="9738" width="13.5703125" style="9" customWidth="1"/>
-    <col min="9739" max="9739" width="23.42578125" style="9" customWidth="1"/>
-    <col min="9740" max="9740" width="21.140625" style="9" customWidth="1"/>
-    <col min="9741" max="9741" width="20.42578125" style="9" customWidth="1"/>
-    <col min="9742" max="9984" width="9.140625" style="9"/>
-    <col min="9985" max="9985" width="10.42578125" style="9" customWidth="1"/>
-    <col min="9986" max="9986" width="19.85546875" style="9" customWidth="1"/>
+    <col min="9732" max="9732" width="14.33203125" style="9" customWidth="1"/>
+    <col min="9733" max="9733" width="12.44140625" style="9" customWidth="1"/>
+    <col min="9734" max="9734" width="10.33203125" style="9" customWidth="1"/>
+    <col min="9735" max="9735" width="17.5546875" style="9" customWidth="1"/>
+    <col min="9736" max="9736" width="27.44140625" style="9" customWidth="1"/>
+    <col min="9737" max="9737" width="24.109375" style="9" customWidth="1"/>
+    <col min="9738" max="9738" width="13.5546875" style="9" customWidth="1"/>
+    <col min="9739" max="9739" width="23.44140625" style="9" customWidth="1"/>
+    <col min="9740" max="9740" width="21.109375" style="9" customWidth="1"/>
+    <col min="9741" max="9741" width="20.44140625" style="9" customWidth="1"/>
+    <col min="9742" max="9984" width="9.109375" style="9"/>
+    <col min="9985" max="9985" width="10.44140625" style="9" customWidth="1"/>
+    <col min="9986" max="9986" width="19.88671875" style="9" customWidth="1"/>
     <col min="9987" max="9987" width="13" style="9" customWidth="1"/>
-    <col min="9988" max="9988" width="14.28515625" style="9" customWidth="1"/>
-    <col min="9989" max="9989" width="12.42578125" style="9" customWidth="1"/>
-    <col min="9990" max="9990" width="10.28515625" style="9" customWidth="1"/>
-    <col min="9991" max="9991" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9992" max="9992" width="27.42578125" style="9" customWidth="1"/>
-    <col min="9993" max="9993" width="24.140625" style="9" customWidth="1"/>
-    <col min="9994" max="9994" width="13.5703125" style="9" customWidth="1"/>
-    <col min="9995" max="9995" width="23.42578125" style="9" customWidth="1"/>
-    <col min="9996" max="9996" width="21.140625" style="9" customWidth="1"/>
-    <col min="9997" max="9997" width="20.42578125" style="9" customWidth="1"/>
-    <col min="9998" max="10240" width="9.140625" style="9"/>
-    <col min="10241" max="10241" width="10.42578125" style="9" customWidth="1"/>
-    <col min="10242" max="10242" width="19.85546875" style="9" customWidth="1"/>
+    <col min="9988" max="9988" width="14.33203125" style="9" customWidth="1"/>
+    <col min="9989" max="9989" width="12.44140625" style="9" customWidth="1"/>
+    <col min="9990" max="9990" width="10.33203125" style="9" customWidth="1"/>
+    <col min="9991" max="9991" width="17.5546875" style="9" customWidth="1"/>
+    <col min="9992" max="9992" width="27.44140625" style="9" customWidth="1"/>
+    <col min="9993" max="9993" width="24.109375" style="9" customWidth="1"/>
+    <col min="9994" max="9994" width="13.5546875" style="9" customWidth="1"/>
+    <col min="9995" max="9995" width="23.44140625" style="9" customWidth="1"/>
+    <col min="9996" max="9996" width="21.109375" style="9" customWidth="1"/>
+    <col min="9997" max="9997" width="20.44140625" style="9" customWidth="1"/>
+    <col min="9998" max="10240" width="9.109375" style="9"/>
+    <col min="10241" max="10241" width="10.44140625" style="9" customWidth="1"/>
+    <col min="10242" max="10242" width="19.88671875" style="9" customWidth="1"/>
     <col min="10243" max="10243" width="13" style="9" customWidth="1"/>
-    <col min="10244" max="10244" width="14.28515625" style="9" customWidth="1"/>
-    <col min="10245" max="10245" width="12.42578125" style="9" customWidth="1"/>
-    <col min="10246" max="10246" width="10.28515625" style="9" customWidth="1"/>
-    <col min="10247" max="10247" width="17.5703125" style="9" customWidth="1"/>
-    <col min="10248" max="10248" width="27.42578125" style="9" customWidth="1"/>
-    <col min="10249" max="10249" width="24.140625" style="9" customWidth="1"/>
-    <col min="10250" max="10250" width="13.5703125" style="9" customWidth="1"/>
-    <col min="10251" max="10251" width="23.42578125" style="9" customWidth="1"/>
-    <col min="10252" max="10252" width="21.140625" style="9" customWidth="1"/>
-    <col min="10253" max="10253" width="20.42578125" style="9" customWidth="1"/>
-    <col min="10254" max="10496" width="9.140625" style="9"/>
-    <col min="10497" max="10497" width="10.42578125" style="9" customWidth="1"/>
-    <col min="10498" max="10498" width="19.85546875" style="9" customWidth="1"/>
+    <col min="10244" max="10244" width="14.33203125" style="9" customWidth="1"/>
+    <col min="10245" max="10245" width="12.44140625" style="9" customWidth="1"/>
+    <col min="10246" max="10246" width="10.33203125" style="9" customWidth="1"/>
+    <col min="10247" max="10247" width="17.5546875" style="9" customWidth="1"/>
+    <col min="10248" max="10248" width="27.44140625" style="9" customWidth="1"/>
+    <col min="10249" max="10249" width="24.109375" style="9" customWidth="1"/>
+    <col min="10250" max="10250" width="13.5546875" style="9" customWidth="1"/>
+    <col min="10251" max="10251" width="23.44140625" style="9" customWidth="1"/>
+    <col min="10252" max="10252" width="21.109375" style="9" customWidth="1"/>
+    <col min="10253" max="10253" width="20.44140625" style="9" customWidth="1"/>
+    <col min="10254" max="10496" width="9.109375" style="9"/>
+    <col min="10497" max="10497" width="10.44140625" style="9" customWidth="1"/>
+    <col min="10498" max="10498" width="19.88671875" style="9" customWidth="1"/>
     <col min="10499" max="10499" width="13" style="9" customWidth="1"/>
-    <col min="10500" max="10500" width="14.28515625" style="9" customWidth="1"/>
-    <col min="10501" max="10501" width="12.42578125" style="9" customWidth="1"/>
-    <col min="10502" max="10502" width="10.28515625" style="9" customWidth="1"/>
-    <col min="10503" max="10503" width="17.5703125" style="9" customWidth="1"/>
-    <col min="10504" max="10504" width="27.42578125" style="9" customWidth="1"/>
-    <col min="10505" max="10505" width="24.140625" style="9" customWidth="1"/>
-    <col min="10506" max="10506" width="13.5703125" style="9" customWidth="1"/>
-    <col min="10507" max="10507" width="23.42578125" style="9" customWidth="1"/>
-    <col min="10508" max="10508" width="21.140625" style="9" customWidth="1"/>
-    <col min="10509" max="10509" width="20.42578125" style="9" customWidth="1"/>
-    <col min="10510" max="10752" width="9.140625" style="9"/>
-    <col min="10753" max="10753" width="10.42578125" style="9" customWidth="1"/>
-    <col min="10754" max="10754" width="19.85546875" style="9" customWidth="1"/>
+    <col min="10500" max="10500" width="14.33203125" style="9" customWidth="1"/>
+    <col min="10501" max="10501" width="12.44140625" style="9" customWidth="1"/>
+    <col min="10502" max="10502" width="10.33203125" style="9" customWidth="1"/>
+    <col min="10503" max="10503" width="17.5546875" style="9" customWidth="1"/>
+    <col min="10504" max="10504" width="27.44140625" style="9" customWidth="1"/>
+    <col min="10505" max="10505" width="24.109375" style="9" customWidth="1"/>
+    <col min="10506" max="10506" width="13.5546875" style="9" customWidth="1"/>
+    <col min="10507" max="10507" width="23.44140625" style="9" customWidth="1"/>
+    <col min="10508" max="10508" width="21.109375" style="9" customWidth="1"/>
+    <col min="10509" max="10509" width="20.44140625" style="9" customWidth="1"/>
+    <col min="10510" max="10752" width="9.109375" style="9"/>
+    <col min="10753" max="10753" width="10.44140625" style="9" customWidth="1"/>
+    <col min="10754" max="10754" width="19.88671875" style="9" customWidth="1"/>
     <col min="10755" max="10755" width="13" style="9" customWidth="1"/>
-    <col min="10756" max="10756" width="14.28515625" style="9" customWidth="1"/>
-    <col min="10757" max="10757" width="12.42578125" style="9" customWidth="1"/>
-    <col min="10758" max="10758" width="10.28515625" style="9" customWidth="1"/>
-    <col min="10759" max="10759" width="17.5703125" style="9" customWidth="1"/>
-    <col min="10760" max="10760" width="27.42578125" style="9" customWidth="1"/>
-    <col min="10761" max="10761" width="24.140625" style="9" customWidth="1"/>
-    <col min="10762" max="10762" width="13.5703125" style="9" customWidth="1"/>
-    <col min="10763" max="10763" width="23.42578125" style="9" customWidth="1"/>
-    <col min="10764" max="10764" width="21.140625" style="9" customWidth="1"/>
-    <col min="10765" max="10765" width="20.42578125" style="9" customWidth="1"/>
-    <col min="10766" max="11008" width="9.140625" style="9"/>
-    <col min="11009" max="11009" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11010" max="11010" width="19.85546875" style="9" customWidth="1"/>
+    <col min="10756" max="10756" width="14.33203125" style="9" customWidth="1"/>
+    <col min="10757" max="10757" width="12.44140625" style="9" customWidth="1"/>
+    <col min="10758" max="10758" width="10.33203125" style="9" customWidth="1"/>
+    <col min="10759" max="10759" width="17.5546875" style="9" customWidth="1"/>
+    <col min="10760" max="10760" width="27.44140625" style="9" customWidth="1"/>
+    <col min="10761" max="10761" width="24.109375" style="9" customWidth="1"/>
+    <col min="10762" max="10762" width="13.5546875" style="9" customWidth="1"/>
+    <col min="10763" max="10763" width="23.44140625" style="9" customWidth="1"/>
+    <col min="10764" max="10764" width="21.109375" style="9" customWidth="1"/>
+    <col min="10765" max="10765" width="20.44140625" style="9" customWidth="1"/>
+    <col min="10766" max="11008" width="9.109375" style="9"/>
+    <col min="11009" max="11009" width="10.44140625" style="9" customWidth="1"/>
+    <col min="11010" max="11010" width="19.88671875" style="9" customWidth="1"/>
     <col min="11011" max="11011" width="13" style="9" customWidth="1"/>
-    <col min="11012" max="11012" width="14.28515625" style="9" customWidth="1"/>
-    <col min="11013" max="11013" width="12.42578125" style="9" customWidth="1"/>
-    <col min="11014" max="11014" width="10.28515625" style="9" customWidth="1"/>
-    <col min="11015" max="11015" width="17.5703125" style="9" customWidth="1"/>
-    <col min="11016" max="11016" width="27.42578125" style="9" customWidth="1"/>
-    <col min="11017" max="11017" width="24.140625" style="9" customWidth="1"/>
-    <col min="11018" max="11018" width="13.5703125" style="9" customWidth="1"/>
-    <col min="11019" max="11019" width="23.42578125" style="9" customWidth="1"/>
-    <col min="11020" max="11020" width="21.140625" style="9" customWidth="1"/>
-    <col min="11021" max="11021" width="20.42578125" style="9" customWidth="1"/>
-    <col min="11022" max="11264" width="9.140625" style="9"/>
-    <col min="11265" max="11265" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11266" max="11266" width="19.85546875" style="9" customWidth="1"/>
+    <col min="11012" max="11012" width="14.33203125" style="9" customWidth="1"/>
+    <col min="11013" max="11013" width="12.44140625" style="9" customWidth="1"/>
+    <col min="11014" max="11014" width="10.33203125" style="9" customWidth="1"/>
+    <col min="11015" max="11015" width="17.5546875" style="9" customWidth="1"/>
+    <col min="11016" max="11016" width="27.44140625" style="9" customWidth="1"/>
+    <col min="11017" max="11017" width="24.109375" style="9" customWidth="1"/>
+    <col min="11018" max="11018" width="13.5546875" style="9" customWidth="1"/>
+    <col min="11019" max="11019" width="23.44140625" style="9" customWidth="1"/>
+    <col min="11020" max="11020" width="21.109375" style="9" customWidth="1"/>
+    <col min="11021" max="11021" width="20.44140625" style="9" customWidth="1"/>
+    <col min="11022" max="11264" width="9.109375" style="9"/>
+    <col min="11265" max="11265" width="10.44140625" style="9" customWidth="1"/>
+    <col min="11266" max="11266" width="19.88671875" style="9" customWidth="1"/>
     <col min="11267" max="11267" width="13" style="9" customWidth="1"/>
-    <col min="11268" max="11268" width="14.28515625" style="9" customWidth="1"/>
-    <col min="11269" max="11269" width="12.42578125" style="9" customWidth="1"/>
-    <col min="11270" max="11270" width="10.28515625" style="9" customWidth="1"/>
-    <col min="11271" max="11271" width="17.5703125" style="9" customWidth="1"/>
-    <col min="11272" max="11272" width="27.42578125" style="9" customWidth="1"/>
-    <col min="11273" max="11273" width="24.140625" style="9" customWidth="1"/>
-    <col min="11274" max="11274" width="13.5703125" style="9" customWidth="1"/>
-    <col min="11275" max="11275" width="23.42578125" style="9" customWidth="1"/>
-    <col min="11276" max="11276" width="21.140625" style="9" customWidth="1"/>
-    <col min="11277" max="11277" width="20.42578125" style="9" customWidth="1"/>
-    <col min="11278" max="11520" width="9.140625" style="9"/>
-    <col min="11521" max="11521" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11522" max="11522" width="19.85546875" style="9" customWidth="1"/>
+    <col min="11268" max="11268" width="14.33203125" style="9" customWidth="1"/>
+    <col min="11269" max="11269" width="12.44140625" style="9" customWidth="1"/>
+    <col min="11270" max="11270" width="10.33203125" style="9" customWidth="1"/>
+    <col min="11271" max="11271" width="17.5546875" style="9" customWidth="1"/>
+    <col min="11272" max="11272" width="27.44140625" style="9" customWidth="1"/>
+    <col min="11273" max="11273" width="24.109375" style="9" customWidth="1"/>
+    <col min="11274" max="11274" width="13.5546875" style="9" customWidth="1"/>
+    <col min="11275" max="11275" width="23.44140625" style="9" customWidth="1"/>
+    <col min="11276" max="11276" width="21.109375" style="9" customWidth="1"/>
+    <col min="11277" max="11277" width="20.44140625" style="9" customWidth="1"/>
+    <col min="11278" max="11520" width="9.109375" style="9"/>
+    <col min="11521" max="11521" width="10.44140625" style="9" customWidth="1"/>
+    <col min="11522" max="11522" width="19.88671875" style="9" customWidth="1"/>
     <col min="11523" max="11523" width="13" style="9" customWidth="1"/>
-    <col min="11524" max="11524" width="14.28515625" style="9" customWidth="1"/>
-    <col min="11525" max="11525" width="12.42578125" style="9" customWidth="1"/>
-    <col min="11526" max="11526" width="10.28515625" style="9" customWidth="1"/>
-    <col min="11527" max="11527" width="17.5703125" style="9" customWidth="1"/>
-    <col min="11528" max="11528" width="27.42578125" style="9" customWidth="1"/>
-    <col min="11529" max="11529" width="24.140625" style="9" customWidth="1"/>
-    <col min="11530" max="11530" width="13.5703125" style="9" customWidth="1"/>
-    <col min="11531" max="11531" width="23.42578125" style="9" customWidth="1"/>
-    <col min="11532" max="11532" width="21.140625" style="9" customWidth="1"/>
-    <col min="11533" max="11533" width="20.42578125" style="9" customWidth="1"/>
-    <col min="11534" max="11776" width="9.140625" style="9"/>
-    <col min="11777" max="11777" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11778" max="11778" width="19.85546875" style="9" customWidth="1"/>
+    <col min="11524" max="11524" width="14.33203125" style="9" customWidth="1"/>
+    <col min="11525" max="11525" width="12.44140625" style="9" customWidth="1"/>
+    <col min="11526" max="11526" width="10.33203125" style="9" customWidth="1"/>
+    <col min="11527" max="11527" width="17.5546875" style="9" customWidth="1"/>
+    <col min="11528" max="11528" width="27.44140625" style="9" customWidth="1"/>
+    <col min="11529" max="11529" width="24.109375" style="9" customWidth="1"/>
+    <col min="11530" max="11530" width="13.5546875" style="9" customWidth="1"/>
+    <col min="11531" max="11531" width="23.44140625" style="9" customWidth="1"/>
+    <col min="11532" max="11532" width="21.109375" style="9" customWidth="1"/>
+    <col min="11533" max="11533" width="20.44140625" style="9" customWidth="1"/>
+    <col min="11534" max="11776" width="9.109375" style="9"/>
+    <col min="11777" max="11777" width="10.44140625" style="9" customWidth="1"/>
+    <col min="11778" max="11778" width="19.88671875" style="9" customWidth="1"/>
     <col min="11779" max="11779" width="13" style="9" customWidth="1"/>
-    <col min="11780" max="11780" width="14.28515625" style="9" customWidth="1"/>
-    <col min="11781" max="11781" width="12.42578125" style="9" customWidth="1"/>
-    <col min="11782" max="11782" width="10.28515625" style="9" customWidth="1"/>
-    <col min="11783" max="11783" width="17.5703125" style="9" customWidth="1"/>
-    <col min="11784" max="11784" width="27.42578125" style="9" customWidth="1"/>
-    <col min="11785" max="11785" width="24.140625" style="9" customWidth="1"/>
-    <col min="11786" max="11786" width="13.5703125" style="9" customWidth="1"/>
-    <col min="11787" max="11787" width="23.42578125" style="9" customWidth="1"/>
-    <col min="11788" max="11788" width="21.140625" style="9" customWidth="1"/>
-    <col min="11789" max="11789" width="20.42578125" style="9" customWidth="1"/>
-    <col min="11790" max="12032" width="9.140625" style="9"/>
-    <col min="12033" max="12033" width="10.42578125" style="9" customWidth="1"/>
-    <col min="12034" max="12034" width="19.85546875" style="9" customWidth="1"/>
+    <col min="11780" max="11780" width="14.33203125" style="9" customWidth="1"/>
+    <col min="11781" max="11781" width="12.44140625" style="9" customWidth="1"/>
+    <col min="11782" max="11782" width="10.33203125" style="9" customWidth="1"/>
+    <col min="11783" max="11783" width="17.5546875" style="9" customWidth="1"/>
+    <col min="11784" max="11784" width="27.44140625" style="9" customWidth="1"/>
+    <col min="11785" max="11785" width="24.109375" style="9" customWidth="1"/>
+    <col min="11786" max="11786" width="13.5546875" style="9" customWidth="1"/>
+    <col min="11787" max="11787" width="23.44140625" style="9" customWidth="1"/>
+    <col min="11788" max="11788" width="21.109375" style="9" customWidth="1"/>
+    <col min="11789" max="11789" width="20.44140625" style="9" customWidth="1"/>
+    <col min="11790" max="12032" width="9.109375" style="9"/>
+    <col min="12033" max="12033" width="10.44140625" style="9" customWidth="1"/>
+    <col min="12034" max="12034" width="19.88671875" style="9" customWidth="1"/>
     <col min="12035" max="12035" width="13" style="9" customWidth="1"/>
-    <col min="12036" max="12036" width="14.28515625" style="9" customWidth="1"/>
-    <col min="12037" max="12037" width="12.42578125" style="9" customWidth="1"/>
-    <col min="12038" max="12038" width="10.28515625" style="9" customWidth="1"/>
-    <col min="12039" max="12039" width="17.5703125" style="9" customWidth="1"/>
-    <col min="12040" max="12040" width="27.42578125" style="9" customWidth="1"/>
-    <col min="12041" max="12041" width="24.140625" style="9" customWidth="1"/>
-    <col min="12042" max="12042" width="13.5703125" style="9" customWidth="1"/>
-    <col min="12043" max="12043" width="23.42578125" style="9" customWidth="1"/>
-    <col min="12044" max="12044" width="21.140625" style="9" customWidth="1"/>
-    <col min="12045" max="12045" width="20.42578125" style="9" customWidth="1"/>
-    <col min="12046" max="12288" width="9.140625" style="9"/>
-    <col min="12289" max="12289" width="10.42578125" style="9" customWidth="1"/>
-    <col min="12290" max="12290" width="19.85546875" style="9" customWidth="1"/>
+    <col min="12036" max="12036" width="14.33203125" style="9" customWidth="1"/>
+    <col min="12037" max="12037" width="12.44140625" style="9" customWidth="1"/>
+    <col min="12038" max="12038" width="10.33203125" style="9" customWidth="1"/>
+    <col min="12039" max="12039" width="17.5546875" style="9" customWidth="1"/>
+    <col min="12040" max="12040" width="27.44140625" style="9" customWidth="1"/>
+    <col min="12041" max="12041" width="24.109375" style="9" customWidth="1"/>
+    <col min="12042" max="12042" width="13.5546875" style="9" customWidth="1"/>
+    <col min="12043" max="12043" width="23.44140625" style="9" customWidth="1"/>
+    <col min="12044" max="12044" width="21.109375" style="9" customWidth="1"/>
+    <col min="12045" max="12045" width="20.44140625" style="9" customWidth="1"/>
+    <col min="12046" max="12288" width="9.109375" style="9"/>
+    <col min="12289" max="12289" width="10.44140625" style="9" customWidth="1"/>
+    <col min="12290" max="12290" width="19.88671875" style="9" customWidth="1"/>
     <col min="12291" max="12291" width="13" style="9" customWidth="1"/>
-    <col min="12292" max="12292" width="14.28515625" style="9" customWidth="1"/>
-    <col min="12293" max="12293" width="12.42578125" style="9" customWidth="1"/>
-    <col min="12294" max="12294" width="10.28515625" style="9" customWidth="1"/>
-    <col min="12295" max="12295" width="17.5703125" style="9" customWidth="1"/>
-    <col min="12296" max="12296" width="27.42578125" style="9" customWidth="1"/>
-    <col min="12297" max="12297" width="24.140625" style="9" customWidth="1"/>
-    <col min="12298" max="12298" width="13.5703125" style="9" customWidth="1"/>
-    <col min="12299" max="12299" width="23.42578125" style="9" customWidth="1"/>
-    <col min="12300" max="12300" width="21.140625" style="9" customWidth="1"/>
-    <col min="12301" max="12301" width="20.42578125" style="9" customWidth="1"/>
-    <col min="12302" max="12544" width="9.140625" style="9"/>
-    <col min="12545" max="12545" width="10.42578125" style="9" customWidth="1"/>
-    <col min="12546" max="12546" width="19.85546875" style="9" customWidth="1"/>
+    <col min="12292" max="12292" width="14.33203125" style="9" customWidth="1"/>
+    <col min="12293" max="12293" width="12.44140625" style="9" customWidth="1"/>
+    <col min="12294" max="12294" width="10.33203125" style="9" customWidth="1"/>
+    <col min="12295" max="12295" width="17.5546875" style="9" customWidth="1"/>
+    <col min="12296" max="12296" width="27.44140625" style="9" customWidth="1"/>
+    <col min="12297" max="12297" width="24.109375" style="9" customWidth="1"/>
+    <col min="12298" max="12298" width="13.5546875" style="9" customWidth="1"/>
+    <col min="12299" max="12299" width="23.44140625" style="9" customWidth="1"/>
+    <col min="12300" max="12300" width="21.109375" style="9" customWidth="1"/>
+    <col min="12301" max="12301" width="20.44140625" style="9" customWidth="1"/>
+    <col min="12302" max="12544" width="9.109375" style="9"/>
+    <col min="12545" max="12545" width="10.44140625" style="9" customWidth="1"/>
+    <col min="12546" max="12546" width="19.88671875" style="9" customWidth="1"/>
     <col min="12547" max="12547" width="13" style="9" customWidth="1"/>
-    <col min="12548" max="12548" width="14.28515625" style="9" customWidth="1"/>
-    <col min="12549" max="12549" width="12.42578125" style="9" customWidth="1"/>
-    <col min="12550" max="12550" width="10.28515625" style="9" customWidth="1"/>
-    <col min="12551" max="12551" width="17.5703125" style="9" customWidth="1"/>
-    <col min="12552" max="12552" width="27.42578125" style="9" customWidth="1"/>
-    <col min="12553" max="12553" width="24.140625" style="9" customWidth="1"/>
-    <col min="12554" max="12554" width="13.5703125" style="9" customWidth="1"/>
-    <col min="12555" max="12555" width="23.42578125" style="9" customWidth="1"/>
-    <col min="12556" max="12556" width="21.140625" style="9" customWidth="1"/>
-    <col min="12557" max="12557" width="20.42578125" style="9" customWidth="1"/>
-    <col min="12558" max="12800" width="9.140625" style="9"/>
-    <col min="12801" max="12801" width="10.42578125" style="9" customWidth="1"/>
-    <col min="12802" max="12802" width="19.85546875" style="9" customWidth="1"/>
+    <col min="12548" max="12548" width="14.33203125" style="9" customWidth="1"/>
+    <col min="12549" max="12549" width="12.44140625" style="9" customWidth="1"/>
+    <col min="12550" max="12550" width="10.33203125" style="9" customWidth="1"/>
+    <col min="12551" max="12551" width="17.5546875" style="9" customWidth="1"/>
+    <col min="12552" max="12552" width="27.44140625" style="9" customWidth="1"/>
+    <col min="12553" max="12553" width="24.109375" style="9" customWidth="1"/>
+    <col min="12554" max="12554" width="13.5546875" style="9" customWidth="1"/>
+    <col min="12555" max="12555" width="23.44140625" style="9" customWidth="1"/>
+    <col min="12556" max="12556" width="21.109375" style="9" customWidth="1"/>
+    <col min="12557" max="12557" width="20.44140625" style="9" customWidth="1"/>
+    <col min="12558" max="12800" width="9.109375" style="9"/>
+    <col min="12801" max="12801" width="10.44140625" style="9" customWidth="1"/>
+    <col min="12802" max="12802" width="19.88671875" style="9" customWidth="1"/>
     <col min="12803" max="12803" width="13" style="9" customWidth="1"/>
-    <col min="12804" max="12804" width="14.28515625" style="9" customWidth="1"/>
-    <col min="12805" max="12805" width="12.42578125" style="9" customWidth="1"/>
-    <col min="12806" max="12806" width="10.28515625" style="9" customWidth="1"/>
-    <col min="12807" max="12807" width="17.5703125" style="9" customWidth="1"/>
-    <col min="12808" max="12808" width="27.42578125" style="9" customWidth="1"/>
-    <col min="12809" max="12809" width="24.140625" style="9" customWidth="1"/>
-    <col min="12810" max="12810" width="13.5703125" style="9" customWidth="1"/>
-    <col min="12811" max="12811" width="23.42578125" style="9" customWidth="1"/>
-    <col min="12812" max="12812" width="21.140625" style="9" customWidth="1"/>
-    <col min="12813" max="12813" width="20.42578125" style="9" customWidth="1"/>
-    <col min="12814" max="13056" width="9.140625" style="9"/>
-    <col min="13057" max="13057" width="10.42578125" style="9" customWidth="1"/>
-    <col min="13058" max="13058" width="19.85546875" style="9" customWidth="1"/>
+    <col min="12804" max="12804" width="14.33203125" style="9" customWidth="1"/>
+    <col min="12805" max="12805" width="12.44140625" style="9" customWidth="1"/>
+    <col min="12806" max="12806" width="10.33203125" style="9" customWidth="1"/>
+    <col min="12807" max="12807" width="17.5546875" style="9" customWidth="1"/>
+    <col min="12808" max="12808" width="27.44140625" style="9" customWidth="1"/>
+    <col min="12809" max="12809" width="24.109375" style="9" customWidth="1"/>
+    <col min="12810" max="12810" width="13.5546875" style="9" customWidth="1"/>
+    <col min="12811" max="12811" width="23.44140625" style="9" customWidth="1"/>
+    <col min="12812" max="12812" width="21.109375" style="9" customWidth="1"/>
+    <col min="12813" max="12813" width="20.44140625" style="9" customWidth="1"/>
+    <col min="12814" max="13056" width="9.109375" style="9"/>
+    <col min="13057" max="13057" width="10.44140625" style="9" customWidth="1"/>
+    <col min="13058" max="13058" width="19.88671875" style="9" customWidth="1"/>
     <col min="13059" max="13059" width="13" style="9" customWidth="1"/>
-    <col min="13060" max="13060" width="14.28515625" style="9" customWidth="1"/>
-    <col min="13061" max="13061" width="12.42578125" style="9" customWidth="1"/>
-    <col min="13062" max="13062" width="10.28515625" style="9" customWidth="1"/>
-    <col min="13063" max="13063" width="17.5703125" style="9" customWidth="1"/>
-    <col min="13064" max="13064" width="27.42578125" style="9" customWidth="1"/>
-    <col min="13065" max="13065" width="24.140625" style="9" customWidth="1"/>
-    <col min="13066" max="13066" width="13.5703125" style="9" customWidth="1"/>
-    <col min="13067" max="13067" width="23.42578125" style="9" customWidth="1"/>
-    <col min="13068" max="13068" width="21.140625" style="9" customWidth="1"/>
-    <col min="13069" max="13069" width="20.42578125" style="9" customWidth="1"/>
-    <col min="13070" max="13312" width="9.140625" style="9"/>
-    <col min="13313" max="13313" width="10.42578125" style="9" customWidth="1"/>
-    <col min="13314" max="13314" width="19.85546875" style="9" customWidth="1"/>
+    <col min="13060" max="13060" width="14.33203125" style="9" customWidth="1"/>
+    <col min="13061" max="13061" width="12.44140625" style="9" customWidth="1"/>
+    <col min="13062" max="13062" width="10.33203125" style="9" customWidth="1"/>
+    <col min="13063" max="13063" width="17.5546875" style="9" customWidth="1"/>
+    <col min="13064" max="13064" width="27.44140625" style="9" customWidth="1"/>
+    <col min="13065" max="13065" width="24.109375" style="9" customWidth="1"/>
+    <col min="13066" max="13066" width="13.5546875" style="9" customWidth="1"/>
+    <col min="13067" max="13067" width="23.44140625" style="9" customWidth="1"/>
+    <col min="13068" max="13068" width="21.109375" style="9" customWidth="1"/>
+    <col min="13069" max="13069" width="20.44140625" style="9" customWidth="1"/>
+    <col min="13070" max="13312" width="9.109375" style="9"/>
+    <col min="13313" max="13313" width="10.44140625" style="9" customWidth="1"/>
+    <col min="13314" max="13314" width="19.88671875" style="9" customWidth="1"/>
     <col min="13315" max="13315" width="13" style="9" customWidth="1"/>
-    <col min="13316" max="13316" width="14.28515625" style="9" customWidth="1"/>
-    <col min="13317" max="13317" width="12.42578125" style="9" customWidth="1"/>
-    <col min="13318" max="13318" width="10.28515625" style="9" customWidth="1"/>
-    <col min="13319" max="13319" width="17.5703125" style="9" customWidth="1"/>
-    <col min="13320" max="13320" width="27.42578125" style="9" customWidth="1"/>
-    <col min="13321" max="13321" width="24.140625" style="9" customWidth="1"/>
-    <col min="13322" max="13322" width="13.5703125" style="9" customWidth="1"/>
-    <col min="13323" max="13323" width="23.42578125" style="9" customWidth="1"/>
-    <col min="13324" max="13324" width="21.140625" style="9" customWidth="1"/>
-    <col min="13325" max="13325" width="20.42578125" style="9" customWidth="1"/>
-    <col min="13326" max="13568" width="9.140625" style="9"/>
-    <col min="13569" max="13569" width="10.42578125" style="9" customWidth="1"/>
-    <col min="13570" max="13570" width="19.85546875" style="9" customWidth="1"/>
+    <col min="13316" max="13316" width="14.33203125" style="9" customWidth="1"/>
+    <col min="13317" max="13317" width="12.44140625" style="9" customWidth="1"/>
+    <col min="13318" max="13318" width="10.33203125" style="9" customWidth="1"/>
+    <col min="13319" max="13319" width="17.5546875" style="9" customWidth="1"/>
+    <col min="13320" max="13320" width="27.44140625" style="9" customWidth="1"/>
+    <col min="13321" max="13321" width="24.109375" style="9" customWidth="1"/>
+    <col min="13322" max="13322" width="13.5546875" style="9" customWidth="1"/>
+    <col min="13323" max="13323" width="23.44140625" style="9" customWidth="1"/>
+    <col min="13324" max="13324" width="21.109375" style="9" customWidth="1"/>
+    <col min="13325" max="13325" width="20.44140625" style="9" customWidth="1"/>
+    <col min="13326" max="13568" width="9.109375" style="9"/>
+    <col min="13569" max="13569" width="10.44140625" style="9" customWidth="1"/>
+    <col min="13570" max="13570" width="19.88671875" style="9" customWidth="1"/>
     <col min="13571" max="13571" width="13" style="9" customWidth="1"/>
-    <col min="13572" max="13572" width="14.28515625" style="9" customWidth="1"/>
-    <col min="13573" max="13573" width="12.42578125" style="9" customWidth="1"/>
-    <col min="13574" max="13574" width="10.28515625" style="9" customWidth="1"/>
-    <col min="13575" max="13575" width="17.5703125" style="9" customWidth="1"/>
-    <col min="13576" max="13576" width="27.42578125" style="9" customWidth="1"/>
-    <col min="13577" max="13577" width="24.140625" style="9" customWidth="1"/>
-    <col min="13578" max="13578" width="13.5703125" style="9" customWidth="1"/>
-    <col min="13579" max="13579" width="23.42578125" style="9" customWidth="1"/>
-    <col min="13580" max="13580" width="21.140625" style="9" customWidth="1"/>
-    <col min="13581" max="13581" width="20.42578125" style="9" customWidth="1"/>
-    <col min="13582" max="13824" width="9.140625" style="9"/>
-    <col min="13825" max="13825" width="10.42578125" style="9" customWidth="1"/>
-    <col min="13826" max="13826" width="19.85546875" style="9" customWidth="1"/>
+    <col min="13572" max="13572" width="14.33203125" style="9" customWidth="1"/>
+    <col min="13573" max="13573" width="12.44140625" style="9" customWidth="1"/>
+    <col min="13574" max="13574" width="10.33203125" style="9" customWidth="1"/>
+    <col min="13575" max="13575" width="17.5546875" style="9" customWidth="1"/>
+    <col min="13576" max="13576" width="27.44140625" style="9" customWidth="1"/>
+    <col min="13577" max="13577" width="24.109375" style="9" customWidth="1"/>
+    <col min="13578" max="13578" width="13.5546875" style="9" customWidth="1"/>
+    <col min="13579" max="13579" width="23.44140625" style="9" customWidth="1"/>
+    <col min="13580" max="13580" width="21.109375" style="9" customWidth="1"/>
+    <col min="13581" max="13581" width="20.44140625" style="9" customWidth="1"/>
+    <col min="13582" max="13824" width="9.109375" style="9"/>
+    <col min="13825" max="13825" width="10.44140625" style="9" customWidth="1"/>
+    <col min="13826" max="13826" width="19.88671875" style="9" customWidth="1"/>
     <col min="13827" max="13827" width="13" style="9" customWidth="1"/>
-    <col min="13828" max="13828" width="14.28515625" style="9" customWidth="1"/>
-    <col min="13829" max="13829" width="12.42578125" style="9" customWidth="1"/>
-    <col min="13830" max="13830" width="10.28515625" style="9" customWidth="1"/>
-    <col min="13831" max="13831" width="17.5703125" style="9" customWidth="1"/>
-    <col min="13832" max="13832" width="27.42578125" style="9" customWidth="1"/>
-    <col min="13833" max="13833" width="24.140625" style="9" customWidth="1"/>
-    <col min="13834" max="13834" width="13.5703125" style="9" customWidth="1"/>
-    <col min="13835" max="13835" width="23.42578125" style="9" customWidth="1"/>
-    <col min="13836" max="13836" width="21.140625" style="9" customWidth="1"/>
-    <col min="13837" max="13837" width="20.42578125" style="9" customWidth="1"/>
-    <col min="13838" max="14080" width="9.140625" style="9"/>
-    <col min="14081" max="14081" width="10.42578125" style="9" customWidth="1"/>
-    <col min="14082" max="14082" width="19.85546875" style="9" customWidth="1"/>
+    <col min="13828" max="13828" width="14.33203125" style="9" customWidth="1"/>
+    <col min="13829" max="13829" width="12.44140625" style="9" customWidth="1"/>
+    <col min="13830" max="13830" width="10.33203125" style="9" customWidth="1"/>
+    <col min="13831" max="13831" width="17.5546875" style="9" customWidth="1"/>
+    <col min="13832" max="13832" width="27.44140625" style="9" customWidth="1"/>
+    <col min="13833" max="13833" width="24.109375" style="9" customWidth="1"/>
+    <col min="13834" max="13834" width="13.5546875" style="9" customWidth="1"/>
+    <col min="13835" max="13835" width="23.44140625" style="9" customWidth="1"/>
+    <col min="13836" max="13836" width="21.109375" style="9" customWidth="1"/>
+    <col min="13837" max="13837" width="20.44140625" style="9" customWidth="1"/>
+    <col min="13838" max="14080" width="9.109375" style="9"/>
+    <col min="14081" max="14081" width="10.44140625" style="9" customWidth="1"/>
+    <col min="14082" max="14082" width="19.88671875" style="9" customWidth="1"/>
     <col min="14083" max="14083" width="13" style="9" customWidth="1"/>
-    <col min="14084" max="14084" width="14.28515625" style="9" customWidth="1"/>
-    <col min="14085" max="14085" width="12.42578125" style="9" customWidth="1"/>
-    <col min="14086" max="14086" width="10.28515625" style="9" customWidth="1"/>
-    <col min="14087" max="14087" width="17.5703125" style="9" customWidth="1"/>
-    <col min="14088" max="14088" width="27.42578125" style="9" customWidth="1"/>
-    <col min="14089" max="14089" width="24.140625" style="9" customWidth="1"/>
-    <col min="14090" max="14090" width="13.5703125" style="9" customWidth="1"/>
-    <col min="14091" max="14091" width="23.42578125" style="9" customWidth="1"/>
-    <col min="14092" max="14092" width="21.140625" style="9" customWidth="1"/>
-    <col min="14093" max="14093" width="20.42578125" style="9" customWidth="1"/>
-    <col min="14094" max="14336" width="9.140625" style="9"/>
-    <col min="14337" max="14337" width="10.42578125" style="9" customWidth="1"/>
-    <col min="14338" max="14338" width="19.85546875" style="9" customWidth="1"/>
+    <col min="14084" max="14084" width="14.33203125" style="9" customWidth="1"/>
+    <col min="14085" max="14085" width="12.44140625" style="9" customWidth="1"/>
+    <col min="14086" max="14086" width="10.33203125" style="9" customWidth="1"/>
+    <col min="14087" max="14087" width="17.5546875" style="9" customWidth="1"/>
+    <col min="14088" max="14088" width="27.44140625" style="9" customWidth="1"/>
+    <col min="14089" max="14089" width="24.109375" style="9" customWidth="1"/>
+    <col min="14090" max="14090" width="13.5546875" style="9" customWidth="1"/>
+    <col min="14091" max="14091" width="23.44140625" style="9" customWidth="1"/>
+    <col min="14092" max="14092" width="21.109375" style="9" customWidth="1"/>
+    <col min="14093" max="14093" width="20.44140625" style="9" customWidth="1"/>
+    <col min="14094" max="14336" width="9.109375" style="9"/>
+    <col min="14337" max="14337" width="10.44140625" style="9" customWidth="1"/>
+    <col min="14338" max="14338" width="19.88671875" style="9" customWidth="1"/>
     <col min="14339" max="14339" width="13" style="9" customWidth="1"/>
-    <col min="14340" max="14340" width="14.28515625" style="9" customWidth="1"/>
-    <col min="14341" max="14341" width="12.42578125" style="9" customWidth="1"/>
-    <col min="14342" max="14342" width="10.28515625" style="9" customWidth="1"/>
-    <col min="14343" max="14343" width="17.5703125" style="9" customWidth="1"/>
-    <col min="14344" max="14344" width="27.42578125" style="9" customWidth="1"/>
-    <col min="14345" max="14345" width="24.140625" style="9" customWidth="1"/>
-    <col min="14346" max="14346" width="13.5703125" style="9" customWidth="1"/>
-    <col min="14347" max="14347" width="23.42578125" style="9" customWidth="1"/>
-    <col min="14348" max="14348" width="21.140625" style="9" customWidth="1"/>
-    <col min="14349" max="14349" width="20.42578125" style="9" customWidth="1"/>
-    <col min="14350" max="14592" width="9.140625" style="9"/>
-    <col min="14593" max="14593" width="10.42578125" style="9" customWidth="1"/>
-    <col min="14594" max="14594" width="19.85546875" style="9" customWidth="1"/>
+    <col min="14340" max="14340" width="14.33203125" style="9" customWidth="1"/>
+    <col min="14341" max="14341" width="12.44140625" style="9" customWidth="1"/>
+    <col min="14342" max="14342" width="10.33203125" style="9" customWidth="1"/>
+    <col min="14343" max="14343" width="17.5546875" style="9" customWidth="1"/>
+    <col min="14344" max="14344" width="27.44140625" style="9" customWidth="1"/>
+    <col min="14345" max="14345" width="24.109375" style="9" customWidth="1"/>
+    <col min="14346" max="14346" width="13.5546875" style="9" customWidth="1"/>
+    <col min="14347" max="14347" width="23.44140625" style="9" customWidth="1"/>
+    <col min="14348" max="14348" width="21.109375" style="9" customWidth="1"/>
+    <col min="14349" max="14349" width="20.44140625" style="9" customWidth="1"/>
+    <col min="14350" max="14592" width="9.109375" style="9"/>
+    <col min="14593" max="14593" width="10.44140625" style="9" customWidth="1"/>
+    <col min="14594" max="14594" width="19.88671875" style="9" customWidth="1"/>
     <col min="14595" max="14595" width="13" style="9" customWidth="1"/>
-    <col min="14596" max="14596" width="14.28515625" style="9" customWidth="1"/>
-    <col min="14597" max="14597" width="12.42578125" style="9" customWidth="1"/>
-    <col min="14598" max="14598" width="10.28515625" style="9" customWidth="1"/>
-    <col min="14599" max="14599" width="17.5703125" style="9" customWidth="1"/>
-    <col min="14600" max="14600" width="27.42578125" style="9" customWidth="1"/>
-    <col min="14601" max="14601" width="24.140625" style="9" customWidth="1"/>
-    <col min="14602" max="14602" width="13.5703125" style="9" customWidth="1"/>
-    <col min="14603" max="14603" width="23.42578125" style="9" customWidth="1"/>
-    <col min="14604" max="14604" width="21.140625" style="9" customWidth="1"/>
-    <col min="14605" max="14605" width="20.42578125" style="9" customWidth="1"/>
-    <col min="14606" max="14848" width="9.140625" style="9"/>
-    <col min="14849" max="14849" width="10.42578125" style="9" customWidth="1"/>
-    <col min="14850" max="14850" width="19.85546875" style="9" customWidth="1"/>
+    <col min="14596" max="14596" width="14.33203125" style="9" customWidth="1"/>
+    <col min="14597" max="14597" width="12.44140625" style="9" customWidth="1"/>
+    <col min="14598" max="14598" width="10.33203125" style="9" customWidth="1"/>
+    <col min="14599" max="14599" width="17.5546875" style="9" customWidth="1"/>
+    <col min="14600" max="14600" width="27.44140625" style="9" customWidth="1"/>
+    <col min="14601" max="14601" width="24.109375" style="9" customWidth="1"/>
+    <col min="14602" max="14602" width="13.5546875" style="9" customWidth="1"/>
+    <col min="14603" max="14603" width="23.44140625" style="9" customWidth="1"/>
+    <col min="14604" max="14604" width="21.109375" style="9" customWidth="1"/>
+    <col min="14605" max="14605" width="20.44140625" style="9" customWidth="1"/>
+    <col min="14606" max="14848" width="9.109375" style="9"/>
+    <col min="14849" max="14849" width="10.44140625" style="9" customWidth="1"/>
+    <col min="14850" max="14850" width="19.88671875" style="9" customWidth="1"/>
     <col min="14851" max="14851" width="13" style="9" customWidth="1"/>
-    <col min="14852" max="14852" width="14.28515625" style="9" customWidth="1"/>
-    <col min="14853" max="14853" width="12.42578125" style="9" customWidth="1"/>
-    <col min="14854" max="14854" width="10.28515625" style="9" customWidth="1"/>
-    <col min="14855" max="14855" width="17.5703125" style="9" customWidth="1"/>
-    <col min="14856" max="14856" width="27.42578125" style="9" customWidth="1"/>
-    <col min="14857" max="14857" width="24.140625" style="9" customWidth="1"/>
-    <col min="14858" max="14858" width="13.5703125" style="9" customWidth="1"/>
-    <col min="14859" max="14859" width="23.42578125" style="9" customWidth="1"/>
-    <col min="14860" max="14860" width="21.140625" style="9" customWidth="1"/>
-    <col min="14861" max="14861" width="20.42578125" style="9" customWidth="1"/>
-    <col min="14862" max="15104" width="9.140625" style="9"/>
-    <col min="15105" max="15105" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15106" max="15106" width="19.85546875" style="9" customWidth="1"/>
+    <col min="14852" max="14852" width="14.33203125" style="9" customWidth="1"/>
+    <col min="14853" max="14853" width="12.44140625" style="9" customWidth="1"/>
+    <col min="14854" max="14854" width="10.33203125" style="9" customWidth="1"/>
+    <col min="14855" max="14855" width="17.5546875" style="9" customWidth="1"/>
+    <col min="14856" max="14856" width="27.44140625" style="9" customWidth="1"/>
+    <col min="14857" max="14857" width="24.109375" style="9" customWidth="1"/>
+    <col min="14858" max="14858" width="13.5546875" style="9" customWidth="1"/>
+    <col min="14859" max="14859" width="23.44140625" style="9" customWidth="1"/>
+    <col min="14860" max="14860" width="21.109375" style="9" customWidth="1"/>
+    <col min="14861" max="14861" width="20.44140625" style="9" customWidth="1"/>
+    <col min="14862" max="15104" width="9.109375" style="9"/>
+    <col min="15105" max="15105" width="10.44140625" style="9" customWidth="1"/>
+    <col min="15106" max="15106" width="19.88671875" style="9" customWidth="1"/>
     <col min="15107" max="15107" width="13" style="9" customWidth="1"/>
-    <col min="15108" max="15108" width="14.28515625" style="9" customWidth="1"/>
-    <col min="15109" max="15109" width="12.42578125" style="9" customWidth="1"/>
-    <col min="15110" max="15110" width="10.28515625" style="9" customWidth="1"/>
-    <col min="15111" max="15111" width="17.5703125" style="9" customWidth="1"/>
-    <col min="15112" max="15112" width="27.42578125" style="9" customWidth="1"/>
-    <col min="15113" max="15113" width="24.140625" style="9" customWidth="1"/>
-    <col min="15114" max="15114" width="13.5703125" style="9" customWidth="1"/>
-    <col min="15115" max="15115" width="23.42578125" style="9" customWidth="1"/>
-    <col min="15116" max="15116" width="21.140625" style="9" customWidth="1"/>
-    <col min="15117" max="15117" width="20.42578125" style="9" customWidth="1"/>
-    <col min="15118" max="15360" width="9.140625" style="9"/>
-    <col min="15361" max="15361" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15362" max="15362" width="19.85546875" style="9" customWidth="1"/>
+    <col min="15108" max="15108" width="14.33203125" style="9" customWidth="1"/>
+    <col min="15109" max="15109" width="12.44140625" style="9" customWidth="1"/>
+    <col min="15110" max="15110" width="10.33203125" style="9" customWidth="1"/>
+    <col min="15111" max="15111" width="17.5546875" style="9" customWidth="1"/>
+    <col min="15112" max="15112" width="27.44140625" style="9" customWidth="1"/>
+    <col min="15113" max="15113" width="24.109375" style="9" customWidth="1"/>
+    <col min="15114" max="15114" width="13.5546875" style="9" customWidth="1"/>
+    <col min="15115" max="15115" width="23.44140625" style="9" customWidth="1"/>
+    <col min="15116" max="15116" width="21.109375" style="9" customWidth="1"/>
+    <col min="15117" max="15117" width="20.44140625" style="9" customWidth="1"/>
+    <col min="15118" max="15360" width="9.109375" style="9"/>
+    <col min="15361" max="15361" width="10.44140625" style="9" customWidth="1"/>
+    <col min="15362" max="15362" width="19.88671875" style="9" customWidth="1"/>
     <col min="15363" max="15363" width="13" style="9" customWidth="1"/>
-    <col min="15364" max="15364" width="14.28515625" style="9" customWidth="1"/>
-    <col min="15365" max="15365" width="12.42578125" style="9" customWidth="1"/>
-    <col min="15366" max="15366" width="10.28515625" style="9" customWidth="1"/>
-    <col min="15367" max="15367" width="17.5703125" style="9" customWidth="1"/>
-    <col min="15368" max="15368" width="27.42578125" style="9" customWidth="1"/>
-    <col min="15369" max="15369" width="24.140625" style="9" customWidth="1"/>
-    <col min="15370" max="15370" width="13.5703125" style="9" customWidth="1"/>
-    <col min="15371" max="15371" width="23.42578125" style="9" customWidth="1"/>
-    <col min="15372" max="15372" width="21.140625" style="9" customWidth="1"/>
-    <col min="15373" max="15373" width="20.42578125" style="9" customWidth="1"/>
-    <col min="15374" max="15616" width="9.140625" style="9"/>
-    <col min="15617" max="15617" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15618" max="15618" width="19.85546875" style="9" customWidth="1"/>
+    <col min="15364" max="15364" width="14.33203125" style="9" customWidth="1"/>
+    <col min="15365" max="15365" width="12.44140625" style="9" customWidth="1"/>
+    <col min="15366" max="15366" width="10.33203125" style="9" customWidth="1"/>
+    <col min="15367" max="15367" width="17.5546875" style="9" customWidth="1"/>
+    <col min="15368" max="15368" width="27.44140625" style="9" customWidth="1"/>
+    <col min="15369" max="15369" width="24.109375" style="9" customWidth="1"/>
+    <col min="15370" max="15370" width="13.5546875" style="9" customWidth="1"/>
+    <col min="15371" max="15371" width="23.44140625" style="9" customWidth="1"/>
+    <col min="15372" max="15372" width="21.109375" style="9" customWidth="1"/>
+    <col min="15373" max="15373" width="20.44140625" style="9" customWidth="1"/>
+    <col min="15374" max="15616" width="9.109375" style="9"/>
+    <col min="15617" max="15617" width="10.44140625" style="9" customWidth="1"/>
+    <col min="15618" max="15618" width="19.88671875" style="9" customWidth="1"/>
     <col min="15619" max="15619" width="13" style="9" customWidth="1"/>
-    <col min="15620" max="15620" width="14.28515625" style="9" customWidth="1"/>
-    <col min="15621" max="15621" width="12.42578125" style="9" customWidth="1"/>
-    <col min="15622" max="15622" width="10.28515625" style="9" customWidth="1"/>
-    <col min="15623" max="15623" width="17.5703125" style="9" customWidth="1"/>
-    <col min="15624" max="15624" width="27.42578125" style="9" customWidth="1"/>
-    <col min="15625" max="15625" width="24.140625" style="9" customWidth="1"/>
-    <col min="15626" max="15626" width="13.5703125" style="9" customWidth="1"/>
-    <col min="15627" max="15627" width="23.42578125" style="9" customWidth="1"/>
-    <col min="15628" max="15628" width="21.140625" style="9" customWidth="1"/>
-    <col min="15629" max="15629" width="20.42578125" style="9" customWidth="1"/>
-    <col min="15630" max="15872" width="9.140625" style="9"/>
-    <col min="15873" max="15873" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15874" max="15874" width="19.85546875" style="9" customWidth="1"/>
+    <col min="15620" max="15620" width="14.33203125" style="9" customWidth="1"/>
+    <col min="15621" max="15621" width="12.44140625" style="9" customWidth="1"/>
+    <col min="15622" max="15622" width="10.33203125" style="9" customWidth="1"/>
+    <col min="15623" max="15623" width="17.5546875" style="9" customWidth="1"/>
+    <col min="15624" max="15624" width="27.44140625" style="9" customWidth="1"/>
+    <col min="15625" max="15625" width="24.109375" style="9" customWidth="1"/>
+    <col min="15626" max="15626" width="13.5546875" style="9" customWidth="1"/>
+    <col min="15627" max="15627" width="23.44140625" style="9" customWidth="1"/>
+    <col min="15628" max="15628" width="21.109375" style="9" customWidth="1"/>
+    <col min="15629" max="15629" width="20.44140625" style="9" customWidth="1"/>
+    <col min="15630" max="15872" width="9.109375" style="9"/>
+    <col min="15873" max="15873" width="10.44140625" style="9" customWidth="1"/>
+    <col min="15874" max="15874" width="19.88671875" style="9" customWidth="1"/>
     <col min="15875" max="15875" width="13" style="9" customWidth="1"/>
-    <col min="15876" max="15876" width="14.28515625" style="9" customWidth="1"/>
-    <col min="15877" max="15877" width="12.42578125" style="9" customWidth="1"/>
-    <col min="15878" max="15878" width="10.28515625" style="9" customWidth="1"/>
-    <col min="15879" max="15879" width="17.5703125" style="9" customWidth="1"/>
-    <col min="15880" max="15880" width="27.42578125" style="9" customWidth="1"/>
-    <col min="15881" max="15881" width="24.140625" style="9" customWidth="1"/>
-    <col min="15882" max="15882" width="13.5703125" style="9" customWidth="1"/>
-    <col min="15883" max="15883" width="23.42578125" style="9" customWidth="1"/>
-    <col min="15884" max="15884" width="21.140625" style="9" customWidth="1"/>
-    <col min="15885" max="15885" width="20.42578125" style="9" customWidth="1"/>
-    <col min="15886" max="16128" width="9.140625" style="9"/>
-    <col min="16129" max="16129" width="10.42578125" style="9" customWidth="1"/>
-    <col min="16130" max="16130" width="19.85546875" style="9" customWidth="1"/>
+    <col min="15876" max="15876" width="14.33203125" style="9" customWidth="1"/>
+    <col min="15877" max="15877" width="12.44140625" style="9" customWidth="1"/>
+    <col min="15878" max="15878" width="10.33203125" style="9" customWidth="1"/>
+    <col min="15879" max="15879" width="17.5546875" style="9" customWidth="1"/>
+    <col min="15880" max="15880" width="27.44140625" style="9" customWidth="1"/>
+    <col min="15881" max="15881" width="24.109375" style="9" customWidth="1"/>
+    <col min="15882" max="15882" width="13.5546875" style="9" customWidth="1"/>
+    <col min="15883" max="15883" width="23.44140625" style="9" customWidth="1"/>
+    <col min="15884" max="15884" width="21.109375" style="9" customWidth="1"/>
+    <col min="15885" max="15885" width="20.44140625" style="9" customWidth="1"/>
+    <col min="15886" max="16128" width="9.109375" style="9"/>
+    <col min="16129" max="16129" width="10.44140625" style="9" customWidth="1"/>
+    <col min="16130" max="16130" width="19.88671875" style="9" customWidth="1"/>
     <col min="16131" max="16131" width="13" style="9" customWidth="1"/>
-    <col min="16132" max="16132" width="14.28515625" style="9" customWidth="1"/>
-    <col min="16133" max="16133" width="12.42578125" style="9" customWidth="1"/>
-    <col min="16134" max="16134" width="10.28515625" style="9" customWidth="1"/>
-    <col min="16135" max="16135" width="17.5703125" style="9" customWidth="1"/>
-    <col min="16136" max="16136" width="27.42578125" style="9" customWidth="1"/>
-    <col min="16137" max="16137" width="24.140625" style="9" customWidth="1"/>
-    <col min="16138" max="16138" width="13.5703125" style="9" customWidth="1"/>
-    <col min="16139" max="16139" width="23.42578125" style="9" customWidth="1"/>
-    <col min="16140" max="16140" width="21.140625" style="9" customWidth="1"/>
-    <col min="16141" max="16141" width="20.42578125" style="9" customWidth="1"/>
-    <col min="16142" max="16384" width="9.140625" style="9"/>
+    <col min="16132" max="16132" width="14.33203125" style="9" customWidth="1"/>
+    <col min="16133" max="16133" width="12.44140625" style="9" customWidth="1"/>
+    <col min="16134" max="16134" width="10.33203125" style="9" customWidth="1"/>
+    <col min="16135" max="16135" width="17.5546875" style="9" customWidth="1"/>
+    <col min="16136" max="16136" width="27.44140625" style="9" customWidth="1"/>
+    <col min="16137" max="16137" width="24.109375" style="9" customWidth="1"/>
+    <col min="16138" max="16138" width="13.5546875" style="9" customWidth="1"/>
+    <col min="16139" max="16139" width="23.44140625" style="9" customWidth="1"/>
+    <col min="16140" max="16140" width="21.109375" style="9" customWidth="1"/>
+    <col min="16141" max="16141" width="20.44140625" style="9" customWidth="1"/>
+    <col min="16142" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -3815,7 +3846,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>170</v>
       </c>
@@ -3856,7 +3887,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>170</v>
       </c>
@@ -3897,7 +3928,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>170</v>
       </c>
@@ -3938,7 +3969,7 @@
         <v>0.49809999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>170</v>
       </c>
@@ -3979,7 +4010,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>170</v>
       </c>
@@ -4020,7 +4051,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>170</v>
       </c>
@@ -4061,7 +4092,7 @@
         <v>0.43490000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>170</v>
       </c>
@@ -4102,7 +4133,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="9" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>170</v>
       </c>
@@ -4143,7 +4174,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>170</v>
       </c>
@@ -4184,7 +4215,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>170</v>
       </c>
@@ -4225,7 +4256,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>170</v>
       </c>
@@ -4266,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>170</v>
       </c>
@@ -4307,7 +4338,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>170</v>
       </c>
@@ -4348,7 +4379,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>170</v>
       </c>
@@ -4389,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>170</v>
       </c>
@@ -4430,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>170</v>
       </c>
@@ -4471,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>170</v>
       </c>
@@ -4512,7 +4543,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="19" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>170</v>
       </c>
@@ -4553,7 +4584,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>170</v>
       </c>
@@ -4594,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>170</v>
       </c>
@@ -4635,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>170</v>
       </c>
@@ -4676,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>170</v>
       </c>
@@ -4717,7 +4748,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="24" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>170</v>
       </c>
@@ -4758,7 +4789,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>170</v>
       </c>
@@ -4799,7 +4830,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>170</v>
       </c>
@@ -4840,7 +4871,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>170</v>
       </c>
@@ -4881,7 +4912,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>170</v>
       </c>
@@ -4922,7 +4953,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>170</v>
       </c>
@@ -4963,7 +4994,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>170</v>
       </c>
@@ -5004,7 +5035,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>170</v>
       </c>
@@ -5045,7 +5076,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>170</v>
       </c>
@@ -5086,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>170</v>
       </c>
@@ -5127,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>170</v>
       </c>
@@ -5168,7 +5199,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="35" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>170</v>
       </c>
@@ -5209,7 +5240,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>272</v>
       </c>
@@ -5232,7 +5263,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>273</v>
       </c>
@@ -5250,7 +5281,7 @@
         <v>1053081208</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>275</v>
       </c>
@@ -5267,7 +5298,7 @@
         <v>1053251004</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>278</v>
       </c>
@@ -5284,7 +5315,7 @@
         <v>1053002100</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>280</v>
       </c>
@@ -5301,7 +5332,7 @@
         <v>1053071202</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>281</v>
       </c>
@@ -5318,7 +5349,7 @@
         <v>1053251002</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>286</v>
       </c>
@@ -5335,7 +5366,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>284</v>
       </c>
@@ -5352,7 +5383,7 @@
         <v>1727090005</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>300</v>
       </c>
@@ -5370,7 +5401,7 @@
         <v>1727182121</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>289</v>
       </c>
@@ -5390,7 +5421,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
         <v>293</v>
       </c>
@@ -5410,7 +5441,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
         <v>297</v>
       </c>
@@ -5430,7 +5461,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C48" s="9" t="s">
         <v>304</v>
       </c>
@@ -5444,7 +5475,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="9" t="s">
         <v>306</v>
       </c>
@@ -5464,7 +5495,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="9" t="s">
         <v>310</v>
       </c>
@@ -5478,7 +5509,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="9" t="s">
         <v>312</v>
       </c>
@@ -5492,7 +5523,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="9" t="s">
         <v>314</v>
       </c>
@@ -5506,7 +5537,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="9" t="s">
         <v>316</v>
       </c>
@@ -5520,7 +5551,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="9" t="s">
         <v>318</v>
       </c>
@@ -5563,843 +5594,843 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="79.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="9" customWidth="1"/>
-    <col min="13" max="256" width="9.140625" style="9"/>
-    <col min="257" max="257" width="10.42578125" style="9" customWidth="1"/>
-    <col min="258" max="258" width="20.7109375" style="9" customWidth="1"/>
-    <col min="259" max="259" width="14.5703125" style="9" customWidth="1"/>
-    <col min="260" max="260" width="14.28515625" style="9" customWidth="1"/>
-    <col min="261" max="261" width="12.42578125" style="9" customWidth="1"/>
-    <col min="262" max="262" width="17.5703125" style="9" customWidth="1"/>
-    <col min="263" max="263" width="27.42578125" style="9" customWidth="1"/>
-    <col min="264" max="264" width="24.140625" style="9" customWidth="1"/>
-    <col min="265" max="265" width="13.5703125" style="9" customWidth="1"/>
-    <col min="266" max="266" width="23.42578125" style="9" customWidth="1"/>
-    <col min="267" max="267" width="21.140625" style="9" customWidth="1"/>
-    <col min="268" max="268" width="20.42578125" style="9" customWidth="1"/>
-    <col min="269" max="512" width="9.140625" style="9"/>
-    <col min="513" max="513" width="10.42578125" style="9" customWidth="1"/>
-    <col min="514" max="514" width="20.7109375" style="9" customWidth="1"/>
-    <col min="515" max="515" width="14.5703125" style="9" customWidth="1"/>
-    <col min="516" max="516" width="14.28515625" style="9" customWidth="1"/>
-    <col min="517" max="517" width="12.42578125" style="9" customWidth="1"/>
-    <col min="518" max="518" width="17.5703125" style="9" customWidth="1"/>
-    <col min="519" max="519" width="27.42578125" style="9" customWidth="1"/>
-    <col min="520" max="520" width="24.140625" style="9" customWidth="1"/>
-    <col min="521" max="521" width="13.5703125" style="9" customWidth="1"/>
-    <col min="522" max="522" width="23.42578125" style="9" customWidth="1"/>
-    <col min="523" max="523" width="21.140625" style="9" customWidth="1"/>
-    <col min="524" max="524" width="20.42578125" style="9" customWidth="1"/>
-    <col min="525" max="768" width="9.140625" style="9"/>
-    <col min="769" max="769" width="10.42578125" style="9" customWidth="1"/>
-    <col min="770" max="770" width="20.7109375" style="9" customWidth="1"/>
-    <col min="771" max="771" width="14.5703125" style="9" customWidth="1"/>
-    <col min="772" max="772" width="14.28515625" style="9" customWidth="1"/>
-    <col min="773" max="773" width="12.42578125" style="9" customWidth="1"/>
-    <col min="774" max="774" width="17.5703125" style="9" customWidth="1"/>
-    <col min="775" max="775" width="27.42578125" style="9" customWidth="1"/>
-    <col min="776" max="776" width="24.140625" style="9" customWidth="1"/>
-    <col min="777" max="777" width="13.5703125" style="9" customWidth="1"/>
-    <col min="778" max="778" width="23.42578125" style="9" customWidth="1"/>
-    <col min="779" max="779" width="21.140625" style="9" customWidth="1"/>
-    <col min="780" max="780" width="20.42578125" style="9" customWidth="1"/>
-    <col min="781" max="1024" width="9.140625" style="9"/>
-    <col min="1025" max="1025" width="10.42578125" style="9" customWidth="1"/>
-    <col min="1026" max="1026" width="20.7109375" style="9" customWidth="1"/>
-    <col min="1027" max="1027" width="14.5703125" style="9" customWidth="1"/>
-    <col min="1028" max="1028" width="14.28515625" style="9" customWidth="1"/>
-    <col min="1029" max="1029" width="12.42578125" style="9" customWidth="1"/>
-    <col min="1030" max="1030" width="17.5703125" style="9" customWidth="1"/>
-    <col min="1031" max="1031" width="27.42578125" style="9" customWidth="1"/>
-    <col min="1032" max="1032" width="24.140625" style="9" customWidth="1"/>
-    <col min="1033" max="1033" width="13.5703125" style="9" customWidth="1"/>
-    <col min="1034" max="1034" width="23.42578125" style="9" customWidth="1"/>
-    <col min="1035" max="1035" width="21.140625" style="9" customWidth="1"/>
-    <col min="1036" max="1036" width="20.42578125" style="9" customWidth="1"/>
-    <col min="1037" max="1280" width="9.140625" style="9"/>
-    <col min="1281" max="1281" width="10.42578125" style="9" customWidth="1"/>
-    <col min="1282" max="1282" width="20.7109375" style="9" customWidth="1"/>
-    <col min="1283" max="1283" width="14.5703125" style="9" customWidth="1"/>
-    <col min="1284" max="1284" width="14.28515625" style="9" customWidth="1"/>
-    <col min="1285" max="1285" width="12.42578125" style="9" customWidth="1"/>
-    <col min="1286" max="1286" width="17.5703125" style="9" customWidth="1"/>
-    <col min="1287" max="1287" width="27.42578125" style="9" customWidth="1"/>
-    <col min="1288" max="1288" width="24.140625" style="9" customWidth="1"/>
-    <col min="1289" max="1289" width="13.5703125" style="9" customWidth="1"/>
-    <col min="1290" max="1290" width="23.42578125" style="9" customWidth="1"/>
-    <col min="1291" max="1291" width="21.140625" style="9" customWidth="1"/>
-    <col min="1292" max="1292" width="20.42578125" style="9" customWidth="1"/>
-    <col min="1293" max="1536" width="9.140625" style="9"/>
-    <col min="1537" max="1537" width="10.42578125" style="9" customWidth="1"/>
-    <col min="1538" max="1538" width="20.7109375" style="9" customWidth="1"/>
-    <col min="1539" max="1539" width="14.5703125" style="9" customWidth="1"/>
-    <col min="1540" max="1540" width="14.28515625" style="9" customWidth="1"/>
-    <col min="1541" max="1541" width="12.42578125" style="9" customWidth="1"/>
-    <col min="1542" max="1542" width="17.5703125" style="9" customWidth="1"/>
-    <col min="1543" max="1543" width="27.42578125" style="9" customWidth="1"/>
-    <col min="1544" max="1544" width="24.140625" style="9" customWidth="1"/>
-    <col min="1545" max="1545" width="13.5703125" style="9" customWidth="1"/>
-    <col min="1546" max="1546" width="23.42578125" style="9" customWidth="1"/>
-    <col min="1547" max="1547" width="21.140625" style="9" customWidth="1"/>
-    <col min="1548" max="1548" width="20.42578125" style="9" customWidth="1"/>
-    <col min="1549" max="1792" width="9.140625" style="9"/>
-    <col min="1793" max="1793" width="10.42578125" style="9" customWidth="1"/>
-    <col min="1794" max="1794" width="20.7109375" style="9" customWidth="1"/>
-    <col min="1795" max="1795" width="14.5703125" style="9" customWidth="1"/>
-    <col min="1796" max="1796" width="14.28515625" style="9" customWidth="1"/>
-    <col min="1797" max="1797" width="12.42578125" style="9" customWidth="1"/>
-    <col min="1798" max="1798" width="17.5703125" style="9" customWidth="1"/>
-    <col min="1799" max="1799" width="27.42578125" style="9" customWidth="1"/>
-    <col min="1800" max="1800" width="24.140625" style="9" customWidth="1"/>
-    <col min="1801" max="1801" width="13.5703125" style="9" customWidth="1"/>
-    <col min="1802" max="1802" width="23.42578125" style="9" customWidth="1"/>
-    <col min="1803" max="1803" width="21.140625" style="9" customWidth="1"/>
-    <col min="1804" max="1804" width="20.42578125" style="9" customWidth="1"/>
-    <col min="1805" max="2048" width="9.140625" style="9"/>
-    <col min="2049" max="2049" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2050" max="2050" width="20.7109375" style="9" customWidth="1"/>
-    <col min="2051" max="2051" width="14.5703125" style="9" customWidth="1"/>
-    <col min="2052" max="2052" width="14.28515625" style="9" customWidth="1"/>
-    <col min="2053" max="2053" width="12.42578125" style="9" customWidth="1"/>
-    <col min="2054" max="2054" width="17.5703125" style="9" customWidth="1"/>
-    <col min="2055" max="2055" width="27.42578125" style="9" customWidth="1"/>
-    <col min="2056" max="2056" width="24.140625" style="9" customWidth="1"/>
-    <col min="2057" max="2057" width="13.5703125" style="9" customWidth="1"/>
-    <col min="2058" max="2058" width="23.42578125" style="9" customWidth="1"/>
-    <col min="2059" max="2059" width="21.140625" style="9" customWidth="1"/>
-    <col min="2060" max="2060" width="20.42578125" style="9" customWidth="1"/>
-    <col min="2061" max="2304" width="9.140625" style="9"/>
-    <col min="2305" max="2305" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2306" max="2306" width="20.7109375" style="9" customWidth="1"/>
-    <col min="2307" max="2307" width="14.5703125" style="9" customWidth="1"/>
-    <col min="2308" max="2308" width="14.28515625" style="9" customWidth="1"/>
-    <col min="2309" max="2309" width="12.42578125" style="9" customWidth="1"/>
-    <col min="2310" max="2310" width="17.5703125" style="9" customWidth="1"/>
-    <col min="2311" max="2311" width="27.42578125" style="9" customWidth="1"/>
-    <col min="2312" max="2312" width="24.140625" style="9" customWidth="1"/>
-    <col min="2313" max="2313" width="13.5703125" style="9" customWidth="1"/>
-    <col min="2314" max="2314" width="23.42578125" style="9" customWidth="1"/>
-    <col min="2315" max="2315" width="21.140625" style="9" customWidth="1"/>
-    <col min="2316" max="2316" width="20.42578125" style="9" customWidth="1"/>
-    <col min="2317" max="2560" width="9.140625" style="9"/>
-    <col min="2561" max="2561" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2562" max="2562" width="20.7109375" style="9" customWidth="1"/>
-    <col min="2563" max="2563" width="14.5703125" style="9" customWidth="1"/>
-    <col min="2564" max="2564" width="14.28515625" style="9" customWidth="1"/>
-    <col min="2565" max="2565" width="12.42578125" style="9" customWidth="1"/>
-    <col min="2566" max="2566" width="17.5703125" style="9" customWidth="1"/>
-    <col min="2567" max="2567" width="27.42578125" style="9" customWidth="1"/>
-    <col min="2568" max="2568" width="24.140625" style="9" customWidth="1"/>
-    <col min="2569" max="2569" width="13.5703125" style="9" customWidth="1"/>
-    <col min="2570" max="2570" width="23.42578125" style="9" customWidth="1"/>
-    <col min="2571" max="2571" width="21.140625" style="9" customWidth="1"/>
-    <col min="2572" max="2572" width="20.42578125" style="9" customWidth="1"/>
-    <col min="2573" max="2816" width="9.140625" style="9"/>
-    <col min="2817" max="2817" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2818" max="2818" width="20.7109375" style="9" customWidth="1"/>
-    <col min="2819" max="2819" width="14.5703125" style="9" customWidth="1"/>
-    <col min="2820" max="2820" width="14.28515625" style="9" customWidth="1"/>
-    <col min="2821" max="2821" width="12.42578125" style="9" customWidth="1"/>
-    <col min="2822" max="2822" width="17.5703125" style="9" customWidth="1"/>
-    <col min="2823" max="2823" width="27.42578125" style="9" customWidth="1"/>
-    <col min="2824" max="2824" width="24.140625" style="9" customWidth="1"/>
-    <col min="2825" max="2825" width="13.5703125" style="9" customWidth="1"/>
-    <col min="2826" max="2826" width="23.42578125" style="9" customWidth="1"/>
-    <col min="2827" max="2827" width="21.140625" style="9" customWidth="1"/>
-    <col min="2828" max="2828" width="20.42578125" style="9" customWidth="1"/>
-    <col min="2829" max="3072" width="9.140625" style="9"/>
-    <col min="3073" max="3073" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3074" max="3074" width="20.7109375" style="9" customWidth="1"/>
-    <col min="3075" max="3075" width="14.5703125" style="9" customWidth="1"/>
-    <col min="3076" max="3076" width="14.28515625" style="9" customWidth="1"/>
-    <col min="3077" max="3077" width="12.42578125" style="9" customWidth="1"/>
-    <col min="3078" max="3078" width="17.5703125" style="9" customWidth="1"/>
-    <col min="3079" max="3079" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3080" max="3080" width="24.140625" style="9" customWidth="1"/>
-    <col min="3081" max="3081" width="13.5703125" style="9" customWidth="1"/>
-    <col min="3082" max="3082" width="23.42578125" style="9" customWidth="1"/>
-    <col min="3083" max="3083" width="21.140625" style="9" customWidth="1"/>
-    <col min="3084" max="3084" width="20.42578125" style="9" customWidth="1"/>
-    <col min="3085" max="3328" width="9.140625" style="9"/>
-    <col min="3329" max="3329" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3330" max="3330" width="20.7109375" style="9" customWidth="1"/>
-    <col min="3331" max="3331" width="14.5703125" style="9" customWidth="1"/>
-    <col min="3332" max="3332" width="14.28515625" style="9" customWidth="1"/>
-    <col min="3333" max="3333" width="12.42578125" style="9" customWidth="1"/>
-    <col min="3334" max="3334" width="17.5703125" style="9" customWidth="1"/>
-    <col min="3335" max="3335" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3336" max="3336" width="24.140625" style="9" customWidth="1"/>
-    <col min="3337" max="3337" width="13.5703125" style="9" customWidth="1"/>
-    <col min="3338" max="3338" width="23.42578125" style="9" customWidth="1"/>
-    <col min="3339" max="3339" width="21.140625" style="9" customWidth="1"/>
-    <col min="3340" max="3340" width="20.42578125" style="9" customWidth="1"/>
-    <col min="3341" max="3584" width="9.140625" style="9"/>
-    <col min="3585" max="3585" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3586" max="3586" width="20.7109375" style="9" customWidth="1"/>
-    <col min="3587" max="3587" width="14.5703125" style="9" customWidth="1"/>
-    <col min="3588" max="3588" width="14.28515625" style="9" customWidth="1"/>
-    <col min="3589" max="3589" width="12.42578125" style="9" customWidth="1"/>
-    <col min="3590" max="3590" width="17.5703125" style="9" customWidth="1"/>
-    <col min="3591" max="3591" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3592" max="3592" width="24.140625" style="9" customWidth="1"/>
-    <col min="3593" max="3593" width="13.5703125" style="9" customWidth="1"/>
-    <col min="3594" max="3594" width="23.42578125" style="9" customWidth="1"/>
-    <col min="3595" max="3595" width="21.140625" style="9" customWidth="1"/>
-    <col min="3596" max="3596" width="20.42578125" style="9" customWidth="1"/>
-    <col min="3597" max="3840" width="9.140625" style="9"/>
-    <col min="3841" max="3841" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3842" max="3842" width="20.7109375" style="9" customWidth="1"/>
-    <col min="3843" max="3843" width="14.5703125" style="9" customWidth="1"/>
-    <col min="3844" max="3844" width="14.28515625" style="9" customWidth="1"/>
-    <col min="3845" max="3845" width="12.42578125" style="9" customWidth="1"/>
-    <col min="3846" max="3846" width="17.5703125" style="9" customWidth="1"/>
-    <col min="3847" max="3847" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3848" max="3848" width="24.140625" style="9" customWidth="1"/>
-    <col min="3849" max="3849" width="13.5703125" style="9" customWidth="1"/>
-    <col min="3850" max="3850" width="23.42578125" style="9" customWidth="1"/>
-    <col min="3851" max="3851" width="21.140625" style="9" customWidth="1"/>
-    <col min="3852" max="3852" width="20.42578125" style="9" customWidth="1"/>
-    <col min="3853" max="4096" width="9.140625" style="9"/>
-    <col min="4097" max="4097" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4098" max="4098" width="20.7109375" style="9" customWidth="1"/>
-    <col min="4099" max="4099" width="14.5703125" style="9" customWidth="1"/>
-    <col min="4100" max="4100" width="14.28515625" style="9" customWidth="1"/>
-    <col min="4101" max="4101" width="12.42578125" style="9" customWidth="1"/>
-    <col min="4102" max="4102" width="17.5703125" style="9" customWidth="1"/>
-    <col min="4103" max="4103" width="27.42578125" style="9" customWidth="1"/>
-    <col min="4104" max="4104" width="24.140625" style="9" customWidth="1"/>
-    <col min="4105" max="4105" width="13.5703125" style="9" customWidth="1"/>
-    <col min="4106" max="4106" width="23.42578125" style="9" customWidth="1"/>
-    <col min="4107" max="4107" width="21.140625" style="9" customWidth="1"/>
-    <col min="4108" max="4108" width="20.42578125" style="9" customWidth="1"/>
-    <col min="4109" max="4352" width="9.140625" style="9"/>
-    <col min="4353" max="4353" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4354" max="4354" width="20.7109375" style="9" customWidth="1"/>
-    <col min="4355" max="4355" width="14.5703125" style="9" customWidth="1"/>
-    <col min="4356" max="4356" width="14.28515625" style="9" customWidth="1"/>
-    <col min="4357" max="4357" width="12.42578125" style="9" customWidth="1"/>
-    <col min="4358" max="4358" width="17.5703125" style="9" customWidth="1"/>
-    <col min="4359" max="4359" width="27.42578125" style="9" customWidth="1"/>
-    <col min="4360" max="4360" width="24.140625" style="9" customWidth="1"/>
-    <col min="4361" max="4361" width="13.5703125" style="9" customWidth="1"/>
-    <col min="4362" max="4362" width="23.42578125" style="9" customWidth="1"/>
-    <col min="4363" max="4363" width="21.140625" style="9" customWidth="1"/>
-    <col min="4364" max="4364" width="20.42578125" style="9" customWidth="1"/>
-    <col min="4365" max="4608" width="9.140625" style="9"/>
-    <col min="4609" max="4609" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4610" max="4610" width="20.7109375" style="9" customWidth="1"/>
-    <col min="4611" max="4611" width="14.5703125" style="9" customWidth="1"/>
-    <col min="4612" max="4612" width="14.28515625" style="9" customWidth="1"/>
-    <col min="4613" max="4613" width="12.42578125" style="9" customWidth="1"/>
-    <col min="4614" max="4614" width="17.5703125" style="9" customWidth="1"/>
-    <col min="4615" max="4615" width="27.42578125" style="9" customWidth="1"/>
-    <col min="4616" max="4616" width="24.140625" style="9" customWidth="1"/>
-    <col min="4617" max="4617" width="13.5703125" style="9" customWidth="1"/>
-    <col min="4618" max="4618" width="23.42578125" style="9" customWidth="1"/>
-    <col min="4619" max="4619" width="21.140625" style="9" customWidth="1"/>
-    <col min="4620" max="4620" width="20.42578125" style="9" customWidth="1"/>
-    <col min="4621" max="4864" width="9.140625" style="9"/>
-    <col min="4865" max="4865" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4866" max="4866" width="20.7109375" style="9" customWidth="1"/>
-    <col min="4867" max="4867" width="14.5703125" style="9" customWidth="1"/>
-    <col min="4868" max="4868" width="14.28515625" style="9" customWidth="1"/>
-    <col min="4869" max="4869" width="12.42578125" style="9" customWidth="1"/>
-    <col min="4870" max="4870" width="17.5703125" style="9" customWidth="1"/>
-    <col min="4871" max="4871" width="27.42578125" style="9" customWidth="1"/>
-    <col min="4872" max="4872" width="24.140625" style="9" customWidth="1"/>
-    <col min="4873" max="4873" width="13.5703125" style="9" customWidth="1"/>
-    <col min="4874" max="4874" width="23.42578125" style="9" customWidth="1"/>
-    <col min="4875" max="4875" width="21.140625" style="9" customWidth="1"/>
-    <col min="4876" max="4876" width="20.42578125" style="9" customWidth="1"/>
-    <col min="4877" max="5120" width="9.140625" style="9"/>
-    <col min="5121" max="5121" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5122" max="5122" width="20.7109375" style="9" customWidth="1"/>
-    <col min="5123" max="5123" width="14.5703125" style="9" customWidth="1"/>
-    <col min="5124" max="5124" width="14.28515625" style="9" customWidth="1"/>
-    <col min="5125" max="5125" width="12.42578125" style="9" customWidth="1"/>
-    <col min="5126" max="5126" width="17.5703125" style="9" customWidth="1"/>
-    <col min="5127" max="5127" width="27.42578125" style="9" customWidth="1"/>
-    <col min="5128" max="5128" width="24.140625" style="9" customWidth="1"/>
-    <col min="5129" max="5129" width="13.5703125" style="9" customWidth="1"/>
-    <col min="5130" max="5130" width="23.42578125" style="9" customWidth="1"/>
-    <col min="5131" max="5131" width="21.140625" style="9" customWidth="1"/>
-    <col min="5132" max="5132" width="20.42578125" style="9" customWidth="1"/>
-    <col min="5133" max="5376" width="9.140625" style="9"/>
-    <col min="5377" max="5377" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5378" max="5378" width="20.7109375" style="9" customWidth="1"/>
-    <col min="5379" max="5379" width="14.5703125" style="9" customWidth="1"/>
-    <col min="5380" max="5380" width="14.28515625" style="9" customWidth="1"/>
-    <col min="5381" max="5381" width="12.42578125" style="9" customWidth="1"/>
-    <col min="5382" max="5382" width="17.5703125" style="9" customWidth="1"/>
-    <col min="5383" max="5383" width="27.42578125" style="9" customWidth="1"/>
-    <col min="5384" max="5384" width="24.140625" style="9" customWidth="1"/>
-    <col min="5385" max="5385" width="13.5703125" style="9" customWidth="1"/>
-    <col min="5386" max="5386" width="23.42578125" style="9" customWidth="1"/>
-    <col min="5387" max="5387" width="21.140625" style="9" customWidth="1"/>
-    <col min="5388" max="5388" width="20.42578125" style="9" customWidth="1"/>
-    <col min="5389" max="5632" width="9.140625" style="9"/>
-    <col min="5633" max="5633" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5634" max="5634" width="20.7109375" style="9" customWidth="1"/>
-    <col min="5635" max="5635" width="14.5703125" style="9" customWidth="1"/>
-    <col min="5636" max="5636" width="14.28515625" style="9" customWidth="1"/>
-    <col min="5637" max="5637" width="12.42578125" style="9" customWidth="1"/>
-    <col min="5638" max="5638" width="17.5703125" style="9" customWidth="1"/>
-    <col min="5639" max="5639" width="27.42578125" style="9" customWidth="1"/>
-    <col min="5640" max="5640" width="24.140625" style="9" customWidth="1"/>
-    <col min="5641" max="5641" width="13.5703125" style="9" customWidth="1"/>
-    <col min="5642" max="5642" width="23.42578125" style="9" customWidth="1"/>
-    <col min="5643" max="5643" width="21.140625" style="9" customWidth="1"/>
-    <col min="5644" max="5644" width="20.42578125" style="9" customWidth="1"/>
-    <col min="5645" max="5888" width="9.140625" style="9"/>
-    <col min="5889" max="5889" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5890" max="5890" width="20.7109375" style="9" customWidth="1"/>
-    <col min="5891" max="5891" width="14.5703125" style="9" customWidth="1"/>
-    <col min="5892" max="5892" width="14.28515625" style="9" customWidth="1"/>
-    <col min="5893" max="5893" width="12.42578125" style="9" customWidth="1"/>
-    <col min="5894" max="5894" width="17.5703125" style="9" customWidth="1"/>
-    <col min="5895" max="5895" width="27.42578125" style="9" customWidth="1"/>
-    <col min="5896" max="5896" width="24.140625" style="9" customWidth="1"/>
-    <col min="5897" max="5897" width="13.5703125" style="9" customWidth="1"/>
-    <col min="5898" max="5898" width="23.42578125" style="9" customWidth="1"/>
-    <col min="5899" max="5899" width="21.140625" style="9" customWidth="1"/>
-    <col min="5900" max="5900" width="20.42578125" style="9" customWidth="1"/>
-    <col min="5901" max="6144" width="9.140625" style="9"/>
-    <col min="6145" max="6145" width="10.42578125" style="9" customWidth="1"/>
-    <col min="6146" max="6146" width="20.7109375" style="9" customWidth="1"/>
-    <col min="6147" max="6147" width="14.5703125" style="9" customWidth="1"/>
-    <col min="6148" max="6148" width="14.28515625" style="9" customWidth="1"/>
-    <col min="6149" max="6149" width="12.42578125" style="9" customWidth="1"/>
-    <col min="6150" max="6150" width="17.5703125" style="9" customWidth="1"/>
-    <col min="6151" max="6151" width="27.42578125" style="9" customWidth="1"/>
-    <col min="6152" max="6152" width="24.140625" style="9" customWidth="1"/>
-    <col min="6153" max="6153" width="13.5703125" style="9" customWidth="1"/>
-    <col min="6154" max="6154" width="23.42578125" style="9" customWidth="1"/>
-    <col min="6155" max="6155" width="21.140625" style="9" customWidth="1"/>
-    <col min="6156" max="6156" width="20.42578125" style="9" customWidth="1"/>
-    <col min="6157" max="6400" width="9.140625" style="9"/>
-    <col min="6401" max="6401" width="10.42578125" style="9" customWidth="1"/>
-    <col min="6402" max="6402" width="20.7109375" style="9" customWidth="1"/>
-    <col min="6403" max="6403" width="14.5703125" style="9" customWidth="1"/>
-    <col min="6404" max="6404" width="14.28515625" style="9" customWidth="1"/>
-    <col min="6405" max="6405" width="12.42578125" style="9" customWidth="1"/>
-    <col min="6406" max="6406" width="17.5703125" style="9" customWidth="1"/>
-    <col min="6407" max="6407" width="27.42578125" style="9" customWidth="1"/>
-    <col min="6408" max="6408" width="24.140625" style="9" customWidth="1"/>
-    <col min="6409" max="6409" width="13.5703125" style="9" customWidth="1"/>
-    <col min="6410" max="6410" width="23.42578125" style="9" customWidth="1"/>
-    <col min="6411" max="6411" width="21.140625" style="9" customWidth="1"/>
-    <col min="6412" max="6412" width="20.42578125" style="9" customWidth="1"/>
-    <col min="6413" max="6656" width="9.140625" style="9"/>
-    <col min="6657" max="6657" width="10.42578125" style="9" customWidth="1"/>
-    <col min="6658" max="6658" width="20.7109375" style="9" customWidth="1"/>
-    <col min="6659" max="6659" width="14.5703125" style="9" customWidth="1"/>
-    <col min="6660" max="6660" width="14.28515625" style="9" customWidth="1"/>
-    <col min="6661" max="6661" width="12.42578125" style="9" customWidth="1"/>
-    <col min="6662" max="6662" width="17.5703125" style="9" customWidth="1"/>
-    <col min="6663" max="6663" width="27.42578125" style="9" customWidth="1"/>
-    <col min="6664" max="6664" width="24.140625" style="9" customWidth="1"/>
-    <col min="6665" max="6665" width="13.5703125" style="9" customWidth="1"/>
-    <col min="6666" max="6666" width="23.42578125" style="9" customWidth="1"/>
-    <col min="6667" max="6667" width="21.140625" style="9" customWidth="1"/>
-    <col min="6668" max="6668" width="20.42578125" style="9" customWidth="1"/>
-    <col min="6669" max="6912" width="9.140625" style="9"/>
-    <col min="6913" max="6913" width="10.42578125" style="9" customWidth="1"/>
-    <col min="6914" max="6914" width="20.7109375" style="9" customWidth="1"/>
-    <col min="6915" max="6915" width="14.5703125" style="9" customWidth="1"/>
-    <col min="6916" max="6916" width="14.28515625" style="9" customWidth="1"/>
-    <col min="6917" max="6917" width="12.42578125" style="9" customWidth="1"/>
-    <col min="6918" max="6918" width="17.5703125" style="9" customWidth="1"/>
-    <col min="6919" max="6919" width="27.42578125" style="9" customWidth="1"/>
-    <col min="6920" max="6920" width="24.140625" style="9" customWidth="1"/>
-    <col min="6921" max="6921" width="13.5703125" style="9" customWidth="1"/>
-    <col min="6922" max="6922" width="23.42578125" style="9" customWidth="1"/>
-    <col min="6923" max="6923" width="21.140625" style="9" customWidth="1"/>
-    <col min="6924" max="6924" width="20.42578125" style="9" customWidth="1"/>
-    <col min="6925" max="7168" width="9.140625" style="9"/>
-    <col min="7169" max="7169" width="10.42578125" style="9" customWidth="1"/>
-    <col min="7170" max="7170" width="20.7109375" style="9" customWidth="1"/>
-    <col min="7171" max="7171" width="14.5703125" style="9" customWidth="1"/>
-    <col min="7172" max="7172" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7173" max="7173" width="12.42578125" style="9" customWidth="1"/>
-    <col min="7174" max="7174" width="17.5703125" style="9" customWidth="1"/>
-    <col min="7175" max="7175" width="27.42578125" style="9" customWidth="1"/>
-    <col min="7176" max="7176" width="24.140625" style="9" customWidth="1"/>
-    <col min="7177" max="7177" width="13.5703125" style="9" customWidth="1"/>
-    <col min="7178" max="7178" width="23.42578125" style="9" customWidth="1"/>
-    <col min="7179" max="7179" width="21.140625" style="9" customWidth="1"/>
-    <col min="7180" max="7180" width="20.42578125" style="9" customWidth="1"/>
-    <col min="7181" max="7424" width="9.140625" style="9"/>
-    <col min="7425" max="7425" width="10.42578125" style="9" customWidth="1"/>
-    <col min="7426" max="7426" width="20.7109375" style="9" customWidth="1"/>
-    <col min="7427" max="7427" width="14.5703125" style="9" customWidth="1"/>
-    <col min="7428" max="7428" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7429" max="7429" width="12.42578125" style="9" customWidth="1"/>
-    <col min="7430" max="7430" width="17.5703125" style="9" customWidth="1"/>
-    <col min="7431" max="7431" width="27.42578125" style="9" customWidth="1"/>
-    <col min="7432" max="7432" width="24.140625" style="9" customWidth="1"/>
-    <col min="7433" max="7433" width="13.5703125" style="9" customWidth="1"/>
-    <col min="7434" max="7434" width="23.42578125" style="9" customWidth="1"/>
-    <col min="7435" max="7435" width="21.140625" style="9" customWidth="1"/>
-    <col min="7436" max="7436" width="20.42578125" style="9" customWidth="1"/>
-    <col min="7437" max="7680" width="9.140625" style="9"/>
-    <col min="7681" max="7681" width="10.42578125" style="9" customWidth="1"/>
-    <col min="7682" max="7682" width="20.7109375" style="9" customWidth="1"/>
-    <col min="7683" max="7683" width="14.5703125" style="9" customWidth="1"/>
-    <col min="7684" max="7684" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7685" max="7685" width="12.42578125" style="9" customWidth="1"/>
-    <col min="7686" max="7686" width="17.5703125" style="9" customWidth="1"/>
-    <col min="7687" max="7687" width="27.42578125" style="9" customWidth="1"/>
-    <col min="7688" max="7688" width="24.140625" style="9" customWidth="1"/>
-    <col min="7689" max="7689" width="13.5703125" style="9" customWidth="1"/>
-    <col min="7690" max="7690" width="23.42578125" style="9" customWidth="1"/>
-    <col min="7691" max="7691" width="21.140625" style="9" customWidth="1"/>
-    <col min="7692" max="7692" width="20.42578125" style="9" customWidth="1"/>
-    <col min="7693" max="7936" width="9.140625" style="9"/>
-    <col min="7937" max="7937" width="10.42578125" style="9" customWidth="1"/>
-    <col min="7938" max="7938" width="20.7109375" style="9" customWidth="1"/>
-    <col min="7939" max="7939" width="14.5703125" style="9" customWidth="1"/>
-    <col min="7940" max="7940" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7941" max="7941" width="12.42578125" style="9" customWidth="1"/>
-    <col min="7942" max="7942" width="17.5703125" style="9" customWidth="1"/>
-    <col min="7943" max="7943" width="27.42578125" style="9" customWidth="1"/>
-    <col min="7944" max="7944" width="24.140625" style="9" customWidth="1"/>
-    <col min="7945" max="7945" width="13.5703125" style="9" customWidth="1"/>
-    <col min="7946" max="7946" width="23.42578125" style="9" customWidth="1"/>
-    <col min="7947" max="7947" width="21.140625" style="9" customWidth="1"/>
-    <col min="7948" max="7948" width="20.42578125" style="9" customWidth="1"/>
-    <col min="7949" max="8192" width="9.140625" style="9"/>
-    <col min="8193" max="8193" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8194" max="8194" width="20.7109375" style="9" customWidth="1"/>
-    <col min="8195" max="8195" width="14.5703125" style="9" customWidth="1"/>
-    <col min="8196" max="8196" width="14.28515625" style="9" customWidth="1"/>
-    <col min="8197" max="8197" width="12.42578125" style="9" customWidth="1"/>
-    <col min="8198" max="8198" width="17.5703125" style="9" customWidth="1"/>
-    <col min="8199" max="8199" width="27.42578125" style="9" customWidth="1"/>
-    <col min="8200" max="8200" width="24.140625" style="9" customWidth="1"/>
-    <col min="8201" max="8201" width="13.5703125" style="9" customWidth="1"/>
-    <col min="8202" max="8202" width="23.42578125" style="9" customWidth="1"/>
-    <col min="8203" max="8203" width="21.140625" style="9" customWidth="1"/>
-    <col min="8204" max="8204" width="20.42578125" style="9" customWidth="1"/>
-    <col min="8205" max="8448" width="9.140625" style="9"/>
-    <col min="8449" max="8449" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8450" max="8450" width="20.7109375" style="9" customWidth="1"/>
-    <col min="8451" max="8451" width="14.5703125" style="9" customWidth="1"/>
-    <col min="8452" max="8452" width="14.28515625" style="9" customWidth="1"/>
-    <col min="8453" max="8453" width="12.42578125" style="9" customWidth="1"/>
-    <col min="8454" max="8454" width="17.5703125" style="9" customWidth="1"/>
-    <col min="8455" max="8455" width="27.42578125" style="9" customWidth="1"/>
-    <col min="8456" max="8456" width="24.140625" style="9" customWidth="1"/>
-    <col min="8457" max="8457" width="13.5703125" style="9" customWidth="1"/>
-    <col min="8458" max="8458" width="23.42578125" style="9" customWidth="1"/>
-    <col min="8459" max="8459" width="21.140625" style="9" customWidth="1"/>
-    <col min="8460" max="8460" width="20.42578125" style="9" customWidth="1"/>
-    <col min="8461" max="8704" width="9.140625" style="9"/>
-    <col min="8705" max="8705" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8706" max="8706" width="20.7109375" style="9" customWidth="1"/>
-    <col min="8707" max="8707" width="14.5703125" style="9" customWidth="1"/>
-    <col min="8708" max="8708" width="14.28515625" style="9" customWidth="1"/>
-    <col min="8709" max="8709" width="12.42578125" style="9" customWidth="1"/>
-    <col min="8710" max="8710" width="17.5703125" style="9" customWidth="1"/>
-    <col min="8711" max="8711" width="27.42578125" style="9" customWidth="1"/>
-    <col min="8712" max="8712" width="24.140625" style="9" customWidth="1"/>
-    <col min="8713" max="8713" width="13.5703125" style="9" customWidth="1"/>
-    <col min="8714" max="8714" width="23.42578125" style="9" customWidth="1"/>
-    <col min="8715" max="8715" width="21.140625" style="9" customWidth="1"/>
-    <col min="8716" max="8716" width="20.42578125" style="9" customWidth="1"/>
-    <col min="8717" max="8960" width="9.140625" style="9"/>
-    <col min="8961" max="8961" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8962" max="8962" width="20.7109375" style="9" customWidth="1"/>
-    <col min="8963" max="8963" width="14.5703125" style="9" customWidth="1"/>
-    <col min="8964" max="8964" width="14.28515625" style="9" customWidth="1"/>
-    <col min="8965" max="8965" width="12.42578125" style="9" customWidth="1"/>
-    <col min="8966" max="8966" width="17.5703125" style="9" customWidth="1"/>
-    <col min="8967" max="8967" width="27.42578125" style="9" customWidth="1"/>
-    <col min="8968" max="8968" width="24.140625" style="9" customWidth="1"/>
-    <col min="8969" max="8969" width="13.5703125" style="9" customWidth="1"/>
-    <col min="8970" max="8970" width="23.42578125" style="9" customWidth="1"/>
-    <col min="8971" max="8971" width="21.140625" style="9" customWidth="1"/>
-    <col min="8972" max="8972" width="20.42578125" style="9" customWidth="1"/>
-    <col min="8973" max="9216" width="9.140625" style="9"/>
-    <col min="9217" max="9217" width="10.42578125" style="9" customWidth="1"/>
-    <col min="9218" max="9218" width="20.7109375" style="9" customWidth="1"/>
-    <col min="9219" max="9219" width="14.5703125" style="9" customWidth="1"/>
-    <col min="9220" max="9220" width="14.28515625" style="9" customWidth="1"/>
-    <col min="9221" max="9221" width="12.42578125" style="9" customWidth="1"/>
-    <col min="9222" max="9222" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9223" max="9223" width="27.42578125" style="9" customWidth="1"/>
-    <col min="9224" max="9224" width="24.140625" style="9" customWidth="1"/>
-    <col min="9225" max="9225" width="13.5703125" style="9" customWidth="1"/>
-    <col min="9226" max="9226" width="23.42578125" style="9" customWidth="1"/>
-    <col min="9227" max="9227" width="21.140625" style="9" customWidth="1"/>
-    <col min="9228" max="9228" width="20.42578125" style="9" customWidth="1"/>
-    <col min="9229" max="9472" width="9.140625" style="9"/>
-    <col min="9473" max="9473" width="10.42578125" style="9" customWidth="1"/>
-    <col min="9474" max="9474" width="20.7109375" style="9" customWidth="1"/>
-    <col min="9475" max="9475" width="14.5703125" style="9" customWidth="1"/>
-    <col min="9476" max="9476" width="14.28515625" style="9" customWidth="1"/>
-    <col min="9477" max="9477" width="12.42578125" style="9" customWidth="1"/>
-    <col min="9478" max="9478" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9479" max="9479" width="27.42578125" style="9" customWidth="1"/>
-    <col min="9480" max="9480" width="24.140625" style="9" customWidth="1"/>
-    <col min="9481" max="9481" width="13.5703125" style="9" customWidth="1"/>
-    <col min="9482" max="9482" width="23.42578125" style="9" customWidth="1"/>
-    <col min="9483" max="9483" width="21.140625" style="9" customWidth="1"/>
-    <col min="9484" max="9484" width="20.42578125" style="9" customWidth="1"/>
-    <col min="9485" max="9728" width="9.140625" style="9"/>
-    <col min="9729" max="9729" width="10.42578125" style="9" customWidth="1"/>
-    <col min="9730" max="9730" width="20.7109375" style="9" customWidth="1"/>
-    <col min="9731" max="9731" width="14.5703125" style="9" customWidth="1"/>
-    <col min="9732" max="9732" width="14.28515625" style="9" customWidth="1"/>
-    <col min="9733" max="9733" width="12.42578125" style="9" customWidth="1"/>
-    <col min="9734" max="9734" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9735" max="9735" width="27.42578125" style="9" customWidth="1"/>
-    <col min="9736" max="9736" width="24.140625" style="9" customWidth="1"/>
-    <col min="9737" max="9737" width="13.5703125" style="9" customWidth="1"/>
-    <col min="9738" max="9738" width="23.42578125" style="9" customWidth="1"/>
-    <col min="9739" max="9739" width="21.140625" style="9" customWidth="1"/>
-    <col min="9740" max="9740" width="20.42578125" style="9" customWidth="1"/>
-    <col min="9741" max="9984" width="9.140625" style="9"/>
-    <col min="9985" max="9985" width="10.42578125" style="9" customWidth="1"/>
-    <col min="9986" max="9986" width="20.7109375" style="9" customWidth="1"/>
-    <col min="9987" max="9987" width="14.5703125" style="9" customWidth="1"/>
-    <col min="9988" max="9988" width="14.28515625" style="9" customWidth="1"/>
-    <col min="9989" max="9989" width="12.42578125" style="9" customWidth="1"/>
-    <col min="9990" max="9990" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9991" max="9991" width="27.42578125" style="9" customWidth="1"/>
-    <col min="9992" max="9992" width="24.140625" style="9" customWidth="1"/>
-    <col min="9993" max="9993" width="13.5703125" style="9" customWidth="1"/>
-    <col min="9994" max="9994" width="23.42578125" style="9" customWidth="1"/>
-    <col min="9995" max="9995" width="21.140625" style="9" customWidth="1"/>
-    <col min="9996" max="9996" width="20.42578125" style="9" customWidth="1"/>
-    <col min="9997" max="10240" width="9.140625" style="9"/>
-    <col min="10241" max="10241" width="10.42578125" style="9" customWidth="1"/>
-    <col min="10242" max="10242" width="20.7109375" style="9" customWidth="1"/>
-    <col min="10243" max="10243" width="14.5703125" style="9" customWidth="1"/>
-    <col min="10244" max="10244" width="14.28515625" style="9" customWidth="1"/>
-    <col min="10245" max="10245" width="12.42578125" style="9" customWidth="1"/>
-    <col min="10246" max="10246" width="17.5703125" style="9" customWidth="1"/>
-    <col min="10247" max="10247" width="27.42578125" style="9" customWidth="1"/>
-    <col min="10248" max="10248" width="24.140625" style="9" customWidth="1"/>
-    <col min="10249" max="10249" width="13.5703125" style="9" customWidth="1"/>
-    <col min="10250" max="10250" width="23.42578125" style="9" customWidth="1"/>
-    <col min="10251" max="10251" width="21.140625" style="9" customWidth="1"/>
-    <col min="10252" max="10252" width="20.42578125" style="9" customWidth="1"/>
-    <col min="10253" max="10496" width="9.140625" style="9"/>
-    <col min="10497" max="10497" width="10.42578125" style="9" customWidth="1"/>
-    <col min="10498" max="10498" width="20.7109375" style="9" customWidth="1"/>
-    <col min="10499" max="10499" width="14.5703125" style="9" customWidth="1"/>
-    <col min="10500" max="10500" width="14.28515625" style="9" customWidth="1"/>
-    <col min="10501" max="10501" width="12.42578125" style="9" customWidth="1"/>
-    <col min="10502" max="10502" width="17.5703125" style="9" customWidth="1"/>
-    <col min="10503" max="10503" width="27.42578125" style="9" customWidth="1"/>
-    <col min="10504" max="10504" width="24.140625" style="9" customWidth="1"/>
-    <col min="10505" max="10505" width="13.5703125" style="9" customWidth="1"/>
-    <col min="10506" max="10506" width="23.42578125" style="9" customWidth="1"/>
-    <col min="10507" max="10507" width="21.140625" style="9" customWidth="1"/>
-    <col min="10508" max="10508" width="20.42578125" style="9" customWidth="1"/>
-    <col min="10509" max="10752" width="9.140625" style="9"/>
-    <col min="10753" max="10753" width="10.42578125" style="9" customWidth="1"/>
-    <col min="10754" max="10754" width="20.7109375" style="9" customWidth="1"/>
-    <col min="10755" max="10755" width="14.5703125" style="9" customWidth="1"/>
-    <col min="10756" max="10756" width="14.28515625" style="9" customWidth="1"/>
-    <col min="10757" max="10757" width="12.42578125" style="9" customWidth="1"/>
-    <col min="10758" max="10758" width="17.5703125" style="9" customWidth="1"/>
-    <col min="10759" max="10759" width="27.42578125" style="9" customWidth="1"/>
-    <col min="10760" max="10760" width="24.140625" style="9" customWidth="1"/>
-    <col min="10761" max="10761" width="13.5703125" style="9" customWidth="1"/>
-    <col min="10762" max="10762" width="23.42578125" style="9" customWidth="1"/>
-    <col min="10763" max="10763" width="21.140625" style="9" customWidth="1"/>
-    <col min="10764" max="10764" width="20.42578125" style="9" customWidth="1"/>
-    <col min="10765" max="11008" width="9.140625" style="9"/>
-    <col min="11009" max="11009" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11010" max="11010" width="20.7109375" style="9" customWidth="1"/>
-    <col min="11011" max="11011" width="14.5703125" style="9" customWidth="1"/>
-    <col min="11012" max="11012" width="14.28515625" style="9" customWidth="1"/>
-    <col min="11013" max="11013" width="12.42578125" style="9" customWidth="1"/>
-    <col min="11014" max="11014" width="17.5703125" style="9" customWidth="1"/>
-    <col min="11015" max="11015" width="27.42578125" style="9" customWidth="1"/>
-    <col min="11016" max="11016" width="24.140625" style="9" customWidth="1"/>
-    <col min="11017" max="11017" width="13.5703125" style="9" customWidth="1"/>
-    <col min="11018" max="11018" width="23.42578125" style="9" customWidth="1"/>
-    <col min="11019" max="11019" width="21.140625" style="9" customWidth="1"/>
-    <col min="11020" max="11020" width="20.42578125" style="9" customWidth="1"/>
-    <col min="11021" max="11264" width="9.140625" style="9"/>
-    <col min="11265" max="11265" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11266" max="11266" width="20.7109375" style="9" customWidth="1"/>
-    <col min="11267" max="11267" width="14.5703125" style="9" customWidth="1"/>
-    <col min="11268" max="11268" width="14.28515625" style="9" customWidth="1"/>
-    <col min="11269" max="11269" width="12.42578125" style="9" customWidth="1"/>
-    <col min="11270" max="11270" width="17.5703125" style="9" customWidth="1"/>
-    <col min="11271" max="11271" width="27.42578125" style="9" customWidth="1"/>
-    <col min="11272" max="11272" width="24.140625" style="9" customWidth="1"/>
-    <col min="11273" max="11273" width="13.5703125" style="9" customWidth="1"/>
-    <col min="11274" max="11274" width="23.42578125" style="9" customWidth="1"/>
-    <col min="11275" max="11275" width="21.140625" style="9" customWidth="1"/>
-    <col min="11276" max="11276" width="20.42578125" style="9" customWidth="1"/>
-    <col min="11277" max="11520" width="9.140625" style="9"/>
-    <col min="11521" max="11521" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11522" max="11522" width="20.7109375" style="9" customWidth="1"/>
-    <col min="11523" max="11523" width="14.5703125" style="9" customWidth="1"/>
-    <col min="11524" max="11524" width="14.28515625" style="9" customWidth="1"/>
-    <col min="11525" max="11525" width="12.42578125" style="9" customWidth="1"/>
-    <col min="11526" max="11526" width="17.5703125" style="9" customWidth="1"/>
-    <col min="11527" max="11527" width="27.42578125" style="9" customWidth="1"/>
-    <col min="11528" max="11528" width="24.140625" style="9" customWidth="1"/>
-    <col min="11529" max="11529" width="13.5703125" style="9" customWidth="1"/>
-    <col min="11530" max="11530" width="23.42578125" style="9" customWidth="1"/>
-    <col min="11531" max="11531" width="21.140625" style="9" customWidth="1"/>
-    <col min="11532" max="11532" width="20.42578125" style="9" customWidth="1"/>
-    <col min="11533" max="11776" width="9.140625" style="9"/>
-    <col min="11777" max="11777" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11778" max="11778" width="20.7109375" style="9" customWidth="1"/>
-    <col min="11779" max="11779" width="14.5703125" style="9" customWidth="1"/>
-    <col min="11780" max="11780" width="14.28515625" style="9" customWidth="1"/>
-    <col min="11781" max="11781" width="12.42578125" style="9" customWidth="1"/>
-    <col min="11782" max="11782" width="17.5703125" style="9" customWidth="1"/>
-    <col min="11783" max="11783" width="27.42578125" style="9" customWidth="1"/>
-    <col min="11784" max="11784" width="24.140625" style="9" customWidth="1"/>
-    <col min="11785" max="11785" width="13.5703125" style="9" customWidth="1"/>
-    <col min="11786" max="11786" width="23.42578125" style="9" customWidth="1"/>
-    <col min="11787" max="11787" width="21.140625" style="9" customWidth="1"/>
-    <col min="11788" max="11788" width="20.42578125" style="9" customWidth="1"/>
-    <col min="11789" max="12032" width="9.140625" style="9"/>
-    <col min="12033" max="12033" width="10.42578125" style="9" customWidth="1"/>
-    <col min="12034" max="12034" width="20.7109375" style="9" customWidth="1"/>
-    <col min="12035" max="12035" width="14.5703125" style="9" customWidth="1"/>
-    <col min="12036" max="12036" width="14.28515625" style="9" customWidth="1"/>
-    <col min="12037" max="12037" width="12.42578125" style="9" customWidth="1"/>
-    <col min="12038" max="12038" width="17.5703125" style="9" customWidth="1"/>
-    <col min="12039" max="12039" width="27.42578125" style="9" customWidth="1"/>
-    <col min="12040" max="12040" width="24.140625" style="9" customWidth="1"/>
-    <col min="12041" max="12041" width="13.5703125" style="9" customWidth="1"/>
-    <col min="12042" max="12042" width="23.42578125" style="9" customWidth="1"/>
-    <col min="12043" max="12043" width="21.140625" style="9" customWidth="1"/>
-    <col min="12044" max="12044" width="20.42578125" style="9" customWidth="1"/>
-    <col min="12045" max="12288" width="9.140625" style="9"/>
-    <col min="12289" max="12289" width="10.42578125" style="9" customWidth="1"/>
-    <col min="12290" max="12290" width="20.7109375" style="9" customWidth="1"/>
-    <col min="12291" max="12291" width="14.5703125" style="9" customWidth="1"/>
-    <col min="12292" max="12292" width="14.28515625" style="9" customWidth="1"/>
-    <col min="12293" max="12293" width="12.42578125" style="9" customWidth="1"/>
-    <col min="12294" max="12294" width="17.5703125" style="9" customWidth="1"/>
-    <col min="12295" max="12295" width="27.42578125" style="9" customWidth="1"/>
-    <col min="12296" max="12296" width="24.140625" style="9" customWidth="1"/>
-    <col min="12297" max="12297" width="13.5703125" style="9" customWidth="1"/>
-    <col min="12298" max="12298" width="23.42578125" style="9" customWidth="1"/>
-    <col min="12299" max="12299" width="21.140625" style="9" customWidth="1"/>
-    <col min="12300" max="12300" width="20.42578125" style="9" customWidth="1"/>
-    <col min="12301" max="12544" width="9.140625" style="9"/>
-    <col min="12545" max="12545" width="10.42578125" style="9" customWidth="1"/>
-    <col min="12546" max="12546" width="20.7109375" style="9" customWidth="1"/>
-    <col min="12547" max="12547" width="14.5703125" style="9" customWidth="1"/>
-    <col min="12548" max="12548" width="14.28515625" style="9" customWidth="1"/>
-    <col min="12549" max="12549" width="12.42578125" style="9" customWidth="1"/>
-    <col min="12550" max="12550" width="17.5703125" style="9" customWidth="1"/>
-    <col min="12551" max="12551" width="27.42578125" style="9" customWidth="1"/>
-    <col min="12552" max="12552" width="24.140625" style="9" customWidth="1"/>
-    <col min="12553" max="12553" width="13.5703125" style="9" customWidth="1"/>
-    <col min="12554" max="12554" width="23.42578125" style="9" customWidth="1"/>
-    <col min="12555" max="12555" width="21.140625" style="9" customWidth="1"/>
-    <col min="12556" max="12556" width="20.42578125" style="9" customWidth="1"/>
-    <col min="12557" max="12800" width="9.140625" style="9"/>
-    <col min="12801" max="12801" width="10.42578125" style="9" customWidth="1"/>
-    <col min="12802" max="12802" width="20.7109375" style="9" customWidth="1"/>
-    <col min="12803" max="12803" width="14.5703125" style="9" customWidth="1"/>
-    <col min="12804" max="12804" width="14.28515625" style="9" customWidth="1"/>
-    <col min="12805" max="12805" width="12.42578125" style="9" customWidth="1"/>
-    <col min="12806" max="12806" width="17.5703125" style="9" customWidth="1"/>
-    <col min="12807" max="12807" width="27.42578125" style="9" customWidth="1"/>
-    <col min="12808" max="12808" width="24.140625" style="9" customWidth="1"/>
-    <col min="12809" max="12809" width="13.5703125" style="9" customWidth="1"/>
-    <col min="12810" max="12810" width="23.42578125" style="9" customWidth="1"/>
-    <col min="12811" max="12811" width="21.140625" style="9" customWidth="1"/>
-    <col min="12812" max="12812" width="20.42578125" style="9" customWidth="1"/>
-    <col min="12813" max="13056" width="9.140625" style="9"/>
-    <col min="13057" max="13057" width="10.42578125" style="9" customWidth="1"/>
-    <col min="13058" max="13058" width="20.7109375" style="9" customWidth="1"/>
-    <col min="13059" max="13059" width="14.5703125" style="9" customWidth="1"/>
-    <col min="13060" max="13060" width="14.28515625" style="9" customWidth="1"/>
-    <col min="13061" max="13061" width="12.42578125" style="9" customWidth="1"/>
-    <col min="13062" max="13062" width="17.5703125" style="9" customWidth="1"/>
-    <col min="13063" max="13063" width="27.42578125" style="9" customWidth="1"/>
-    <col min="13064" max="13064" width="24.140625" style="9" customWidth="1"/>
-    <col min="13065" max="13065" width="13.5703125" style="9" customWidth="1"/>
-    <col min="13066" max="13066" width="23.42578125" style="9" customWidth="1"/>
-    <col min="13067" max="13067" width="21.140625" style="9" customWidth="1"/>
-    <col min="13068" max="13068" width="20.42578125" style="9" customWidth="1"/>
-    <col min="13069" max="13312" width="9.140625" style="9"/>
-    <col min="13313" max="13313" width="10.42578125" style="9" customWidth="1"/>
-    <col min="13314" max="13314" width="20.7109375" style="9" customWidth="1"/>
-    <col min="13315" max="13315" width="14.5703125" style="9" customWidth="1"/>
-    <col min="13316" max="13316" width="14.28515625" style="9" customWidth="1"/>
-    <col min="13317" max="13317" width="12.42578125" style="9" customWidth="1"/>
-    <col min="13318" max="13318" width="17.5703125" style="9" customWidth="1"/>
-    <col min="13319" max="13319" width="27.42578125" style="9" customWidth="1"/>
-    <col min="13320" max="13320" width="24.140625" style="9" customWidth="1"/>
-    <col min="13321" max="13321" width="13.5703125" style="9" customWidth="1"/>
-    <col min="13322" max="13322" width="23.42578125" style="9" customWidth="1"/>
-    <col min="13323" max="13323" width="21.140625" style="9" customWidth="1"/>
-    <col min="13324" max="13324" width="20.42578125" style="9" customWidth="1"/>
-    <col min="13325" max="13568" width="9.140625" style="9"/>
-    <col min="13569" max="13569" width="10.42578125" style="9" customWidth="1"/>
-    <col min="13570" max="13570" width="20.7109375" style="9" customWidth="1"/>
-    <col min="13571" max="13571" width="14.5703125" style="9" customWidth="1"/>
-    <col min="13572" max="13572" width="14.28515625" style="9" customWidth="1"/>
-    <col min="13573" max="13573" width="12.42578125" style="9" customWidth="1"/>
-    <col min="13574" max="13574" width="17.5703125" style="9" customWidth="1"/>
-    <col min="13575" max="13575" width="27.42578125" style="9" customWidth="1"/>
-    <col min="13576" max="13576" width="24.140625" style="9" customWidth="1"/>
-    <col min="13577" max="13577" width="13.5703125" style="9" customWidth="1"/>
-    <col min="13578" max="13578" width="23.42578125" style="9" customWidth="1"/>
-    <col min="13579" max="13579" width="21.140625" style="9" customWidth="1"/>
-    <col min="13580" max="13580" width="20.42578125" style="9" customWidth="1"/>
-    <col min="13581" max="13824" width="9.140625" style="9"/>
-    <col min="13825" max="13825" width="10.42578125" style="9" customWidth="1"/>
-    <col min="13826" max="13826" width="20.7109375" style="9" customWidth="1"/>
-    <col min="13827" max="13827" width="14.5703125" style="9" customWidth="1"/>
-    <col min="13828" max="13828" width="14.28515625" style="9" customWidth="1"/>
-    <col min="13829" max="13829" width="12.42578125" style="9" customWidth="1"/>
-    <col min="13830" max="13830" width="17.5703125" style="9" customWidth="1"/>
-    <col min="13831" max="13831" width="27.42578125" style="9" customWidth="1"/>
-    <col min="13832" max="13832" width="24.140625" style="9" customWidth="1"/>
-    <col min="13833" max="13833" width="13.5703125" style="9" customWidth="1"/>
-    <col min="13834" max="13834" width="23.42578125" style="9" customWidth="1"/>
-    <col min="13835" max="13835" width="21.140625" style="9" customWidth="1"/>
-    <col min="13836" max="13836" width="20.42578125" style="9" customWidth="1"/>
-    <col min="13837" max="14080" width="9.140625" style="9"/>
-    <col min="14081" max="14081" width="10.42578125" style="9" customWidth="1"/>
-    <col min="14082" max="14082" width="20.7109375" style="9" customWidth="1"/>
-    <col min="14083" max="14083" width="14.5703125" style="9" customWidth="1"/>
-    <col min="14084" max="14084" width="14.28515625" style="9" customWidth="1"/>
-    <col min="14085" max="14085" width="12.42578125" style="9" customWidth="1"/>
-    <col min="14086" max="14086" width="17.5703125" style="9" customWidth="1"/>
-    <col min="14087" max="14087" width="27.42578125" style="9" customWidth="1"/>
-    <col min="14088" max="14088" width="24.140625" style="9" customWidth="1"/>
-    <col min="14089" max="14089" width="13.5703125" style="9" customWidth="1"/>
-    <col min="14090" max="14090" width="23.42578125" style="9" customWidth="1"/>
-    <col min="14091" max="14091" width="21.140625" style="9" customWidth="1"/>
-    <col min="14092" max="14092" width="20.42578125" style="9" customWidth="1"/>
-    <col min="14093" max="14336" width="9.140625" style="9"/>
-    <col min="14337" max="14337" width="10.42578125" style="9" customWidth="1"/>
-    <col min="14338" max="14338" width="20.7109375" style="9" customWidth="1"/>
-    <col min="14339" max="14339" width="14.5703125" style="9" customWidth="1"/>
-    <col min="14340" max="14340" width="14.28515625" style="9" customWidth="1"/>
-    <col min="14341" max="14341" width="12.42578125" style="9" customWidth="1"/>
-    <col min="14342" max="14342" width="17.5703125" style="9" customWidth="1"/>
-    <col min="14343" max="14343" width="27.42578125" style="9" customWidth="1"/>
-    <col min="14344" max="14344" width="24.140625" style="9" customWidth="1"/>
-    <col min="14345" max="14345" width="13.5703125" style="9" customWidth="1"/>
-    <col min="14346" max="14346" width="23.42578125" style="9" customWidth="1"/>
-    <col min="14347" max="14347" width="21.140625" style="9" customWidth="1"/>
-    <col min="14348" max="14348" width="20.42578125" style="9" customWidth="1"/>
-    <col min="14349" max="14592" width="9.140625" style="9"/>
-    <col min="14593" max="14593" width="10.42578125" style="9" customWidth="1"/>
-    <col min="14594" max="14594" width="20.7109375" style="9" customWidth="1"/>
-    <col min="14595" max="14595" width="14.5703125" style="9" customWidth="1"/>
-    <col min="14596" max="14596" width="14.28515625" style="9" customWidth="1"/>
-    <col min="14597" max="14597" width="12.42578125" style="9" customWidth="1"/>
-    <col min="14598" max="14598" width="17.5703125" style="9" customWidth="1"/>
-    <col min="14599" max="14599" width="27.42578125" style="9" customWidth="1"/>
-    <col min="14600" max="14600" width="24.140625" style="9" customWidth="1"/>
-    <col min="14601" max="14601" width="13.5703125" style="9" customWidth="1"/>
-    <col min="14602" max="14602" width="23.42578125" style="9" customWidth="1"/>
-    <col min="14603" max="14603" width="21.140625" style="9" customWidth="1"/>
-    <col min="14604" max="14604" width="20.42578125" style="9" customWidth="1"/>
-    <col min="14605" max="14848" width="9.140625" style="9"/>
-    <col min="14849" max="14849" width="10.42578125" style="9" customWidth="1"/>
-    <col min="14850" max="14850" width="20.7109375" style="9" customWidth="1"/>
-    <col min="14851" max="14851" width="14.5703125" style="9" customWidth="1"/>
-    <col min="14852" max="14852" width="14.28515625" style="9" customWidth="1"/>
-    <col min="14853" max="14853" width="12.42578125" style="9" customWidth="1"/>
-    <col min="14854" max="14854" width="17.5703125" style="9" customWidth="1"/>
-    <col min="14855" max="14855" width="27.42578125" style="9" customWidth="1"/>
-    <col min="14856" max="14856" width="24.140625" style="9" customWidth="1"/>
-    <col min="14857" max="14857" width="13.5703125" style="9" customWidth="1"/>
-    <col min="14858" max="14858" width="23.42578125" style="9" customWidth="1"/>
-    <col min="14859" max="14859" width="21.140625" style="9" customWidth="1"/>
-    <col min="14860" max="14860" width="20.42578125" style="9" customWidth="1"/>
-    <col min="14861" max="15104" width="9.140625" style="9"/>
-    <col min="15105" max="15105" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15106" max="15106" width="20.7109375" style="9" customWidth="1"/>
-    <col min="15107" max="15107" width="14.5703125" style="9" customWidth="1"/>
-    <col min="15108" max="15108" width="14.28515625" style="9" customWidth="1"/>
-    <col min="15109" max="15109" width="12.42578125" style="9" customWidth="1"/>
-    <col min="15110" max="15110" width="17.5703125" style="9" customWidth="1"/>
-    <col min="15111" max="15111" width="27.42578125" style="9" customWidth="1"/>
-    <col min="15112" max="15112" width="24.140625" style="9" customWidth="1"/>
-    <col min="15113" max="15113" width="13.5703125" style="9" customWidth="1"/>
-    <col min="15114" max="15114" width="23.42578125" style="9" customWidth="1"/>
-    <col min="15115" max="15115" width="21.140625" style="9" customWidth="1"/>
-    <col min="15116" max="15116" width="20.42578125" style="9" customWidth="1"/>
-    <col min="15117" max="15360" width="9.140625" style="9"/>
-    <col min="15361" max="15361" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15362" max="15362" width="20.7109375" style="9" customWidth="1"/>
-    <col min="15363" max="15363" width="14.5703125" style="9" customWidth="1"/>
-    <col min="15364" max="15364" width="14.28515625" style="9" customWidth="1"/>
-    <col min="15365" max="15365" width="12.42578125" style="9" customWidth="1"/>
-    <col min="15366" max="15366" width="17.5703125" style="9" customWidth="1"/>
-    <col min="15367" max="15367" width="27.42578125" style="9" customWidth="1"/>
-    <col min="15368" max="15368" width="24.140625" style="9" customWidth="1"/>
-    <col min="15369" max="15369" width="13.5703125" style="9" customWidth="1"/>
-    <col min="15370" max="15370" width="23.42578125" style="9" customWidth="1"/>
-    <col min="15371" max="15371" width="21.140625" style="9" customWidth="1"/>
-    <col min="15372" max="15372" width="20.42578125" style="9" customWidth="1"/>
-    <col min="15373" max="15616" width="9.140625" style="9"/>
-    <col min="15617" max="15617" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15618" max="15618" width="20.7109375" style="9" customWidth="1"/>
-    <col min="15619" max="15619" width="14.5703125" style="9" customWidth="1"/>
-    <col min="15620" max="15620" width="14.28515625" style="9" customWidth="1"/>
-    <col min="15621" max="15621" width="12.42578125" style="9" customWidth="1"/>
-    <col min="15622" max="15622" width="17.5703125" style="9" customWidth="1"/>
-    <col min="15623" max="15623" width="27.42578125" style="9" customWidth="1"/>
-    <col min="15624" max="15624" width="24.140625" style="9" customWidth="1"/>
-    <col min="15625" max="15625" width="13.5703125" style="9" customWidth="1"/>
-    <col min="15626" max="15626" width="23.42578125" style="9" customWidth="1"/>
-    <col min="15627" max="15627" width="21.140625" style="9" customWidth="1"/>
-    <col min="15628" max="15628" width="20.42578125" style="9" customWidth="1"/>
-    <col min="15629" max="15872" width="9.140625" style="9"/>
-    <col min="15873" max="15873" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15874" max="15874" width="20.7109375" style="9" customWidth="1"/>
-    <col min="15875" max="15875" width="14.5703125" style="9" customWidth="1"/>
-    <col min="15876" max="15876" width="14.28515625" style="9" customWidth="1"/>
-    <col min="15877" max="15877" width="12.42578125" style="9" customWidth="1"/>
-    <col min="15878" max="15878" width="17.5703125" style="9" customWidth="1"/>
-    <col min="15879" max="15879" width="27.42578125" style="9" customWidth="1"/>
-    <col min="15880" max="15880" width="24.140625" style="9" customWidth="1"/>
-    <col min="15881" max="15881" width="13.5703125" style="9" customWidth="1"/>
-    <col min="15882" max="15882" width="23.42578125" style="9" customWidth="1"/>
-    <col min="15883" max="15883" width="21.140625" style="9" customWidth="1"/>
-    <col min="15884" max="15884" width="20.42578125" style="9" customWidth="1"/>
-    <col min="15885" max="16128" width="9.140625" style="9"/>
-    <col min="16129" max="16129" width="10.42578125" style="9" customWidth="1"/>
-    <col min="16130" max="16130" width="20.7109375" style="9" customWidth="1"/>
-    <col min="16131" max="16131" width="14.5703125" style="9" customWidth="1"/>
-    <col min="16132" max="16132" width="14.28515625" style="9" customWidth="1"/>
-    <col min="16133" max="16133" width="12.42578125" style="9" customWidth="1"/>
-    <col min="16134" max="16134" width="17.5703125" style="9" customWidth="1"/>
-    <col min="16135" max="16135" width="27.42578125" style="9" customWidth="1"/>
-    <col min="16136" max="16136" width="24.140625" style="9" customWidth="1"/>
-    <col min="16137" max="16137" width="13.5703125" style="9" customWidth="1"/>
-    <col min="16138" max="16138" width="23.42578125" style="9" customWidth="1"/>
-    <col min="16139" max="16139" width="21.140625" style="9" customWidth="1"/>
-    <col min="16140" max="16140" width="20.42578125" style="9" customWidth="1"/>
-    <col min="16141" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="10.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="79.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" style="9" customWidth="1"/>
+    <col min="13" max="256" width="9.109375" style="9"/>
+    <col min="257" max="257" width="10.44140625" style="9" customWidth="1"/>
+    <col min="258" max="258" width="20.6640625" style="9" customWidth="1"/>
+    <col min="259" max="259" width="14.5546875" style="9" customWidth="1"/>
+    <col min="260" max="260" width="14.33203125" style="9" customWidth="1"/>
+    <col min="261" max="261" width="12.44140625" style="9" customWidth="1"/>
+    <col min="262" max="262" width="17.5546875" style="9" customWidth="1"/>
+    <col min="263" max="263" width="27.44140625" style="9" customWidth="1"/>
+    <col min="264" max="264" width="24.109375" style="9" customWidth="1"/>
+    <col min="265" max="265" width="13.5546875" style="9" customWidth="1"/>
+    <col min="266" max="266" width="23.44140625" style="9" customWidth="1"/>
+    <col min="267" max="267" width="21.109375" style="9" customWidth="1"/>
+    <col min="268" max="268" width="20.44140625" style="9" customWidth="1"/>
+    <col min="269" max="512" width="9.109375" style="9"/>
+    <col min="513" max="513" width="10.44140625" style="9" customWidth="1"/>
+    <col min="514" max="514" width="20.6640625" style="9" customWidth="1"/>
+    <col min="515" max="515" width="14.5546875" style="9" customWidth="1"/>
+    <col min="516" max="516" width="14.33203125" style="9" customWidth="1"/>
+    <col min="517" max="517" width="12.44140625" style="9" customWidth="1"/>
+    <col min="518" max="518" width="17.5546875" style="9" customWidth="1"/>
+    <col min="519" max="519" width="27.44140625" style="9" customWidth="1"/>
+    <col min="520" max="520" width="24.109375" style="9" customWidth="1"/>
+    <col min="521" max="521" width="13.5546875" style="9" customWidth="1"/>
+    <col min="522" max="522" width="23.44140625" style="9" customWidth="1"/>
+    <col min="523" max="523" width="21.109375" style="9" customWidth="1"/>
+    <col min="524" max="524" width="20.44140625" style="9" customWidth="1"/>
+    <col min="525" max="768" width="9.109375" style="9"/>
+    <col min="769" max="769" width="10.44140625" style="9" customWidth="1"/>
+    <col min="770" max="770" width="20.6640625" style="9" customWidth="1"/>
+    <col min="771" max="771" width="14.5546875" style="9" customWidth="1"/>
+    <col min="772" max="772" width="14.33203125" style="9" customWidth="1"/>
+    <col min="773" max="773" width="12.44140625" style="9" customWidth="1"/>
+    <col min="774" max="774" width="17.5546875" style="9" customWidth="1"/>
+    <col min="775" max="775" width="27.44140625" style="9" customWidth="1"/>
+    <col min="776" max="776" width="24.109375" style="9" customWidth="1"/>
+    <col min="777" max="777" width="13.5546875" style="9" customWidth="1"/>
+    <col min="778" max="778" width="23.44140625" style="9" customWidth="1"/>
+    <col min="779" max="779" width="21.109375" style="9" customWidth="1"/>
+    <col min="780" max="780" width="20.44140625" style="9" customWidth="1"/>
+    <col min="781" max="1024" width="9.109375" style="9"/>
+    <col min="1025" max="1025" width="10.44140625" style="9" customWidth="1"/>
+    <col min="1026" max="1026" width="20.6640625" style="9" customWidth="1"/>
+    <col min="1027" max="1027" width="14.5546875" style="9" customWidth="1"/>
+    <col min="1028" max="1028" width="14.33203125" style="9" customWidth="1"/>
+    <col min="1029" max="1029" width="12.44140625" style="9" customWidth="1"/>
+    <col min="1030" max="1030" width="17.5546875" style="9" customWidth="1"/>
+    <col min="1031" max="1031" width="27.44140625" style="9" customWidth="1"/>
+    <col min="1032" max="1032" width="24.109375" style="9" customWidth="1"/>
+    <col min="1033" max="1033" width="13.5546875" style="9" customWidth="1"/>
+    <col min="1034" max="1034" width="23.44140625" style="9" customWidth="1"/>
+    <col min="1035" max="1035" width="21.109375" style="9" customWidth="1"/>
+    <col min="1036" max="1036" width="20.44140625" style="9" customWidth="1"/>
+    <col min="1037" max="1280" width="9.109375" style="9"/>
+    <col min="1281" max="1281" width="10.44140625" style="9" customWidth="1"/>
+    <col min="1282" max="1282" width="20.6640625" style="9" customWidth="1"/>
+    <col min="1283" max="1283" width="14.5546875" style="9" customWidth="1"/>
+    <col min="1284" max="1284" width="14.33203125" style="9" customWidth="1"/>
+    <col min="1285" max="1285" width="12.44140625" style="9" customWidth="1"/>
+    <col min="1286" max="1286" width="17.5546875" style="9" customWidth="1"/>
+    <col min="1287" max="1287" width="27.44140625" style="9" customWidth="1"/>
+    <col min="1288" max="1288" width="24.109375" style="9" customWidth="1"/>
+    <col min="1289" max="1289" width="13.5546875" style="9" customWidth="1"/>
+    <col min="1290" max="1290" width="23.44140625" style="9" customWidth="1"/>
+    <col min="1291" max="1291" width="21.109375" style="9" customWidth="1"/>
+    <col min="1292" max="1292" width="20.44140625" style="9" customWidth="1"/>
+    <col min="1293" max="1536" width="9.109375" style="9"/>
+    <col min="1537" max="1537" width="10.44140625" style="9" customWidth="1"/>
+    <col min="1538" max="1538" width="20.6640625" style="9" customWidth="1"/>
+    <col min="1539" max="1539" width="14.5546875" style="9" customWidth="1"/>
+    <col min="1540" max="1540" width="14.33203125" style="9" customWidth="1"/>
+    <col min="1541" max="1541" width="12.44140625" style="9" customWidth="1"/>
+    <col min="1542" max="1542" width="17.5546875" style="9" customWidth="1"/>
+    <col min="1543" max="1543" width="27.44140625" style="9" customWidth="1"/>
+    <col min="1544" max="1544" width="24.109375" style="9" customWidth="1"/>
+    <col min="1545" max="1545" width="13.5546875" style="9" customWidth="1"/>
+    <col min="1546" max="1546" width="23.44140625" style="9" customWidth="1"/>
+    <col min="1547" max="1547" width="21.109375" style="9" customWidth="1"/>
+    <col min="1548" max="1548" width="20.44140625" style="9" customWidth="1"/>
+    <col min="1549" max="1792" width="9.109375" style="9"/>
+    <col min="1793" max="1793" width="10.44140625" style="9" customWidth="1"/>
+    <col min="1794" max="1794" width="20.6640625" style="9" customWidth="1"/>
+    <col min="1795" max="1795" width="14.5546875" style="9" customWidth="1"/>
+    <col min="1796" max="1796" width="14.33203125" style="9" customWidth="1"/>
+    <col min="1797" max="1797" width="12.44140625" style="9" customWidth="1"/>
+    <col min="1798" max="1798" width="17.5546875" style="9" customWidth="1"/>
+    <col min="1799" max="1799" width="27.44140625" style="9" customWidth="1"/>
+    <col min="1800" max="1800" width="24.109375" style="9" customWidth="1"/>
+    <col min="1801" max="1801" width="13.5546875" style="9" customWidth="1"/>
+    <col min="1802" max="1802" width="23.44140625" style="9" customWidth="1"/>
+    <col min="1803" max="1803" width="21.109375" style="9" customWidth="1"/>
+    <col min="1804" max="1804" width="20.44140625" style="9" customWidth="1"/>
+    <col min="1805" max="2048" width="9.109375" style="9"/>
+    <col min="2049" max="2049" width="10.44140625" style="9" customWidth="1"/>
+    <col min="2050" max="2050" width="20.6640625" style="9" customWidth="1"/>
+    <col min="2051" max="2051" width="14.5546875" style="9" customWidth="1"/>
+    <col min="2052" max="2052" width="14.33203125" style="9" customWidth="1"/>
+    <col min="2053" max="2053" width="12.44140625" style="9" customWidth="1"/>
+    <col min="2054" max="2054" width="17.5546875" style="9" customWidth="1"/>
+    <col min="2055" max="2055" width="27.44140625" style="9" customWidth="1"/>
+    <col min="2056" max="2056" width="24.109375" style="9" customWidth="1"/>
+    <col min="2057" max="2057" width="13.5546875" style="9" customWidth="1"/>
+    <col min="2058" max="2058" width="23.44140625" style="9" customWidth="1"/>
+    <col min="2059" max="2059" width="21.109375" style="9" customWidth="1"/>
+    <col min="2060" max="2060" width="20.44140625" style="9" customWidth="1"/>
+    <col min="2061" max="2304" width="9.109375" style="9"/>
+    <col min="2305" max="2305" width="10.44140625" style="9" customWidth="1"/>
+    <col min="2306" max="2306" width="20.6640625" style="9" customWidth="1"/>
+    <col min="2307" max="2307" width="14.5546875" style="9" customWidth="1"/>
+    <col min="2308" max="2308" width="14.33203125" style="9" customWidth="1"/>
+    <col min="2309" max="2309" width="12.44140625" style="9" customWidth="1"/>
+    <col min="2310" max="2310" width="17.5546875" style="9" customWidth="1"/>
+    <col min="2311" max="2311" width="27.44140625" style="9" customWidth="1"/>
+    <col min="2312" max="2312" width="24.109375" style="9" customWidth="1"/>
+    <col min="2313" max="2313" width="13.5546875" style="9" customWidth="1"/>
+    <col min="2314" max="2314" width="23.44140625" style="9" customWidth="1"/>
+    <col min="2315" max="2315" width="21.109375" style="9" customWidth="1"/>
+    <col min="2316" max="2316" width="20.44140625" style="9" customWidth="1"/>
+    <col min="2317" max="2560" width="9.109375" style="9"/>
+    <col min="2561" max="2561" width="10.44140625" style="9" customWidth="1"/>
+    <col min="2562" max="2562" width="20.6640625" style="9" customWidth="1"/>
+    <col min="2563" max="2563" width="14.5546875" style="9" customWidth="1"/>
+    <col min="2564" max="2564" width="14.33203125" style="9" customWidth="1"/>
+    <col min="2565" max="2565" width="12.44140625" style="9" customWidth="1"/>
+    <col min="2566" max="2566" width="17.5546875" style="9" customWidth="1"/>
+    <col min="2567" max="2567" width="27.44140625" style="9" customWidth="1"/>
+    <col min="2568" max="2568" width="24.109375" style="9" customWidth="1"/>
+    <col min="2569" max="2569" width="13.5546875" style="9" customWidth="1"/>
+    <col min="2570" max="2570" width="23.44140625" style="9" customWidth="1"/>
+    <col min="2571" max="2571" width="21.109375" style="9" customWidth="1"/>
+    <col min="2572" max="2572" width="20.44140625" style="9" customWidth="1"/>
+    <col min="2573" max="2816" width="9.109375" style="9"/>
+    <col min="2817" max="2817" width="10.44140625" style="9" customWidth="1"/>
+    <col min="2818" max="2818" width="20.6640625" style="9" customWidth="1"/>
+    <col min="2819" max="2819" width="14.5546875" style="9" customWidth="1"/>
+    <col min="2820" max="2820" width="14.33203125" style="9" customWidth="1"/>
+    <col min="2821" max="2821" width="12.44140625" style="9" customWidth="1"/>
+    <col min="2822" max="2822" width="17.5546875" style="9" customWidth="1"/>
+    <col min="2823" max="2823" width="27.44140625" style="9" customWidth="1"/>
+    <col min="2824" max="2824" width="24.109375" style="9" customWidth="1"/>
+    <col min="2825" max="2825" width="13.5546875" style="9" customWidth="1"/>
+    <col min="2826" max="2826" width="23.44140625" style="9" customWidth="1"/>
+    <col min="2827" max="2827" width="21.109375" style="9" customWidth="1"/>
+    <col min="2828" max="2828" width="20.44140625" style="9" customWidth="1"/>
+    <col min="2829" max="3072" width="9.109375" style="9"/>
+    <col min="3073" max="3073" width="10.44140625" style="9" customWidth="1"/>
+    <col min="3074" max="3074" width="20.6640625" style="9" customWidth="1"/>
+    <col min="3075" max="3075" width="14.5546875" style="9" customWidth="1"/>
+    <col min="3076" max="3076" width="14.33203125" style="9" customWidth="1"/>
+    <col min="3077" max="3077" width="12.44140625" style="9" customWidth="1"/>
+    <col min="3078" max="3078" width="17.5546875" style="9" customWidth="1"/>
+    <col min="3079" max="3079" width="27.44140625" style="9" customWidth="1"/>
+    <col min="3080" max="3080" width="24.109375" style="9" customWidth="1"/>
+    <col min="3081" max="3081" width="13.5546875" style="9" customWidth="1"/>
+    <col min="3082" max="3082" width="23.44140625" style="9" customWidth="1"/>
+    <col min="3083" max="3083" width="21.109375" style="9" customWidth="1"/>
+    <col min="3084" max="3084" width="20.44140625" style="9" customWidth="1"/>
+    <col min="3085" max="3328" width="9.109375" style="9"/>
+    <col min="3329" max="3329" width="10.44140625" style="9" customWidth="1"/>
+    <col min="3330" max="3330" width="20.6640625" style="9" customWidth="1"/>
+    <col min="3331" max="3331" width="14.5546875" style="9" customWidth="1"/>
+    <col min="3332" max="3332" width="14.33203125" style="9" customWidth="1"/>
+    <col min="3333" max="3333" width="12.44140625" style="9" customWidth="1"/>
+    <col min="3334" max="3334" width="17.5546875" style="9" customWidth="1"/>
+    <col min="3335" max="3335" width="27.44140625" style="9" customWidth="1"/>
+    <col min="3336" max="3336" width="24.109375" style="9" customWidth="1"/>
+    <col min="3337" max="3337" width="13.5546875" style="9" customWidth="1"/>
+    <col min="3338" max="3338" width="23.44140625" style="9" customWidth="1"/>
+    <col min="3339" max="3339" width="21.109375" style="9" customWidth="1"/>
+    <col min="3340" max="3340" width="20.44140625" style="9" customWidth="1"/>
+    <col min="3341" max="3584" width="9.109375" style="9"/>
+    <col min="3585" max="3585" width="10.44140625" style="9" customWidth="1"/>
+    <col min="3586" max="3586" width="20.6640625" style="9" customWidth="1"/>
+    <col min="3587" max="3587" width="14.5546875" style="9" customWidth="1"/>
+    <col min="3588" max="3588" width="14.33203125" style="9" customWidth="1"/>
+    <col min="3589" max="3589" width="12.44140625" style="9" customWidth="1"/>
+    <col min="3590" max="3590" width="17.5546875" style="9" customWidth="1"/>
+    <col min="3591" max="3591" width="27.44140625" style="9" customWidth="1"/>
+    <col min="3592" max="3592" width="24.109375" style="9" customWidth="1"/>
+    <col min="3593" max="3593" width="13.5546875" style="9" customWidth="1"/>
+    <col min="3594" max="3594" width="23.44140625" style="9" customWidth="1"/>
+    <col min="3595" max="3595" width="21.109375" style="9" customWidth="1"/>
+    <col min="3596" max="3596" width="20.44140625" style="9" customWidth="1"/>
+    <col min="3597" max="3840" width="9.109375" style="9"/>
+    <col min="3841" max="3841" width="10.44140625" style="9" customWidth="1"/>
+    <col min="3842" max="3842" width="20.6640625" style="9" customWidth="1"/>
+    <col min="3843" max="3843" width="14.5546875" style="9" customWidth="1"/>
+    <col min="3844" max="3844" width="14.33203125" style="9" customWidth="1"/>
+    <col min="3845" max="3845" width="12.44140625" style="9" customWidth="1"/>
+    <col min="3846" max="3846" width="17.5546875" style="9" customWidth="1"/>
+    <col min="3847" max="3847" width="27.44140625" style="9" customWidth="1"/>
+    <col min="3848" max="3848" width="24.109375" style="9" customWidth="1"/>
+    <col min="3849" max="3849" width="13.5546875" style="9" customWidth="1"/>
+    <col min="3850" max="3850" width="23.44140625" style="9" customWidth="1"/>
+    <col min="3851" max="3851" width="21.109375" style="9" customWidth="1"/>
+    <col min="3852" max="3852" width="20.44140625" style="9" customWidth="1"/>
+    <col min="3853" max="4096" width="9.109375" style="9"/>
+    <col min="4097" max="4097" width="10.44140625" style="9" customWidth="1"/>
+    <col min="4098" max="4098" width="20.6640625" style="9" customWidth="1"/>
+    <col min="4099" max="4099" width="14.5546875" style="9" customWidth="1"/>
+    <col min="4100" max="4100" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4101" max="4101" width="12.44140625" style="9" customWidth="1"/>
+    <col min="4102" max="4102" width="17.5546875" style="9" customWidth="1"/>
+    <col min="4103" max="4103" width="27.44140625" style="9" customWidth="1"/>
+    <col min="4104" max="4104" width="24.109375" style="9" customWidth="1"/>
+    <col min="4105" max="4105" width="13.5546875" style="9" customWidth="1"/>
+    <col min="4106" max="4106" width="23.44140625" style="9" customWidth="1"/>
+    <col min="4107" max="4107" width="21.109375" style="9" customWidth="1"/>
+    <col min="4108" max="4108" width="20.44140625" style="9" customWidth="1"/>
+    <col min="4109" max="4352" width="9.109375" style="9"/>
+    <col min="4353" max="4353" width="10.44140625" style="9" customWidth="1"/>
+    <col min="4354" max="4354" width="20.6640625" style="9" customWidth="1"/>
+    <col min="4355" max="4355" width="14.5546875" style="9" customWidth="1"/>
+    <col min="4356" max="4356" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4357" max="4357" width="12.44140625" style="9" customWidth="1"/>
+    <col min="4358" max="4358" width="17.5546875" style="9" customWidth="1"/>
+    <col min="4359" max="4359" width="27.44140625" style="9" customWidth="1"/>
+    <col min="4360" max="4360" width="24.109375" style="9" customWidth="1"/>
+    <col min="4361" max="4361" width="13.5546875" style="9" customWidth="1"/>
+    <col min="4362" max="4362" width="23.44140625" style="9" customWidth="1"/>
+    <col min="4363" max="4363" width="21.109375" style="9" customWidth="1"/>
+    <col min="4364" max="4364" width="20.44140625" style="9" customWidth="1"/>
+    <col min="4365" max="4608" width="9.109375" style="9"/>
+    <col min="4609" max="4609" width="10.44140625" style="9" customWidth="1"/>
+    <col min="4610" max="4610" width="20.6640625" style="9" customWidth="1"/>
+    <col min="4611" max="4611" width="14.5546875" style="9" customWidth="1"/>
+    <col min="4612" max="4612" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4613" max="4613" width="12.44140625" style="9" customWidth="1"/>
+    <col min="4614" max="4614" width="17.5546875" style="9" customWidth="1"/>
+    <col min="4615" max="4615" width="27.44140625" style="9" customWidth="1"/>
+    <col min="4616" max="4616" width="24.109375" style="9" customWidth="1"/>
+    <col min="4617" max="4617" width="13.5546875" style="9" customWidth="1"/>
+    <col min="4618" max="4618" width="23.44140625" style="9" customWidth="1"/>
+    <col min="4619" max="4619" width="21.109375" style="9" customWidth="1"/>
+    <col min="4620" max="4620" width="20.44140625" style="9" customWidth="1"/>
+    <col min="4621" max="4864" width="9.109375" style="9"/>
+    <col min="4865" max="4865" width="10.44140625" style="9" customWidth="1"/>
+    <col min="4866" max="4866" width="20.6640625" style="9" customWidth="1"/>
+    <col min="4867" max="4867" width="14.5546875" style="9" customWidth="1"/>
+    <col min="4868" max="4868" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4869" max="4869" width="12.44140625" style="9" customWidth="1"/>
+    <col min="4870" max="4870" width="17.5546875" style="9" customWidth="1"/>
+    <col min="4871" max="4871" width="27.44140625" style="9" customWidth="1"/>
+    <col min="4872" max="4872" width="24.109375" style="9" customWidth="1"/>
+    <col min="4873" max="4873" width="13.5546875" style="9" customWidth="1"/>
+    <col min="4874" max="4874" width="23.44140625" style="9" customWidth="1"/>
+    <col min="4875" max="4875" width="21.109375" style="9" customWidth="1"/>
+    <col min="4876" max="4876" width="20.44140625" style="9" customWidth="1"/>
+    <col min="4877" max="5120" width="9.109375" style="9"/>
+    <col min="5121" max="5121" width="10.44140625" style="9" customWidth="1"/>
+    <col min="5122" max="5122" width="20.6640625" style="9" customWidth="1"/>
+    <col min="5123" max="5123" width="14.5546875" style="9" customWidth="1"/>
+    <col min="5124" max="5124" width="14.33203125" style="9" customWidth="1"/>
+    <col min="5125" max="5125" width="12.44140625" style="9" customWidth="1"/>
+    <col min="5126" max="5126" width="17.5546875" style="9" customWidth="1"/>
+    <col min="5127" max="5127" width="27.44140625" style="9" customWidth="1"/>
+    <col min="5128" max="5128" width="24.109375" style="9" customWidth="1"/>
+    <col min="5129" max="5129" width="13.5546875" style="9" customWidth="1"/>
+    <col min="5130" max="5130" width="23.44140625" style="9" customWidth="1"/>
+    <col min="5131" max="5131" width="21.109375" style="9" customWidth="1"/>
+    <col min="5132" max="5132" width="20.44140625" style="9" customWidth="1"/>
+    <col min="5133" max="5376" width="9.109375" style="9"/>
+    <col min="5377" max="5377" width="10.44140625" style="9" customWidth="1"/>
+    <col min="5378" max="5378" width="20.6640625" style="9" customWidth="1"/>
+    <col min="5379" max="5379" width="14.5546875" style="9" customWidth="1"/>
+    <col min="5380" max="5380" width="14.33203125" style="9" customWidth="1"/>
+    <col min="5381" max="5381" width="12.44140625" style="9" customWidth="1"/>
+    <col min="5382" max="5382" width="17.5546875" style="9" customWidth="1"/>
+    <col min="5383" max="5383" width="27.44140625" style="9" customWidth="1"/>
+    <col min="5384" max="5384" width="24.109375" style="9" customWidth="1"/>
+    <col min="5385" max="5385" width="13.5546875" style="9" customWidth="1"/>
+    <col min="5386" max="5386" width="23.44140625" style="9" customWidth="1"/>
+    <col min="5387" max="5387" width="21.109375" style="9" customWidth="1"/>
+    <col min="5388" max="5388" width="20.44140625" style="9" customWidth="1"/>
+    <col min="5389" max="5632" width="9.109375" style="9"/>
+    <col min="5633" max="5633" width="10.44140625" style="9" customWidth="1"/>
+    <col min="5634" max="5634" width="20.6640625" style="9" customWidth="1"/>
+    <col min="5635" max="5635" width="14.5546875" style="9" customWidth="1"/>
+    <col min="5636" max="5636" width="14.33203125" style="9" customWidth="1"/>
+    <col min="5637" max="5637" width="12.44140625" style="9" customWidth="1"/>
+    <col min="5638" max="5638" width="17.5546875" style="9" customWidth="1"/>
+    <col min="5639" max="5639" width="27.44140625" style="9" customWidth="1"/>
+    <col min="5640" max="5640" width="24.109375" style="9" customWidth="1"/>
+    <col min="5641" max="5641" width="13.5546875" style="9" customWidth="1"/>
+    <col min="5642" max="5642" width="23.44140625" style="9" customWidth="1"/>
+    <col min="5643" max="5643" width="21.109375" style="9" customWidth="1"/>
+    <col min="5644" max="5644" width="20.44140625" style="9" customWidth="1"/>
+    <col min="5645" max="5888" width="9.109375" style="9"/>
+    <col min="5889" max="5889" width="10.44140625" style="9" customWidth="1"/>
+    <col min="5890" max="5890" width="20.6640625" style="9" customWidth="1"/>
+    <col min="5891" max="5891" width="14.5546875" style="9" customWidth="1"/>
+    <col min="5892" max="5892" width="14.33203125" style="9" customWidth="1"/>
+    <col min="5893" max="5893" width="12.44140625" style="9" customWidth="1"/>
+    <col min="5894" max="5894" width="17.5546875" style="9" customWidth="1"/>
+    <col min="5895" max="5895" width="27.44140625" style="9" customWidth="1"/>
+    <col min="5896" max="5896" width="24.109375" style="9" customWidth="1"/>
+    <col min="5897" max="5897" width="13.5546875" style="9" customWidth="1"/>
+    <col min="5898" max="5898" width="23.44140625" style="9" customWidth="1"/>
+    <col min="5899" max="5899" width="21.109375" style="9" customWidth="1"/>
+    <col min="5900" max="5900" width="20.44140625" style="9" customWidth="1"/>
+    <col min="5901" max="6144" width="9.109375" style="9"/>
+    <col min="6145" max="6145" width="10.44140625" style="9" customWidth="1"/>
+    <col min="6146" max="6146" width="20.6640625" style="9" customWidth="1"/>
+    <col min="6147" max="6147" width="14.5546875" style="9" customWidth="1"/>
+    <col min="6148" max="6148" width="14.33203125" style="9" customWidth="1"/>
+    <col min="6149" max="6149" width="12.44140625" style="9" customWidth="1"/>
+    <col min="6150" max="6150" width="17.5546875" style="9" customWidth="1"/>
+    <col min="6151" max="6151" width="27.44140625" style="9" customWidth="1"/>
+    <col min="6152" max="6152" width="24.109375" style="9" customWidth="1"/>
+    <col min="6153" max="6153" width="13.5546875" style="9" customWidth="1"/>
+    <col min="6154" max="6154" width="23.44140625" style="9" customWidth="1"/>
+    <col min="6155" max="6155" width="21.109375" style="9" customWidth="1"/>
+    <col min="6156" max="6156" width="20.44140625" style="9" customWidth="1"/>
+    <col min="6157" max="6400" width="9.109375" style="9"/>
+    <col min="6401" max="6401" width="10.44140625" style="9" customWidth="1"/>
+    <col min="6402" max="6402" width="20.6640625" style="9" customWidth="1"/>
+    <col min="6403" max="6403" width="14.5546875" style="9" customWidth="1"/>
+    <col min="6404" max="6404" width="14.33203125" style="9" customWidth="1"/>
+    <col min="6405" max="6405" width="12.44140625" style="9" customWidth="1"/>
+    <col min="6406" max="6406" width="17.5546875" style="9" customWidth="1"/>
+    <col min="6407" max="6407" width="27.44140625" style="9" customWidth="1"/>
+    <col min="6408" max="6408" width="24.109375" style="9" customWidth="1"/>
+    <col min="6409" max="6409" width="13.5546875" style="9" customWidth="1"/>
+    <col min="6410" max="6410" width="23.44140625" style="9" customWidth="1"/>
+    <col min="6411" max="6411" width="21.109375" style="9" customWidth="1"/>
+    <col min="6412" max="6412" width="20.44140625" style="9" customWidth="1"/>
+    <col min="6413" max="6656" width="9.109375" style="9"/>
+    <col min="6657" max="6657" width="10.44140625" style="9" customWidth="1"/>
+    <col min="6658" max="6658" width="20.6640625" style="9" customWidth="1"/>
+    <col min="6659" max="6659" width="14.5546875" style="9" customWidth="1"/>
+    <col min="6660" max="6660" width="14.33203125" style="9" customWidth="1"/>
+    <col min="6661" max="6661" width="12.44140625" style="9" customWidth="1"/>
+    <col min="6662" max="6662" width="17.5546875" style="9" customWidth="1"/>
+    <col min="6663" max="6663" width="27.44140625" style="9" customWidth="1"/>
+    <col min="6664" max="6664" width="24.109375" style="9" customWidth="1"/>
+    <col min="6665" max="6665" width="13.5546875" style="9" customWidth="1"/>
+    <col min="6666" max="6666" width="23.44140625" style="9" customWidth="1"/>
+    <col min="6667" max="6667" width="21.109375" style="9" customWidth="1"/>
+    <col min="6668" max="6668" width="20.44140625" style="9" customWidth="1"/>
+    <col min="6669" max="6912" width="9.109375" style="9"/>
+    <col min="6913" max="6913" width="10.44140625" style="9" customWidth="1"/>
+    <col min="6914" max="6914" width="20.6640625" style="9" customWidth="1"/>
+    <col min="6915" max="6915" width="14.5546875" style="9" customWidth="1"/>
+    <col min="6916" max="6916" width="14.33203125" style="9" customWidth="1"/>
+    <col min="6917" max="6917" width="12.44140625" style="9" customWidth="1"/>
+    <col min="6918" max="6918" width="17.5546875" style="9" customWidth="1"/>
+    <col min="6919" max="6919" width="27.44140625" style="9" customWidth="1"/>
+    <col min="6920" max="6920" width="24.109375" style="9" customWidth="1"/>
+    <col min="6921" max="6921" width="13.5546875" style="9" customWidth="1"/>
+    <col min="6922" max="6922" width="23.44140625" style="9" customWidth="1"/>
+    <col min="6923" max="6923" width="21.109375" style="9" customWidth="1"/>
+    <col min="6924" max="6924" width="20.44140625" style="9" customWidth="1"/>
+    <col min="6925" max="7168" width="9.109375" style="9"/>
+    <col min="7169" max="7169" width="10.44140625" style="9" customWidth="1"/>
+    <col min="7170" max="7170" width="20.6640625" style="9" customWidth="1"/>
+    <col min="7171" max="7171" width="14.5546875" style="9" customWidth="1"/>
+    <col min="7172" max="7172" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7173" max="7173" width="12.44140625" style="9" customWidth="1"/>
+    <col min="7174" max="7174" width="17.5546875" style="9" customWidth="1"/>
+    <col min="7175" max="7175" width="27.44140625" style="9" customWidth="1"/>
+    <col min="7176" max="7176" width="24.109375" style="9" customWidth="1"/>
+    <col min="7177" max="7177" width="13.5546875" style="9" customWidth="1"/>
+    <col min="7178" max="7178" width="23.44140625" style="9" customWidth="1"/>
+    <col min="7179" max="7179" width="21.109375" style="9" customWidth="1"/>
+    <col min="7180" max="7180" width="20.44140625" style="9" customWidth="1"/>
+    <col min="7181" max="7424" width="9.109375" style="9"/>
+    <col min="7425" max="7425" width="10.44140625" style="9" customWidth="1"/>
+    <col min="7426" max="7426" width="20.6640625" style="9" customWidth="1"/>
+    <col min="7427" max="7427" width="14.5546875" style="9" customWidth="1"/>
+    <col min="7428" max="7428" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7429" max="7429" width="12.44140625" style="9" customWidth="1"/>
+    <col min="7430" max="7430" width="17.5546875" style="9" customWidth="1"/>
+    <col min="7431" max="7431" width="27.44140625" style="9" customWidth="1"/>
+    <col min="7432" max="7432" width="24.109375" style="9" customWidth="1"/>
+    <col min="7433" max="7433" width="13.5546875" style="9" customWidth="1"/>
+    <col min="7434" max="7434" width="23.44140625" style="9" customWidth="1"/>
+    <col min="7435" max="7435" width="21.109375" style="9" customWidth="1"/>
+    <col min="7436" max="7436" width="20.44140625" style="9" customWidth="1"/>
+    <col min="7437" max="7680" width="9.109375" style="9"/>
+    <col min="7681" max="7681" width="10.44140625" style="9" customWidth="1"/>
+    <col min="7682" max="7682" width="20.6640625" style="9" customWidth="1"/>
+    <col min="7683" max="7683" width="14.5546875" style="9" customWidth="1"/>
+    <col min="7684" max="7684" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7685" max="7685" width="12.44140625" style="9" customWidth="1"/>
+    <col min="7686" max="7686" width="17.5546875" style="9" customWidth="1"/>
+    <col min="7687" max="7687" width="27.44140625" style="9" customWidth="1"/>
+    <col min="7688" max="7688" width="24.109375" style="9" customWidth="1"/>
+    <col min="7689" max="7689" width="13.5546875" style="9" customWidth="1"/>
+    <col min="7690" max="7690" width="23.44140625" style="9" customWidth="1"/>
+    <col min="7691" max="7691" width="21.109375" style="9" customWidth="1"/>
+    <col min="7692" max="7692" width="20.44140625" style="9" customWidth="1"/>
+    <col min="7693" max="7936" width="9.109375" style="9"/>
+    <col min="7937" max="7937" width="10.44140625" style="9" customWidth="1"/>
+    <col min="7938" max="7938" width="20.6640625" style="9" customWidth="1"/>
+    <col min="7939" max="7939" width="14.5546875" style="9" customWidth="1"/>
+    <col min="7940" max="7940" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7941" max="7941" width="12.44140625" style="9" customWidth="1"/>
+    <col min="7942" max="7942" width="17.5546875" style="9" customWidth="1"/>
+    <col min="7943" max="7943" width="27.44140625" style="9" customWidth="1"/>
+    <col min="7944" max="7944" width="24.109375" style="9" customWidth="1"/>
+    <col min="7945" max="7945" width="13.5546875" style="9" customWidth="1"/>
+    <col min="7946" max="7946" width="23.44140625" style="9" customWidth="1"/>
+    <col min="7947" max="7947" width="21.109375" style="9" customWidth="1"/>
+    <col min="7948" max="7948" width="20.44140625" style="9" customWidth="1"/>
+    <col min="7949" max="8192" width="9.109375" style="9"/>
+    <col min="8193" max="8193" width="10.44140625" style="9" customWidth="1"/>
+    <col min="8194" max="8194" width="20.6640625" style="9" customWidth="1"/>
+    <col min="8195" max="8195" width="14.5546875" style="9" customWidth="1"/>
+    <col min="8196" max="8196" width="14.33203125" style="9" customWidth="1"/>
+    <col min="8197" max="8197" width="12.44140625" style="9" customWidth="1"/>
+    <col min="8198" max="8198" width="17.5546875" style="9" customWidth="1"/>
+    <col min="8199" max="8199" width="27.44140625" style="9" customWidth="1"/>
+    <col min="8200" max="8200" width="24.109375" style="9" customWidth="1"/>
+    <col min="8201" max="8201" width="13.5546875" style="9" customWidth="1"/>
+    <col min="8202" max="8202" width="23.44140625" style="9" customWidth="1"/>
+    <col min="8203" max="8203" width="21.109375" style="9" customWidth="1"/>
+    <col min="8204" max="8204" width="20.44140625" style="9" customWidth="1"/>
+    <col min="8205" max="8448" width="9.109375" style="9"/>
+    <col min="8449" max="8449" width="10.44140625" style="9" customWidth="1"/>
+    <col min="8450" max="8450" width="20.6640625" style="9" customWidth="1"/>
+    <col min="8451" max="8451" width="14.5546875" style="9" customWidth="1"/>
+    <col min="8452" max="8452" width="14.33203125" style="9" customWidth="1"/>
+    <col min="8453" max="8453" width="12.44140625" style="9" customWidth="1"/>
+    <col min="8454" max="8454" width="17.5546875" style="9" customWidth="1"/>
+    <col min="8455" max="8455" width="27.44140625" style="9" customWidth="1"/>
+    <col min="8456" max="8456" width="24.109375" style="9" customWidth="1"/>
+    <col min="8457" max="8457" width="13.5546875" style="9" customWidth="1"/>
+    <col min="8458" max="8458" width="23.44140625" style="9" customWidth="1"/>
+    <col min="8459" max="8459" width="21.109375" style="9" customWidth="1"/>
+    <col min="8460" max="8460" width="20.44140625" style="9" customWidth="1"/>
+    <col min="8461" max="8704" width="9.109375" style="9"/>
+    <col min="8705" max="8705" width="10.44140625" style="9" customWidth="1"/>
+    <col min="8706" max="8706" width="20.6640625" style="9" customWidth="1"/>
+    <col min="8707" max="8707" width="14.5546875" style="9" customWidth="1"/>
+    <col min="8708" max="8708" width="14.33203125" style="9" customWidth="1"/>
+    <col min="8709" max="8709" width="12.44140625" style="9" customWidth="1"/>
+    <col min="8710" max="8710" width="17.5546875" style="9" customWidth="1"/>
+    <col min="8711" max="8711" width="27.44140625" style="9" customWidth="1"/>
+    <col min="8712" max="8712" width="24.109375" style="9" customWidth="1"/>
+    <col min="8713" max="8713" width="13.5546875" style="9" customWidth="1"/>
+    <col min="8714" max="8714" width="23.44140625" style="9" customWidth="1"/>
+    <col min="8715" max="8715" width="21.109375" style="9" customWidth="1"/>
+    <col min="8716" max="8716" width="20.44140625" style="9" customWidth="1"/>
+    <col min="8717" max="8960" width="9.109375" style="9"/>
+    <col min="8961" max="8961" width="10.44140625" style="9" customWidth="1"/>
+    <col min="8962" max="8962" width="20.6640625" style="9" customWidth="1"/>
+    <col min="8963" max="8963" width="14.5546875" style="9" customWidth="1"/>
+    <col min="8964" max="8964" width="14.33203125" style="9" customWidth="1"/>
+    <col min="8965" max="8965" width="12.44140625" style="9" customWidth="1"/>
+    <col min="8966" max="8966" width="17.5546875" style="9" customWidth="1"/>
+    <col min="8967" max="8967" width="27.44140625" style="9" customWidth="1"/>
+    <col min="8968" max="8968" width="24.109375" style="9" customWidth="1"/>
+    <col min="8969" max="8969" width="13.5546875" style="9" customWidth="1"/>
+    <col min="8970" max="8970" width="23.44140625" style="9" customWidth="1"/>
+    <col min="8971" max="8971" width="21.109375" style="9" customWidth="1"/>
+    <col min="8972" max="8972" width="20.44140625" style="9" customWidth="1"/>
+    <col min="8973" max="9216" width="9.109375" style="9"/>
+    <col min="9217" max="9217" width="10.44140625" style="9" customWidth="1"/>
+    <col min="9218" max="9218" width="20.6640625" style="9" customWidth="1"/>
+    <col min="9219" max="9219" width="14.5546875" style="9" customWidth="1"/>
+    <col min="9220" max="9220" width="14.33203125" style="9" customWidth="1"/>
+    <col min="9221" max="9221" width="12.44140625" style="9" customWidth="1"/>
+    <col min="9222" max="9222" width="17.5546875" style="9" customWidth="1"/>
+    <col min="9223" max="9223" width="27.44140625" style="9" customWidth="1"/>
+    <col min="9224" max="9224" width="24.109375" style="9" customWidth="1"/>
+    <col min="9225" max="9225" width="13.5546875" style="9" customWidth="1"/>
+    <col min="9226" max="9226" width="23.44140625" style="9" customWidth="1"/>
+    <col min="9227" max="9227" width="21.109375" style="9" customWidth="1"/>
+    <col min="9228" max="9228" width="20.44140625" style="9" customWidth="1"/>
+    <col min="9229" max="9472" width="9.109375" style="9"/>
+    <col min="9473" max="9473" width="10.44140625" style="9" customWidth="1"/>
+    <col min="9474" max="9474" width="20.6640625" style="9" customWidth="1"/>
+    <col min="9475" max="9475" width="14.5546875" style="9" customWidth="1"/>
+    <col min="9476" max="9476" width="14.33203125" style="9" customWidth="1"/>
+    <col min="9477" max="9477" width="12.44140625" style="9" customWidth="1"/>
+    <col min="9478" max="9478" width="17.5546875" style="9" customWidth="1"/>
+    <col min="9479" max="9479" width="27.44140625" style="9" customWidth="1"/>
+    <col min="9480" max="9480" width="24.109375" style="9" customWidth="1"/>
+    <col min="9481" max="9481" width="13.5546875" style="9" customWidth="1"/>
+    <col min="9482" max="9482" width="23.44140625" style="9" customWidth="1"/>
+    <col min="9483" max="9483" width="21.109375" style="9" customWidth="1"/>
+    <col min="9484" max="9484" width="20.44140625" style="9" customWidth="1"/>
+    <col min="9485" max="9728" width="9.109375" style="9"/>
+    <col min="9729" max="9729" width="10.44140625" style="9" customWidth="1"/>
+    <col min="9730" max="9730" width="20.6640625" style="9" customWidth="1"/>
+    <col min="9731" max="9731" width="14.5546875" style="9" customWidth="1"/>
+    <col min="9732" max="9732" width="14.33203125" style="9" customWidth="1"/>
+    <col min="9733" max="9733" width="12.44140625" style="9" customWidth="1"/>
+    <col min="9734" max="9734" width="17.5546875" style="9" customWidth="1"/>
+    <col min="9735" max="9735" width="27.44140625" style="9" customWidth="1"/>
+    <col min="9736" max="9736" width="24.109375" style="9" customWidth="1"/>
+    <col min="9737" max="9737" width="13.5546875" style="9" customWidth="1"/>
+    <col min="9738" max="9738" width="23.44140625" style="9" customWidth="1"/>
+    <col min="9739" max="9739" width="21.109375" style="9" customWidth="1"/>
+    <col min="9740" max="9740" width="20.44140625" style="9" customWidth="1"/>
+    <col min="9741" max="9984" width="9.109375" style="9"/>
+    <col min="9985" max="9985" width="10.44140625" style="9" customWidth="1"/>
+    <col min="9986" max="9986" width="20.6640625" style="9" customWidth="1"/>
+    <col min="9987" max="9987" width="14.5546875" style="9" customWidth="1"/>
+    <col min="9988" max="9988" width="14.33203125" style="9" customWidth="1"/>
+    <col min="9989" max="9989" width="12.44140625" style="9" customWidth="1"/>
+    <col min="9990" max="9990" width="17.5546875" style="9" customWidth="1"/>
+    <col min="9991" max="9991" width="27.44140625" style="9" customWidth="1"/>
+    <col min="9992" max="9992" width="24.109375" style="9" customWidth="1"/>
+    <col min="9993" max="9993" width="13.5546875" style="9" customWidth="1"/>
+    <col min="9994" max="9994" width="23.44140625" style="9" customWidth="1"/>
+    <col min="9995" max="9995" width="21.109375" style="9" customWidth="1"/>
+    <col min="9996" max="9996" width="20.44140625" style="9" customWidth="1"/>
+    <col min="9997" max="10240" width="9.109375" style="9"/>
+    <col min="10241" max="10241" width="10.44140625" style="9" customWidth="1"/>
+    <col min="10242" max="10242" width="20.6640625" style="9" customWidth="1"/>
+    <col min="10243" max="10243" width="14.5546875" style="9" customWidth="1"/>
+    <col min="10244" max="10244" width="14.33203125" style="9" customWidth="1"/>
+    <col min="10245" max="10245" width="12.44140625" style="9" customWidth="1"/>
+    <col min="10246" max="10246" width="17.5546875" style="9" customWidth="1"/>
+    <col min="10247" max="10247" width="27.44140625" style="9" customWidth="1"/>
+    <col min="10248" max="10248" width="24.109375" style="9" customWidth="1"/>
+    <col min="10249" max="10249" width="13.5546875" style="9" customWidth="1"/>
+    <col min="10250" max="10250" width="23.44140625" style="9" customWidth="1"/>
+    <col min="10251" max="10251" width="21.109375" style="9" customWidth="1"/>
+    <col min="10252" max="10252" width="20.44140625" style="9" customWidth="1"/>
+    <col min="10253" max="10496" width="9.109375" style="9"/>
+    <col min="10497" max="10497" width="10.44140625" style="9" customWidth="1"/>
+    <col min="10498" max="10498" width="20.6640625" style="9" customWidth="1"/>
+    <col min="10499" max="10499" width="14.5546875" style="9" customWidth="1"/>
+    <col min="10500" max="10500" width="14.33203125" style="9" customWidth="1"/>
+    <col min="10501" max="10501" width="12.44140625" style="9" customWidth="1"/>
+    <col min="10502" max="10502" width="17.5546875" style="9" customWidth="1"/>
+    <col min="10503" max="10503" width="27.44140625" style="9" customWidth="1"/>
+    <col min="10504" max="10504" width="24.109375" style="9" customWidth="1"/>
+    <col min="10505" max="10505" width="13.5546875" style="9" customWidth="1"/>
+    <col min="10506" max="10506" width="23.44140625" style="9" customWidth="1"/>
+    <col min="10507" max="10507" width="21.109375" style="9" customWidth="1"/>
+    <col min="10508" max="10508" width="20.44140625" style="9" customWidth="1"/>
+    <col min="10509" max="10752" width="9.109375" style="9"/>
+    <col min="10753" max="10753" width="10.44140625" style="9" customWidth="1"/>
+    <col min="10754" max="10754" width="20.6640625" style="9" customWidth="1"/>
+    <col min="10755" max="10755" width="14.5546875" style="9" customWidth="1"/>
+    <col min="10756" max="10756" width="14.33203125" style="9" customWidth="1"/>
+    <col min="10757" max="10757" width="12.44140625" style="9" customWidth="1"/>
+    <col min="10758" max="10758" width="17.5546875" style="9" customWidth="1"/>
+    <col min="10759" max="10759" width="27.44140625" style="9" customWidth="1"/>
+    <col min="10760" max="10760" width="24.109375" style="9" customWidth="1"/>
+    <col min="10761" max="10761" width="13.5546875" style="9" customWidth="1"/>
+    <col min="10762" max="10762" width="23.44140625" style="9" customWidth="1"/>
+    <col min="10763" max="10763" width="21.109375" style="9" customWidth="1"/>
+    <col min="10764" max="10764" width="20.44140625" style="9" customWidth="1"/>
+    <col min="10765" max="11008" width="9.109375" style="9"/>
+    <col min="11009" max="11009" width="10.44140625" style="9" customWidth="1"/>
+    <col min="11010" max="11010" width="20.6640625" style="9" customWidth="1"/>
+    <col min="11011" max="11011" width="14.5546875" style="9" customWidth="1"/>
+    <col min="11012" max="11012" width="14.33203125" style="9" customWidth="1"/>
+    <col min="11013" max="11013" width="12.44140625" style="9" customWidth="1"/>
+    <col min="11014" max="11014" width="17.5546875" style="9" customWidth="1"/>
+    <col min="11015" max="11015" width="27.44140625" style="9" customWidth="1"/>
+    <col min="11016" max="11016" width="24.109375" style="9" customWidth="1"/>
+    <col min="11017" max="11017" width="13.5546875" style="9" customWidth="1"/>
+    <col min="11018" max="11018" width="23.44140625" style="9" customWidth="1"/>
+    <col min="11019" max="11019" width="21.109375" style="9" customWidth="1"/>
+    <col min="11020" max="11020" width="20.44140625" style="9" customWidth="1"/>
+    <col min="11021" max="11264" width="9.109375" style="9"/>
+    <col min="11265" max="11265" width="10.44140625" style="9" customWidth="1"/>
+    <col min="11266" max="11266" width="20.6640625" style="9" customWidth="1"/>
+    <col min="11267" max="11267" width="14.5546875" style="9" customWidth="1"/>
+    <col min="11268" max="11268" width="14.33203125" style="9" customWidth="1"/>
+    <col min="11269" max="11269" width="12.44140625" style="9" customWidth="1"/>
+    <col min="11270" max="11270" width="17.5546875" style="9" customWidth="1"/>
+    <col min="11271" max="11271" width="27.44140625" style="9" customWidth="1"/>
+    <col min="11272" max="11272" width="24.109375" style="9" customWidth="1"/>
+    <col min="11273" max="11273" width="13.5546875" style="9" customWidth="1"/>
+    <col min="11274" max="11274" width="23.44140625" style="9" customWidth="1"/>
+    <col min="11275" max="11275" width="21.109375" style="9" customWidth="1"/>
+    <col min="11276" max="11276" width="20.44140625" style="9" customWidth="1"/>
+    <col min="11277" max="11520" width="9.109375" style="9"/>
+    <col min="11521" max="11521" width="10.44140625" style="9" customWidth="1"/>
+    <col min="11522" max="11522" width="20.6640625" style="9" customWidth="1"/>
+    <col min="11523" max="11523" width="14.5546875" style="9" customWidth="1"/>
+    <col min="11524" max="11524" width="14.33203125" style="9" customWidth="1"/>
+    <col min="11525" max="11525" width="12.44140625" style="9" customWidth="1"/>
+    <col min="11526" max="11526" width="17.5546875" style="9" customWidth="1"/>
+    <col min="11527" max="11527" width="27.44140625" style="9" customWidth="1"/>
+    <col min="11528" max="11528" width="24.109375" style="9" customWidth="1"/>
+    <col min="11529" max="11529" width="13.5546875" style="9" customWidth="1"/>
+    <col min="11530" max="11530" width="23.44140625" style="9" customWidth="1"/>
+    <col min="11531" max="11531" width="21.109375" style="9" customWidth="1"/>
+    <col min="11532" max="11532" width="20.44140625" style="9" customWidth="1"/>
+    <col min="11533" max="11776" width="9.109375" style="9"/>
+    <col min="11777" max="11777" width="10.44140625" style="9" customWidth="1"/>
+    <col min="11778" max="11778" width="20.6640625" style="9" customWidth="1"/>
+    <col min="11779" max="11779" width="14.5546875" style="9" customWidth="1"/>
+    <col min="11780" max="11780" width="14.33203125" style="9" customWidth="1"/>
+    <col min="11781" max="11781" width="12.44140625" style="9" customWidth="1"/>
+    <col min="11782" max="11782" width="17.5546875" style="9" customWidth="1"/>
+    <col min="11783" max="11783" width="27.44140625" style="9" customWidth="1"/>
+    <col min="11784" max="11784" width="24.109375" style="9" customWidth="1"/>
+    <col min="11785" max="11785" width="13.5546875" style="9" customWidth="1"/>
+    <col min="11786" max="11786" width="23.44140625" style="9" customWidth="1"/>
+    <col min="11787" max="11787" width="21.109375" style="9" customWidth="1"/>
+    <col min="11788" max="11788" width="20.44140625" style="9" customWidth="1"/>
+    <col min="11789" max="12032" width="9.109375" style="9"/>
+    <col min="12033" max="12033" width="10.44140625" style="9" customWidth="1"/>
+    <col min="12034" max="12034" width="20.6640625" style="9" customWidth="1"/>
+    <col min="12035" max="12035" width="14.5546875" style="9" customWidth="1"/>
+    <col min="12036" max="12036" width="14.33203125" style="9" customWidth="1"/>
+    <col min="12037" max="12037" width="12.44140625" style="9" customWidth="1"/>
+    <col min="12038" max="12038" width="17.5546875" style="9" customWidth="1"/>
+    <col min="12039" max="12039" width="27.44140625" style="9" customWidth="1"/>
+    <col min="12040" max="12040" width="24.109375" style="9" customWidth="1"/>
+    <col min="12041" max="12041" width="13.5546875" style="9" customWidth="1"/>
+    <col min="12042" max="12042" width="23.44140625" style="9" customWidth="1"/>
+    <col min="12043" max="12043" width="21.109375" style="9" customWidth="1"/>
+    <col min="12044" max="12044" width="20.44140625" style="9" customWidth="1"/>
+    <col min="12045" max="12288" width="9.109375" style="9"/>
+    <col min="12289" max="12289" width="10.44140625" style="9" customWidth="1"/>
+    <col min="12290" max="12290" width="20.6640625" style="9" customWidth="1"/>
+    <col min="12291" max="12291" width="14.5546875" style="9" customWidth="1"/>
+    <col min="12292" max="12292" width="14.33203125" style="9" customWidth="1"/>
+    <col min="12293" max="12293" width="12.44140625" style="9" customWidth="1"/>
+    <col min="12294" max="12294" width="17.5546875" style="9" customWidth="1"/>
+    <col min="12295" max="12295" width="27.44140625" style="9" customWidth="1"/>
+    <col min="12296" max="12296" width="24.109375" style="9" customWidth="1"/>
+    <col min="12297" max="12297" width="13.5546875" style="9" customWidth="1"/>
+    <col min="12298" max="12298" width="23.44140625" style="9" customWidth="1"/>
+    <col min="12299" max="12299" width="21.109375" style="9" customWidth="1"/>
+    <col min="12300" max="12300" width="20.44140625" style="9" customWidth="1"/>
+    <col min="12301" max="12544" width="9.109375" style="9"/>
+    <col min="12545" max="12545" width="10.44140625" style="9" customWidth="1"/>
+    <col min="12546" max="12546" width="20.6640625" style="9" customWidth="1"/>
+    <col min="12547" max="12547" width="14.5546875" style="9" customWidth="1"/>
+    <col min="12548" max="12548" width="14.33203125" style="9" customWidth="1"/>
+    <col min="12549" max="12549" width="12.44140625" style="9" customWidth="1"/>
+    <col min="12550" max="12550" width="17.5546875" style="9" customWidth="1"/>
+    <col min="12551" max="12551" width="27.44140625" style="9" customWidth="1"/>
+    <col min="12552" max="12552" width="24.109375" style="9" customWidth="1"/>
+    <col min="12553" max="12553" width="13.5546875" style="9" customWidth="1"/>
+    <col min="12554" max="12554" width="23.44140625" style="9" customWidth="1"/>
+    <col min="12555" max="12555" width="21.109375" style="9" customWidth="1"/>
+    <col min="12556" max="12556" width="20.44140625" style="9" customWidth="1"/>
+    <col min="12557" max="12800" width="9.109375" style="9"/>
+    <col min="12801" max="12801" width="10.44140625" style="9" customWidth="1"/>
+    <col min="12802" max="12802" width="20.6640625" style="9" customWidth="1"/>
+    <col min="12803" max="12803" width="14.5546875" style="9" customWidth="1"/>
+    <col min="12804" max="12804" width="14.33203125" style="9" customWidth="1"/>
+    <col min="12805" max="12805" width="12.44140625" style="9" customWidth="1"/>
+    <col min="12806" max="12806" width="17.5546875" style="9" customWidth="1"/>
+    <col min="12807" max="12807" width="27.44140625" style="9" customWidth="1"/>
+    <col min="12808" max="12808" width="24.109375" style="9" customWidth="1"/>
+    <col min="12809" max="12809" width="13.5546875" style="9" customWidth="1"/>
+    <col min="12810" max="12810" width="23.44140625" style="9" customWidth="1"/>
+    <col min="12811" max="12811" width="21.109375" style="9" customWidth="1"/>
+    <col min="12812" max="12812" width="20.44140625" style="9" customWidth="1"/>
+    <col min="12813" max="13056" width="9.109375" style="9"/>
+    <col min="13057" max="13057" width="10.44140625" style="9" customWidth="1"/>
+    <col min="13058" max="13058" width="20.6640625" style="9" customWidth="1"/>
+    <col min="13059" max="13059" width="14.5546875" style="9" customWidth="1"/>
+    <col min="13060" max="13060" width="14.33203125" style="9" customWidth="1"/>
+    <col min="13061" max="13061" width="12.44140625" style="9" customWidth="1"/>
+    <col min="13062" max="13062" width="17.5546875" style="9" customWidth="1"/>
+    <col min="13063" max="13063" width="27.44140625" style="9" customWidth="1"/>
+    <col min="13064" max="13064" width="24.109375" style="9" customWidth="1"/>
+    <col min="13065" max="13065" width="13.5546875" style="9" customWidth="1"/>
+    <col min="13066" max="13066" width="23.44140625" style="9" customWidth="1"/>
+    <col min="13067" max="13067" width="21.109375" style="9" customWidth="1"/>
+    <col min="13068" max="13068" width="20.44140625" style="9" customWidth="1"/>
+    <col min="13069" max="13312" width="9.109375" style="9"/>
+    <col min="13313" max="13313" width="10.44140625" style="9" customWidth="1"/>
+    <col min="13314" max="13314" width="20.6640625" style="9" customWidth="1"/>
+    <col min="13315" max="13315" width="14.5546875" style="9" customWidth="1"/>
+    <col min="13316" max="13316" width="14.33203125" style="9" customWidth="1"/>
+    <col min="13317" max="13317" width="12.44140625" style="9" customWidth="1"/>
+    <col min="13318" max="13318" width="17.5546875" style="9" customWidth="1"/>
+    <col min="13319" max="13319" width="27.44140625" style="9" customWidth="1"/>
+    <col min="13320" max="13320" width="24.109375" style="9" customWidth="1"/>
+    <col min="13321" max="13321" width="13.5546875" style="9" customWidth="1"/>
+    <col min="13322" max="13322" width="23.44140625" style="9" customWidth="1"/>
+    <col min="13323" max="13323" width="21.109375" style="9" customWidth="1"/>
+    <col min="13324" max="13324" width="20.44140625" style="9" customWidth="1"/>
+    <col min="13325" max="13568" width="9.109375" style="9"/>
+    <col min="13569" max="13569" width="10.44140625" style="9" customWidth="1"/>
+    <col min="13570" max="13570" width="20.6640625" style="9" customWidth="1"/>
+    <col min="13571" max="13571" width="14.5546875" style="9" customWidth="1"/>
+    <col min="13572" max="13572" width="14.33203125" style="9" customWidth="1"/>
+    <col min="13573" max="13573" width="12.44140625" style="9" customWidth="1"/>
+    <col min="13574" max="13574" width="17.5546875" style="9" customWidth="1"/>
+    <col min="13575" max="13575" width="27.44140625" style="9" customWidth="1"/>
+    <col min="13576" max="13576" width="24.109375" style="9" customWidth="1"/>
+    <col min="13577" max="13577" width="13.5546875" style="9" customWidth="1"/>
+    <col min="13578" max="13578" width="23.44140625" style="9" customWidth="1"/>
+    <col min="13579" max="13579" width="21.109375" style="9" customWidth="1"/>
+    <col min="13580" max="13580" width="20.44140625" style="9" customWidth="1"/>
+    <col min="13581" max="13824" width="9.109375" style="9"/>
+    <col min="13825" max="13825" width="10.44140625" style="9" customWidth="1"/>
+    <col min="13826" max="13826" width="20.6640625" style="9" customWidth="1"/>
+    <col min="13827" max="13827" width="14.5546875" style="9" customWidth="1"/>
+    <col min="13828" max="13828" width="14.33203125" style="9" customWidth="1"/>
+    <col min="13829" max="13829" width="12.44140625" style="9" customWidth="1"/>
+    <col min="13830" max="13830" width="17.5546875" style="9" customWidth="1"/>
+    <col min="13831" max="13831" width="27.44140625" style="9" customWidth="1"/>
+    <col min="13832" max="13832" width="24.109375" style="9" customWidth="1"/>
+    <col min="13833" max="13833" width="13.5546875" style="9" customWidth="1"/>
+    <col min="13834" max="13834" width="23.44140625" style="9" customWidth="1"/>
+    <col min="13835" max="13835" width="21.109375" style="9" customWidth="1"/>
+    <col min="13836" max="13836" width="20.44140625" style="9" customWidth="1"/>
+    <col min="13837" max="14080" width="9.109375" style="9"/>
+    <col min="14081" max="14081" width="10.44140625" style="9" customWidth="1"/>
+    <col min="14082" max="14082" width="20.6640625" style="9" customWidth="1"/>
+    <col min="14083" max="14083" width="14.5546875" style="9" customWidth="1"/>
+    <col min="14084" max="14084" width="14.33203125" style="9" customWidth="1"/>
+    <col min="14085" max="14085" width="12.44140625" style="9" customWidth="1"/>
+    <col min="14086" max="14086" width="17.5546875" style="9" customWidth="1"/>
+    <col min="14087" max="14087" width="27.44140625" style="9" customWidth="1"/>
+    <col min="14088" max="14088" width="24.109375" style="9" customWidth="1"/>
+    <col min="14089" max="14089" width="13.5546875" style="9" customWidth="1"/>
+    <col min="14090" max="14090" width="23.44140625" style="9" customWidth="1"/>
+    <col min="14091" max="14091" width="21.109375" style="9" customWidth="1"/>
+    <col min="14092" max="14092" width="20.44140625" style="9" customWidth="1"/>
+    <col min="14093" max="14336" width="9.109375" style="9"/>
+    <col min="14337" max="14337" width="10.44140625" style="9" customWidth="1"/>
+    <col min="14338" max="14338" width="20.6640625" style="9" customWidth="1"/>
+    <col min="14339" max="14339" width="14.5546875" style="9" customWidth="1"/>
+    <col min="14340" max="14340" width="14.33203125" style="9" customWidth="1"/>
+    <col min="14341" max="14341" width="12.44140625" style="9" customWidth="1"/>
+    <col min="14342" max="14342" width="17.5546875" style="9" customWidth="1"/>
+    <col min="14343" max="14343" width="27.44140625" style="9" customWidth="1"/>
+    <col min="14344" max="14344" width="24.109375" style="9" customWidth="1"/>
+    <col min="14345" max="14345" width="13.5546875" style="9" customWidth="1"/>
+    <col min="14346" max="14346" width="23.44140625" style="9" customWidth="1"/>
+    <col min="14347" max="14347" width="21.109375" style="9" customWidth="1"/>
+    <col min="14348" max="14348" width="20.44140625" style="9" customWidth="1"/>
+    <col min="14349" max="14592" width="9.109375" style="9"/>
+    <col min="14593" max="14593" width="10.44140625" style="9" customWidth="1"/>
+    <col min="14594" max="14594" width="20.6640625" style="9" customWidth="1"/>
+    <col min="14595" max="14595" width="14.5546875" style="9" customWidth="1"/>
+    <col min="14596" max="14596" width="14.33203125" style="9" customWidth="1"/>
+    <col min="14597" max="14597" width="12.44140625" style="9" customWidth="1"/>
+    <col min="14598" max="14598" width="17.5546875" style="9" customWidth="1"/>
+    <col min="14599" max="14599" width="27.44140625" style="9" customWidth="1"/>
+    <col min="14600" max="14600" width="24.109375" style="9" customWidth="1"/>
+    <col min="14601" max="14601" width="13.5546875" style="9" customWidth="1"/>
+    <col min="14602" max="14602" width="23.44140625" style="9" customWidth="1"/>
+    <col min="14603" max="14603" width="21.109375" style="9" customWidth="1"/>
+    <col min="14604" max="14604" width="20.44140625" style="9" customWidth="1"/>
+    <col min="14605" max="14848" width="9.109375" style="9"/>
+    <col min="14849" max="14849" width="10.44140625" style="9" customWidth="1"/>
+    <col min="14850" max="14850" width="20.6640625" style="9" customWidth="1"/>
+    <col min="14851" max="14851" width="14.5546875" style="9" customWidth="1"/>
+    <col min="14852" max="14852" width="14.33203125" style="9" customWidth="1"/>
+    <col min="14853" max="14853" width="12.44140625" style="9" customWidth="1"/>
+    <col min="14854" max="14854" width="17.5546875" style="9" customWidth="1"/>
+    <col min="14855" max="14855" width="27.44140625" style="9" customWidth="1"/>
+    <col min="14856" max="14856" width="24.109375" style="9" customWidth="1"/>
+    <col min="14857" max="14857" width="13.5546875" style="9" customWidth="1"/>
+    <col min="14858" max="14858" width="23.44140625" style="9" customWidth="1"/>
+    <col min="14859" max="14859" width="21.109375" style="9" customWidth="1"/>
+    <col min="14860" max="14860" width="20.44140625" style="9" customWidth="1"/>
+    <col min="14861" max="15104" width="9.109375" style="9"/>
+    <col min="15105" max="15105" width="10.44140625" style="9" customWidth="1"/>
+    <col min="15106" max="15106" width="20.6640625" style="9" customWidth="1"/>
+    <col min="15107" max="15107" width="14.5546875" style="9" customWidth="1"/>
+    <col min="15108" max="15108" width="14.33203125" style="9" customWidth="1"/>
+    <col min="15109" max="15109" width="12.44140625" style="9" customWidth="1"/>
+    <col min="15110" max="15110" width="17.5546875" style="9" customWidth="1"/>
+    <col min="15111" max="15111" width="27.44140625" style="9" customWidth="1"/>
+    <col min="15112" max="15112" width="24.109375" style="9" customWidth="1"/>
+    <col min="15113" max="15113" width="13.5546875" style="9" customWidth="1"/>
+    <col min="15114" max="15114" width="23.44140625" style="9" customWidth="1"/>
+    <col min="15115" max="15115" width="21.109375" style="9" customWidth="1"/>
+    <col min="15116" max="15116" width="20.44140625" style="9" customWidth="1"/>
+    <col min="15117" max="15360" width="9.109375" style="9"/>
+    <col min="15361" max="15361" width="10.44140625" style="9" customWidth="1"/>
+    <col min="15362" max="15362" width="20.6640625" style="9" customWidth="1"/>
+    <col min="15363" max="15363" width="14.5546875" style="9" customWidth="1"/>
+    <col min="15364" max="15364" width="14.33203125" style="9" customWidth="1"/>
+    <col min="15365" max="15365" width="12.44140625" style="9" customWidth="1"/>
+    <col min="15366" max="15366" width="17.5546875" style="9" customWidth="1"/>
+    <col min="15367" max="15367" width="27.44140625" style="9" customWidth="1"/>
+    <col min="15368" max="15368" width="24.109375" style="9" customWidth="1"/>
+    <col min="15369" max="15369" width="13.5546875" style="9" customWidth="1"/>
+    <col min="15370" max="15370" width="23.44140625" style="9" customWidth="1"/>
+    <col min="15371" max="15371" width="21.109375" style="9" customWidth="1"/>
+    <col min="15372" max="15372" width="20.44140625" style="9" customWidth="1"/>
+    <col min="15373" max="15616" width="9.109375" style="9"/>
+    <col min="15617" max="15617" width="10.44140625" style="9" customWidth="1"/>
+    <col min="15618" max="15618" width="20.6640625" style="9" customWidth="1"/>
+    <col min="15619" max="15619" width="14.5546875" style="9" customWidth="1"/>
+    <col min="15620" max="15620" width="14.33203125" style="9" customWidth="1"/>
+    <col min="15621" max="15621" width="12.44140625" style="9" customWidth="1"/>
+    <col min="15622" max="15622" width="17.5546875" style="9" customWidth="1"/>
+    <col min="15623" max="15623" width="27.44140625" style="9" customWidth="1"/>
+    <col min="15624" max="15624" width="24.109375" style="9" customWidth="1"/>
+    <col min="15625" max="15625" width="13.5546875" style="9" customWidth="1"/>
+    <col min="15626" max="15626" width="23.44140625" style="9" customWidth="1"/>
+    <col min="15627" max="15627" width="21.109375" style="9" customWidth="1"/>
+    <col min="15628" max="15628" width="20.44140625" style="9" customWidth="1"/>
+    <col min="15629" max="15872" width="9.109375" style="9"/>
+    <col min="15873" max="15873" width="10.44140625" style="9" customWidth="1"/>
+    <col min="15874" max="15874" width="20.6640625" style="9" customWidth="1"/>
+    <col min="15875" max="15875" width="14.5546875" style="9" customWidth="1"/>
+    <col min="15876" max="15876" width="14.33203125" style="9" customWidth="1"/>
+    <col min="15877" max="15877" width="12.44140625" style="9" customWidth="1"/>
+    <col min="15878" max="15878" width="17.5546875" style="9" customWidth="1"/>
+    <col min="15879" max="15879" width="27.44140625" style="9" customWidth="1"/>
+    <col min="15880" max="15880" width="24.109375" style="9" customWidth="1"/>
+    <col min="15881" max="15881" width="13.5546875" style="9" customWidth="1"/>
+    <col min="15882" max="15882" width="23.44140625" style="9" customWidth="1"/>
+    <col min="15883" max="15883" width="21.109375" style="9" customWidth="1"/>
+    <col min="15884" max="15884" width="20.44140625" style="9" customWidth="1"/>
+    <col min="15885" max="16128" width="9.109375" style="9"/>
+    <col min="16129" max="16129" width="10.44140625" style="9" customWidth="1"/>
+    <col min="16130" max="16130" width="20.6640625" style="9" customWidth="1"/>
+    <col min="16131" max="16131" width="14.5546875" style="9" customWidth="1"/>
+    <col min="16132" max="16132" width="14.33203125" style="9" customWidth="1"/>
+    <col min="16133" max="16133" width="12.44140625" style="9" customWidth="1"/>
+    <col min="16134" max="16134" width="17.5546875" style="9" customWidth="1"/>
+    <col min="16135" max="16135" width="27.44140625" style="9" customWidth="1"/>
+    <col min="16136" max="16136" width="24.109375" style="9" customWidth="1"/>
+    <col min="16137" max="16137" width="13.5546875" style="9" customWidth="1"/>
+    <col min="16138" max="16138" width="23.44140625" style="9" customWidth="1"/>
+    <col min="16139" max="16139" width="21.109375" style="9" customWidth="1"/>
+    <col min="16140" max="16140" width="20.44140625" style="9" customWidth="1"/>
+    <col min="16141" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -6437,7 +6468,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -6475,7 +6506,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -6513,7 +6544,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -6551,7 +6582,7 @@
         <v>10.86</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>273</v>
       </c>
@@ -6569,7 +6600,7 @@
         <v>1053081208</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>275</v>
       </c>
@@ -6586,7 +6617,7 @@
         <v>1053251004</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>278</v>
       </c>
@@ -6604,7 +6635,7 @@
         <v>1053002100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>280</v>
       </c>
@@ -6621,7 +6652,7 @@
         <v>1053071202</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>281</v>
       </c>
@@ -6638,7 +6669,7 @@
         <v>1053251002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -6659,21 +6690,21 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="19.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="19.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="9"/>
+    <col min="11" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -6705,7 +6736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6737,7 +6768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6769,7 +6800,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6801,7 +6832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6833,7 +6864,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6865,7 +6896,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6897,7 +6928,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -6929,7 +6960,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -6961,7 +6992,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -6993,7 +7024,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7025,7 +7056,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7057,7 +7088,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -7089,7 +7120,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -7121,7 +7152,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -7153,7 +7184,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -7185,7 +7216,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -7217,7 +7248,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -7249,7 +7280,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -7281,7 +7312,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
@@ -7313,7 +7344,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>22</v>
       </c>
@@ -7342,7 +7373,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>23</v>
       </c>
@@ -7374,7 +7405,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>333</v>
       </c>
@@ -7391,7 +7422,7 @@
         <v>1053081204</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>281</v>
       </c>
@@ -7409,7 +7440,7 @@
         <v>1053251002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>278</v>
       </c>
@@ -7427,7 +7458,7 @@
         <v>1053002100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>338</v>
       </c>
@@ -7444,7 +7475,7 @@
         <v>1054301204</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>275</v>
       </c>
@@ -7461,7 +7492,7 @@
         <v>1053251004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>341</v>
       </c>
@@ -7478,7 +7509,7 @@
         <v>1053071204</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29" s="9" t="s">
         <v>344</v>
       </c>
@@ -7515,13 +7546,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -7532,7 +7563,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>322</v>
       </c>
@@ -7543,7 +7574,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>324</v>
       </c>
@@ -7554,7 +7585,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>326</v>
       </c>
@@ -7565,7 +7596,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>327</v>
       </c>

--- a/Current Cycling/Current Cycling Cabinet PCB Design.xlsx
+++ b/Current Cycling/Current Cycling Cabinet PCB Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Projects\Current Cycling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005085A9-D701-4FB8-B123-77651B13638C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D055355-0FAD-4FA1-AC00-DF022ED00FE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7669683-8C58-47AD-AB59-72FC40B2BAC7}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15270" xr2:uid="{F7669683-8C58-47AD-AB59-72FC40B2BAC7}"/>
   </bookViews>
   <sheets>
     <sheet name="PC to Master Comms" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="413">
   <si>
     <t>Assembly</t>
   </si>
@@ -1253,6 +1253,33 @@
   </si>
   <si>
     <t>binary set of 1s and 0s depicting which temp sensor is to be used. MSB is temp sensor 1</t>
+  </si>
+  <si>
+    <t>Fan 1 PWM</t>
+  </si>
+  <si>
+    <t>Fan 2 PWM</t>
+  </si>
+  <si>
+    <t>Fan 3 PWM</t>
+  </si>
+  <si>
+    <t>Fan 4 PWM</t>
+  </si>
+  <si>
+    <t>Fan 5 PWM</t>
+  </si>
+  <si>
+    <t>Fan 6 PWM</t>
+  </si>
+  <si>
+    <t>Fan 7 PWM</t>
+  </si>
+  <si>
+    <t>Fan 8 PWM</t>
+  </si>
+  <si>
+    <t>Percent PWM</t>
   </si>
 </sst>
 </file>
@@ -1733,40 +1760,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0917387-7D6B-4A20-A541-790136947EE9}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1777,7 +1804,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>346</v>
       </c>
@@ -1788,7 +1815,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>349</v>
       </c>
@@ -1799,7 +1826,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>385</v>
       </c>
@@ -1810,7 +1837,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>386</v>
       </c>
@@ -1821,7 +1848,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>384</v>
       </c>
@@ -1832,7 +1859,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>389</v>
       </c>
@@ -1843,7 +1870,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>396</v>
       </c>
@@ -1854,7 +1881,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>395</v>
       </c>
@@ -1865,7 +1892,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>399</v>
       </c>
@@ -1876,26 +1903,26 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1906,7 +1933,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>354</v>
       </c>
@@ -1917,7 +1944,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>355</v>
       </c>
@@ -1928,7 +1955,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>356</v>
       </c>
@@ -1939,7 +1966,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>357</v>
       </c>
@@ -1950,7 +1977,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>358</v>
       </c>
@@ -1961,7 +1988,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>359</v>
       </c>
@@ -1972,7 +1999,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>360</v>
       </c>
@@ -1983,7 +2010,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>361</v>
       </c>
@@ -1994,7 +2021,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>362</v>
       </c>
@@ -2005,7 +2032,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>363</v>
       </c>
@@ -2016,7 +2043,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>364</v>
       </c>
@@ -2027,7 +2054,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>365</v>
       </c>
@@ -2038,7 +2065,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>366</v>
       </c>
@@ -2049,7 +2076,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>367</v>
       </c>
@@ -2060,7 +2087,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>368</v>
       </c>
@@ -2071,7 +2098,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -2082,7 +2109,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>370</v>
       </c>
@@ -2093,7 +2120,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>371</v>
       </c>
@@ -2104,7 +2131,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>372</v>
       </c>
@@ -2115,7 +2142,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>373</v>
       </c>
@@ -2126,7 +2153,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>374</v>
       </c>
@@ -2137,7 +2164,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>375</v>
       </c>
@@ -2148,7 +2175,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>376</v>
       </c>
@@ -2159,7 +2186,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>377</v>
       </c>
@@ -2170,7 +2197,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>378</v>
       </c>
@@ -2178,7 +2205,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>380</v>
       </c>
@@ -2186,7 +2213,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>383</v>
       </c>
@@ -2194,12 +2221,100 @@
         <v>379</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>390</v>
       </c>
       <c r="B48" t="s">
         <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>404</v>
+      </c>
+      <c r="B49" t="s">
+        <v>352</v>
+      </c>
+      <c r="C49" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>405</v>
+      </c>
+      <c r="B50" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>406</v>
+      </c>
+      <c r="B51" t="s">
+        <v>352</v>
+      </c>
+      <c r="C51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>407</v>
+      </c>
+      <c r="B52" t="s">
+        <v>352</v>
+      </c>
+      <c r="C52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>408</v>
+      </c>
+      <c r="B53" t="s">
+        <v>352</v>
+      </c>
+      <c r="C53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>409</v>
+      </c>
+      <c r="B54" t="s">
+        <v>352</v>
+      </c>
+      <c r="C54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>410</v>
+      </c>
+      <c r="B55" t="s">
+        <v>352</v>
+      </c>
+      <c r="C55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>411</v>
+      </c>
+      <c r="B56" t="s">
+        <v>352</v>
+      </c>
+      <c r="C56" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -2215,24 +2330,24 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" customWidth="1"/>
+    <col min="1" max="1" width="70.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -2243,7 +2358,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -2254,7 +2369,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>349</v>
       </c>
@@ -2265,7 +2380,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>396</v>
       </c>
@@ -2276,7 +2391,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>395</v>
       </c>
@@ -2287,12 +2402,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -2303,7 +2418,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>354</v>
       </c>
@@ -2314,7 +2429,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>355</v>
       </c>
@@ -2325,7 +2440,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>356</v>
       </c>
@@ -2336,7 +2451,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>357</v>
       </c>
@@ -2347,7 +2462,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>358</v>
       </c>
@@ -2358,7 +2473,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>359</v>
       </c>
@@ -2369,7 +2484,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>360</v>
       </c>
@@ -2380,7 +2495,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>361</v>
       </c>
@@ -2391,7 +2506,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>362</v>
       </c>
@@ -2402,7 +2517,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>363</v>
       </c>
@@ -2413,7 +2528,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>364</v>
       </c>
@@ -2424,7 +2539,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>365</v>
       </c>
@@ -2435,7 +2550,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>366</v>
       </c>
@@ -2446,7 +2561,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>367</v>
       </c>
@@ -2457,7 +2572,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>368</v>
       </c>
@@ -2468,7 +2583,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>370</v>
       </c>
@@ -2479,7 +2594,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>371</v>
       </c>
@@ -2490,7 +2605,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>372</v>
       </c>
@@ -2501,7 +2616,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>373</v>
       </c>
@@ -2512,7 +2627,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>374</v>
       </c>
@@ -2523,7 +2638,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>375</v>
       </c>
@@ -2534,7 +2649,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>376</v>
       </c>
@@ -2545,7 +2660,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>377</v>
       </c>
@@ -2556,7 +2671,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>378</v>
       </c>
@@ -2564,7 +2679,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>380</v>
       </c>
@@ -2585,22 +2700,22 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -2608,7 +2723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -2637,7 +2752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2672,7 +2787,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2707,7 +2822,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2730,7 +2845,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2750,13 +2865,13 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="E8" s="2"/>
       <c r="J8" s="1"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2784,7 +2899,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2805,15 +2920,15 @@
         <v>548.20000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -2824,7 +2939,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2838,7 +2953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2852,7 +2967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2861,7 +2976,7 @@
         <v>851.65</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2869,10 +2984,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2881,7 +2996,7 @@
         <v>2483.65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2905,907 +3020,907 @@
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" style="9" customWidth="1"/>
-    <col min="14" max="256" width="9.109375" style="9"/>
-    <col min="257" max="257" width="10.44140625" style="9" customWidth="1"/>
-    <col min="258" max="258" width="19.88671875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14" max="256" width="9.140625" style="9"/>
+    <col min="257" max="257" width="10.42578125" style="9" customWidth="1"/>
+    <col min="258" max="258" width="19.85546875" style="9" customWidth="1"/>
     <col min="259" max="259" width="13" style="9" customWidth="1"/>
-    <col min="260" max="260" width="14.33203125" style="9" customWidth="1"/>
-    <col min="261" max="261" width="12.44140625" style="9" customWidth="1"/>
-    <col min="262" max="262" width="10.33203125" style="9" customWidth="1"/>
-    <col min="263" max="263" width="17.5546875" style="9" customWidth="1"/>
-    <col min="264" max="264" width="27.44140625" style="9" customWidth="1"/>
-    <col min="265" max="265" width="24.109375" style="9" customWidth="1"/>
-    <col min="266" max="266" width="13.5546875" style="9" customWidth="1"/>
-    <col min="267" max="267" width="23.44140625" style="9" customWidth="1"/>
-    <col min="268" max="268" width="21.109375" style="9" customWidth="1"/>
-    <col min="269" max="269" width="20.44140625" style="9" customWidth="1"/>
-    <col min="270" max="512" width="9.109375" style="9"/>
-    <col min="513" max="513" width="10.44140625" style="9" customWidth="1"/>
-    <col min="514" max="514" width="19.88671875" style="9" customWidth="1"/>
+    <col min="260" max="260" width="14.28515625" style="9" customWidth="1"/>
+    <col min="261" max="261" width="12.42578125" style="9" customWidth="1"/>
+    <col min="262" max="262" width="10.28515625" style="9" customWidth="1"/>
+    <col min="263" max="263" width="17.5703125" style="9" customWidth="1"/>
+    <col min="264" max="264" width="27.42578125" style="9" customWidth="1"/>
+    <col min="265" max="265" width="24.140625" style="9" customWidth="1"/>
+    <col min="266" max="266" width="13.5703125" style="9" customWidth="1"/>
+    <col min="267" max="267" width="23.42578125" style="9" customWidth="1"/>
+    <col min="268" max="268" width="21.140625" style="9" customWidth="1"/>
+    <col min="269" max="269" width="20.42578125" style="9" customWidth="1"/>
+    <col min="270" max="512" width="9.140625" style="9"/>
+    <col min="513" max="513" width="10.42578125" style="9" customWidth="1"/>
+    <col min="514" max="514" width="19.85546875" style="9" customWidth="1"/>
     <col min="515" max="515" width="13" style="9" customWidth="1"/>
-    <col min="516" max="516" width="14.33203125" style="9" customWidth="1"/>
-    <col min="517" max="517" width="12.44140625" style="9" customWidth="1"/>
-    <col min="518" max="518" width="10.33203125" style="9" customWidth="1"/>
-    <col min="519" max="519" width="17.5546875" style="9" customWidth="1"/>
-    <col min="520" max="520" width="27.44140625" style="9" customWidth="1"/>
-    <col min="521" max="521" width="24.109375" style="9" customWidth="1"/>
-    <col min="522" max="522" width="13.5546875" style="9" customWidth="1"/>
-    <col min="523" max="523" width="23.44140625" style="9" customWidth="1"/>
-    <col min="524" max="524" width="21.109375" style="9" customWidth="1"/>
-    <col min="525" max="525" width="20.44140625" style="9" customWidth="1"/>
-    <col min="526" max="768" width="9.109375" style="9"/>
-    <col min="769" max="769" width="10.44140625" style="9" customWidth="1"/>
-    <col min="770" max="770" width="19.88671875" style="9" customWidth="1"/>
+    <col min="516" max="516" width="14.28515625" style="9" customWidth="1"/>
+    <col min="517" max="517" width="12.42578125" style="9" customWidth="1"/>
+    <col min="518" max="518" width="10.28515625" style="9" customWidth="1"/>
+    <col min="519" max="519" width="17.5703125" style="9" customWidth="1"/>
+    <col min="520" max="520" width="27.42578125" style="9" customWidth="1"/>
+    <col min="521" max="521" width="24.140625" style="9" customWidth="1"/>
+    <col min="522" max="522" width="13.5703125" style="9" customWidth="1"/>
+    <col min="523" max="523" width="23.42578125" style="9" customWidth="1"/>
+    <col min="524" max="524" width="21.140625" style="9" customWidth="1"/>
+    <col min="525" max="525" width="20.42578125" style="9" customWidth="1"/>
+    <col min="526" max="768" width="9.140625" style="9"/>
+    <col min="769" max="769" width="10.42578125" style="9" customWidth="1"/>
+    <col min="770" max="770" width="19.85546875" style="9" customWidth="1"/>
     <col min="771" max="771" width="13" style="9" customWidth="1"/>
-    <col min="772" max="772" width="14.33203125" style="9" customWidth="1"/>
-    <col min="773" max="773" width="12.44140625" style="9" customWidth="1"/>
-    <col min="774" max="774" width="10.33203125" style="9" customWidth="1"/>
-    <col min="775" max="775" width="17.5546875" style="9" customWidth="1"/>
-    <col min="776" max="776" width="27.44140625" style="9" customWidth="1"/>
-    <col min="777" max="777" width="24.109375" style="9" customWidth="1"/>
-    <col min="778" max="778" width="13.5546875" style="9" customWidth="1"/>
-    <col min="779" max="779" width="23.44140625" style="9" customWidth="1"/>
-    <col min="780" max="780" width="21.109375" style="9" customWidth="1"/>
-    <col min="781" max="781" width="20.44140625" style="9" customWidth="1"/>
-    <col min="782" max="1024" width="9.109375" style="9"/>
-    <col min="1025" max="1025" width="10.44140625" style="9" customWidth="1"/>
-    <col min="1026" max="1026" width="19.88671875" style="9" customWidth="1"/>
+    <col min="772" max="772" width="14.28515625" style="9" customWidth="1"/>
+    <col min="773" max="773" width="12.42578125" style="9" customWidth="1"/>
+    <col min="774" max="774" width="10.28515625" style="9" customWidth="1"/>
+    <col min="775" max="775" width="17.5703125" style="9" customWidth="1"/>
+    <col min="776" max="776" width="27.42578125" style="9" customWidth="1"/>
+    <col min="777" max="777" width="24.140625" style="9" customWidth="1"/>
+    <col min="778" max="778" width="13.5703125" style="9" customWidth="1"/>
+    <col min="779" max="779" width="23.42578125" style="9" customWidth="1"/>
+    <col min="780" max="780" width="21.140625" style="9" customWidth="1"/>
+    <col min="781" max="781" width="20.42578125" style="9" customWidth="1"/>
+    <col min="782" max="1024" width="9.140625" style="9"/>
+    <col min="1025" max="1025" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1026" max="1026" width="19.85546875" style="9" customWidth="1"/>
     <col min="1027" max="1027" width="13" style="9" customWidth="1"/>
-    <col min="1028" max="1028" width="14.33203125" style="9" customWidth="1"/>
-    <col min="1029" max="1029" width="12.44140625" style="9" customWidth="1"/>
-    <col min="1030" max="1030" width="10.33203125" style="9" customWidth="1"/>
-    <col min="1031" max="1031" width="17.5546875" style="9" customWidth="1"/>
-    <col min="1032" max="1032" width="27.44140625" style="9" customWidth="1"/>
-    <col min="1033" max="1033" width="24.109375" style="9" customWidth="1"/>
-    <col min="1034" max="1034" width="13.5546875" style="9" customWidth="1"/>
-    <col min="1035" max="1035" width="23.44140625" style="9" customWidth="1"/>
-    <col min="1036" max="1036" width="21.109375" style="9" customWidth="1"/>
-    <col min="1037" max="1037" width="20.44140625" style="9" customWidth="1"/>
-    <col min="1038" max="1280" width="9.109375" style="9"/>
-    <col min="1281" max="1281" width="10.44140625" style="9" customWidth="1"/>
-    <col min="1282" max="1282" width="19.88671875" style="9" customWidth="1"/>
+    <col min="1028" max="1028" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1029" max="1029" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1030" max="1030" width="10.28515625" style="9" customWidth="1"/>
+    <col min="1031" max="1031" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1032" max="1032" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1033" max="1033" width="24.140625" style="9" customWidth="1"/>
+    <col min="1034" max="1034" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1035" max="1035" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1036" max="1036" width="21.140625" style="9" customWidth="1"/>
+    <col min="1037" max="1037" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1038" max="1280" width="9.140625" style="9"/>
+    <col min="1281" max="1281" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1282" max="1282" width="19.85546875" style="9" customWidth="1"/>
     <col min="1283" max="1283" width="13" style="9" customWidth="1"/>
-    <col min="1284" max="1284" width="14.33203125" style="9" customWidth="1"/>
-    <col min="1285" max="1285" width="12.44140625" style="9" customWidth="1"/>
-    <col min="1286" max="1286" width="10.33203125" style="9" customWidth="1"/>
-    <col min="1287" max="1287" width="17.5546875" style="9" customWidth="1"/>
-    <col min="1288" max="1288" width="27.44140625" style="9" customWidth="1"/>
-    <col min="1289" max="1289" width="24.109375" style="9" customWidth="1"/>
-    <col min="1290" max="1290" width="13.5546875" style="9" customWidth="1"/>
-    <col min="1291" max="1291" width="23.44140625" style="9" customWidth="1"/>
-    <col min="1292" max="1292" width="21.109375" style="9" customWidth="1"/>
-    <col min="1293" max="1293" width="20.44140625" style="9" customWidth="1"/>
-    <col min="1294" max="1536" width="9.109375" style="9"/>
-    <col min="1537" max="1537" width="10.44140625" style="9" customWidth="1"/>
-    <col min="1538" max="1538" width="19.88671875" style="9" customWidth="1"/>
+    <col min="1284" max="1284" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1285" max="1285" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1286" max="1286" width="10.28515625" style="9" customWidth="1"/>
+    <col min="1287" max="1287" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1288" max="1288" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1289" max="1289" width="24.140625" style="9" customWidth="1"/>
+    <col min="1290" max="1290" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1291" max="1291" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1292" max="1292" width="21.140625" style="9" customWidth="1"/>
+    <col min="1293" max="1293" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1294" max="1536" width="9.140625" style="9"/>
+    <col min="1537" max="1537" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1538" max="1538" width="19.85546875" style="9" customWidth="1"/>
     <col min="1539" max="1539" width="13" style="9" customWidth="1"/>
-    <col min="1540" max="1540" width="14.33203125" style="9" customWidth="1"/>
-    <col min="1541" max="1541" width="12.44140625" style="9" customWidth="1"/>
-    <col min="1542" max="1542" width="10.33203125" style="9" customWidth="1"/>
-    <col min="1543" max="1543" width="17.5546875" style="9" customWidth="1"/>
-    <col min="1544" max="1544" width="27.44140625" style="9" customWidth="1"/>
-    <col min="1545" max="1545" width="24.109375" style="9" customWidth="1"/>
-    <col min="1546" max="1546" width="13.5546875" style="9" customWidth="1"/>
-    <col min="1547" max="1547" width="23.44140625" style="9" customWidth="1"/>
-    <col min="1548" max="1548" width="21.109375" style="9" customWidth="1"/>
-    <col min="1549" max="1549" width="20.44140625" style="9" customWidth="1"/>
-    <col min="1550" max="1792" width="9.109375" style="9"/>
-    <col min="1793" max="1793" width="10.44140625" style="9" customWidth="1"/>
-    <col min="1794" max="1794" width="19.88671875" style="9" customWidth="1"/>
+    <col min="1540" max="1540" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1541" max="1541" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1542" max="1542" width="10.28515625" style="9" customWidth="1"/>
+    <col min="1543" max="1543" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1544" max="1544" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1545" max="1545" width="24.140625" style="9" customWidth="1"/>
+    <col min="1546" max="1546" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1547" max="1547" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1548" max="1548" width="21.140625" style="9" customWidth="1"/>
+    <col min="1549" max="1549" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1550" max="1792" width="9.140625" style="9"/>
+    <col min="1793" max="1793" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1794" max="1794" width="19.85546875" style="9" customWidth="1"/>
     <col min="1795" max="1795" width="13" style="9" customWidth="1"/>
-    <col min="1796" max="1796" width="14.33203125" style="9" customWidth="1"/>
-    <col min="1797" max="1797" width="12.44140625" style="9" customWidth="1"/>
-    <col min="1798" max="1798" width="10.33203125" style="9" customWidth="1"/>
-    <col min="1799" max="1799" width="17.5546875" style="9" customWidth="1"/>
-    <col min="1800" max="1800" width="27.44140625" style="9" customWidth="1"/>
-    <col min="1801" max="1801" width="24.109375" style="9" customWidth="1"/>
-    <col min="1802" max="1802" width="13.5546875" style="9" customWidth="1"/>
-    <col min="1803" max="1803" width="23.44140625" style="9" customWidth="1"/>
-    <col min="1804" max="1804" width="21.109375" style="9" customWidth="1"/>
-    <col min="1805" max="1805" width="20.44140625" style="9" customWidth="1"/>
-    <col min="1806" max="2048" width="9.109375" style="9"/>
-    <col min="2049" max="2049" width="10.44140625" style="9" customWidth="1"/>
-    <col min="2050" max="2050" width="19.88671875" style="9" customWidth="1"/>
+    <col min="1796" max="1796" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1797" max="1797" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1798" max="1798" width="10.28515625" style="9" customWidth="1"/>
+    <col min="1799" max="1799" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1800" max="1800" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1801" max="1801" width="24.140625" style="9" customWidth="1"/>
+    <col min="1802" max="1802" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1803" max="1803" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1804" max="1804" width="21.140625" style="9" customWidth="1"/>
+    <col min="1805" max="1805" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1806" max="2048" width="9.140625" style="9"/>
+    <col min="2049" max="2049" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2050" max="2050" width="19.85546875" style="9" customWidth="1"/>
     <col min="2051" max="2051" width="13" style="9" customWidth="1"/>
-    <col min="2052" max="2052" width="14.33203125" style="9" customWidth="1"/>
-    <col min="2053" max="2053" width="12.44140625" style="9" customWidth="1"/>
-    <col min="2054" max="2054" width="10.33203125" style="9" customWidth="1"/>
-    <col min="2055" max="2055" width="17.5546875" style="9" customWidth="1"/>
-    <col min="2056" max="2056" width="27.44140625" style="9" customWidth="1"/>
-    <col min="2057" max="2057" width="24.109375" style="9" customWidth="1"/>
-    <col min="2058" max="2058" width="13.5546875" style="9" customWidth="1"/>
-    <col min="2059" max="2059" width="23.44140625" style="9" customWidth="1"/>
-    <col min="2060" max="2060" width="21.109375" style="9" customWidth="1"/>
-    <col min="2061" max="2061" width="20.44140625" style="9" customWidth="1"/>
-    <col min="2062" max="2304" width="9.109375" style="9"/>
-    <col min="2305" max="2305" width="10.44140625" style="9" customWidth="1"/>
-    <col min="2306" max="2306" width="19.88671875" style="9" customWidth="1"/>
+    <col min="2052" max="2052" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2053" max="2053" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2054" max="2054" width="10.28515625" style="9" customWidth="1"/>
+    <col min="2055" max="2055" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2056" max="2056" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2057" max="2057" width="24.140625" style="9" customWidth="1"/>
+    <col min="2058" max="2058" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2059" max="2059" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2060" max="2060" width="21.140625" style="9" customWidth="1"/>
+    <col min="2061" max="2061" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2062" max="2304" width="9.140625" style="9"/>
+    <col min="2305" max="2305" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2306" max="2306" width="19.85546875" style="9" customWidth="1"/>
     <col min="2307" max="2307" width="13" style="9" customWidth="1"/>
-    <col min="2308" max="2308" width="14.33203125" style="9" customWidth="1"/>
-    <col min="2309" max="2309" width="12.44140625" style="9" customWidth="1"/>
-    <col min="2310" max="2310" width="10.33203125" style="9" customWidth="1"/>
-    <col min="2311" max="2311" width="17.5546875" style="9" customWidth="1"/>
-    <col min="2312" max="2312" width="27.44140625" style="9" customWidth="1"/>
-    <col min="2313" max="2313" width="24.109375" style="9" customWidth="1"/>
-    <col min="2314" max="2314" width="13.5546875" style="9" customWidth="1"/>
-    <col min="2315" max="2315" width="23.44140625" style="9" customWidth="1"/>
-    <col min="2316" max="2316" width="21.109375" style="9" customWidth="1"/>
-    <col min="2317" max="2317" width="20.44140625" style="9" customWidth="1"/>
-    <col min="2318" max="2560" width="9.109375" style="9"/>
-    <col min="2561" max="2561" width="10.44140625" style="9" customWidth="1"/>
-    <col min="2562" max="2562" width="19.88671875" style="9" customWidth="1"/>
+    <col min="2308" max="2308" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2309" max="2309" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2310" max="2310" width="10.28515625" style="9" customWidth="1"/>
+    <col min="2311" max="2311" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2312" max="2312" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2313" max="2313" width="24.140625" style="9" customWidth="1"/>
+    <col min="2314" max="2314" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2315" max="2315" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2316" max="2316" width="21.140625" style="9" customWidth="1"/>
+    <col min="2317" max="2317" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2318" max="2560" width="9.140625" style="9"/>
+    <col min="2561" max="2561" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2562" max="2562" width="19.85546875" style="9" customWidth="1"/>
     <col min="2563" max="2563" width="13" style="9" customWidth="1"/>
-    <col min="2564" max="2564" width="14.33203125" style="9" customWidth="1"/>
-    <col min="2565" max="2565" width="12.44140625" style="9" customWidth="1"/>
-    <col min="2566" max="2566" width="10.33203125" style="9" customWidth="1"/>
-    <col min="2567" max="2567" width="17.5546875" style="9" customWidth="1"/>
-    <col min="2568" max="2568" width="27.44140625" style="9" customWidth="1"/>
-    <col min="2569" max="2569" width="24.109375" style="9" customWidth="1"/>
-    <col min="2570" max="2570" width="13.5546875" style="9" customWidth="1"/>
-    <col min="2571" max="2571" width="23.44140625" style="9" customWidth="1"/>
-    <col min="2572" max="2572" width="21.109375" style="9" customWidth="1"/>
-    <col min="2573" max="2573" width="20.44140625" style="9" customWidth="1"/>
-    <col min="2574" max="2816" width="9.109375" style="9"/>
-    <col min="2817" max="2817" width="10.44140625" style="9" customWidth="1"/>
-    <col min="2818" max="2818" width="19.88671875" style="9" customWidth="1"/>
+    <col min="2564" max="2564" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2565" max="2565" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2566" max="2566" width="10.28515625" style="9" customWidth="1"/>
+    <col min="2567" max="2567" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2568" max="2568" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2569" max="2569" width="24.140625" style="9" customWidth="1"/>
+    <col min="2570" max="2570" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2571" max="2571" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2572" max="2572" width="21.140625" style="9" customWidth="1"/>
+    <col min="2573" max="2573" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2574" max="2816" width="9.140625" style="9"/>
+    <col min="2817" max="2817" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2818" max="2818" width="19.85546875" style="9" customWidth="1"/>
     <col min="2819" max="2819" width="13" style="9" customWidth="1"/>
-    <col min="2820" max="2820" width="14.33203125" style="9" customWidth="1"/>
-    <col min="2821" max="2821" width="12.44140625" style="9" customWidth="1"/>
-    <col min="2822" max="2822" width="10.33203125" style="9" customWidth="1"/>
-    <col min="2823" max="2823" width="17.5546875" style="9" customWidth="1"/>
-    <col min="2824" max="2824" width="27.44140625" style="9" customWidth="1"/>
-    <col min="2825" max="2825" width="24.109375" style="9" customWidth="1"/>
-    <col min="2826" max="2826" width="13.5546875" style="9" customWidth="1"/>
-    <col min="2827" max="2827" width="23.44140625" style="9" customWidth="1"/>
-    <col min="2828" max="2828" width="21.109375" style="9" customWidth="1"/>
-    <col min="2829" max="2829" width="20.44140625" style="9" customWidth="1"/>
-    <col min="2830" max="3072" width="9.109375" style="9"/>
-    <col min="3073" max="3073" width="10.44140625" style="9" customWidth="1"/>
-    <col min="3074" max="3074" width="19.88671875" style="9" customWidth="1"/>
+    <col min="2820" max="2820" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2821" max="2821" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2822" max="2822" width="10.28515625" style="9" customWidth="1"/>
+    <col min="2823" max="2823" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2824" max="2824" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2825" max="2825" width="24.140625" style="9" customWidth="1"/>
+    <col min="2826" max="2826" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2827" max="2827" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2828" max="2828" width="21.140625" style="9" customWidth="1"/>
+    <col min="2829" max="2829" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2830" max="3072" width="9.140625" style="9"/>
+    <col min="3073" max="3073" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3074" max="3074" width="19.85546875" style="9" customWidth="1"/>
     <col min="3075" max="3075" width="13" style="9" customWidth="1"/>
-    <col min="3076" max="3076" width="14.33203125" style="9" customWidth="1"/>
-    <col min="3077" max="3077" width="12.44140625" style="9" customWidth="1"/>
-    <col min="3078" max="3078" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3079" max="3079" width="17.5546875" style="9" customWidth="1"/>
-    <col min="3080" max="3080" width="27.44140625" style="9" customWidth="1"/>
-    <col min="3081" max="3081" width="24.109375" style="9" customWidth="1"/>
-    <col min="3082" max="3082" width="13.5546875" style="9" customWidth="1"/>
-    <col min="3083" max="3083" width="23.44140625" style="9" customWidth="1"/>
-    <col min="3084" max="3084" width="21.109375" style="9" customWidth="1"/>
-    <col min="3085" max="3085" width="20.44140625" style="9" customWidth="1"/>
-    <col min="3086" max="3328" width="9.109375" style="9"/>
-    <col min="3329" max="3329" width="10.44140625" style="9" customWidth="1"/>
-    <col min="3330" max="3330" width="19.88671875" style="9" customWidth="1"/>
+    <col min="3076" max="3076" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3077" max="3077" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3078" max="3078" width="10.28515625" style="9" customWidth="1"/>
+    <col min="3079" max="3079" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3080" max="3080" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3081" max="3081" width="24.140625" style="9" customWidth="1"/>
+    <col min="3082" max="3082" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3083" max="3083" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3084" max="3084" width="21.140625" style="9" customWidth="1"/>
+    <col min="3085" max="3085" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3086" max="3328" width="9.140625" style="9"/>
+    <col min="3329" max="3329" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3330" max="3330" width="19.85546875" style="9" customWidth="1"/>
     <col min="3331" max="3331" width="13" style="9" customWidth="1"/>
-    <col min="3332" max="3332" width="14.33203125" style="9" customWidth="1"/>
-    <col min="3333" max="3333" width="12.44140625" style="9" customWidth="1"/>
-    <col min="3334" max="3334" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3335" max="3335" width="17.5546875" style="9" customWidth="1"/>
-    <col min="3336" max="3336" width="27.44140625" style="9" customWidth="1"/>
-    <col min="3337" max="3337" width="24.109375" style="9" customWidth="1"/>
-    <col min="3338" max="3338" width="13.5546875" style="9" customWidth="1"/>
-    <col min="3339" max="3339" width="23.44140625" style="9" customWidth="1"/>
-    <col min="3340" max="3340" width="21.109375" style="9" customWidth="1"/>
-    <col min="3341" max="3341" width="20.44140625" style="9" customWidth="1"/>
-    <col min="3342" max="3584" width="9.109375" style="9"/>
-    <col min="3585" max="3585" width="10.44140625" style="9" customWidth="1"/>
-    <col min="3586" max="3586" width="19.88671875" style="9" customWidth="1"/>
+    <col min="3332" max="3332" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3333" max="3333" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3334" max="3334" width="10.28515625" style="9" customWidth="1"/>
+    <col min="3335" max="3335" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3336" max="3336" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3337" max="3337" width="24.140625" style="9" customWidth="1"/>
+    <col min="3338" max="3338" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3339" max="3339" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3340" max="3340" width="21.140625" style="9" customWidth="1"/>
+    <col min="3341" max="3341" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3342" max="3584" width="9.140625" style="9"/>
+    <col min="3585" max="3585" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3586" max="3586" width="19.85546875" style="9" customWidth="1"/>
     <col min="3587" max="3587" width="13" style="9" customWidth="1"/>
-    <col min="3588" max="3588" width="14.33203125" style="9" customWidth="1"/>
-    <col min="3589" max="3589" width="12.44140625" style="9" customWidth="1"/>
-    <col min="3590" max="3590" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3591" max="3591" width="17.5546875" style="9" customWidth="1"/>
-    <col min="3592" max="3592" width="27.44140625" style="9" customWidth="1"/>
-    <col min="3593" max="3593" width="24.109375" style="9" customWidth="1"/>
-    <col min="3594" max="3594" width="13.5546875" style="9" customWidth="1"/>
-    <col min="3595" max="3595" width="23.44140625" style="9" customWidth="1"/>
-    <col min="3596" max="3596" width="21.109375" style="9" customWidth="1"/>
-    <col min="3597" max="3597" width="20.44140625" style="9" customWidth="1"/>
-    <col min="3598" max="3840" width="9.109375" style="9"/>
-    <col min="3841" max="3841" width="10.44140625" style="9" customWidth="1"/>
-    <col min="3842" max="3842" width="19.88671875" style="9" customWidth="1"/>
+    <col min="3588" max="3588" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3589" max="3589" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3590" max="3590" width="10.28515625" style="9" customWidth="1"/>
+    <col min="3591" max="3591" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3592" max="3592" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3593" max="3593" width="24.140625" style="9" customWidth="1"/>
+    <col min="3594" max="3594" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3595" max="3595" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3596" max="3596" width="21.140625" style="9" customWidth="1"/>
+    <col min="3597" max="3597" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3598" max="3840" width="9.140625" style="9"/>
+    <col min="3841" max="3841" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3842" max="3842" width="19.85546875" style="9" customWidth="1"/>
     <col min="3843" max="3843" width="13" style="9" customWidth="1"/>
-    <col min="3844" max="3844" width="14.33203125" style="9" customWidth="1"/>
-    <col min="3845" max="3845" width="12.44140625" style="9" customWidth="1"/>
-    <col min="3846" max="3846" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3847" max="3847" width="17.5546875" style="9" customWidth="1"/>
-    <col min="3848" max="3848" width="27.44140625" style="9" customWidth="1"/>
-    <col min="3849" max="3849" width="24.109375" style="9" customWidth="1"/>
-    <col min="3850" max="3850" width="13.5546875" style="9" customWidth="1"/>
-    <col min="3851" max="3851" width="23.44140625" style="9" customWidth="1"/>
-    <col min="3852" max="3852" width="21.109375" style="9" customWidth="1"/>
-    <col min="3853" max="3853" width="20.44140625" style="9" customWidth="1"/>
-    <col min="3854" max="4096" width="9.109375" style="9"/>
-    <col min="4097" max="4097" width="10.44140625" style="9" customWidth="1"/>
-    <col min="4098" max="4098" width="19.88671875" style="9" customWidth="1"/>
+    <col min="3844" max="3844" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3845" max="3845" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3846" max="3846" width="10.28515625" style="9" customWidth="1"/>
+    <col min="3847" max="3847" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3848" max="3848" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3849" max="3849" width="24.140625" style="9" customWidth="1"/>
+    <col min="3850" max="3850" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3851" max="3851" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3852" max="3852" width="21.140625" style="9" customWidth="1"/>
+    <col min="3853" max="3853" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3854" max="4096" width="9.140625" style="9"/>
+    <col min="4097" max="4097" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4098" max="4098" width="19.85546875" style="9" customWidth="1"/>
     <col min="4099" max="4099" width="13" style="9" customWidth="1"/>
-    <col min="4100" max="4100" width="14.33203125" style="9" customWidth="1"/>
-    <col min="4101" max="4101" width="12.44140625" style="9" customWidth="1"/>
-    <col min="4102" max="4102" width="10.33203125" style="9" customWidth="1"/>
-    <col min="4103" max="4103" width="17.5546875" style="9" customWidth="1"/>
-    <col min="4104" max="4104" width="27.44140625" style="9" customWidth="1"/>
-    <col min="4105" max="4105" width="24.109375" style="9" customWidth="1"/>
-    <col min="4106" max="4106" width="13.5546875" style="9" customWidth="1"/>
-    <col min="4107" max="4107" width="23.44140625" style="9" customWidth="1"/>
-    <col min="4108" max="4108" width="21.109375" style="9" customWidth="1"/>
-    <col min="4109" max="4109" width="20.44140625" style="9" customWidth="1"/>
-    <col min="4110" max="4352" width="9.109375" style="9"/>
-    <col min="4353" max="4353" width="10.44140625" style="9" customWidth="1"/>
-    <col min="4354" max="4354" width="19.88671875" style="9" customWidth="1"/>
+    <col min="4100" max="4100" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4101" max="4101" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4102" max="4102" width="10.28515625" style="9" customWidth="1"/>
+    <col min="4103" max="4103" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4104" max="4104" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4105" max="4105" width="24.140625" style="9" customWidth="1"/>
+    <col min="4106" max="4106" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4107" max="4107" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4108" max="4108" width="21.140625" style="9" customWidth="1"/>
+    <col min="4109" max="4109" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4110" max="4352" width="9.140625" style="9"/>
+    <col min="4353" max="4353" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4354" max="4354" width="19.85546875" style="9" customWidth="1"/>
     <col min="4355" max="4355" width="13" style="9" customWidth="1"/>
-    <col min="4356" max="4356" width="14.33203125" style="9" customWidth="1"/>
-    <col min="4357" max="4357" width="12.44140625" style="9" customWidth="1"/>
-    <col min="4358" max="4358" width="10.33203125" style="9" customWidth="1"/>
-    <col min="4359" max="4359" width="17.5546875" style="9" customWidth="1"/>
-    <col min="4360" max="4360" width="27.44140625" style="9" customWidth="1"/>
-    <col min="4361" max="4361" width="24.109375" style="9" customWidth="1"/>
-    <col min="4362" max="4362" width="13.5546875" style="9" customWidth="1"/>
-    <col min="4363" max="4363" width="23.44140625" style="9" customWidth="1"/>
-    <col min="4364" max="4364" width="21.109375" style="9" customWidth="1"/>
-    <col min="4365" max="4365" width="20.44140625" style="9" customWidth="1"/>
-    <col min="4366" max="4608" width="9.109375" style="9"/>
-    <col min="4609" max="4609" width="10.44140625" style="9" customWidth="1"/>
-    <col min="4610" max="4610" width="19.88671875" style="9" customWidth="1"/>
+    <col min="4356" max="4356" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4357" max="4357" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4358" max="4358" width="10.28515625" style="9" customWidth="1"/>
+    <col min="4359" max="4359" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4360" max="4360" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4361" max="4361" width="24.140625" style="9" customWidth="1"/>
+    <col min="4362" max="4362" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4363" max="4363" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4364" max="4364" width="21.140625" style="9" customWidth="1"/>
+    <col min="4365" max="4365" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4366" max="4608" width="9.140625" style="9"/>
+    <col min="4609" max="4609" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4610" max="4610" width="19.85546875" style="9" customWidth="1"/>
     <col min="4611" max="4611" width="13" style="9" customWidth="1"/>
-    <col min="4612" max="4612" width="14.33203125" style="9" customWidth="1"/>
-    <col min="4613" max="4613" width="12.44140625" style="9" customWidth="1"/>
-    <col min="4614" max="4614" width="10.33203125" style="9" customWidth="1"/>
-    <col min="4615" max="4615" width="17.5546875" style="9" customWidth="1"/>
-    <col min="4616" max="4616" width="27.44140625" style="9" customWidth="1"/>
-    <col min="4617" max="4617" width="24.109375" style="9" customWidth="1"/>
-    <col min="4618" max="4618" width="13.5546875" style="9" customWidth="1"/>
-    <col min="4619" max="4619" width="23.44140625" style="9" customWidth="1"/>
-    <col min="4620" max="4620" width="21.109375" style="9" customWidth="1"/>
-    <col min="4621" max="4621" width="20.44140625" style="9" customWidth="1"/>
-    <col min="4622" max="4864" width="9.109375" style="9"/>
-    <col min="4865" max="4865" width="10.44140625" style="9" customWidth="1"/>
-    <col min="4866" max="4866" width="19.88671875" style="9" customWidth="1"/>
+    <col min="4612" max="4612" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4613" max="4613" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4614" max="4614" width="10.28515625" style="9" customWidth="1"/>
+    <col min="4615" max="4615" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4616" max="4616" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4617" max="4617" width="24.140625" style="9" customWidth="1"/>
+    <col min="4618" max="4618" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4619" max="4619" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4620" max="4620" width="21.140625" style="9" customWidth="1"/>
+    <col min="4621" max="4621" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4622" max="4864" width="9.140625" style="9"/>
+    <col min="4865" max="4865" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4866" max="4866" width="19.85546875" style="9" customWidth="1"/>
     <col min="4867" max="4867" width="13" style="9" customWidth="1"/>
-    <col min="4868" max="4868" width="14.33203125" style="9" customWidth="1"/>
-    <col min="4869" max="4869" width="12.44140625" style="9" customWidth="1"/>
-    <col min="4870" max="4870" width="10.33203125" style="9" customWidth="1"/>
-    <col min="4871" max="4871" width="17.5546875" style="9" customWidth="1"/>
-    <col min="4872" max="4872" width="27.44140625" style="9" customWidth="1"/>
-    <col min="4873" max="4873" width="24.109375" style="9" customWidth="1"/>
-    <col min="4874" max="4874" width="13.5546875" style="9" customWidth="1"/>
-    <col min="4875" max="4875" width="23.44140625" style="9" customWidth="1"/>
-    <col min="4876" max="4876" width="21.109375" style="9" customWidth="1"/>
-    <col min="4877" max="4877" width="20.44140625" style="9" customWidth="1"/>
-    <col min="4878" max="5120" width="9.109375" style="9"/>
-    <col min="5121" max="5121" width="10.44140625" style="9" customWidth="1"/>
-    <col min="5122" max="5122" width="19.88671875" style="9" customWidth="1"/>
+    <col min="4868" max="4868" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4869" max="4869" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4870" max="4870" width="10.28515625" style="9" customWidth="1"/>
+    <col min="4871" max="4871" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4872" max="4872" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4873" max="4873" width="24.140625" style="9" customWidth="1"/>
+    <col min="4874" max="4874" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4875" max="4875" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4876" max="4876" width="21.140625" style="9" customWidth="1"/>
+    <col min="4877" max="4877" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4878" max="5120" width="9.140625" style="9"/>
+    <col min="5121" max="5121" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5122" max="5122" width="19.85546875" style="9" customWidth="1"/>
     <col min="5123" max="5123" width="13" style="9" customWidth="1"/>
-    <col min="5124" max="5124" width="14.33203125" style="9" customWidth="1"/>
-    <col min="5125" max="5125" width="12.44140625" style="9" customWidth="1"/>
-    <col min="5126" max="5126" width="10.33203125" style="9" customWidth="1"/>
-    <col min="5127" max="5127" width="17.5546875" style="9" customWidth="1"/>
-    <col min="5128" max="5128" width="27.44140625" style="9" customWidth="1"/>
-    <col min="5129" max="5129" width="24.109375" style="9" customWidth="1"/>
-    <col min="5130" max="5130" width="13.5546875" style="9" customWidth="1"/>
-    <col min="5131" max="5131" width="23.44140625" style="9" customWidth="1"/>
-    <col min="5132" max="5132" width="21.109375" style="9" customWidth="1"/>
-    <col min="5133" max="5133" width="20.44140625" style="9" customWidth="1"/>
-    <col min="5134" max="5376" width="9.109375" style="9"/>
-    <col min="5377" max="5377" width="10.44140625" style="9" customWidth="1"/>
-    <col min="5378" max="5378" width="19.88671875" style="9" customWidth="1"/>
+    <col min="5124" max="5124" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5125" max="5125" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5126" max="5126" width="10.28515625" style="9" customWidth="1"/>
+    <col min="5127" max="5127" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5128" max="5128" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5129" max="5129" width="24.140625" style="9" customWidth="1"/>
+    <col min="5130" max="5130" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5131" max="5131" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5132" max="5132" width="21.140625" style="9" customWidth="1"/>
+    <col min="5133" max="5133" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5134" max="5376" width="9.140625" style="9"/>
+    <col min="5377" max="5377" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5378" max="5378" width="19.85546875" style="9" customWidth="1"/>
     <col min="5379" max="5379" width="13" style="9" customWidth="1"/>
-    <col min="5380" max="5380" width="14.33203125" style="9" customWidth="1"/>
-    <col min="5381" max="5381" width="12.44140625" style="9" customWidth="1"/>
-    <col min="5382" max="5382" width="10.33203125" style="9" customWidth="1"/>
-    <col min="5383" max="5383" width="17.5546875" style="9" customWidth="1"/>
-    <col min="5384" max="5384" width="27.44140625" style="9" customWidth="1"/>
-    <col min="5385" max="5385" width="24.109375" style="9" customWidth="1"/>
-    <col min="5386" max="5386" width="13.5546875" style="9" customWidth="1"/>
-    <col min="5387" max="5387" width="23.44140625" style="9" customWidth="1"/>
-    <col min="5388" max="5388" width="21.109375" style="9" customWidth="1"/>
-    <col min="5389" max="5389" width="20.44140625" style="9" customWidth="1"/>
-    <col min="5390" max="5632" width="9.109375" style="9"/>
-    <col min="5633" max="5633" width="10.44140625" style="9" customWidth="1"/>
-    <col min="5634" max="5634" width="19.88671875" style="9" customWidth="1"/>
+    <col min="5380" max="5380" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5381" max="5381" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5382" max="5382" width="10.28515625" style="9" customWidth="1"/>
+    <col min="5383" max="5383" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5384" max="5384" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5385" max="5385" width="24.140625" style="9" customWidth="1"/>
+    <col min="5386" max="5386" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5387" max="5387" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5388" max="5388" width="21.140625" style="9" customWidth="1"/>
+    <col min="5389" max="5389" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5390" max="5632" width="9.140625" style="9"/>
+    <col min="5633" max="5633" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5634" max="5634" width="19.85546875" style="9" customWidth="1"/>
     <col min="5635" max="5635" width="13" style="9" customWidth="1"/>
-    <col min="5636" max="5636" width="14.33203125" style="9" customWidth="1"/>
-    <col min="5637" max="5637" width="12.44140625" style="9" customWidth="1"/>
-    <col min="5638" max="5638" width="10.33203125" style="9" customWidth="1"/>
-    <col min="5639" max="5639" width="17.5546875" style="9" customWidth="1"/>
-    <col min="5640" max="5640" width="27.44140625" style="9" customWidth="1"/>
-    <col min="5641" max="5641" width="24.109375" style="9" customWidth="1"/>
-    <col min="5642" max="5642" width="13.5546875" style="9" customWidth="1"/>
-    <col min="5643" max="5643" width="23.44140625" style="9" customWidth="1"/>
-    <col min="5644" max="5644" width="21.109375" style="9" customWidth="1"/>
-    <col min="5645" max="5645" width="20.44140625" style="9" customWidth="1"/>
-    <col min="5646" max="5888" width="9.109375" style="9"/>
-    <col min="5889" max="5889" width="10.44140625" style="9" customWidth="1"/>
-    <col min="5890" max="5890" width="19.88671875" style="9" customWidth="1"/>
+    <col min="5636" max="5636" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5637" max="5637" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5638" max="5638" width="10.28515625" style="9" customWidth="1"/>
+    <col min="5639" max="5639" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5640" max="5640" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5641" max="5641" width="24.140625" style="9" customWidth="1"/>
+    <col min="5642" max="5642" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5643" max="5643" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5644" max="5644" width="21.140625" style="9" customWidth="1"/>
+    <col min="5645" max="5645" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5646" max="5888" width="9.140625" style="9"/>
+    <col min="5889" max="5889" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5890" max="5890" width="19.85546875" style="9" customWidth="1"/>
     <col min="5891" max="5891" width="13" style="9" customWidth="1"/>
-    <col min="5892" max="5892" width="14.33203125" style="9" customWidth="1"/>
-    <col min="5893" max="5893" width="12.44140625" style="9" customWidth="1"/>
-    <col min="5894" max="5894" width="10.33203125" style="9" customWidth="1"/>
-    <col min="5895" max="5895" width="17.5546875" style="9" customWidth="1"/>
-    <col min="5896" max="5896" width="27.44140625" style="9" customWidth="1"/>
-    <col min="5897" max="5897" width="24.109375" style="9" customWidth="1"/>
-    <col min="5898" max="5898" width="13.5546875" style="9" customWidth="1"/>
-    <col min="5899" max="5899" width="23.44140625" style="9" customWidth="1"/>
-    <col min="5900" max="5900" width="21.109375" style="9" customWidth="1"/>
-    <col min="5901" max="5901" width="20.44140625" style="9" customWidth="1"/>
-    <col min="5902" max="6144" width="9.109375" style="9"/>
-    <col min="6145" max="6145" width="10.44140625" style="9" customWidth="1"/>
-    <col min="6146" max="6146" width="19.88671875" style="9" customWidth="1"/>
+    <col min="5892" max="5892" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5893" max="5893" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5894" max="5894" width="10.28515625" style="9" customWidth="1"/>
+    <col min="5895" max="5895" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5896" max="5896" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5897" max="5897" width="24.140625" style="9" customWidth="1"/>
+    <col min="5898" max="5898" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5899" max="5899" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5900" max="5900" width="21.140625" style="9" customWidth="1"/>
+    <col min="5901" max="5901" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5902" max="6144" width="9.140625" style="9"/>
+    <col min="6145" max="6145" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6146" max="6146" width="19.85546875" style="9" customWidth="1"/>
     <col min="6147" max="6147" width="13" style="9" customWidth="1"/>
-    <col min="6148" max="6148" width="14.33203125" style="9" customWidth="1"/>
-    <col min="6149" max="6149" width="12.44140625" style="9" customWidth="1"/>
-    <col min="6150" max="6150" width="10.33203125" style="9" customWidth="1"/>
-    <col min="6151" max="6151" width="17.5546875" style="9" customWidth="1"/>
-    <col min="6152" max="6152" width="27.44140625" style="9" customWidth="1"/>
-    <col min="6153" max="6153" width="24.109375" style="9" customWidth="1"/>
-    <col min="6154" max="6154" width="13.5546875" style="9" customWidth="1"/>
-    <col min="6155" max="6155" width="23.44140625" style="9" customWidth="1"/>
-    <col min="6156" max="6156" width="21.109375" style="9" customWidth="1"/>
-    <col min="6157" max="6157" width="20.44140625" style="9" customWidth="1"/>
-    <col min="6158" max="6400" width="9.109375" style="9"/>
-    <col min="6401" max="6401" width="10.44140625" style="9" customWidth="1"/>
-    <col min="6402" max="6402" width="19.88671875" style="9" customWidth="1"/>
+    <col min="6148" max="6148" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6149" max="6149" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6150" max="6150" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6151" max="6151" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6152" max="6152" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6153" max="6153" width="24.140625" style="9" customWidth="1"/>
+    <col min="6154" max="6154" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6155" max="6155" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6156" max="6156" width="21.140625" style="9" customWidth="1"/>
+    <col min="6157" max="6157" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6158" max="6400" width="9.140625" style="9"/>
+    <col min="6401" max="6401" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6402" max="6402" width="19.85546875" style="9" customWidth="1"/>
     <col min="6403" max="6403" width="13" style="9" customWidth="1"/>
-    <col min="6404" max="6404" width="14.33203125" style="9" customWidth="1"/>
-    <col min="6405" max="6405" width="12.44140625" style="9" customWidth="1"/>
-    <col min="6406" max="6406" width="10.33203125" style="9" customWidth="1"/>
-    <col min="6407" max="6407" width="17.5546875" style="9" customWidth="1"/>
-    <col min="6408" max="6408" width="27.44140625" style="9" customWidth="1"/>
-    <col min="6409" max="6409" width="24.109375" style="9" customWidth="1"/>
-    <col min="6410" max="6410" width="13.5546875" style="9" customWidth="1"/>
-    <col min="6411" max="6411" width="23.44140625" style="9" customWidth="1"/>
-    <col min="6412" max="6412" width="21.109375" style="9" customWidth="1"/>
-    <col min="6413" max="6413" width="20.44140625" style="9" customWidth="1"/>
-    <col min="6414" max="6656" width="9.109375" style="9"/>
-    <col min="6657" max="6657" width="10.44140625" style="9" customWidth="1"/>
-    <col min="6658" max="6658" width="19.88671875" style="9" customWidth="1"/>
+    <col min="6404" max="6404" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6405" max="6405" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6406" max="6406" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6407" max="6407" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6408" max="6408" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6409" max="6409" width="24.140625" style="9" customWidth="1"/>
+    <col min="6410" max="6410" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6411" max="6411" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6412" max="6412" width="21.140625" style="9" customWidth="1"/>
+    <col min="6413" max="6413" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6414" max="6656" width="9.140625" style="9"/>
+    <col min="6657" max="6657" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6658" max="6658" width="19.85546875" style="9" customWidth="1"/>
     <col min="6659" max="6659" width="13" style="9" customWidth="1"/>
-    <col min="6660" max="6660" width="14.33203125" style="9" customWidth="1"/>
-    <col min="6661" max="6661" width="12.44140625" style="9" customWidth="1"/>
-    <col min="6662" max="6662" width="10.33203125" style="9" customWidth="1"/>
-    <col min="6663" max="6663" width="17.5546875" style="9" customWidth="1"/>
-    <col min="6664" max="6664" width="27.44140625" style="9" customWidth="1"/>
-    <col min="6665" max="6665" width="24.109375" style="9" customWidth="1"/>
-    <col min="6666" max="6666" width="13.5546875" style="9" customWidth="1"/>
-    <col min="6667" max="6667" width="23.44140625" style="9" customWidth="1"/>
-    <col min="6668" max="6668" width="21.109375" style="9" customWidth="1"/>
-    <col min="6669" max="6669" width="20.44140625" style="9" customWidth="1"/>
-    <col min="6670" max="6912" width="9.109375" style="9"/>
-    <col min="6913" max="6913" width="10.44140625" style="9" customWidth="1"/>
-    <col min="6914" max="6914" width="19.88671875" style="9" customWidth="1"/>
+    <col min="6660" max="6660" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6661" max="6661" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6662" max="6662" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6663" max="6663" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6664" max="6664" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6665" max="6665" width="24.140625" style="9" customWidth="1"/>
+    <col min="6666" max="6666" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6667" max="6667" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6668" max="6668" width="21.140625" style="9" customWidth="1"/>
+    <col min="6669" max="6669" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6670" max="6912" width="9.140625" style="9"/>
+    <col min="6913" max="6913" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6914" max="6914" width="19.85546875" style="9" customWidth="1"/>
     <col min="6915" max="6915" width="13" style="9" customWidth="1"/>
-    <col min="6916" max="6916" width="14.33203125" style="9" customWidth="1"/>
-    <col min="6917" max="6917" width="12.44140625" style="9" customWidth="1"/>
-    <col min="6918" max="6918" width="10.33203125" style="9" customWidth="1"/>
-    <col min="6919" max="6919" width="17.5546875" style="9" customWidth="1"/>
-    <col min="6920" max="6920" width="27.44140625" style="9" customWidth="1"/>
-    <col min="6921" max="6921" width="24.109375" style="9" customWidth="1"/>
-    <col min="6922" max="6922" width="13.5546875" style="9" customWidth="1"/>
-    <col min="6923" max="6923" width="23.44140625" style="9" customWidth="1"/>
-    <col min="6924" max="6924" width="21.109375" style="9" customWidth="1"/>
-    <col min="6925" max="6925" width="20.44140625" style="9" customWidth="1"/>
-    <col min="6926" max="7168" width="9.109375" style="9"/>
-    <col min="7169" max="7169" width="10.44140625" style="9" customWidth="1"/>
-    <col min="7170" max="7170" width="19.88671875" style="9" customWidth="1"/>
+    <col min="6916" max="6916" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6917" max="6917" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6918" max="6918" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6919" max="6919" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6920" max="6920" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6921" max="6921" width="24.140625" style="9" customWidth="1"/>
+    <col min="6922" max="6922" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6923" max="6923" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6924" max="6924" width="21.140625" style="9" customWidth="1"/>
+    <col min="6925" max="6925" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6926" max="7168" width="9.140625" style="9"/>
+    <col min="7169" max="7169" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7170" max="7170" width="19.85546875" style="9" customWidth="1"/>
     <col min="7171" max="7171" width="13" style="9" customWidth="1"/>
-    <col min="7172" max="7172" width="14.33203125" style="9" customWidth="1"/>
-    <col min="7173" max="7173" width="12.44140625" style="9" customWidth="1"/>
-    <col min="7174" max="7174" width="10.33203125" style="9" customWidth="1"/>
-    <col min="7175" max="7175" width="17.5546875" style="9" customWidth="1"/>
-    <col min="7176" max="7176" width="27.44140625" style="9" customWidth="1"/>
-    <col min="7177" max="7177" width="24.109375" style="9" customWidth="1"/>
-    <col min="7178" max="7178" width="13.5546875" style="9" customWidth="1"/>
-    <col min="7179" max="7179" width="23.44140625" style="9" customWidth="1"/>
-    <col min="7180" max="7180" width="21.109375" style="9" customWidth="1"/>
-    <col min="7181" max="7181" width="20.44140625" style="9" customWidth="1"/>
-    <col min="7182" max="7424" width="9.109375" style="9"/>
-    <col min="7425" max="7425" width="10.44140625" style="9" customWidth="1"/>
-    <col min="7426" max="7426" width="19.88671875" style="9" customWidth="1"/>
+    <col min="7172" max="7172" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7173" max="7173" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7174" max="7174" width="10.28515625" style="9" customWidth="1"/>
+    <col min="7175" max="7175" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7176" max="7176" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7177" max="7177" width="24.140625" style="9" customWidth="1"/>
+    <col min="7178" max="7178" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7179" max="7179" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7180" max="7180" width="21.140625" style="9" customWidth="1"/>
+    <col min="7181" max="7181" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7182" max="7424" width="9.140625" style="9"/>
+    <col min="7425" max="7425" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7426" max="7426" width="19.85546875" style="9" customWidth="1"/>
     <col min="7427" max="7427" width="13" style="9" customWidth="1"/>
-    <col min="7428" max="7428" width="14.33203125" style="9" customWidth="1"/>
-    <col min="7429" max="7429" width="12.44140625" style="9" customWidth="1"/>
-    <col min="7430" max="7430" width="10.33203125" style="9" customWidth="1"/>
-    <col min="7431" max="7431" width="17.5546875" style="9" customWidth="1"/>
-    <col min="7432" max="7432" width="27.44140625" style="9" customWidth="1"/>
-    <col min="7433" max="7433" width="24.109375" style="9" customWidth="1"/>
-    <col min="7434" max="7434" width="13.5546875" style="9" customWidth="1"/>
-    <col min="7435" max="7435" width="23.44140625" style="9" customWidth="1"/>
-    <col min="7436" max="7436" width="21.109375" style="9" customWidth="1"/>
-    <col min="7437" max="7437" width="20.44140625" style="9" customWidth="1"/>
-    <col min="7438" max="7680" width="9.109375" style="9"/>
-    <col min="7681" max="7681" width="10.44140625" style="9" customWidth="1"/>
-    <col min="7682" max="7682" width="19.88671875" style="9" customWidth="1"/>
+    <col min="7428" max="7428" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7429" max="7429" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7430" max="7430" width="10.28515625" style="9" customWidth="1"/>
+    <col min="7431" max="7431" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7432" max="7432" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7433" max="7433" width="24.140625" style="9" customWidth="1"/>
+    <col min="7434" max="7434" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7435" max="7435" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7436" max="7436" width="21.140625" style="9" customWidth="1"/>
+    <col min="7437" max="7437" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7438" max="7680" width="9.140625" style="9"/>
+    <col min="7681" max="7681" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7682" max="7682" width="19.85546875" style="9" customWidth="1"/>
     <col min="7683" max="7683" width="13" style="9" customWidth="1"/>
-    <col min="7684" max="7684" width="14.33203125" style="9" customWidth="1"/>
-    <col min="7685" max="7685" width="12.44140625" style="9" customWidth="1"/>
-    <col min="7686" max="7686" width="10.33203125" style="9" customWidth="1"/>
-    <col min="7687" max="7687" width="17.5546875" style="9" customWidth="1"/>
-    <col min="7688" max="7688" width="27.44140625" style="9" customWidth="1"/>
-    <col min="7689" max="7689" width="24.109375" style="9" customWidth="1"/>
-    <col min="7690" max="7690" width="13.5546875" style="9" customWidth="1"/>
-    <col min="7691" max="7691" width="23.44140625" style="9" customWidth="1"/>
-    <col min="7692" max="7692" width="21.109375" style="9" customWidth="1"/>
-    <col min="7693" max="7693" width="20.44140625" style="9" customWidth="1"/>
-    <col min="7694" max="7936" width="9.109375" style="9"/>
-    <col min="7937" max="7937" width="10.44140625" style="9" customWidth="1"/>
-    <col min="7938" max="7938" width="19.88671875" style="9" customWidth="1"/>
+    <col min="7684" max="7684" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7685" max="7685" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7686" max="7686" width="10.28515625" style="9" customWidth="1"/>
+    <col min="7687" max="7687" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7688" max="7688" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7689" max="7689" width="24.140625" style="9" customWidth="1"/>
+    <col min="7690" max="7690" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7691" max="7691" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7692" max="7692" width="21.140625" style="9" customWidth="1"/>
+    <col min="7693" max="7693" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7694" max="7936" width="9.140625" style="9"/>
+    <col min="7937" max="7937" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7938" max="7938" width="19.85546875" style="9" customWidth="1"/>
     <col min="7939" max="7939" width="13" style="9" customWidth="1"/>
-    <col min="7940" max="7940" width="14.33203125" style="9" customWidth="1"/>
-    <col min="7941" max="7941" width="12.44140625" style="9" customWidth="1"/>
-    <col min="7942" max="7942" width="10.33203125" style="9" customWidth="1"/>
-    <col min="7943" max="7943" width="17.5546875" style="9" customWidth="1"/>
-    <col min="7944" max="7944" width="27.44140625" style="9" customWidth="1"/>
-    <col min="7945" max="7945" width="24.109375" style="9" customWidth="1"/>
-    <col min="7946" max="7946" width="13.5546875" style="9" customWidth="1"/>
-    <col min="7947" max="7947" width="23.44140625" style="9" customWidth="1"/>
-    <col min="7948" max="7948" width="21.109375" style="9" customWidth="1"/>
-    <col min="7949" max="7949" width="20.44140625" style="9" customWidth="1"/>
-    <col min="7950" max="8192" width="9.109375" style="9"/>
-    <col min="8193" max="8193" width="10.44140625" style="9" customWidth="1"/>
-    <col min="8194" max="8194" width="19.88671875" style="9" customWidth="1"/>
+    <col min="7940" max="7940" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7941" max="7941" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7942" max="7942" width="10.28515625" style="9" customWidth="1"/>
+    <col min="7943" max="7943" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7944" max="7944" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7945" max="7945" width="24.140625" style="9" customWidth="1"/>
+    <col min="7946" max="7946" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7947" max="7947" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7948" max="7948" width="21.140625" style="9" customWidth="1"/>
+    <col min="7949" max="7949" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7950" max="8192" width="9.140625" style="9"/>
+    <col min="8193" max="8193" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8194" max="8194" width="19.85546875" style="9" customWidth="1"/>
     <col min="8195" max="8195" width="13" style="9" customWidth="1"/>
-    <col min="8196" max="8196" width="14.33203125" style="9" customWidth="1"/>
-    <col min="8197" max="8197" width="12.44140625" style="9" customWidth="1"/>
-    <col min="8198" max="8198" width="10.33203125" style="9" customWidth="1"/>
-    <col min="8199" max="8199" width="17.5546875" style="9" customWidth="1"/>
-    <col min="8200" max="8200" width="27.44140625" style="9" customWidth="1"/>
-    <col min="8201" max="8201" width="24.109375" style="9" customWidth="1"/>
-    <col min="8202" max="8202" width="13.5546875" style="9" customWidth="1"/>
-    <col min="8203" max="8203" width="23.44140625" style="9" customWidth="1"/>
-    <col min="8204" max="8204" width="21.109375" style="9" customWidth="1"/>
-    <col min="8205" max="8205" width="20.44140625" style="9" customWidth="1"/>
-    <col min="8206" max="8448" width="9.109375" style="9"/>
-    <col min="8449" max="8449" width="10.44140625" style="9" customWidth="1"/>
-    <col min="8450" max="8450" width="19.88671875" style="9" customWidth="1"/>
+    <col min="8196" max="8196" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8197" max="8197" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8198" max="8198" width="10.28515625" style="9" customWidth="1"/>
+    <col min="8199" max="8199" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8200" max="8200" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8201" max="8201" width="24.140625" style="9" customWidth="1"/>
+    <col min="8202" max="8202" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8203" max="8203" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8204" max="8204" width="21.140625" style="9" customWidth="1"/>
+    <col min="8205" max="8205" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8206" max="8448" width="9.140625" style="9"/>
+    <col min="8449" max="8449" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8450" max="8450" width="19.85546875" style="9" customWidth="1"/>
     <col min="8451" max="8451" width="13" style="9" customWidth="1"/>
-    <col min="8452" max="8452" width="14.33203125" style="9" customWidth="1"/>
-    <col min="8453" max="8453" width="12.44140625" style="9" customWidth="1"/>
-    <col min="8454" max="8454" width="10.33203125" style="9" customWidth="1"/>
-    <col min="8455" max="8455" width="17.5546875" style="9" customWidth="1"/>
-    <col min="8456" max="8456" width="27.44140625" style="9" customWidth="1"/>
-    <col min="8457" max="8457" width="24.109375" style="9" customWidth="1"/>
-    <col min="8458" max="8458" width="13.5546875" style="9" customWidth="1"/>
-    <col min="8459" max="8459" width="23.44140625" style="9" customWidth="1"/>
-    <col min="8460" max="8460" width="21.109375" style="9" customWidth="1"/>
-    <col min="8461" max="8461" width="20.44140625" style="9" customWidth="1"/>
-    <col min="8462" max="8704" width="9.109375" style="9"/>
-    <col min="8705" max="8705" width="10.44140625" style="9" customWidth="1"/>
-    <col min="8706" max="8706" width="19.88671875" style="9" customWidth="1"/>
+    <col min="8452" max="8452" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8453" max="8453" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8454" max="8454" width="10.28515625" style="9" customWidth="1"/>
+    <col min="8455" max="8455" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8456" max="8456" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8457" max="8457" width="24.140625" style="9" customWidth="1"/>
+    <col min="8458" max="8458" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8459" max="8459" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8460" max="8460" width="21.140625" style="9" customWidth="1"/>
+    <col min="8461" max="8461" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8462" max="8704" width="9.140625" style="9"/>
+    <col min="8705" max="8705" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8706" max="8706" width="19.85546875" style="9" customWidth="1"/>
     <col min="8707" max="8707" width="13" style="9" customWidth="1"/>
-    <col min="8708" max="8708" width="14.33203125" style="9" customWidth="1"/>
-    <col min="8709" max="8709" width="12.44140625" style="9" customWidth="1"/>
-    <col min="8710" max="8710" width="10.33203125" style="9" customWidth="1"/>
-    <col min="8711" max="8711" width="17.5546875" style="9" customWidth="1"/>
-    <col min="8712" max="8712" width="27.44140625" style="9" customWidth="1"/>
-    <col min="8713" max="8713" width="24.109375" style="9" customWidth="1"/>
-    <col min="8714" max="8714" width="13.5546875" style="9" customWidth="1"/>
-    <col min="8715" max="8715" width="23.44140625" style="9" customWidth="1"/>
-    <col min="8716" max="8716" width="21.109375" style="9" customWidth="1"/>
-    <col min="8717" max="8717" width="20.44140625" style="9" customWidth="1"/>
-    <col min="8718" max="8960" width="9.109375" style="9"/>
-    <col min="8961" max="8961" width="10.44140625" style="9" customWidth="1"/>
-    <col min="8962" max="8962" width="19.88671875" style="9" customWidth="1"/>
+    <col min="8708" max="8708" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8709" max="8709" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8710" max="8710" width="10.28515625" style="9" customWidth="1"/>
+    <col min="8711" max="8711" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8712" max="8712" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8713" max="8713" width="24.140625" style="9" customWidth="1"/>
+    <col min="8714" max="8714" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8715" max="8715" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8716" max="8716" width="21.140625" style="9" customWidth="1"/>
+    <col min="8717" max="8717" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8718" max="8960" width="9.140625" style="9"/>
+    <col min="8961" max="8961" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8962" max="8962" width="19.85546875" style="9" customWidth="1"/>
     <col min="8963" max="8963" width="13" style="9" customWidth="1"/>
-    <col min="8964" max="8964" width="14.33203125" style="9" customWidth="1"/>
-    <col min="8965" max="8965" width="12.44140625" style="9" customWidth="1"/>
-    <col min="8966" max="8966" width="10.33203125" style="9" customWidth="1"/>
-    <col min="8967" max="8967" width="17.5546875" style="9" customWidth="1"/>
-    <col min="8968" max="8968" width="27.44140625" style="9" customWidth="1"/>
-    <col min="8969" max="8969" width="24.109375" style="9" customWidth="1"/>
-    <col min="8970" max="8970" width="13.5546875" style="9" customWidth="1"/>
-    <col min="8971" max="8971" width="23.44140625" style="9" customWidth="1"/>
-    <col min="8972" max="8972" width="21.109375" style="9" customWidth="1"/>
-    <col min="8973" max="8973" width="20.44140625" style="9" customWidth="1"/>
-    <col min="8974" max="9216" width="9.109375" style="9"/>
-    <col min="9217" max="9217" width="10.44140625" style="9" customWidth="1"/>
-    <col min="9218" max="9218" width="19.88671875" style="9" customWidth="1"/>
+    <col min="8964" max="8964" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8965" max="8965" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8966" max="8966" width="10.28515625" style="9" customWidth="1"/>
+    <col min="8967" max="8967" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8968" max="8968" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8969" max="8969" width="24.140625" style="9" customWidth="1"/>
+    <col min="8970" max="8970" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8971" max="8971" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8972" max="8972" width="21.140625" style="9" customWidth="1"/>
+    <col min="8973" max="8973" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8974" max="9216" width="9.140625" style="9"/>
+    <col min="9217" max="9217" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9218" max="9218" width="19.85546875" style="9" customWidth="1"/>
     <col min="9219" max="9219" width="13" style="9" customWidth="1"/>
-    <col min="9220" max="9220" width="14.33203125" style="9" customWidth="1"/>
-    <col min="9221" max="9221" width="12.44140625" style="9" customWidth="1"/>
-    <col min="9222" max="9222" width="10.33203125" style="9" customWidth="1"/>
-    <col min="9223" max="9223" width="17.5546875" style="9" customWidth="1"/>
-    <col min="9224" max="9224" width="27.44140625" style="9" customWidth="1"/>
-    <col min="9225" max="9225" width="24.109375" style="9" customWidth="1"/>
-    <col min="9226" max="9226" width="13.5546875" style="9" customWidth="1"/>
-    <col min="9227" max="9227" width="23.44140625" style="9" customWidth="1"/>
-    <col min="9228" max="9228" width="21.109375" style="9" customWidth="1"/>
-    <col min="9229" max="9229" width="20.44140625" style="9" customWidth="1"/>
-    <col min="9230" max="9472" width="9.109375" style="9"/>
-    <col min="9473" max="9473" width="10.44140625" style="9" customWidth="1"/>
-    <col min="9474" max="9474" width="19.88671875" style="9" customWidth="1"/>
+    <col min="9220" max="9220" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9221" max="9221" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9222" max="9222" width="10.28515625" style="9" customWidth="1"/>
+    <col min="9223" max="9223" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9224" max="9224" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9225" max="9225" width="24.140625" style="9" customWidth="1"/>
+    <col min="9226" max="9226" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9227" max="9227" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9228" max="9228" width="21.140625" style="9" customWidth="1"/>
+    <col min="9229" max="9229" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9230" max="9472" width="9.140625" style="9"/>
+    <col min="9473" max="9473" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9474" max="9474" width="19.85546875" style="9" customWidth="1"/>
     <col min="9475" max="9475" width="13" style="9" customWidth="1"/>
-    <col min="9476" max="9476" width="14.33203125" style="9" customWidth="1"/>
-    <col min="9477" max="9477" width="12.44140625" style="9" customWidth="1"/>
-    <col min="9478" max="9478" width="10.33203125" style="9" customWidth="1"/>
-    <col min="9479" max="9479" width="17.5546875" style="9" customWidth="1"/>
-    <col min="9480" max="9480" width="27.44140625" style="9" customWidth="1"/>
-    <col min="9481" max="9481" width="24.109375" style="9" customWidth="1"/>
-    <col min="9482" max="9482" width="13.5546875" style="9" customWidth="1"/>
-    <col min="9483" max="9483" width="23.44140625" style="9" customWidth="1"/>
-    <col min="9484" max="9484" width="21.109375" style="9" customWidth="1"/>
-    <col min="9485" max="9485" width="20.44140625" style="9" customWidth="1"/>
-    <col min="9486" max="9728" width="9.109375" style="9"/>
-    <col min="9729" max="9729" width="10.44140625" style="9" customWidth="1"/>
-    <col min="9730" max="9730" width="19.88671875" style="9" customWidth="1"/>
+    <col min="9476" max="9476" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9477" max="9477" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9478" max="9478" width="10.28515625" style="9" customWidth="1"/>
+    <col min="9479" max="9479" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9480" max="9480" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9481" max="9481" width="24.140625" style="9" customWidth="1"/>
+    <col min="9482" max="9482" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9483" max="9483" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9484" max="9484" width="21.140625" style="9" customWidth="1"/>
+    <col min="9485" max="9485" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9486" max="9728" width="9.140625" style="9"/>
+    <col min="9729" max="9729" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9730" max="9730" width="19.85546875" style="9" customWidth="1"/>
     <col min="9731" max="9731" width="13" style="9" customWidth="1"/>
-    <col min="9732" max="9732" width="14.33203125" style="9" customWidth="1"/>
-    <col min="9733" max="9733" width="12.44140625" style="9" customWidth="1"/>
-    <col min="9734" max="9734" width="10.33203125" style="9" customWidth="1"/>
-    <col min="9735" max="9735" width="17.5546875" style="9" customWidth="1"/>
-    <col min="9736" max="9736" width="27.44140625" style="9" customWidth="1"/>
-    <col min="9737" max="9737" width="24.109375" style="9" customWidth="1"/>
-    <col min="9738" max="9738" width="13.5546875" style="9" customWidth="1"/>
-    <col min="9739" max="9739" width="23.44140625" style="9" customWidth="1"/>
-    <col min="9740" max="9740" width="21.109375" style="9" customWidth="1"/>
-    <col min="9741" max="9741" width="20.44140625" style="9" customWidth="1"/>
-    <col min="9742" max="9984" width="9.109375" style="9"/>
-    <col min="9985" max="9985" width="10.44140625" style="9" customWidth="1"/>
-    <col min="9986" max="9986" width="19.88671875" style="9" customWidth="1"/>
+    <col min="9732" max="9732" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9733" max="9733" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9734" max="9734" width="10.28515625" style="9" customWidth="1"/>
+    <col min="9735" max="9735" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9736" max="9736" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9737" max="9737" width="24.140625" style="9" customWidth="1"/>
+    <col min="9738" max="9738" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9739" max="9739" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9740" max="9740" width="21.140625" style="9" customWidth="1"/>
+    <col min="9741" max="9741" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9742" max="9984" width="9.140625" style="9"/>
+    <col min="9985" max="9985" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9986" max="9986" width="19.85546875" style="9" customWidth="1"/>
     <col min="9987" max="9987" width="13" style="9" customWidth="1"/>
-    <col min="9988" max="9988" width="14.33203125" style="9" customWidth="1"/>
-    <col min="9989" max="9989" width="12.44140625" style="9" customWidth="1"/>
-    <col min="9990" max="9990" width="10.33203125" style="9" customWidth="1"/>
-    <col min="9991" max="9991" width="17.5546875" style="9" customWidth="1"/>
-    <col min="9992" max="9992" width="27.44140625" style="9" customWidth="1"/>
-    <col min="9993" max="9993" width="24.109375" style="9" customWidth="1"/>
-    <col min="9994" max="9994" width="13.5546875" style="9" customWidth="1"/>
-    <col min="9995" max="9995" width="23.44140625" style="9" customWidth="1"/>
-    <col min="9996" max="9996" width="21.109375" style="9" customWidth="1"/>
-    <col min="9997" max="9997" width="20.44140625" style="9" customWidth="1"/>
-    <col min="9998" max="10240" width="9.109375" style="9"/>
-    <col min="10241" max="10241" width="10.44140625" style="9" customWidth="1"/>
-    <col min="10242" max="10242" width="19.88671875" style="9" customWidth="1"/>
+    <col min="9988" max="9988" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9989" max="9989" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9990" max="9990" width="10.28515625" style="9" customWidth="1"/>
+    <col min="9991" max="9991" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9992" max="9992" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9993" max="9993" width="24.140625" style="9" customWidth="1"/>
+    <col min="9994" max="9994" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9995" max="9995" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9996" max="9996" width="21.140625" style="9" customWidth="1"/>
+    <col min="9997" max="9997" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9998" max="10240" width="9.140625" style="9"/>
+    <col min="10241" max="10241" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10242" max="10242" width="19.85546875" style="9" customWidth="1"/>
     <col min="10243" max="10243" width="13" style="9" customWidth="1"/>
-    <col min="10244" max="10244" width="14.33203125" style="9" customWidth="1"/>
-    <col min="10245" max="10245" width="12.44140625" style="9" customWidth="1"/>
-    <col min="10246" max="10246" width="10.33203125" style="9" customWidth="1"/>
-    <col min="10247" max="10247" width="17.5546875" style="9" customWidth="1"/>
-    <col min="10248" max="10248" width="27.44140625" style="9" customWidth="1"/>
-    <col min="10249" max="10249" width="24.109375" style="9" customWidth="1"/>
-    <col min="10250" max="10250" width="13.5546875" style="9" customWidth="1"/>
-    <col min="10251" max="10251" width="23.44140625" style="9" customWidth="1"/>
-    <col min="10252" max="10252" width="21.109375" style="9" customWidth="1"/>
-    <col min="10253" max="10253" width="20.44140625" style="9" customWidth="1"/>
-    <col min="10254" max="10496" width="9.109375" style="9"/>
-    <col min="10497" max="10497" width="10.44140625" style="9" customWidth="1"/>
-    <col min="10498" max="10498" width="19.88671875" style="9" customWidth="1"/>
+    <col min="10244" max="10244" width="14.28515625" style="9" customWidth="1"/>
+    <col min="10245" max="10245" width="12.42578125" style="9" customWidth="1"/>
+    <col min="10246" max="10246" width="10.28515625" style="9" customWidth="1"/>
+    <col min="10247" max="10247" width="17.5703125" style="9" customWidth="1"/>
+    <col min="10248" max="10248" width="27.42578125" style="9" customWidth="1"/>
+    <col min="10249" max="10249" width="24.140625" style="9" customWidth="1"/>
+    <col min="10250" max="10250" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10251" max="10251" width="23.42578125" style="9" customWidth="1"/>
+    <col min="10252" max="10252" width="21.140625" style="9" customWidth="1"/>
+    <col min="10253" max="10253" width="20.42578125" style="9" customWidth="1"/>
+    <col min="10254" max="10496" width="9.140625" style="9"/>
+    <col min="10497" max="10497" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10498" max="10498" width="19.85546875" style="9" customWidth="1"/>
     <col min="10499" max="10499" width="13" style="9" customWidth="1"/>
-    <col min="10500" max="10500" width="14.33203125" style="9" customWidth="1"/>
-    <col min="10501" max="10501" width="12.44140625" style="9" customWidth="1"/>
-    <col min="10502" max="10502" width="10.33203125" style="9" customWidth="1"/>
-    <col min="10503" max="10503" width="17.5546875" style="9" customWidth="1"/>
-    <col min="10504" max="10504" width="27.44140625" style="9" customWidth="1"/>
-    <col min="10505" max="10505" width="24.109375" style="9" customWidth="1"/>
-    <col min="10506" max="10506" width="13.5546875" style="9" customWidth="1"/>
-    <col min="10507" max="10507" width="23.44140625" style="9" customWidth="1"/>
-    <col min="10508" max="10508" width="21.109375" style="9" customWidth="1"/>
-    <col min="10509" max="10509" width="20.44140625" style="9" customWidth="1"/>
-    <col min="10510" max="10752" width="9.109375" style="9"/>
-    <col min="10753" max="10753" width="10.44140625" style="9" customWidth="1"/>
-    <col min="10754" max="10754" width="19.88671875" style="9" customWidth="1"/>
+    <col min="10500" max="10500" width="14.28515625" style="9" customWidth="1"/>
+    <col min="10501" max="10501" width="12.42578125" style="9" customWidth="1"/>
+    <col min="10502" max="10502" width="10.28515625" style="9" customWidth="1"/>
+    <col min="10503" max="10503" width="17.5703125" style="9" customWidth="1"/>
+    <col min="10504" max="10504" width="27.42578125" style="9" customWidth="1"/>
+    <col min="10505" max="10505" width="24.140625" style="9" customWidth="1"/>
+    <col min="10506" max="10506" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10507" max="10507" width="23.42578125" style="9" customWidth="1"/>
+    <col min="10508" max="10508" width="21.140625" style="9" customWidth="1"/>
+    <col min="10509" max="10509" width="20.42578125" style="9" customWidth="1"/>
+    <col min="10510" max="10752" width="9.140625" style="9"/>
+    <col min="10753" max="10753" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10754" max="10754" width="19.85546875" style="9" customWidth="1"/>
     <col min="10755" max="10755" width="13" style="9" customWidth="1"/>
-    <col min="10756" max="10756" width="14.33203125" style="9" customWidth="1"/>
-    <col min="10757" max="10757" width="12.44140625" style="9" customWidth="1"/>
-    <col min="10758" max="10758" width="10.33203125" style="9" customWidth="1"/>
-    <col min="10759" max="10759" width="17.5546875" style="9" customWidth="1"/>
-    <col min="10760" max="10760" width="27.44140625" style="9" customWidth="1"/>
-    <col min="10761" max="10761" width="24.109375" style="9" customWidth="1"/>
-    <col min="10762" max="10762" width="13.5546875" style="9" customWidth="1"/>
-    <col min="10763" max="10763" width="23.44140625" style="9" customWidth="1"/>
-    <col min="10764" max="10764" width="21.109375" style="9" customWidth="1"/>
-    <col min="10765" max="10765" width="20.44140625" style="9" customWidth="1"/>
-    <col min="10766" max="11008" width="9.109375" style="9"/>
-    <col min="11009" max="11009" width="10.44140625" style="9" customWidth="1"/>
-    <col min="11010" max="11010" width="19.88671875" style="9" customWidth="1"/>
+    <col min="10756" max="10756" width="14.28515625" style="9" customWidth="1"/>
+    <col min="10757" max="10757" width="12.42578125" style="9" customWidth="1"/>
+    <col min="10758" max="10758" width="10.28515625" style="9" customWidth="1"/>
+    <col min="10759" max="10759" width="17.5703125" style="9" customWidth="1"/>
+    <col min="10760" max="10760" width="27.42578125" style="9" customWidth="1"/>
+    <col min="10761" max="10761" width="24.140625" style="9" customWidth="1"/>
+    <col min="10762" max="10762" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10763" max="10763" width="23.42578125" style="9" customWidth="1"/>
+    <col min="10764" max="10764" width="21.140625" style="9" customWidth="1"/>
+    <col min="10765" max="10765" width="20.42578125" style="9" customWidth="1"/>
+    <col min="10766" max="11008" width="9.140625" style="9"/>
+    <col min="11009" max="11009" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11010" max="11010" width="19.85546875" style="9" customWidth="1"/>
     <col min="11011" max="11011" width="13" style="9" customWidth="1"/>
-    <col min="11012" max="11012" width="14.33203125" style="9" customWidth="1"/>
-    <col min="11013" max="11013" width="12.44140625" style="9" customWidth="1"/>
-    <col min="11014" max="11014" width="10.33203125" style="9" customWidth="1"/>
-    <col min="11015" max="11015" width="17.5546875" style="9" customWidth="1"/>
-    <col min="11016" max="11016" width="27.44140625" style="9" customWidth="1"/>
-    <col min="11017" max="11017" width="24.109375" style="9" customWidth="1"/>
-    <col min="11018" max="11018" width="13.5546875" style="9" customWidth="1"/>
-    <col min="11019" max="11019" width="23.44140625" style="9" customWidth="1"/>
-    <col min="11020" max="11020" width="21.109375" style="9" customWidth="1"/>
-    <col min="11021" max="11021" width="20.44140625" style="9" customWidth="1"/>
-    <col min="11022" max="11264" width="9.109375" style="9"/>
-    <col min="11265" max="11265" width="10.44140625" style="9" customWidth="1"/>
-    <col min="11266" max="11266" width="19.88671875" style="9" customWidth="1"/>
+    <col min="11012" max="11012" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11013" max="11013" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11014" max="11014" width="10.28515625" style="9" customWidth="1"/>
+    <col min="11015" max="11015" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11016" max="11016" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11017" max="11017" width="24.140625" style="9" customWidth="1"/>
+    <col min="11018" max="11018" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11019" max="11019" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11020" max="11020" width="21.140625" style="9" customWidth="1"/>
+    <col min="11021" max="11021" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11022" max="11264" width="9.140625" style="9"/>
+    <col min="11265" max="11265" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11266" max="11266" width="19.85546875" style="9" customWidth="1"/>
     <col min="11267" max="11267" width="13" style="9" customWidth="1"/>
-    <col min="11268" max="11268" width="14.33203125" style="9" customWidth="1"/>
-    <col min="11269" max="11269" width="12.44140625" style="9" customWidth="1"/>
-    <col min="11270" max="11270" width="10.33203125" style="9" customWidth="1"/>
-    <col min="11271" max="11271" width="17.5546875" style="9" customWidth="1"/>
-    <col min="11272" max="11272" width="27.44140625" style="9" customWidth="1"/>
-    <col min="11273" max="11273" width="24.109375" style="9" customWidth="1"/>
-    <col min="11274" max="11274" width="13.5546875" style="9" customWidth="1"/>
-    <col min="11275" max="11275" width="23.44140625" style="9" customWidth="1"/>
-    <col min="11276" max="11276" width="21.109375" style="9" customWidth="1"/>
-    <col min="11277" max="11277" width="20.44140625" style="9" customWidth="1"/>
-    <col min="11278" max="11520" width="9.109375" style="9"/>
-    <col min="11521" max="11521" width="10.44140625" style="9" customWidth="1"/>
-    <col min="11522" max="11522" width="19.88671875" style="9" customWidth="1"/>
+    <col min="11268" max="11268" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11269" max="11269" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11270" max="11270" width="10.28515625" style="9" customWidth="1"/>
+    <col min="11271" max="11271" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11272" max="11272" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11273" max="11273" width="24.140625" style="9" customWidth="1"/>
+    <col min="11274" max="11274" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11275" max="11275" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11276" max="11276" width="21.140625" style="9" customWidth="1"/>
+    <col min="11277" max="11277" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11278" max="11520" width="9.140625" style="9"/>
+    <col min="11521" max="11521" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11522" max="11522" width="19.85546875" style="9" customWidth="1"/>
     <col min="11523" max="11523" width="13" style="9" customWidth="1"/>
-    <col min="11524" max="11524" width="14.33203125" style="9" customWidth="1"/>
-    <col min="11525" max="11525" width="12.44140625" style="9" customWidth="1"/>
-    <col min="11526" max="11526" width="10.33203125" style="9" customWidth="1"/>
-    <col min="11527" max="11527" width="17.5546875" style="9" customWidth="1"/>
-    <col min="11528" max="11528" width="27.44140625" style="9" customWidth="1"/>
-    <col min="11529" max="11529" width="24.109375" style="9" customWidth="1"/>
-    <col min="11530" max="11530" width="13.5546875" style="9" customWidth="1"/>
-    <col min="11531" max="11531" width="23.44140625" style="9" customWidth="1"/>
-    <col min="11532" max="11532" width="21.109375" style="9" customWidth="1"/>
-    <col min="11533" max="11533" width="20.44140625" style="9" customWidth="1"/>
-    <col min="11534" max="11776" width="9.109375" style="9"/>
-    <col min="11777" max="11777" width="10.44140625" style="9" customWidth="1"/>
-    <col min="11778" max="11778" width="19.88671875" style="9" customWidth="1"/>
+    <col min="11524" max="11524" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11525" max="11525" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11526" max="11526" width="10.28515625" style="9" customWidth="1"/>
+    <col min="11527" max="11527" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11528" max="11528" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11529" max="11529" width="24.140625" style="9" customWidth="1"/>
+    <col min="11530" max="11530" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11531" max="11531" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11532" max="11532" width="21.140625" style="9" customWidth="1"/>
+    <col min="11533" max="11533" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11534" max="11776" width="9.140625" style="9"/>
+    <col min="11777" max="11777" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11778" max="11778" width="19.85546875" style="9" customWidth="1"/>
     <col min="11779" max="11779" width="13" style="9" customWidth="1"/>
-    <col min="11780" max="11780" width="14.33203125" style="9" customWidth="1"/>
-    <col min="11781" max="11781" width="12.44140625" style="9" customWidth="1"/>
-    <col min="11782" max="11782" width="10.33203125" style="9" customWidth="1"/>
-    <col min="11783" max="11783" width="17.5546875" style="9" customWidth="1"/>
-    <col min="11784" max="11784" width="27.44140625" style="9" customWidth="1"/>
-    <col min="11785" max="11785" width="24.109375" style="9" customWidth="1"/>
-    <col min="11786" max="11786" width="13.5546875" style="9" customWidth="1"/>
-    <col min="11787" max="11787" width="23.44140625" style="9" customWidth="1"/>
-    <col min="11788" max="11788" width="21.109375" style="9" customWidth="1"/>
-    <col min="11789" max="11789" width="20.44140625" style="9" customWidth="1"/>
-    <col min="11790" max="12032" width="9.109375" style="9"/>
-    <col min="12033" max="12033" width="10.44140625" style="9" customWidth="1"/>
-    <col min="12034" max="12034" width="19.88671875" style="9" customWidth="1"/>
+    <col min="11780" max="11780" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11781" max="11781" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11782" max="11782" width="10.28515625" style="9" customWidth="1"/>
+    <col min="11783" max="11783" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11784" max="11784" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11785" max="11785" width="24.140625" style="9" customWidth="1"/>
+    <col min="11786" max="11786" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11787" max="11787" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11788" max="11788" width="21.140625" style="9" customWidth="1"/>
+    <col min="11789" max="11789" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11790" max="12032" width="9.140625" style="9"/>
+    <col min="12033" max="12033" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12034" max="12034" width="19.85546875" style="9" customWidth="1"/>
     <col min="12035" max="12035" width="13" style="9" customWidth="1"/>
-    <col min="12036" max="12036" width="14.33203125" style="9" customWidth="1"/>
-    <col min="12037" max="12037" width="12.44140625" style="9" customWidth="1"/>
-    <col min="12038" max="12038" width="10.33203125" style="9" customWidth="1"/>
-    <col min="12039" max="12039" width="17.5546875" style="9" customWidth="1"/>
-    <col min="12040" max="12040" width="27.44140625" style="9" customWidth="1"/>
-    <col min="12041" max="12041" width="24.109375" style="9" customWidth="1"/>
-    <col min="12042" max="12042" width="13.5546875" style="9" customWidth="1"/>
-    <col min="12043" max="12043" width="23.44140625" style="9" customWidth="1"/>
-    <col min="12044" max="12044" width="21.109375" style="9" customWidth="1"/>
-    <col min="12045" max="12045" width="20.44140625" style="9" customWidth="1"/>
-    <col min="12046" max="12288" width="9.109375" style="9"/>
-    <col min="12289" max="12289" width="10.44140625" style="9" customWidth="1"/>
-    <col min="12290" max="12290" width="19.88671875" style="9" customWidth="1"/>
+    <col min="12036" max="12036" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12037" max="12037" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12038" max="12038" width="10.28515625" style="9" customWidth="1"/>
+    <col min="12039" max="12039" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12040" max="12040" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12041" max="12041" width="24.140625" style="9" customWidth="1"/>
+    <col min="12042" max="12042" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12043" max="12043" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12044" max="12044" width="21.140625" style="9" customWidth="1"/>
+    <col min="12045" max="12045" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12046" max="12288" width="9.140625" style="9"/>
+    <col min="12289" max="12289" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12290" max="12290" width="19.85546875" style="9" customWidth="1"/>
     <col min="12291" max="12291" width="13" style="9" customWidth="1"/>
-    <col min="12292" max="12292" width="14.33203125" style="9" customWidth="1"/>
-    <col min="12293" max="12293" width="12.44140625" style="9" customWidth="1"/>
-    <col min="12294" max="12294" width="10.33203125" style="9" customWidth="1"/>
-    <col min="12295" max="12295" width="17.5546875" style="9" customWidth="1"/>
-    <col min="12296" max="12296" width="27.44140625" style="9" customWidth="1"/>
-    <col min="12297" max="12297" width="24.109375" style="9" customWidth="1"/>
-    <col min="12298" max="12298" width="13.5546875" style="9" customWidth="1"/>
-    <col min="12299" max="12299" width="23.44140625" style="9" customWidth="1"/>
-    <col min="12300" max="12300" width="21.109375" style="9" customWidth="1"/>
-    <col min="12301" max="12301" width="20.44140625" style="9" customWidth="1"/>
-    <col min="12302" max="12544" width="9.109375" style="9"/>
-    <col min="12545" max="12545" width="10.44140625" style="9" customWidth="1"/>
-    <col min="12546" max="12546" width="19.88671875" style="9" customWidth="1"/>
+    <col min="12292" max="12292" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12293" max="12293" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12294" max="12294" width="10.28515625" style="9" customWidth="1"/>
+    <col min="12295" max="12295" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12296" max="12296" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12297" max="12297" width="24.140625" style="9" customWidth="1"/>
+    <col min="12298" max="12298" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12299" max="12299" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12300" max="12300" width="21.140625" style="9" customWidth="1"/>
+    <col min="12301" max="12301" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12302" max="12544" width="9.140625" style="9"/>
+    <col min="12545" max="12545" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12546" max="12546" width="19.85546875" style="9" customWidth="1"/>
     <col min="12547" max="12547" width="13" style="9" customWidth="1"/>
-    <col min="12548" max="12548" width="14.33203125" style="9" customWidth="1"/>
-    <col min="12549" max="12549" width="12.44140625" style="9" customWidth="1"/>
-    <col min="12550" max="12550" width="10.33203125" style="9" customWidth="1"/>
-    <col min="12551" max="12551" width="17.5546875" style="9" customWidth="1"/>
-    <col min="12552" max="12552" width="27.44140625" style="9" customWidth="1"/>
-    <col min="12553" max="12553" width="24.109375" style="9" customWidth="1"/>
-    <col min="12554" max="12554" width="13.5546875" style="9" customWidth="1"/>
-    <col min="12555" max="12555" width="23.44140625" style="9" customWidth="1"/>
-    <col min="12556" max="12556" width="21.109375" style="9" customWidth="1"/>
-    <col min="12557" max="12557" width="20.44140625" style="9" customWidth="1"/>
-    <col min="12558" max="12800" width="9.109375" style="9"/>
-    <col min="12801" max="12801" width="10.44140625" style="9" customWidth="1"/>
-    <col min="12802" max="12802" width="19.88671875" style="9" customWidth="1"/>
+    <col min="12548" max="12548" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12549" max="12549" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12550" max="12550" width="10.28515625" style="9" customWidth="1"/>
+    <col min="12551" max="12551" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12552" max="12552" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12553" max="12553" width="24.140625" style="9" customWidth="1"/>
+    <col min="12554" max="12554" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12555" max="12555" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12556" max="12556" width="21.140625" style="9" customWidth="1"/>
+    <col min="12557" max="12557" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12558" max="12800" width="9.140625" style="9"/>
+    <col min="12801" max="12801" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12802" max="12802" width="19.85546875" style="9" customWidth="1"/>
     <col min="12803" max="12803" width="13" style="9" customWidth="1"/>
-    <col min="12804" max="12804" width="14.33203125" style="9" customWidth="1"/>
-    <col min="12805" max="12805" width="12.44140625" style="9" customWidth="1"/>
-    <col min="12806" max="12806" width="10.33203125" style="9" customWidth="1"/>
-    <col min="12807" max="12807" width="17.5546875" style="9" customWidth="1"/>
-    <col min="12808" max="12808" width="27.44140625" style="9" customWidth="1"/>
-    <col min="12809" max="12809" width="24.109375" style="9" customWidth="1"/>
-    <col min="12810" max="12810" width="13.5546875" style="9" customWidth="1"/>
-    <col min="12811" max="12811" width="23.44140625" style="9" customWidth="1"/>
-    <col min="12812" max="12812" width="21.109375" style="9" customWidth="1"/>
-    <col min="12813" max="12813" width="20.44140625" style="9" customWidth="1"/>
-    <col min="12814" max="13056" width="9.109375" style="9"/>
-    <col min="13057" max="13057" width="10.44140625" style="9" customWidth="1"/>
-    <col min="13058" max="13058" width="19.88671875" style="9" customWidth="1"/>
+    <col min="12804" max="12804" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12805" max="12805" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12806" max="12806" width="10.28515625" style="9" customWidth="1"/>
+    <col min="12807" max="12807" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12808" max="12808" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12809" max="12809" width="24.140625" style="9" customWidth="1"/>
+    <col min="12810" max="12810" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12811" max="12811" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12812" max="12812" width="21.140625" style="9" customWidth="1"/>
+    <col min="12813" max="12813" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12814" max="13056" width="9.140625" style="9"/>
+    <col min="13057" max="13057" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13058" max="13058" width="19.85546875" style="9" customWidth="1"/>
     <col min="13059" max="13059" width="13" style="9" customWidth="1"/>
-    <col min="13060" max="13060" width="14.33203125" style="9" customWidth="1"/>
-    <col min="13061" max="13061" width="12.44140625" style="9" customWidth="1"/>
-    <col min="13062" max="13062" width="10.33203125" style="9" customWidth="1"/>
-    <col min="13063" max="13063" width="17.5546875" style="9" customWidth="1"/>
-    <col min="13064" max="13064" width="27.44140625" style="9" customWidth="1"/>
-    <col min="13065" max="13065" width="24.109375" style="9" customWidth="1"/>
-    <col min="13066" max="13066" width="13.5546875" style="9" customWidth="1"/>
-    <col min="13067" max="13067" width="23.44140625" style="9" customWidth="1"/>
-    <col min="13068" max="13068" width="21.109375" style="9" customWidth="1"/>
-    <col min="13069" max="13069" width="20.44140625" style="9" customWidth="1"/>
-    <col min="13070" max="13312" width="9.109375" style="9"/>
-    <col min="13313" max="13313" width="10.44140625" style="9" customWidth="1"/>
-    <col min="13314" max="13314" width="19.88671875" style="9" customWidth="1"/>
+    <col min="13060" max="13060" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13061" max="13061" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13062" max="13062" width="10.28515625" style="9" customWidth="1"/>
+    <col min="13063" max="13063" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13064" max="13064" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13065" max="13065" width="24.140625" style="9" customWidth="1"/>
+    <col min="13066" max="13066" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13067" max="13067" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13068" max="13068" width="21.140625" style="9" customWidth="1"/>
+    <col min="13069" max="13069" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13070" max="13312" width="9.140625" style="9"/>
+    <col min="13313" max="13313" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13314" max="13314" width="19.85546875" style="9" customWidth="1"/>
     <col min="13315" max="13315" width="13" style="9" customWidth="1"/>
-    <col min="13316" max="13316" width="14.33203125" style="9" customWidth="1"/>
-    <col min="13317" max="13317" width="12.44140625" style="9" customWidth="1"/>
-    <col min="13318" max="13318" width="10.33203125" style="9" customWidth="1"/>
-    <col min="13319" max="13319" width="17.5546875" style="9" customWidth="1"/>
-    <col min="13320" max="13320" width="27.44140625" style="9" customWidth="1"/>
-    <col min="13321" max="13321" width="24.109375" style="9" customWidth="1"/>
-    <col min="13322" max="13322" width="13.5546875" style="9" customWidth="1"/>
-    <col min="13323" max="13323" width="23.44140625" style="9" customWidth="1"/>
-    <col min="13324" max="13324" width="21.109375" style="9" customWidth="1"/>
-    <col min="13325" max="13325" width="20.44140625" style="9" customWidth="1"/>
-    <col min="13326" max="13568" width="9.109375" style="9"/>
-    <col min="13569" max="13569" width="10.44140625" style="9" customWidth="1"/>
-    <col min="13570" max="13570" width="19.88671875" style="9" customWidth="1"/>
+    <col min="13316" max="13316" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13317" max="13317" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13318" max="13318" width="10.28515625" style="9" customWidth="1"/>
+    <col min="13319" max="13319" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13320" max="13320" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13321" max="13321" width="24.140625" style="9" customWidth="1"/>
+    <col min="13322" max="13322" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13323" max="13323" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13324" max="13324" width="21.140625" style="9" customWidth="1"/>
+    <col min="13325" max="13325" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13326" max="13568" width="9.140625" style="9"/>
+    <col min="13569" max="13569" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13570" max="13570" width="19.85546875" style="9" customWidth="1"/>
     <col min="13571" max="13571" width="13" style="9" customWidth="1"/>
-    <col min="13572" max="13572" width="14.33203125" style="9" customWidth="1"/>
-    <col min="13573" max="13573" width="12.44140625" style="9" customWidth="1"/>
-    <col min="13574" max="13574" width="10.33203125" style="9" customWidth="1"/>
-    <col min="13575" max="13575" width="17.5546875" style="9" customWidth="1"/>
-    <col min="13576" max="13576" width="27.44140625" style="9" customWidth="1"/>
-    <col min="13577" max="13577" width="24.109375" style="9" customWidth="1"/>
-    <col min="13578" max="13578" width="13.5546875" style="9" customWidth="1"/>
-    <col min="13579" max="13579" width="23.44140625" style="9" customWidth="1"/>
-    <col min="13580" max="13580" width="21.109375" style="9" customWidth="1"/>
-    <col min="13581" max="13581" width="20.44140625" style="9" customWidth="1"/>
-    <col min="13582" max="13824" width="9.109375" style="9"/>
-    <col min="13825" max="13825" width="10.44140625" style="9" customWidth="1"/>
-    <col min="13826" max="13826" width="19.88671875" style="9" customWidth="1"/>
+    <col min="13572" max="13572" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13573" max="13573" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13574" max="13574" width="10.28515625" style="9" customWidth="1"/>
+    <col min="13575" max="13575" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13576" max="13576" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13577" max="13577" width="24.140625" style="9" customWidth="1"/>
+    <col min="13578" max="13578" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13579" max="13579" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13580" max="13580" width="21.140625" style="9" customWidth="1"/>
+    <col min="13581" max="13581" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13582" max="13824" width="9.140625" style="9"/>
+    <col min="13825" max="13825" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13826" max="13826" width="19.85546875" style="9" customWidth="1"/>
     <col min="13827" max="13827" width="13" style="9" customWidth="1"/>
-    <col min="13828" max="13828" width="14.33203125" style="9" customWidth="1"/>
-    <col min="13829" max="13829" width="12.44140625" style="9" customWidth="1"/>
-    <col min="13830" max="13830" width="10.33203125" style="9" customWidth="1"/>
-    <col min="13831" max="13831" width="17.5546875" style="9" customWidth="1"/>
-    <col min="13832" max="13832" width="27.44140625" style="9" customWidth="1"/>
-    <col min="13833" max="13833" width="24.109375" style="9" customWidth="1"/>
-    <col min="13834" max="13834" width="13.5546875" style="9" customWidth="1"/>
-    <col min="13835" max="13835" width="23.44140625" style="9" customWidth="1"/>
-    <col min="13836" max="13836" width="21.109375" style="9" customWidth="1"/>
-    <col min="13837" max="13837" width="20.44140625" style="9" customWidth="1"/>
-    <col min="13838" max="14080" width="9.109375" style="9"/>
-    <col min="14081" max="14081" width="10.44140625" style="9" customWidth="1"/>
-    <col min="14082" max="14082" width="19.88671875" style="9" customWidth="1"/>
+    <col min="13828" max="13828" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13829" max="13829" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13830" max="13830" width="10.28515625" style="9" customWidth="1"/>
+    <col min="13831" max="13831" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13832" max="13832" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13833" max="13833" width="24.140625" style="9" customWidth="1"/>
+    <col min="13834" max="13834" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13835" max="13835" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13836" max="13836" width="21.140625" style="9" customWidth="1"/>
+    <col min="13837" max="13837" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13838" max="14080" width="9.140625" style="9"/>
+    <col min="14081" max="14081" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14082" max="14082" width="19.85546875" style="9" customWidth="1"/>
     <col min="14083" max="14083" width="13" style="9" customWidth="1"/>
-    <col min="14084" max="14084" width="14.33203125" style="9" customWidth="1"/>
-    <col min="14085" max="14085" width="12.44140625" style="9" customWidth="1"/>
-    <col min="14086" max="14086" width="10.33203125" style="9" customWidth="1"/>
-    <col min="14087" max="14087" width="17.5546875" style="9" customWidth="1"/>
-    <col min="14088" max="14088" width="27.44140625" style="9" customWidth="1"/>
-    <col min="14089" max="14089" width="24.109375" style="9" customWidth="1"/>
-    <col min="14090" max="14090" width="13.5546875" style="9" customWidth="1"/>
-    <col min="14091" max="14091" width="23.44140625" style="9" customWidth="1"/>
-    <col min="14092" max="14092" width="21.109375" style="9" customWidth="1"/>
-    <col min="14093" max="14093" width="20.44140625" style="9" customWidth="1"/>
-    <col min="14094" max="14336" width="9.109375" style="9"/>
-    <col min="14337" max="14337" width="10.44140625" style="9" customWidth="1"/>
-    <col min="14338" max="14338" width="19.88671875" style="9" customWidth="1"/>
+    <col min="14084" max="14084" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14085" max="14085" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14086" max="14086" width="10.28515625" style="9" customWidth="1"/>
+    <col min="14087" max="14087" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14088" max="14088" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14089" max="14089" width="24.140625" style="9" customWidth="1"/>
+    <col min="14090" max="14090" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14091" max="14091" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14092" max="14092" width="21.140625" style="9" customWidth="1"/>
+    <col min="14093" max="14093" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14094" max="14336" width="9.140625" style="9"/>
+    <col min="14337" max="14337" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14338" max="14338" width="19.85546875" style="9" customWidth="1"/>
     <col min="14339" max="14339" width="13" style="9" customWidth="1"/>
-    <col min="14340" max="14340" width="14.33203125" style="9" customWidth="1"/>
-    <col min="14341" max="14341" width="12.44140625" style="9" customWidth="1"/>
-    <col min="14342" max="14342" width="10.33203125" style="9" customWidth="1"/>
-    <col min="14343" max="14343" width="17.5546875" style="9" customWidth="1"/>
-    <col min="14344" max="14344" width="27.44140625" style="9" customWidth="1"/>
-    <col min="14345" max="14345" width="24.109375" style="9" customWidth="1"/>
-    <col min="14346" max="14346" width="13.5546875" style="9" customWidth="1"/>
-    <col min="14347" max="14347" width="23.44140625" style="9" customWidth="1"/>
-    <col min="14348" max="14348" width="21.109375" style="9" customWidth="1"/>
-    <col min="14349" max="14349" width="20.44140625" style="9" customWidth="1"/>
-    <col min="14350" max="14592" width="9.109375" style="9"/>
-    <col min="14593" max="14593" width="10.44140625" style="9" customWidth="1"/>
-    <col min="14594" max="14594" width="19.88671875" style="9" customWidth="1"/>
+    <col min="14340" max="14340" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14341" max="14341" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14342" max="14342" width="10.28515625" style="9" customWidth="1"/>
+    <col min="14343" max="14343" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14344" max="14344" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14345" max="14345" width="24.140625" style="9" customWidth="1"/>
+    <col min="14346" max="14346" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14347" max="14347" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14348" max="14348" width="21.140625" style="9" customWidth="1"/>
+    <col min="14349" max="14349" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14350" max="14592" width="9.140625" style="9"/>
+    <col min="14593" max="14593" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14594" max="14594" width="19.85546875" style="9" customWidth="1"/>
     <col min="14595" max="14595" width="13" style="9" customWidth="1"/>
-    <col min="14596" max="14596" width="14.33203125" style="9" customWidth="1"/>
-    <col min="14597" max="14597" width="12.44140625" style="9" customWidth="1"/>
-    <col min="14598" max="14598" width="10.33203125" style="9" customWidth="1"/>
-    <col min="14599" max="14599" width="17.5546875" style="9" customWidth="1"/>
-    <col min="14600" max="14600" width="27.44140625" style="9" customWidth="1"/>
-    <col min="14601" max="14601" width="24.109375" style="9" customWidth="1"/>
-    <col min="14602" max="14602" width="13.5546875" style="9" customWidth="1"/>
-    <col min="14603" max="14603" width="23.44140625" style="9" customWidth="1"/>
-    <col min="14604" max="14604" width="21.109375" style="9" customWidth="1"/>
-    <col min="14605" max="14605" width="20.44140625" style="9" customWidth="1"/>
-    <col min="14606" max="14848" width="9.109375" style="9"/>
-    <col min="14849" max="14849" width="10.44140625" style="9" customWidth="1"/>
-    <col min="14850" max="14850" width="19.88671875" style="9" customWidth="1"/>
+    <col min="14596" max="14596" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14597" max="14597" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14598" max="14598" width="10.28515625" style="9" customWidth="1"/>
+    <col min="14599" max="14599" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14600" max="14600" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14601" max="14601" width="24.140625" style="9" customWidth="1"/>
+    <col min="14602" max="14602" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14603" max="14603" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14604" max="14604" width="21.140625" style="9" customWidth="1"/>
+    <col min="14605" max="14605" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14606" max="14848" width="9.140625" style="9"/>
+    <col min="14849" max="14849" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14850" max="14850" width="19.85546875" style="9" customWidth="1"/>
     <col min="14851" max="14851" width="13" style="9" customWidth="1"/>
-    <col min="14852" max="14852" width="14.33203125" style="9" customWidth="1"/>
-    <col min="14853" max="14853" width="12.44140625" style="9" customWidth="1"/>
-    <col min="14854" max="14854" width="10.33203125" style="9" customWidth="1"/>
-    <col min="14855" max="14855" width="17.5546875" style="9" customWidth="1"/>
-    <col min="14856" max="14856" width="27.44140625" style="9" customWidth="1"/>
-    <col min="14857" max="14857" width="24.109375" style="9" customWidth="1"/>
-    <col min="14858" max="14858" width="13.5546875" style="9" customWidth="1"/>
-    <col min="14859" max="14859" width="23.44140625" style="9" customWidth="1"/>
-    <col min="14860" max="14860" width="21.109375" style="9" customWidth="1"/>
-    <col min="14861" max="14861" width="20.44140625" style="9" customWidth="1"/>
-    <col min="14862" max="15104" width="9.109375" style="9"/>
-    <col min="15105" max="15105" width="10.44140625" style="9" customWidth="1"/>
-    <col min="15106" max="15106" width="19.88671875" style="9" customWidth="1"/>
+    <col min="14852" max="14852" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14853" max="14853" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14854" max="14854" width="10.28515625" style="9" customWidth="1"/>
+    <col min="14855" max="14855" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14856" max="14856" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14857" max="14857" width="24.140625" style="9" customWidth="1"/>
+    <col min="14858" max="14858" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14859" max="14859" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14860" max="14860" width="21.140625" style="9" customWidth="1"/>
+    <col min="14861" max="14861" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14862" max="15104" width="9.140625" style="9"/>
+    <col min="15105" max="15105" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15106" max="15106" width="19.85546875" style="9" customWidth="1"/>
     <col min="15107" max="15107" width="13" style="9" customWidth="1"/>
-    <col min="15108" max="15108" width="14.33203125" style="9" customWidth="1"/>
-    <col min="15109" max="15109" width="12.44140625" style="9" customWidth="1"/>
-    <col min="15110" max="15110" width="10.33203125" style="9" customWidth="1"/>
-    <col min="15111" max="15111" width="17.5546875" style="9" customWidth="1"/>
-    <col min="15112" max="15112" width="27.44140625" style="9" customWidth="1"/>
-    <col min="15113" max="15113" width="24.109375" style="9" customWidth="1"/>
-    <col min="15114" max="15114" width="13.5546875" style="9" customWidth="1"/>
-    <col min="15115" max="15115" width="23.44140625" style="9" customWidth="1"/>
-    <col min="15116" max="15116" width="21.109375" style="9" customWidth="1"/>
-    <col min="15117" max="15117" width="20.44140625" style="9" customWidth="1"/>
-    <col min="15118" max="15360" width="9.109375" style="9"/>
-    <col min="15361" max="15361" width="10.44140625" style="9" customWidth="1"/>
-    <col min="15362" max="15362" width="19.88671875" style="9" customWidth="1"/>
+    <col min="15108" max="15108" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15109" max="15109" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15110" max="15110" width="10.28515625" style="9" customWidth="1"/>
+    <col min="15111" max="15111" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15112" max="15112" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15113" max="15113" width="24.140625" style="9" customWidth="1"/>
+    <col min="15114" max="15114" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15115" max="15115" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15116" max="15116" width="21.140625" style="9" customWidth="1"/>
+    <col min="15117" max="15117" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15118" max="15360" width="9.140625" style="9"/>
+    <col min="15361" max="15361" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15362" max="15362" width="19.85546875" style="9" customWidth="1"/>
     <col min="15363" max="15363" width="13" style="9" customWidth="1"/>
-    <col min="15364" max="15364" width="14.33203125" style="9" customWidth="1"/>
-    <col min="15365" max="15365" width="12.44140625" style="9" customWidth="1"/>
-    <col min="15366" max="15366" width="10.33203125" style="9" customWidth="1"/>
-    <col min="15367" max="15367" width="17.5546875" style="9" customWidth="1"/>
-    <col min="15368" max="15368" width="27.44140625" style="9" customWidth="1"/>
-    <col min="15369" max="15369" width="24.109375" style="9" customWidth="1"/>
-    <col min="15370" max="15370" width="13.5546875" style="9" customWidth="1"/>
-    <col min="15371" max="15371" width="23.44140625" style="9" customWidth="1"/>
-    <col min="15372" max="15372" width="21.109375" style="9" customWidth="1"/>
-    <col min="15373" max="15373" width="20.44140625" style="9" customWidth="1"/>
-    <col min="15374" max="15616" width="9.109375" style="9"/>
-    <col min="15617" max="15617" width="10.44140625" style="9" customWidth="1"/>
-    <col min="15618" max="15618" width="19.88671875" style="9" customWidth="1"/>
+    <col min="15364" max="15364" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15365" max="15365" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15366" max="15366" width="10.28515625" style="9" customWidth="1"/>
+    <col min="15367" max="15367" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15368" max="15368" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15369" max="15369" width="24.140625" style="9" customWidth="1"/>
+    <col min="15370" max="15370" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15371" max="15371" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15372" max="15372" width="21.140625" style="9" customWidth="1"/>
+    <col min="15373" max="15373" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15374" max="15616" width="9.140625" style="9"/>
+    <col min="15617" max="15617" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15618" max="15618" width="19.85546875" style="9" customWidth="1"/>
     <col min="15619" max="15619" width="13" style="9" customWidth="1"/>
-    <col min="15620" max="15620" width="14.33203125" style="9" customWidth="1"/>
-    <col min="15621" max="15621" width="12.44140625" style="9" customWidth="1"/>
-    <col min="15622" max="15622" width="10.33203125" style="9" customWidth="1"/>
-    <col min="15623" max="15623" width="17.5546875" style="9" customWidth="1"/>
-    <col min="15624" max="15624" width="27.44140625" style="9" customWidth="1"/>
-    <col min="15625" max="15625" width="24.109375" style="9" customWidth="1"/>
-    <col min="15626" max="15626" width="13.5546875" style="9" customWidth="1"/>
-    <col min="15627" max="15627" width="23.44140625" style="9" customWidth="1"/>
-    <col min="15628" max="15628" width="21.109375" style="9" customWidth="1"/>
-    <col min="15629" max="15629" width="20.44140625" style="9" customWidth="1"/>
-    <col min="15630" max="15872" width="9.109375" style="9"/>
-    <col min="15873" max="15873" width="10.44140625" style="9" customWidth="1"/>
-    <col min="15874" max="15874" width="19.88671875" style="9" customWidth="1"/>
+    <col min="15620" max="15620" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15621" max="15621" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15622" max="15622" width="10.28515625" style="9" customWidth="1"/>
+    <col min="15623" max="15623" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15624" max="15624" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15625" max="15625" width="24.140625" style="9" customWidth="1"/>
+    <col min="15626" max="15626" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15627" max="15627" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15628" max="15628" width="21.140625" style="9" customWidth="1"/>
+    <col min="15629" max="15629" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15630" max="15872" width="9.140625" style="9"/>
+    <col min="15873" max="15873" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15874" max="15874" width="19.85546875" style="9" customWidth="1"/>
     <col min="15875" max="15875" width="13" style="9" customWidth="1"/>
-    <col min="15876" max="15876" width="14.33203125" style="9" customWidth="1"/>
-    <col min="15877" max="15877" width="12.44140625" style="9" customWidth="1"/>
-    <col min="15878" max="15878" width="10.33203125" style="9" customWidth="1"/>
-    <col min="15879" max="15879" width="17.5546875" style="9" customWidth="1"/>
-    <col min="15880" max="15880" width="27.44140625" style="9" customWidth="1"/>
-    <col min="15881" max="15881" width="24.109375" style="9" customWidth="1"/>
-    <col min="15882" max="15882" width="13.5546875" style="9" customWidth="1"/>
-    <col min="15883" max="15883" width="23.44140625" style="9" customWidth="1"/>
-    <col min="15884" max="15884" width="21.109375" style="9" customWidth="1"/>
-    <col min="15885" max="15885" width="20.44140625" style="9" customWidth="1"/>
-    <col min="15886" max="16128" width="9.109375" style="9"/>
-    <col min="16129" max="16129" width="10.44140625" style="9" customWidth="1"/>
-    <col min="16130" max="16130" width="19.88671875" style="9" customWidth="1"/>
+    <col min="15876" max="15876" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15877" max="15877" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15878" max="15878" width="10.28515625" style="9" customWidth="1"/>
+    <col min="15879" max="15879" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15880" max="15880" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15881" max="15881" width="24.140625" style="9" customWidth="1"/>
+    <col min="15882" max="15882" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15883" max="15883" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15884" max="15884" width="21.140625" style="9" customWidth="1"/>
+    <col min="15885" max="15885" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15886" max="16128" width="9.140625" style="9"/>
+    <col min="16129" max="16129" width="10.42578125" style="9" customWidth="1"/>
+    <col min="16130" max="16130" width="19.85546875" style="9" customWidth="1"/>
     <col min="16131" max="16131" width="13" style="9" customWidth="1"/>
-    <col min="16132" max="16132" width="14.33203125" style="9" customWidth="1"/>
-    <col min="16133" max="16133" width="12.44140625" style="9" customWidth="1"/>
-    <col min="16134" max="16134" width="10.33203125" style="9" customWidth="1"/>
-    <col min="16135" max="16135" width="17.5546875" style="9" customWidth="1"/>
-    <col min="16136" max="16136" width="27.44140625" style="9" customWidth="1"/>
-    <col min="16137" max="16137" width="24.109375" style="9" customWidth="1"/>
-    <col min="16138" max="16138" width="13.5546875" style="9" customWidth="1"/>
-    <col min="16139" max="16139" width="23.44140625" style="9" customWidth="1"/>
-    <col min="16140" max="16140" width="21.109375" style="9" customWidth="1"/>
-    <col min="16141" max="16141" width="20.44140625" style="9" customWidth="1"/>
-    <col min="16142" max="16384" width="9.109375" style="9"/>
+    <col min="16132" max="16132" width="14.28515625" style="9" customWidth="1"/>
+    <col min="16133" max="16133" width="12.42578125" style="9" customWidth="1"/>
+    <col min="16134" max="16134" width="10.28515625" style="9" customWidth="1"/>
+    <col min="16135" max="16135" width="17.5703125" style="9" customWidth="1"/>
+    <col min="16136" max="16136" width="27.42578125" style="9" customWidth="1"/>
+    <col min="16137" max="16137" width="24.140625" style="9" customWidth="1"/>
+    <col min="16138" max="16138" width="13.5703125" style="9" customWidth="1"/>
+    <col min="16139" max="16139" width="23.42578125" style="9" customWidth="1"/>
+    <col min="16140" max="16140" width="21.140625" style="9" customWidth="1"/>
+    <col min="16141" max="16141" width="20.42578125" style="9" customWidth="1"/>
+    <col min="16142" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -3846,7 +3961,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>170</v>
       </c>
@@ -3887,7 +4002,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>170</v>
       </c>
@@ -3928,7 +4043,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>170</v>
       </c>
@@ -3969,7 +4084,7 @@
         <v>0.49809999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>170</v>
       </c>
@@ -4010,7 +4125,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>170</v>
       </c>
@@ -4051,7 +4166,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>170</v>
       </c>
@@ -4092,7 +4207,7 @@
         <v>0.43490000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>170</v>
       </c>
@@ -4133,7 +4248,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="9" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>170</v>
       </c>
@@ -4174,7 +4289,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>170</v>
       </c>
@@ -4215,7 +4330,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>170</v>
       </c>
@@ -4256,7 +4371,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>170</v>
       </c>
@@ -4297,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>170</v>
       </c>
@@ -4338,7 +4453,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>170</v>
       </c>
@@ -4379,7 +4494,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>170</v>
       </c>
@@ -4420,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>170</v>
       </c>
@@ -4461,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>170</v>
       </c>
@@ -4502,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>170</v>
       </c>
@@ -4543,7 +4658,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="19" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>170</v>
       </c>
@@ -4584,7 +4699,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>170</v>
       </c>
@@ -4625,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>170</v>
       </c>
@@ -4666,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>170</v>
       </c>
@@ -4707,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>170</v>
       </c>
@@ -4748,7 +4863,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="24" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>170</v>
       </c>
@@ -4789,7 +4904,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>170</v>
       </c>
@@ -4830,7 +4945,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>170</v>
       </c>
@@ -4871,7 +4986,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>170</v>
       </c>
@@ -4912,7 +5027,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>170</v>
       </c>
@@ -4953,7 +5068,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>170</v>
       </c>
@@ -4994,7 +5109,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>170</v>
       </c>
@@ -5035,7 +5150,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>170</v>
       </c>
@@ -5076,7 +5191,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>170</v>
       </c>
@@ -5117,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>170</v>
       </c>
@@ -5158,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>170</v>
       </c>
@@ -5199,7 +5314,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="35" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>170</v>
       </c>
@@ -5240,7 +5355,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>272</v>
       </c>
@@ -5263,7 +5378,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>273</v>
       </c>
@@ -5281,7 +5396,7 @@
         <v>1053081208</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>275</v>
       </c>
@@ -5298,7 +5413,7 @@
         <v>1053251004</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>278</v>
       </c>
@@ -5315,7 +5430,7 @@
         <v>1053002100</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>280</v>
       </c>
@@ -5332,7 +5447,7 @@
         <v>1053071202</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>281</v>
       </c>
@@ -5349,7 +5464,7 @@
         <v>1053251002</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>286</v>
       </c>
@@ -5366,7 +5481,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
         <v>284</v>
       </c>
@@ -5383,7 +5498,7 @@
         <v>1727090005</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>300</v>
       </c>
@@ -5401,7 +5516,7 @@
         <v>1727182121</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>289</v>
       </c>
@@ -5421,7 +5536,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>293</v>
       </c>
@@ -5441,7 +5556,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>297</v>
       </c>
@@ -5461,7 +5576,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C48" s="9" t="s">
         <v>304</v>
       </c>
@@ -5475,7 +5590,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" s="9" t="s">
         <v>306</v>
       </c>
@@ -5495,7 +5610,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" s="9" t="s">
         <v>310</v>
       </c>
@@ -5509,7 +5624,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" s="9" t="s">
         <v>312</v>
       </c>
@@ -5523,7 +5638,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" s="9" t="s">
         <v>314</v>
       </c>
@@ -5537,7 +5652,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" s="9" t="s">
         <v>316</v>
       </c>
@@ -5551,7 +5666,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54" s="9" t="s">
         <v>318</v>
       </c>
@@ -5594,843 +5709,843 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="79.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" style="9" customWidth="1"/>
-    <col min="13" max="256" width="9.109375" style="9"/>
-    <col min="257" max="257" width="10.44140625" style="9" customWidth="1"/>
-    <col min="258" max="258" width="20.6640625" style="9" customWidth="1"/>
-    <col min="259" max="259" width="14.5546875" style="9" customWidth="1"/>
-    <col min="260" max="260" width="14.33203125" style="9" customWidth="1"/>
-    <col min="261" max="261" width="12.44140625" style="9" customWidth="1"/>
-    <col min="262" max="262" width="17.5546875" style="9" customWidth="1"/>
-    <col min="263" max="263" width="27.44140625" style="9" customWidth="1"/>
-    <col min="264" max="264" width="24.109375" style="9" customWidth="1"/>
-    <col min="265" max="265" width="13.5546875" style="9" customWidth="1"/>
-    <col min="266" max="266" width="23.44140625" style="9" customWidth="1"/>
-    <col min="267" max="267" width="21.109375" style="9" customWidth="1"/>
-    <col min="268" max="268" width="20.44140625" style="9" customWidth="1"/>
-    <col min="269" max="512" width="9.109375" style="9"/>
-    <col min="513" max="513" width="10.44140625" style="9" customWidth="1"/>
-    <col min="514" max="514" width="20.6640625" style="9" customWidth="1"/>
-    <col min="515" max="515" width="14.5546875" style="9" customWidth="1"/>
-    <col min="516" max="516" width="14.33203125" style="9" customWidth="1"/>
-    <col min="517" max="517" width="12.44140625" style="9" customWidth="1"/>
-    <col min="518" max="518" width="17.5546875" style="9" customWidth="1"/>
-    <col min="519" max="519" width="27.44140625" style="9" customWidth="1"/>
-    <col min="520" max="520" width="24.109375" style="9" customWidth="1"/>
-    <col min="521" max="521" width="13.5546875" style="9" customWidth="1"/>
-    <col min="522" max="522" width="23.44140625" style="9" customWidth="1"/>
-    <col min="523" max="523" width="21.109375" style="9" customWidth="1"/>
-    <col min="524" max="524" width="20.44140625" style="9" customWidth="1"/>
-    <col min="525" max="768" width="9.109375" style="9"/>
-    <col min="769" max="769" width="10.44140625" style="9" customWidth="1"/>
-    <col min="770" max="770" width="20.6640625" style="9" customWidth="1"/>
-    <col min="771" max="771" width="14.5546875" style="9" customWidth="1"/>
-    <col min="772" max="772" width="14.33203125" style="9" customWidth="1"/>
-    <col min="773" max="773" width="12.44140625" style="9" customWidth="1"/>
-    <col min="774" max="774" width="17.5546875" style="9" customWidth="1"/>
-    <col min="775" max="775" width="27.44140625" style="9" customWidth="1"/>
-    <col min="776" max="776" width="24.109375" style="9" customWidth="1"/>
-    <col min="777" max="777" width="13.5546875" style="9" customWidth="1"/>
-    <col min="778" max="778" width="23.44140625" style="9" customWidth="1"/>
-    <col min="779" max="779" width="21.109375" style="9" customWidth="1"/>
-    <col min="780" max="780" width="20.44140625" style="9" customWidth="1"/>
-    <col min="781" max="1024" width="9.109375" style="9"/>
-    <col min="1025" max="1025" width="10.44140625" style="9" customWidth="1"/>
-    <col min="1026" max="1026" width="20.6640625" style="9" customWidth="1"/>
-    <col min="1027" max="1027" width="14.5546875" style="9" customWidth="1"/>
-    <col min="1028" max="1028" width="14.33203125" style="9" customWidth="1"/>
-    <col min="1029" max="1029" width="12.44140625" style="9" customWidth="1"/>
-    <col min="1030" max="1030" width="17.5546875" style="9" customWidth="1"/>
-    <col min="1031" max="1031" width="27.44140625" style="9" customWidth="1"/>
-    <col min="1032" max="1032" width="24.109375" style="9" customWidth="1"/>
-    <col min="1033" max="1033" width="13.5546875" style="9" customWidth="1"/>
-    <col min="1034" max="1034" width="23.44140625" style="9" customWidth="1"/>
-    <col min="1035" max="1035" width="21.109375" style="9" customWidth="1"/>
-    <col min="1036" max="1036" width="20.44140625" style="9" customWidth="1"/>
-    <col min="1037" max="1280" width="9.109375" style="9"/>
-    <col min="1281" max="1281" width="10.44140625" style="9" customWidth="1"/>
-    <col min="1282" max="1282" width="20.6640625" style="9" customWidth="1"/>
-    <col min="1283" max="1283" width="14.5546875" style="9" customWidth="1"/>
-    <col min="1284" max="1284" width="14.33203125" style="9" customWidth="1"/>
-    <col min="1285" max="1285" width="12.44140625" style="9" customWidth="1"/>
-    <col min="1286" max="1286" width="17.5546875" style="9" customWidth="1"/>
-    <col min="1287" max="1287" width="27.44140625" style="9" customWidth="1"/>
-    <col min="1288" max="1288" width="24.109375" style="9" customWidth="1"/>
-    <col min="1289" max="1289" width="13.5546875" style="9" customWidth="1"/>
-    <col min="1290" max="1290" width="23.44140625" style="9" customWidth="1"/>
-    <col min="1291" max="1291" width="21.109375" style="9" customWidth="1"/>
-    <col min="1292" max="1292" width="20.44140625" style="9" customWidth="1"/>
-    <col min="1293" max="1536" width="9.109375" style="9"/>
-    <col min="1537" max="1537" width="10.44140625" style="9" customWidth="1"/>
-    <col min="1538" max="1538" width="20.6640625" style="9" customWidth="1"/>
-    <col min="1539" max="1539" width="14.5546875" style="9" customWidth="1"/>
-    <col min="1540" max="1540" width="14.33203125" style="9" customWidth="1"/>
-    <col min="1541" max="1541" width="12.44140625" style="9" customWidth="1"/>
-    <col min="1542" max="1542" width="17.5546875" style="9" customWidth="1"/>
-    <col min="1543" max="1543" width="27.44140625" style="9" customWidth="1"/>
-    <col min="1544" max="1544" width="24.109375" style="9" customWidth="1"/>
-    <col min="1545" max="1545" width="13.5546875" style="9" customWidth="1"/>
-    <col min="1546" max="1546" width="23.44140625" style="9" customWidth="1"/>
-    <col min="1547" max="1547" width="21.109375" style="9" customWidth="1"/>
-    <col min="1548" max="1548" width="20.44140625" style="9" customWidth="1"/>
-    <col min="1549" max="1792" width="9.109375" style="9"/>
-    <col min="1793" max="1793" width="10.44140625" style="9" customWidth="1"/>
-    <col min="1794" max="1794" width="20.6640625" style="9" customWidth="1"/>
-    <col min="1795" max="1795" width="14.5546875" style="9" customWidth="1"/>
-    <col min="1796" max="1796" width="14.33203125" style="9" customWidth="1"/>
-    <col min="1797" max="1797" width="12.44140625" style="9" customWidth="1"/>
-    <col min="1798" max="1798" width="17.5546875" style="9" customWidth="1"/>
-    <col min="1799" max="1799" width="27.44140625" style="9" customWidth="1"/>
-    <col min="1800" max="1800" width="24.109375" style="9" customWidth="1"/>
-    <col min="1801" max="1801" width="13.5546875" style="9" customWidth="1"/>
-    <col min="1802" max="1802" width="23.44140625" style="9" customWidth="1"/>
-    <col min="1803" max="1803" width="21.109375" style="9" customWidth="1"/>
-    <col min="1804" max="1804" width="20.44140625" style="9" customWidth="1"/>
-    <col min="1805" max="2048" width="9.109375" style="9"/>
-    <col min="2049" max="2049" width="10.44140625" style="9" customWidth="1"/>
-    <col min="2050" max="2050" width="20.6640625" style="9" customWidth="1"/>
-    <col min="2051" max="2051" width="14.5546875" style="9" customWidth="1"/>
-    <col min="2052" max="2052" width="14.33203125" style="9" customWidth="1"/>
-    <col min="2053" max="2053" width="12.44140625" style="9" customWidth="1"/>
-    <col min="2054" max="2054" width="17.5546875" style="9" customWidth="1"/>
-    <col min="2055" max="2055" width="27.44140625" style="9" customWidth="1"/>
-    <col min="2056" max="2056" width="24.109375" style="9" customWidth="1"/>
-    <col min="2057" max="2057" width="13.5546875" style="9" customWidth="1"/>
-    <col min="2058" max="2058" width="23.44140625" style="9" customWidth="1"/>
-    <col min="2059" max="2059" width="21.109375" style="9" customWidth="1"/>
-    <col min="2060" max="2060" width="20.44140625" style="9" customWidth="1"/>
-    <col min="2061" max="2304" width="9.109375" style="9"/>
-    <col min="2305" max="2305" width="10.44140625" style="9" customWidth="1"/>
-    <col min="2306" max="2306" width="20.6640625" style="9" customWidth="1"/>
-    <col min="2307" max="2307" width="14.5546875" style="9" customWidth="1"/>
-    <col min="2308" max="2308" width="14.33203125" style="9" customWidth="1"/>
-    <col min="2309" max="2309" width="12.44140625" style="9" customWidth="1"/>
-    <col min="2310" max="2310" width="17.5546875" style="9" customWidth="1"/>
-    <col min="2311" max="2311" width="27.44140625" style="9" customWidth="1"/>
-    <col min="2312" max="2312" width="24.109375" style="9" customWidth="1"/>
-    <col min="2313" max="2313" width="13.5546875" style="9" customWidth="1"/>
-    <col min="2314" max="2314" width="23.44140625" style="9" customWidth="1"/>
-    <col min="2315" max="2315" width="21.109375" style="9" customWidth="1"/>
-    <col min="2316" max="2316" width="20.44140625" style="9" customWidth="1"/>
-    <col min="2317" max="2560" width="9.109375" style="9"/>
-    <col min="2561" max="2561" width="10.44140625" style="9" customWidth="1"/>
-    <col min="2562" max="2562" width="20.6640625" style="9" customWidth="1"/>
-    <col min="2563" max="2563" width="14.5546875" style="9" customWidth="1"/>
-    <col min="2564" max="2564" width="14.33203125" style="9" customWidth="1"/>
-    <col min="2565" max="2565" width="12.44140625" style="9" customWidth="1"/>
-    <col min="2566" max="2566" width="17.5546875" style="9" customWidth="1"/>
-    <col min="2567" max="2567" width="27.44140625" style="9" customWidth="1"/>
-    <col min="2568" max="2568" width="24.109375" style="9" customWidth="1"/>
-    <col min="2569" max="2569" width="13.5546875" style="9" customWidth="1"/>
-    <col min="2570" max="2570" width="23.44140625" style="9" customWidth="1"/>
-    <col min="2571" max="2571" width="21.109375" style="9" customWidth="1"/>
-    <col min="2572" max="2572" width="20.44140625" style="9" customWidth="1"/>
-    <col min="2573" max="2816" width="9.109375" style="9"/>
-    <col min="2817" max="2817" width="10.44140625" style="9" customWidth="1"/>
-    <col min="2818" max="2818" width="20.6640625" style="9" customWidth="1"/>
-    <col min="2819" max="2819" width="14.5546875" style="9" customWidth="1"/>
-    <col min="2820" max="2820" width="14.33203125" style="9" customWidth="1"/>
-    <col min="2821" max="2821" width="12.44140625" style="9" customWidth="1"/>
-    <col min="2822" max="2822" width="17.5546875" style="9" customWidth="1"/>
-    <col min="2823" max="2823" width="27.44140625" style="9" customWidth="1"/>
-    <col min="2824" max="2824" width="24.109375" style="9" customWidth="1"/>
-    <col min="2825" max="2825" width="13.5546875" style="9" customWidth="1"/>
-    <col min="2826" max="2826" width="23.44140625" style="9" customWidth="1"/>
-    <col min="2827" max="2827" width="21.109375" style="9" customWidth="1"/>
-    <col min="2828" max="2828" width="20.44140625" style="9" customWidth="1"/>
-    <col min="2829" max="3072" width="9.109375" style="9"/>
-    <col min="3073" max="3073" width="10.44140625" style="9" customWidth="1"/>
-    <col min="3074" max="3074" width="20.6640625" style="9" customWidth="1"/>
-    <col min="3075" max="3075" width="14.5546875" style="9" customWidth="1"/>
-    <col min="3076" max="3076" width="14.33203125" style="9" customWidth="1"/>
-    <col min="3077" max="3077" width="12.44140625" style="9" customWidth="1"/>
-    <col min="3078" max="3078" width="17.5546875" style="9" customWidth="1"/>
-    <col min="3079" max="3079" width="27.44140625" style="9" customWidth="1"/>
-    <col min="3080" max="3080" width="24.109375" style="9" customWidth="1"/>
-    <col min="3081" max="3081" width="13.5546875" style="9" customWidth="1"/>
-    <col min="3082" max="3082" width="23.44140625" style="9" customWidth="1"/>
-    <col min="3083" max="3083" width="21.109375" style="9" customWidth="1"/>
-    <col min="3084" max="3084" width="20.44140625" style="9" customWidth="1"/>
-    <col min="3085" max="3328" width="9.109375" style="9"/>
-    <col min="3329" max="3329" width="10.44140625" style="9" customWidth="1"/>
-    <col min="3330" max="3330" width="20.6640625" style="9" customWidth="1"/>
-    <col min="3331" max="3331" width="14.5546875" style="9" customWidth="1"/>
-    <col min="3332" max="3332" width="14.33203125" style="9" customWidth="1"/>
-    <col min="3333" max="3333" width="12.44140625" style="9" customWidth="1"/>
-    <col min="3334" max="3334" width="17.5546875" style="9" customWidth="1"/>
-    <col min="3335" max="3335" width="27.44140625" style="9" customWidth="1"/>
-    <col min="3336" max="3336" width="24.109375" style="9" customWidth="1"/>
-    <col min="3337" max="3337" width="13.5546875" style="9" customWidth="1"/>
-    <col min="3338" max="3338" width="23.44140625" style="9" customWidth="1"/>
-    <col min="3339" max="3339" width="21.109375" style="9" customWidth="1"/>
-    <col min="3340" max="3340" width="20.44140625" style="9" customWidth="1"/>
-    <col min="3341" max="3584" width="9.109375" style="9"/>
-    <col min="3585" max="3585" width="10.44140625" style="9" customWidth="1"/>
-    <col min="3586" max="3586" width="20.6640625" style="9" customWidth="1"/>
-    <col min="3587" max="3587" width="14.5546875" style="9" customWidth="1"/>
-    <col min="3588" max="3588" width="14.33203125" style="9" customWidth="1"/>
-    <col min="3589" max="3589" width="12.44140625" style="9" customWidth="1"/>
-    <col min="3590" max="3590" width="17.5546875" style="9" customWidth="1"/>
-    <col min="3591" max="3591" width="27.44140625" style="9" customWidth="1"/>
-    <col min="3592" max="3592" width="24.109375" style="9" customWidth="1"/>
-    <col min="3593" max="3593" width="13.5546875" style="9" customWidth="1"/>
-    <col min="3594" max="3594" width="23.44140625" style="9" customWidth="1"/>
-    <col min="3595" max="3595" width="21.109375" style="9" customWidth="1"/>
-    <col min="3596" max="3596" width="20.44140625" style="9" customWidth="1"/>
-    <col min="3597" max="3840" width="9.109375" style="9"/>
-    <col min="3841" max="3841" width="10.44140625" style="9" customWidth="1"/>
-    <col min="3842" max="3842" width="20.6640625" style="9" customWidth="1"/>
-    <col min="3843" max="3843" width="14.5546875" style="9" customWidth="1"/>
-    <col min="3844" max="3844" width="14.33203125" style="9" customWidth="1"/>
-    <col min="3845" max="3845" width="12.44140625" style="9" customWidth="1"/>
-    <col min="3846" max="3846" width="17.5546875" style="9" customWidth="1"/>
-    <col min="3847" max="3847" width="27.44140625" style="9" customWidth="1"/>
-    <col min="3848" max="3848" width="24.109375" style="9" customWidth="1"/>
-    <col min="3849" max="3849" width="13.5546875" style="9" customWidth="1"/>
-    <col min="3850" max="3850" width="23.44140625" style="9" customWidth="1"/>
-    <col min="3851" max="3851" width="21.109375" style="9" customWidth="1"/>
-    <col min="3852" max="3852" width="20.44140625" style="9" customWidth="1"/>
-    <col min="3853" max="4096" width="9.109375" style="9"/>
-    <col min="4097" max="4097" width="10.44140625" style="9" customWidth="1"/>
-    <col min="4098" max="4098" width="20.6640625" style="9" customWidth="1"/>
-    <col min="4099" max="4099" width="14.5546875" style="9" customWidth="1"/>
-    <col min="4100" max="4100" width="14.33203125" style="9" customWidth="1"/>
-    <col min="4101" max="4101" width="12.44140625" style="9" customWidth="1"/>
-    <col min="4102" max="4102" width="17.5546875" style="9" customWidth="1"/>
-    <col min="4103" max="4103" width="27.44140625" style="9" customWidth="1"/>
-    <col min="4104" max="4104" width="24.109375" style="9" customWidth="1"/>
-    <col min="4105" max="4105" width="13.5546875" style="9" customWidth="1"/>
-    <col min="4106" max="4106" width="23.44140625" style="9" customWidth="1"/>
-    <col min="4107" max="4107" width="21.109375" style="9" customWidth="1"/>
-    <col min="4108" max="4108" width="20.44140625" style="9" customWidth="1"/>
-    <col min="4109" max="4352" width="9.109375" style="9"/>
-    <col min="4353" max="4353" width="10.44140625" style="9" customWidth="1"/>
-    <col min="4354" max="4354" width="20.6640625" style="9" customWidth="1"/>
-    <col min="4355" max="4355" width="14.5546875" style="9" customWidth="1"/>
-    <col min="4356" max="4356" width="14.33203125" style="9" customWidth="1"/>
-    <col min="4357" max="4357" width="12.44140625" style="9" customWidth="1"/>
-    <col min="4358" max="4358" width="17.5546875" style="9" customWidth="1"/>
-    <col min="4359" max="4359" width="27.44140625" style="9" customWidth="1"/>
-    <col min="4360" max="4360" width="24.109375" style="9" customWidth="1"/>
-    <col min="4361" max="4361" width="13.5546875" style="9" customWidth="1"/>
-    <col min="4362" max="4362" width="23.44140625" style="9" customWidth="1"/>
-    <col min="4363" max="4363" width="21.109375" style="9" customWidth="1"/>
-    <col min="4364" max="4364" width="20.44140625" style="9" customWidth="1"/>
-    <col min="4365" max="4608" width="9.109375" style="9"/>
-    <col min="4609" max="4609" width="10.44140625" style="9" customWidth="1"/>
-    <col min="4610" max="4610" width="20.6640625" style="9" customWidth="1"/>
-    <col min="4611" max="4611" width="14.5546875" style="9" customWidth="1"/>
-    <col min="4612" max="4612" width="14.33203125" style="9" customWidth="1"/>
-    <col min="4613" max="4613" width="12.44140625" style="9" customWidth="1"/>
-    <col min="4614" max="4614" width="17.5546875" style="9" customWidth="1"/>
-    <col min="4615" max="4615" width="27.44140625" style="9" customWidth="1"/>
-    <col min="4616" max="4616" width="24.109375" style="9" customWidth="1"/>
-    <col min="4617" max="4617" width="13.5546875" style="9" customWidth="1"/>
-    <col min="4618" max="4618" width="23.44140625" style="9" customWidth="1"/>
-    <col min="4619" max="4619" width="21.109375" style="9" customWidth="1"/>
-    <col min="4620" max="4620" width="20.44140625" style="9" customWidth="1"/>
-    <col min="4621" max="4864" width="9.109375" style="9"/>
-    <col min="4865" max="4865" width="10.44140625" style="9" customWidth="1"/>
-    <col min="4866" max="4866" width="20.6640625" style="9" customWidth="1"/>
-    <col min="4867" max="4867" width="14.5546875" style="9" customWidth="1"/>
-    <col min="4868" max="4868" width="14.33203125" style="9" customWidth="1"/>
-    <col min="4869" max="4869" width="12.44140625" style="9" customWidth="1"/>
-    <col min="4870" max="4870" width="17.5546875" style="9" customWidth="1"/>
-    <col min="4871" max="4871" width="27.44140625" style="9" customWidth="1"/>
-    <col min="4872" max="4872" width="24.109375" style="9" customWidth="1"/>
-    <col min="4873" max="4873" width="13.5546875" style="9" customWidth="1"/>
-    <col min="4874" max="4874" width="23.44140625" style="9" customWidth="1"/>
-    <col min="4875" max="4875" width="21.109375" style="9" customWidth="1"/>
-    <col min="4876" max="4876" width="20.44140625" style="9" customWidth="1"/>
-    <col min="4877" max="5120" width="9.109375" style="9"/>
-    <col min="5121" max="5121" width="10.44140625" style="9" customWidth="1"/>
-    <col min="5122" max="5122" width="20.6640625" style="9" customWidth="1"/>
-    <col min="5123" max="5123" width="14.5546875" style="9" customWidth="1"/>
-    <col min="5124" max="5124" width="14.33203125" style="9" customWidth="1"/>
-    <col min="5125" max="5125" width="12.44140625" style="9" customWidth="1"/>
-    <col min="5126" max="5126" width="17.5546875" style="9" customWidth="1"/>
-    <col min="5127" max="5127" width="27.44140625" style="9" customWidth="1"/>
-    <col min="5128" max="5128" width="24.109375" style="9" customWidth="1"/>
-    <col min="5129" max="5129" width="13.5546875" style="9" customWidth="1"/>
-    <col min="5130" max="5130" width="23.44140625" style="9" customWidth="1"/>
-    <col min="5131" max="5131" width="21.109375" style="9" customWidth="1"/>
-    <col min="5132" max="5132" width="20.44140625" style="9" customWidth="1"/>
-    <col min="5133" max="5376" width="9.109375" style="9"/>
-    <col min="5377" max="5377" width="10.44140625" style="9" customWidth="1"/>
-    <col min="5378" max="5378" width="20.6640625" style="9" customWidth="1"/>
-    <col min="5379" max="5379" width="14.5546875" style="9" customWidth="1"/>
-    <col min="5380" max="5380" width="14.33203125" style="9" customWidth="1"/>
-    <col min="5381" max="5381" width="12.44140625" style="9" customWidth="1"/>
-    <col min="5382" max="5382" width="17.5546875" style="9" customWidth="1"/>
-    <col min="5383" max="5383" width="27.44140625" style="9" customWidth="1"/>
-    <col min="5384" max="5384" width="24.109375" style="9" customWidth="1"/>
-    <col min="5385" max="5385" width="13.5546875" style="9" customWidth="1"/>
-    <col min="5386" max="5386" width="23.44140625" style="9" customWidth="1"/>
-    <col min="5387" max="5387" width="21.109375" style="9" customWidth="1"/>
-    <col min="5388" max="5388" width="20.44140625" style="9" customWidth="1"/>
-    <col min="5389" max="5632" width="9.109375" style="9"/>
-    <col min="5633" max="5633" width="10.44140625" style="9" customWidth="1"/>
-    <col min="5634" max="5634" width="20.6640625" style="9" customWidth="1"/>
-    <col min="5635" max="5635" width="14.5546875" style="9" customWidth="1"/>
-    <col min="5636" max="5636" width="14.33203125" style="9" customWidth="1"/>
-    <col min="5637" max="5637" width="12.44140625" style="9" customWidth="1"/>
-    <col min="5638" max="5638" width="17.5546875" style="9" customWidth="1"/>
-    <col min="5639" max="5639" width="27.44140625" style="9" customWidth="1"/>
-    <col min="5640" max="5640" width="24.109375" style="9" customWidth="1"/>
-    <col min="5641" max="5641" width="13.5546875" style="9" customWidth="1"/>
-    <col min="5642" max="5642" width="23.44140625" style="9" customWidth="1"/>
-    <col min="5643" max="5643" width="21.109375" style="9" customWidth="1"/>
-    <col min="5644" max="5644" width="20.44140625" style="9" customWidth="1"/>
-    <col min="5645" max="5888" width="9.109375" style="9"/>
-    <col min="5889" max="5889" width="10.44140625" style="9" customWidth="1"/>
-    <col min="5890" max="5890" width="20.6640625" style="9" customWidth="1"/>
-    <col min="5891" max="5891" width="14.5546875" style="9" customWidth="1"/>
-    <col min="5892" max="5892" width="14.33203125" style="9" customWidth="1"/>
-    <col min="5893" max="5893" width="12.44140625" style="9" customWidth="1"/>
-    <col min="5894" max="5894" width="17.5546875" style="9" customWidth="1"/>
-    <col min="5895" max="5895" width="27.44140625" style="9" customWidth="1"/>
-    <col min="5896" max="5896" width="24.109375" style="9" customWidth="1"/>
-    <col min="5897" max="5897" width="13.5546875" style="9" customWidth="1"/>
-    <col min="5898" max="5898" width="23.44140625" style="9" customWidth="1"/>
-    <col min="5899" max="5899" width="21.109375" style="9" customWidth="1"/>
-    <col min="5900" max="5900" width="20.44140625" style="9" customWidth="1"/>
-    <col min="5901" max="6144" width="9.109375" style="9"/>
-    <col min="6145" max="6145" width="10.44140625" style="9" customWidth="1"/>
-    <col min="6146" max="6146" width="20.6640625" style="9" customWidth="1"/>
-    <col min="6147" max="6147" width="14.5546875" style="9" customWidth="1"/>
-    <col min="6148" max="6148" width="14.33203125" style="9" customWidth="1"/>
-    <col min="6149" max="6149" width="12.44140625" style="9" customWidth="1"/>
-    <col min="6150" max="6150" width="17.5546875" style="9" customWidth="1"/>
-    <col min="6151" max="6151" width="27.44140625" style="9" customWidth="1"/>
-    <col min="6152" max="6152" width="24.109375" style="9" customWidth="1"/>
-    <col min="6153" max="6153" width="13.5546875" style="9" customWidth="1"/>
-    <col min="6154" max="6154" width="23.44140625" style="9" customWidth="1"/>
-    <col min="6155" max="6155" width="21.109375" style="9" customWidth="1"/>
-    <col min="6156" max="6156" width="20.44140625" style="9" customWidth="1"/>
-    <col min="6157" max="6400" width="9.109375" style="9"/>
-    <col min="6401" max="6401" width="10.44140625" style="9" customWidth="1"/>
-    <col min="6402" max="6402" width="20.6640625" style="9" customWidth="1"/>
-    <col min="6403" max="6403" width="14.5546875" style="9" customWidth="1"/>
-    <col min="6404" max="6404" width="14.33203125" style="9" customWidth="1"/>
-    <col min="6405" max="6405" width="12.44140625" style="9" customWidth="1"/>
-    <col min="6406" max="6406" width="17.5546875" style="9" customWidth="1"/>
-    <col min="6407" max="6407" width="27.44140625" style="9" customWidth="1"/>
-    <col min="6408" max="6408" width="24.109375" style="9" customWidth="1"/>
-    <col min="6409" max="6409" width="13.5546875" style="9" customWidth="1"/>
-    <col min="6410" max="6410" width="23.44140625" style="9" customWidth="1"/>
-    <col min="6411" max="6411" width="21.109375" style="9" customWidth="1"/>
-    <col min="6412" max="6412" width="20.44140625" style="9" customWidth="1"/>
-    <col min="6413" max="6656" width="9.109375" style="9"/>
-    <col min="6657" max="6657" width="10.44140625" style="9" customWidth="1"/>
-    <col min="6658" max="6658" width="20.6640625" style="9" customWidth="1"/>
-    <col min="6659" max="6659" width="14.5546875" style="9" customWidth="1"/>
-    <col min="6660" max="6660" width="14.33203125" style="9" customWidth="1"/>
-    <col min="6661" max="6661" width="12.44140625" style="9" customWidth="1"/>
-    <col min="6662" max="6662" width="17.5546875" style="9" customWidth="1"/>
-    <col min="6663" max="6663" width="27.44140625" style="9" customWidth="1"/>
-    <col min="6664" max="6664" width="24.109375" style="9" customWidth="1"/>
-    <col min="6665" max="6665" width="13.5546875" style="9" customWidth="1"/>
-    <col min="6666" max="6666" width="23.44140625" style="9" customWidth="1"/>
-    <col min="6667" max="6667" width="21.109375" style="9" customWidth="1"/>
-    <col min="6668" max="6668" width="20.44140625" style="9" customWidth="1"/>
-    <col min="6669" max="6912" width="9.109375" style="9"/>
-    <col min="6913" max="6913" width="10.44140625" style="9" customWidth="1"/>
-    <col min="6914" max="6914" width="20.6640625" style="9" customWidth="1"/>
-    <col min="6915" max="6915" width="14.5546875" style="9" customWidth="1"/>
-    <col min="6916" max="6916" width="14.33203125" style="9" customWidth="1"/>
-    <col min="6917" max="6917" width="12.44140625" style="9" customWidth="1"/>
-    <col min="6918" max="6918" width="17.5546875" style="9" customWidth="1"/>
-    <col min="6919" max="6919" width="27.44140625" style="9" customWidth="1"/>
-    <col min="6920" max="6920" width="24.109375" style="9" customWidth="1"/>
-    <col min="6921" max="6921" width="13.5546875" style="9" customWidth="1"/>
-    <col min="6922" max="6922" width="23.44140625" style="9" customWidth="1"/>
-    <col min="6923" max="6923" width="21.109375" style="9" customWidth="1"/>
-    <col min="6924" max="6924" width="20.44140625" style="9" customWidth="1"/>
-    <col min="6925" max="7168" width="9.109375" style="9"/>
-    <col min="7169" max="7169" width="10.44140625" style="9" customWidth="1"/>
-    <col min="7170" max="7170" width="20.6640625" style="9" customWidth="1"/>
-    <col min="7171" max="7171" width="14.5546875" style="9" customWidth="1"/>
-    <col min="7172" max="7172" width="14.33203125" style="9" customWidth="1"/>
-    <col min="7173" max="7173" width="12.44140625" style="9" customWidth="1"/>
-    <col min="7174" max="7174" width="17.5546875" style="9" customWidth="1"/>
-    <col min="7175" max="7175" width="27.44140625" style="9" customWidth="1"/>
-    <col min="7176" max="7176" width="24.109375" style="9" customWidth="1"/>
-    <col min="7177" max="7177" width="13.5546875" style="9" customWidth="1"/>
-    <col min="7178" max="7178" width="23.44140625" style="9" customWidth="1"/>
-    <col min="7179" max="7179" width="21.109375" style="9" customWidth="1"/>
-    <col min="7180" max="7180" width="20.44140625" style="9" customWidth="1"/>
-    <col min="7181" max="7424" width="9.109375" style="9"/>
-    <col min="7425" max="7425" width="10.44140625" style="9" customWidth="1"/>
-    <col min="7426" max="7426" width="20.6640625" style="9" customWidth="1"/>
-    <col min="7427" max="7427" width="14.5546875" style="9" customWidth="1"/>
-    <col min="7428" max="7428" width="14.33203125" style="9" customWidth="1"/>
-    <col min="7429" max="7429" width="12.44140625" style="9" customWidth="1"/>
-    <col min="7430" max="7430" width="17.5546875" style="9" customWidth="1"/>
-    <col min="7431" max="7431" width="27.44140625" style="9" customWidth="1"/>
-    <col min="7432" max="7432" width="24.109375" style="9" customWidth="1"/>
-    <col min="7433" max="7433" width="13.5546875" style="9" customWidth="1"/>
-    <col min="7434" max="7434" width="23.44140625" style="9" customWidth="1"/>
-    <col min="7435" max="7435" width="21.109375" style="9" customWidth="1"/>
-    <col min="7436" max="7436" width="20.44140625" style="9" customWidth="1"/>
-    <col min="7437" max="7680" width="9.109375" style="9"/>
-    <col min="7681" max="7681" width="10.44140625" style="9" customWidth="1"/>
-    <col min="7682" max="7682" width="20.6640625" style="9" customWidth="1"/>
-    <col min="7683" max="7683" width="14.5546875" style="9" customWidth="1"/>
-    <col min="7684" max="7684" width="14.33203125" style="9" customWidth="1"/>
-    <col min="7685" max="7685" width="12.44140625" style="9" customWidth="1"/>
-    <col min="7686" max="7686" width="17.5546875" style="9" customWidth="1"/>
-    <col min="7687" max="7687" width="27.44140625" style="9" customWidth="1"/>
-    <col min="7688" max="7688" width="24.109375" style="9" customWidth="1"/>
-    <col min="7689" max="7689" width="13.5546875" style="9" customWidth="1"/>
-    <col min="7690" max="7690" width="23.44140625" style="9" customWidth="1"/>
-    <col min="7691" max="7691" width="21.109375" style="9" customWidth="1"/>
-    <col min="7692" max="7692" width="20.44140625" style="9" customWidth="1"/>
-    <col min="7693" max="7936" width="9.109375" style="9"/>
-    <col min="7937" max="7937" width="10.44140625" style="9" customWidth="1"/>
-    <col min="7938" max="7938" width="20.6640625" style="9" customWidth="1"/>
-    <col min="7939" max="7939" width="14.5546875" style="9" customWidth="1"/>
-    <col min="7940" max="7940" width="14.33203125" style="9" customWidth="1"/>
-    <col min="7941" max="7941" width="12.44140625" style="9" customWidth="1"/>
-    <col min="7942" max="7942" width="17.5546875" style="9" customWidth="1"/>
-    <col min="7943" max="7943" width="27.44140625" style="9" customWidth="1"/>
-    <col min="7944" max="7944" width="24.109375" style="9" customWidth="1"/>
-    <col min="7945" max="7945" width="13.5546875" style="9" customWidth="1"/>
-    <col min="7946" max="7946" width="23.44140625" style="9" customWidth="1"/>
-    <col min="7947" max="7947" width="21.109375" style="9" customWidth="1"/>
-    <col min="7948" max="7948" width="20.44140625" style="9" customWidth="1"/>
-    <col min="7949" max="8192" width="9.109375" style="9"/>
-    <col min="8193" max="8193" width="10.44140625" style="9" customWidth="1"/>
-    <col min="8194" max="8194" width="20.6640625" style="9" customWidth="1"/>
-    <col min="8195" max="8195" width="14.5546875" style="9" customWidth="1"/>
-    <col min="8196" max="8196" width="14.33203125" style="9" customWidth="1"/>
-    <col min="8197" max="8197" width="12.44140625" style="9" customWidth="1"/>
-    <col min="8198" max="8198" width="17.5546875" style="9" customWidth="1"/>
-    <col min="8199" max="8199" width="27.44140625" style="9" customWidth="1"/>
-    <col min="8200" max="8200" width="24.109375" style="9" customWidth="1"/>
-    <col min="8201" max="8201" width="13.5546875" style="9" customWidth="1"/>
-    <col min="8202" max="8202" width="23.44140625" style="9" customWidth="1"/>
-    <col min="8203" max="8203" width="21.109375" style="9" customWidth="1"/>
-    <col min="8204" max="8204" width="20.44140625" style="9" customWidth="1"/>
-    <col min="8205" max="8448" width="9.109375" style="9"/>
-    <col min="8449" max="8449" width="10.44140625" style="9" customWidth="1"/>
-    <col min="8450" max="8450" width="20.6640625" style="9" customWidth="1"/>
-    <col min="8451" max="8451" width="14.5546875" style="9" customWidth="1"/>
-    <col min="8452" max="8452" width="14.33203125" style="9" customWidth="1"/>
-    <col min="8453" max="8453" width="12.44140625" style="9" customWidth="1"/>
-    <col min="8454" max="8454" width="17.5546875" style="9" customWidth="1"/>
-    <col min="8455" max="8455" width="27.44140625" style="9" customWidth="1"/>
-    <col min="8456" max="8456" width="24.109375" style="9" customWidth="1"/>
-    <col min="8457" max="8457" width="13.5546875" style="9" customWidth="1"/>
-    <col min="8458" max="8458" width="23.44140625" style="9" customWidth="1"/>
-    <col min="8459" max="8459" width="21.109375" style="9" customWidth="1"/>
-    <col min="8460" max="8460" width="20.44140625" style="9" customWidth="1"/>
-    <col min="8461" max="8704" width="9.109375" style="9"/>
-    <col min="8705" max="8705" width="10.44140625" style="9" customWidth="1"/>
-    <col min="8706" max="8706" width="20.6640625" style="9" customWidth="1"/>
-    <col min="8707" max="8707" width="14.5546875" style="9" customWidth="1"/>
-    <col min="8708" max="8708" width="14.33203125" style="9" customWidth="1"/>
-    <col min="8709" max="8709" width="12.44140625" style="9" customWidth="1"/>
-    <col min="8710" max="8710" width="17.5546875" style="9" customWidth="1"/>
-    <col min="8711" max="8711" width="27.44140625" style="9" customWidth="1"/>
-    <col min="8712" max="8712" width="24.109375" style="9" customWidth="1"/>
-    <col min="8713" max="8713" width="13.5546875" style="9" customWidth="1"/>
-    <col min="8714" max="8714" width="23.44140625" style="9" customWidth="1"/>
-    <col min="8715" max="8715" width="21.109375" style="9" customWidth="1"/>
-    <col min="8716" max="8716" width="20.44140625" style="9" customWidth="1"/>
-    <col min="8717" max="8960" width="9.109375" style="9"/>
-    <col min="8961" max="8961" width="10.44140625" style="9" customWidth="1"/>
-    <col min="8962" max="8962" width="20.6640625" style="9" customWidth="1"/>
-    <col min="8963" max="8963" width="14.5546875" style="9" customWidth="1"/>
-    <col min="8964" max="8964" width="14.33203125" style="9" customWidth="1"/>
-    <col min="8965" max="8965" width="12.44140625" style="9" customWidth="1"/>
-    <col min="8966" max="8966" width="17.5546875" style="9" customWidth="1"/>
-    <col min="8967" max="8967" width="27.44140625" style="9" customWidth="1"/>
-    <col min="8968" max="8968" width="24.109375" style="9" customWidth="1"/>
-    <col min="8969" max="8969" width="13.5546875" style="9" customWidth="1"/>
-    <col min="8970" max="8970" width="23.44140625" style="9" customWidth="1"/>
-    <col min="8971" max="8971" width="21.109375" style="9" customWidth="1"/>
-    <col min="8972" max="8972" width="20.44140625" style="9" customWidth="1"/>
-    <col min="8973" max="9216" width="9.109375" style="9"/>
-    <col min="9217" max="9217" width="10.44140625" style="9" customWidth="1"/>
-    <col min="9218" max="9218" width="20.6640625" style="9" customWidth="1"/>
-    <col min="9219" max="9219" width="14.5546875" style="9" customWidth="1"/>
-    <col min="9220" max="9220" width="14.33203125" style="9" customWidth="1"/>
-    <col min="9221" max="9221" width="12.44140625" style="9" customWidth="1"/>
-    <col min="9222" max="9222" width="17.5546875" style="9" customWidth="1"/>
-    <col min="9223" max="9223" width="27.44140625" style="9" customWidth="1"/>
-    <col min="9224" max="9224" width="24.109375" style="9" customWidth="1"/>
-    <col min="9225" max="9225" width="13.5546875" style="9" customWidth="1"/>
-    <col min="9226" max="9226" width="23.44140625" style="9" customWidth="1"/>
-    <col min="9227" max="9227" width="21.109375" style="9" customWidth="1"/>
-    <col min="9228" max="9228" width="20.44140625" style="9" customWidth="1"/>
-    <col min="9229" max="9472" width="9.109375" style="9"/>
-    <col min="9473" max="9473" width="10.44140625" style="9" customWidth="1"/>
-    <col min="9474" max="9474" width="20.6640625" style="9" customWidth="1"/>
-    <col min="9475" max="9475" width="14.5546875" style="9" customWidth="1"/>
-    <col min="9476" max="9476" width="14.33203125" style="9" customWidth="1"/>
-    <col min="9477" max="9477" width="12.44140625" style="9" customWidth="1"/>
-    <col min="9478" max="9478" width="17.5546875" style="9" customWidth="1"/>
-    <col min="9479" max="9479" width="27.44140625" style="9" customWidth="1"/>
-    <col min="9480" max="9480" width="24.109375" style="9" customWidth="1"/>
-    <col min="9481" max="9481" width="13.5546875" style="9" customWidth="1"/>
-    <col min="9482" max="9482" width="23.44140625" style="9" customWidth="1"/>
-    <col min="9483" max="9483" width="21.109375" style="9" customWidth="1"/>
-    <col min="9484" max="9484" width="20.44140625" style="9" customWidth="1"/>
-    <col min="9485" max="9728" width="9.109375" style="9"/>
-    <col min="9729" max="9729" width="10.44140625" style="9" customWidth="1"/>
-    <col min="9730" max="9730" width="20.6640625" style="9" customWidth="1"/>
-    <col min="9731" max="9731" width="14.5546875" style="9" customWidth="1"/>
-    <col min="9732" max="9732" width="14.33203125" style="9" customWidth="1"/>
-    <col min="9733" max="9733" width="12.44140625" style="9" customWidth="1"/>
-    <col min="9734" max="9734" width="17.5546875" style="9" customWidth="1"/>
-    <col min="9735" max="9735" width="27.44140625" style="9" customWidth="1"/>
-    <col min="9736" max="9736" width="24.109375" style="9" customWidth="1"/>
-    <col min="9737" max="9737" width="13.5546875" style="9" customWidth="1"/>
-    <col min="9738" max="9738" width="23.44140625" style="9" customWidth="1"/>
-    <col min="9739" max="9739" width="21.109375" style="9" customWidth="1"/>
-    <col min="9740" max="9740" width="20.44140625" style="9" customWidth="1"/>
-    <col min="9741" max="9984" width="9.109375" style="9"/>
-    <col min="9985" max="9985" width="10.44140625" style="9" customWidth="1"/>
-    <col min="9986" max="9986" width="20.6640625" style="9" customWidth="1"/>
-    <col min="9987" max="9987" width="14.5546875" style="9" customWidth="1"/>
-    <col min="9988" max="9988" width="14.33203125" style="9" customWidth="1"/>
-    <col min="9989" max="9989" width="12.44140625" style="9" customWidth="1"/>
-    <col min="9990" max="9990" width="17.5546875" style="9" customWidth="1"/>
-    <col min="9991" max="9991" width="27.44140625" style="9" customWidth="1"/>
-    <col min="9992" max="9992" width="24.109375" style="9" customWidth="1"/>
-    <col min="9993" max="9993" width="13.5546875" style="9" customWidth="1"/>
-    <col min="9994" max="9994" width="23.44140625" style="9" customWidth="1"/>
-    <col min="9995" max="9995" width="21.109375" style="9" customWidth="1"/>
-    <col min="9996" max="9996" width="20.44140625" style="9" customWidth="1"/>
-    <col min="9997" max="10240" width="9.109375" style="9"/>
-    <col min="10241" max="10241" width="10.44140625" style="9" customWidth="1"/>
-    <col min="10242" max="10242" width="20.6640625" style="9" customWidth="1"/>
-    <col min="10243" max="10243" width="14.5546875" style="9" customWidth="1"/>
-    <col min="10244" max="10244" width="14.33203125" style="9" customWidth="1"/>
-    <col min="10245" max="10245" width="12.44140625" style="9" customWidth="1"/>
-    <col min="10246" max="10246" width="17.5546875" style="9" customWidth="1"/>
-    <col min="10247" max="10247" width="27.44140625" style="9" customWidth="1"/>
-    <col min="10248" max="10248" width="24.109375" style="9" customWidth="1"/>
-    <col min="10249" max="10249" width="13.5546875" style="9" customWidth="1"/>
-    <col min="10250" max="10250" width="23.44140625" style="9" customWidth="1"/>
-    <col min="10251" max="10251" width="21.109375" style="9" customWidth="1"/>
-    <col min="10252" max="10252" width="20.44140625" style="9" customWidth="1"/>
-    <col min="10253" max="10496" width="9.109375" style="9"/>
-    <col min="10497" max="10497" width="10.44140625" style="9" customWidth="1"/>
-    <col min="10498" max="10498" width="20.6640625" style="9" customWidth="1"/>
-    <col min="10499" max="10499" width="14.5546875" style="9" customWidth="1"/>
-    <col min="10500" max="10500" width="14.33203125" style="9" customWidth="1"/>
-    <col min="10501" max="10501" width="12.44140625" style="9" customWidth="1"/>
-    <col min="10502" max="10502" width="17.5546875" style="9" customWidth="1"/>
-    <col min="10503" max="10503" width="27.44140625" style="9" customWidth="1"/>
-    <col min="10504" max="10504" width="24.109375" style="9" customWidth="1"/>
-    <col min="10505" max="10505" width="13.5546875" style="9" customWidth="1"/>
-    <col min="10506" max="10506" width="23.44140625" style="9" customWidth="1"/>
-    <col min="10507" max="10507" width="21.109375" style="9" customWidth="1"/>
-    <col min="10508" max="10508" width="20.44140625" style="9" customWidth="1"/>
-    <col min="10509" max="10752" width="9.109375" style="9"/>
-    <col min="10753" max="10753" width="10.44140625" style="9" customWidth="1"/>
-    <col min="10754" max="10754" width="20.6640625" style="9" customWidth="1"/>
-    <col min="10755" max="10755" width="14.5546875" style="9" customWidth="1"/>
-    <col min="10756" max="10756" width="14.33203125" style="9" customWidth="1"/>
-    <col min="10757" max="10757" width="12.44140625" style="9" customWidth="1"/>
-    <col min="10758" max="10758" width="17.5546875" style="9" customWidth="1"/>
-    <col min="10759" max="10759" width="27.44140625" style="9" customWidth="1"/>
-    <col min="10760" max="10760" width="24.109375" style="9" customWidth="1"/>
-    <col min="10761" max="10761" width="13.5546875" style="9" customWidth="1"/>
-    <col min="10762" max="10762" width="23.44140625" style="9" customWidth="1"/>
-    <col min="10763" max="10763" width="21.109375" style="9" customWidth="1"/>
-    <col min="10764" max="10764" width="20.44140625" style="9" customWidth="1"/>
-    <col min="10765" max="11008" width="9.109375" style="9"/>
-    <col min="11009" max="11009" width="10.44140625" style="9" customWidth="1"/>
-    <col min="11010" max="11010" width="20.6640625" style="9" customWidth="1"/>
-    <col min="11011" max="11011" width="14.5546875" style="9" customWidth="1"/>
-    <col min="11012" max="11012" width="14.33203125" style="9" customWidth="1"/>
-    <col min="11013" max="11013" width="12.44140625" style="9" customWidth="1"/>
-    <col min="11014" max="11014" width="17.5546875" style="9" customWidth="1"/>
-    <col min="11015" max="11015" width="27.44140625" style="9" customWidth="1"/>
-    <col min="11016" max="11016" width="24.109375" style="9" customWidth="1"/>
-    <col min="11017" max="11017" width="13.5546875" style="9" customWidth="1"/>
-    <col min="11018" max="11018" width="23.44140625" style="9" customWidth="1"/>
-    <col min="11019" max="11019" width="21.109375" style="9" customWidth="1"/>
-    <col min="11020" max="11020" width="20.44140625" style="9" customWidth="1"/>
-    <col min="11021" max="11264" width="9.109375" style="9"/>
-    <col min="11265" max="11265" width="10.44140625" style="9" customWidth="1"/>
-    <col min="11266" max="11266" width="20.6640625" style="9" customWidth="1"/>
-    <col min="11267" max="11267" width="14.5546875" style="9" customWidth="1"/>
-    <col min="11268" max="11268" width="14.33203125" style="9" customWidth="1"/>
-    <col min="11269" max="11269" width="12.44140625" style="9" customWidth="1"/>
-    <col min="11270" max="11270" width="17.5546875" style="9" customWidth="1"/>
-    <col min="11271" max="11271" width="27.44140625" style="9" customWidth="1"/>
-    <col min="11272" max="11272" width="24.109375" style="9" customWidth="1"/>
-    <col min="11273" max="11273" width="13.5546875" style="9" customWidth="1"/>
-    <col min="11274" max="11274" width="23.44140625" style="9" customWidth="1"/>
-    <col min="11275" max="11275" width="21.109375" style="9" customWidth="1"/>
-    <col min="11276" max="11276" width="20.44140625" style="9" customWidth="1"/>
-    <col min="11277" max="11520" width="9.109375" style="9"/>
-    <col min="11521" max="11521" width="10.44140625" style="9" customWidth="1"/>
-    <col min="11522" max="11522" width="20.6640625" style="9" customWidth="1"/>
-    <col min="11523" max="11523" width="14.5546875" style="9" customWidth="1"/>
-    <col min="11524" max="11524" width="14.33203125" style="9" customWidth="1"/>
-    <col min="11525" max="11525" width="12.44140625" style="9" customWidth="1"/>
-    <col min="11526" max="11526" width="17.5546875" style="9" customWidth="1"/>
-    <col min="11527" max="11527" width="27.44140625" style="9" customWidth="1"/>
-    <col min="11528" max="11528" width="24.109375" style="9" customWidth="1"/>
-    <col min="11529" max="11529" width="13.5546875" style="9" customWidth="1"/>
-    <col min="11530" max="11530" width="23.44140625" style="9" customWidth="1"/>
-    <col min="11531" max="11531" width="21.109375" style="9" customWidth="1"/>
-    <col min="11532" max="11532" width="20.44140625" style="9" customWidth="1"/>
-    <col min="11533" max="11776" width="9.109375" style="9"/>
-    <col min="11777" max="11777" width="10.44140625" style="9" customWidth="1"/>
-    <col min="11778" max="11778" width="20.6640625" style="9" customWidth="1"/>
-    <col min="11779" max="11779" width="14.5546875" style="9" customWidth="1"/>
-    <col min="11780" max="11780" width="14.33203125" style="9" customWidth="1"/>
-    <col min="11781" max="11781" width="12.44140625" style="9" customWidth="1"/>
-    <col min="11782" max="11782" width="17.5546875" style="9" customWidth="1"/>
-    <col min="11783" max="11783" width="27.44140625" style="9" customWidth="1"/>
-    <col min="11784" max="11784" width="24.109375" style="9" customWidth="1"/>
-    <col min="11785" max="11785" width="13.5546875" style="9" customWidth="1"/>
-    <col min="11786" max="11786" width="23.44140625" style="9" customWidth="1"/>
-    <col min="11787" max="11787" width="21.109375" style="9" customWidth="1"/>
-    <col min="11788" max="11788" width="20.44140625" style="9" customWidth="1"/>
-    <col min="11789" max="12032" width="9.109375" style="9"/>
-    <col min="12033" max="12033" width="10.44140625" style="9" customWidth="1"/>
-    <col min="12034" max="12034" width="20.6640625" style="9" customWidth="1"/>
-    <col min="12035" max="12035" width="14.5546875" style="9" customWidth="1"/>
-    <col min="12036" max="12036" width="14.33203125" style="9" customWidth="1"/>
-    <col min="12037" max="12037" width="12.44140625" style="9" customWidth="1"/>
-    <col min="12038" max="12038" width="17.5546875" style="9" customWidth="1"/>
-    <col min="12039" max="12039" width="27.44140625" style="9" customWidth="1"/>
-    <col min="12040" max="12040" width="24.109375" style="9" customWidth="1"/>
-    <col min="12041" max="12041" width="13.5546875" style="9" customWidth="1"/>
-    <col min="12042" max="12042" width="23.44140625" style="9" customWidth="1"/>
-    <col min="12043" max="12043" width="21.109375" style="9" customWidth="1"/>
-    <col min="12044" max="12044" width="20.44140625" style="9" customWidth="1"/>
-    <col min="12045" max="12288" width="9.109375" style="9"/>
-    <col min="12289" max="12289" width="10.44140625" style="9" customWidth="1"/>
-    <col min="12290" max="12290" width="20.6640625" style="9" customWidth="1"/>
-    <col min="12291" max="12291" width="14.5546875" style="9" customWidth="1"/>
-    <col min="12292" max="12292" width="14.33203125" style="9" customWidth="1"/>
-    <col min="12293" max="12293" width="12.44140625" style="9" customWidth="1"/>
-    <col min="12294" max="12294" width="17.5546875" style="9" customWidth="1"/>
-    <col min="12295" max="12295" width="27.44140625" style="9" customWidth="1"/>
-    <col min="12296" max="12296" width="24.109375" style="9" customWidth="1"/>
-    <col min="12297" max="12297" width="13.5546875" style="9" customWidth="1"/>
-    <col min="12298" max="12298" width="23.44140625" style="9" customWidth="1"/>
-    <col min="12299" max="12299" width="21.109375" style="9" customWidth="1"/>
-    <col min="12300" max="12300" width="20.44140625" style="9" customWidth="1"/>
-    <col min="12301" max="12544" width="9.109375" style="9"/>
-    <col min="12545" max="12545" width="10.44140625" style="9" customWidth="1"/>
-    <col min="12546" max="12546" width="20.6640625" style="9" customWidth="1"/>
-    <col min="12547" max="12547" width="14.5546875" style="9" customWidth="1"/>
-    <col min="12548" max="12548" width="14.33203125" style="9" customWidth="1"/>
-    <col min="12549" max="12549" width="12.44140625" style="9" customWidth="1"/>
-    <col min="12550" max="12550" width="17.5546875" style="9" customWidth="1"/>
-    <col min="12551" max="12551" width="27.44140625" style="9" customWidth="1"/>
-    <col min="12552" max="12552" width="24.109375" style="9" customWidth="1"/>
-    <col min="12553" max="12553" width="13.5546875" style="9" customWidth="1"/>
-    <col min="12554" max="12554" width="23.44140625" style="9" customWidth="1"/>
-    <col min="12555" max="12555" width="21.109375" style="9" customWidth="1"/>
-    <col min="12556" max="12556" width="20.44140625" style="9" customWidth="1"/>
-    <col min="12557" max="12800" width="9.109375" style="9"/>
-    <col min="12801" max="12801" width="10.44140625" style="9" customWidth="1"/>
-    <col min="12802" max="12802" width="20.6640625" style="9" customWidth="1"/>
-    <col min="12803" max="12803" width="14.5546875" style="9" customWidth="1"/>
-    <col min="12804" max="12804" width="14.33203125" style="9" customWidth="1"/>
-    <col min="12805" max="12805" width="12.44140625" style="9" customWidth="1"/>
-    <col min="12806" max="12806" width="17.5546875" style="9" customWidth="1"/>
-    <col min="12807" max="12807" width="27.44140625" style="9" customWidth="1"/>
-    <col min="12808" max="12808" width="24.109375" style="9" customWidth="1"/>
-    <col min="12809" max="12809" width="13.5546875" style="9" customWidth="1"/>
-    <col min="12810" max="12810" width="23.44140625" style="9" customWidth="1"/>
-    <col min="12811" max="12811" width="21.109375" style="9" customWidth="1"/>
-    <col min="12812" max="12812" width="20.44140625" style="9" customWidth="1"/>
-    <col min="12813" max="13056" width="9.109375" style="9"/>
-    <col min="13057" max="13057" width="10.44140625" style="9" customWidth="1"/>
-    <col min="13058" max="13058" width="20.6640625" style="9" customWidth="1"/>
-    <col min="13059" max="13059" width="14.5546875" style="9" customWidth="1"/>
-    <col min="13060" max="13060" width="14.33203125" style="9" customWidth="1"/>
-    <col min="13061" max="13061" width="12.44140625" style="9" customWidth="1"/>
-    <col min="13062" max="13062" width="17.5546875" style="9" customWidth="1"/>
-    <col min="13063" max="13063" width="27.44140625" style="9" customWidth="1"/>
-    <col min="13064" max="13064" width="24.109375" style="9" customWidth="1"/>
-    <col min="13065" max="13065" width="13.5546875" style="9" customWidth="1"/>
-    <col min="13066" max="13066" width="23.44140625" style="9" customWidth="1"/>
-    <col min="13067" max="13067" width="21.109375" style="9" customWidth="1"/>
-    <col min="13068" max="13068" width="20.44140625" style="9" customWidth="1"/>
-    <col min="13069" max="13312" width="9.109375" style="9"/>
-    <col min="13313" max="13313" width="10.44140625" style="9" customWidth="1"/>
-    <col min="13314" max="13314" width="20.6640625" style="9" customWidth="1"/>
-    <col min="13315" max="13315" width="14.5546875" style="9" customWidth="1"/>
-    <col min="13316" max="13316" width="14.33203125" style="9" customWidth="1"/>
-    <col min="13317" max="13317" width="12.44140625" style="9" customWidth="1"/>
-    <col min="13318" max="13318" width="17.5546875" style="9" customWidth="1"/>
-    <col min="13319" max="13319" width="27.44140625" style="9" customWidth="1"/>
-    <col min="13320" max="13320" width="24.109375" style="9" customWidth="1"/>
-    <col min="13321" max="13321" width="13.5546875" style="9" customWidth="1"/>
-    <col min="13322" max="13322" width="23.44140625" style="9" customWidth="1"/>
-    <col min="13323" max="13323" width="21.109375" style="9" customWidth="1"/>
-    <col min="13324" max="13324" width="20.44140625" style="9" customWidth="1"/>
-    <col min="13325" max="13568" width="9.109375" style="9"/>
-    <col min="13569" max="13569" width="10.44140625" style="9" customWidth="1"/>
-    <col min="13570" max="13570" width="20.6640625" style="9" customWidth="1"/>
-    <col min="13571" max="13571" width="14.5546875" style="9" customWidth="1"/>
-    <col min="13572" max="13572" width="14.33203125" style="9" customWidth="1"/>
-    <col min="13573" max="13573" width="12.44140625" style="9" customWidth="1"/>
-    <col min="13574" max="13574" width="17.5546875" style="9" customWidth="1"/>
-    <col min="13575" max="13575" width="27.44140625" style="9" customWidth="1"/>
-    <col min="13576" max="13576" width="24.109375" style="9" customWidth="1"/>
-    <col min="13577" max="13577" width="13.5546875" style="9" customWidth="1"/>
-    <col min="13578" max="13578" width="23.44140625" style="9" customWidth="1"/>
-    <col min="13579" max="13579" width="21.109375" style="9" customWidth="1"/>
-    <col min="13580" max="13580" width="20.44140625" style="9" customWidth="1"/>
-    <col min="13581" max="13824" width="9.109375" style="9"/>
-    <col min="13825" max="13825" width="10.44140625" style="9" customWidth="1"/>
-    <col min="13826" max="13826" width="20.6640625" style="9" customWidth="1"/>
-    <col min="13827" max="13827" width="14.5546875" style="9" customWidth="1"/>
-    <col min="13828" max="13828" width="14.33203125" style="9" customWidth="1"/>
-    <col min="13829" max="13829" width="12.44140625" style="9" customWidth="1"/>
-    <col min="13830" max="13830" width="17.5546875" style="9" customWidth="1"/>
-    <col min="13831" max="13831" width="27.44140625" style="9" customWidth="1"/>
-    <col min="13832" max="13832" width="24.109375" style="9" customWidth="1"/>
-    <col min="13833" max="13833" width="13.5546875" style="9" customWidth="1"/>
-    <col min="13834" max="13834" width="23.44140625" style="9" customWidth="1"/>
-    <col min="13835" max="13835" width="21.109375" style="9" customWidth="1"/>
-    <col min="13836" max="13836" width="20.44140625" style="9" customWidth="1"/>
-    <col min="13837" max="14080" width="9.109375" style="9"/>
-    <col min="14081" max="14081" width="10.44140625" style="9" customWidth="1"/>
-    <col min="14082" max="14082" width="20.6640625" style="9" customWidth="1"/>
-    <col min="14083" max="14083" width="14.5546875" style="9" customWidth="1"/>
-    <col min="14084" max="14084" width="14.33203125" style="9" customWidth="1"/>
-    <col min="14085" max="14085" width="12.44140625" style="9" customWidth="1"/>
-    <col min="14086" max="14086" width="17.5546875" style="9" customWidth="1"/>
-    <col min="14087" max="14087" width="27.44140625" style="9" customWidth="1"/>
-    <col min="14088" max="14088" width="24.109375" style="9" customWidth="1"/>
-    <col min="14089" max="14089" width="13.5546875" style="9" customWidth="1"/>
-    <col min="14090" max="14090" width="23.44140625" style="9" customWidth="1"/>
-    <col min="14091" max="14091" width="21.109375" style="9" customWidth="1"/>
-    <col min="14092" max="14092" width="20.44140625" style="9" customWidth="1"/>
-    <col min="14093" max="14336" width="9.109375" style="9"/>
-    <col min="14337" max="14337" width="10.44140625" style="9" customWidth="1"/>
-    <col min="14338" max="14338" width="20.6640625" style="9" customWidth="1"/>
-    <col min="14339" max="14339" width="14.5546875" style="9" customWidth="1"/>
-    <col min="14340" max="14340" width="14.33203125" style="9" customWidth="1"/>
-    <col min="14341" max="14341" width="12.44140625" style="9" customWidth="1"/>
-    <col min="14342" max="14342" width="17.5546875" style="9" customWidth="1"/>
-    <col min="14343" max="14343" width="27.44140625" style="9" customWidth="1"/>
-    <col min="14344" max="14344" width="24.109375" style="9" customWidth="1"/>
-    <col min="14345" max="14345" width="13.5546875" style="9" customWidth="1"/>
-    <col min="14346" max="14346" width="23.44140625" style="9" customWidth="1"/>
-    <col min="14347" max="14347" width="21.109375" style="9" customWidth="1"/>
-    <col min="14348" max="14348" width="20.44140625" style="9" customWidth="1"/>
-    <col min="14349" max="14592" width="9.109375" style="9"/>
-    <col min="14593" max="14593" width="10.44140625" style="9" customWidth="1"/>
-    <col min="14594" max="14594" width="20.6640625" style="9" customWidth="1"/>
-    <col min="14595" max="14595" width="14.5546875" style="9" customWidth="1"/>
-    <col min="14596" max="14596" width="14.33203125" style="9" customWidth="1"/>
-    <col min="14597" max="14597" width="12.44140625" style="9" customWidth="1"/>
-    <col min="14598" max="14598" width="17.5546875" style="9" customWidth="1"/>
-    <col min="14599" max="14599" width="27.44140625" style="9" customWidth="1"/>
-    <col min="14600" max="14600" width="24.109375" style="9" customWidth="1"/>
-    <col min="14601" max="14601" width="13.5546875" style="9" customWidth="1"/>
-    <col min="14602" max="14602" width="23.44140625" style="9" customWidth="1"/>
-    <col min="14603" max="14603" width="21.109375" style="9" customWidth="1"/>
-    <col min="14604" max="14604" width="20.44140625" style="9" customWidth="1"/>
-    <col min="14605" max="14848" width="9.109375" style="9"/>
-    <col min="14849" max="14849" width="10.44140625" style="9" customWidth="1"/>
-    <col min="14850" max="14850" width="20.6640625" style="9" customWidth="1"/>
-    <col min="14851" max="14851" width="14.5546875" style="9" customWidth="1"/>
-    <col min="14852" max="14852" width="14.33203125" style="9" customWidth="1"/>
-    <col min="14853" max="14853" width="12.44140625" style="9" customWidth="1"/>
-    <col min="14854" max="14854" width="17.5546875" style="9" customWidth="1"/>
-    <col min="14855" max="14855" width="27.44140625" style="9" customWidth="1"/>
-    <col min="14856" max="14856" width="24.109375" style="9" customWidth="1"/>
-    <col min="14857" max="14857" width="13.5546875" style="9" customWidth="1"/>
-    <col min="14858" max="14858" width="23.44140625" style="9" customWidth="1"/>
-    <col min="14859" max="14859" width="21.109375" style="9" customWidth="1"/>
-    <col min="14860" max="14860" width="20.44140625" style="9" customWidth="1"/>
-    <col min="14861" max="15104" width="9.109375" style="9"/>
-    <col min="15105" max="15105" width="10.44140625" style="9" customWidth="1"/>
-    <col min="15106" max="15106" width="20.6640625" style="9" customWidth="1"/>
-    <col min="15107" max="15107" width="14.5546875" style="9" customWidth="1"/>
-    <col min="15108" max="15108" width="14.33203125" style="9" customWidth="1"/>
-    <col min="15109" max="15109" width="12.44140625" style="9" customWidth="1"/>
-    <col min="15110" max="15110" width="17.5546875" style="9" customWidth="1"/>
-    <col min="15111" max="15111" width="27.44140625" style="9" customWidth="1"/>
-    <col min="15112" max="15112" width="24.109375" style="9" customWidth="1"/>
-    <col min="15113" max="15113" width="13.5546875" style="9" customWidth="1"/>
-    <col min="15114" max="15114" width="23.44140625" style="9" customWidth="1"/>
-    <col min="15115" max="15115" width="21.109375" style="9" customWidth="1"/>
-    <col min="15116" max="15116" width="20.44140625" style="9" customWidth="1"/>
-    <col min="15117" max="15360" width="9.109375" style="9"/>
-    <col min="15361" max="15361" width="10.44140625" style="9" customWidth="1"/>
-    <col min="15362" max="15362" width="20.6640625" style="9" customWidth="1"/>
-    <col min="15363" max="15363" width="14.5546875" style="9" customWidth="1"/>
-    <col min="15364" max="15364" width="14.33203125" style="9" customWidth="1"/>
-    <col min="15365" max="15365" width="12.44140625" style="9" customWidth="1"/>
-    <col min="15366" max="15366" width="17.5546875" style="9" customWidth="1"/>
-    <col min="15367" max="15367" width="27.44140625" style="9" customWidth="1"/>
-    <col min="15368" max="15368" width="24.109375" style="9" customWidth="1"/>
-    <col min="15369" max="15369" width="13.5546875" style="9" customWidth="1"/>
-    <col min="15370" max="15370" width="23.44140625" style="9" customWidth="1"/>
-    <col min="15371" max="15371" width="21.109375" style="9" customWidth="1"/>
-    <col min="15372" max="15372" width="20.44140625" style="9" customWidth="1"/>
-    <col min="15373" max="15616" width="9.109375" style="9"/>
-    <col min="15617" max="15617" width="10.44140625" style="9" customWidth="1"/>
-    <col min="15618" max="15618" width="20.6640625" style="9" customWidth="1"/>
-    <col min="15619" max="15619" width="14.5546875" style="9" customWidth="1"/>
-    <col min="15620" max="15620" width="14.33203125" style="9" customWidth="1"/>
-    <col min="15621" max="15621" width="12.44140625" style="9" customWidth="1"/>
-    <col min="15622" max="15622" width="17.5546875" style="9" customWidth="1"/>
-    <col min="15623" max="15623" width="27.44140625" style="9" customWidth="1"/>
-    <col min="15624" max="15624" width="24.109375" style="9" customWidth="1"/>
-    <col min="15625" max="15625" width="13.5546875" style="9" customWidth="1"/>
-    <col min="15626" max="15626" width="23.44140625" style="9" customWidth="1"/>
-    <col min="15627" max="15627" width="21.109375" style="9" customWidth="1"/>
-    <col min="15628" max="15628" width="20.44140625" style="9" customWidth="1"/>
-    <col min="15629" max="15872" width="9.109375" style="9"/>
-    <col min="15873" max="15873" width="10.44140625" style="9" customWidth="1"/>
-    <col min="15874" max="15874" width="20.6640625" style="9" customWidth="1"/>
-    <col min="15875" max="15875" width="14.5546875" style="9" customWidth="1"/>
-    <col min="15876" max="15876" width="14.33203125" style="9" customWidth="1"/>
-    <col min="15877" max="15877" width="12.44140625" style="9" customWidth="1"/>
-    <col min="15878" max="15878" width="17.5546875" style="9" customWidth="1"/>
-    <col min="15879" max="15879" width="27.44140625" style="9" customWidth="1"/>
-    <col min="15880" max="15880" width="24.109375" style="9" customWidth="1"/>
-    <col min="15881" max="15881" width="13.5546875" style="9" customWidth="1"/>
-    <col min="15882" max="15882" width="23.44140625" style="9" customWidth="1"/>
-    <col min="15883" max="15883" width="21.109375" style="9" customWidth="1"/>
-    <col min="15884" max="15884" width="20.44140625" style="9" customWidth="1"/>
-    <col min="15885" max="16128" width="9.109375" style="9"/>
-    <col min="16129" max="16129" width="10.44140625" style="9" customWidth="1"/>
-    <col min="16130" max="16130" width="20.6640625" style="9" customWidth="1"/>
-    <col min="16131" max="16131" width="14.5546875" style="9" customWidth="1"/>
-    <col min="16132" max="16132" width="14.33203125" style="9" customWidth="1"/>
-    <col min="16133" max="16133" width="12.44140625" style="9" customWidth="1"/>
-    <col min="16134" max="16134" width="17.5546875" style="9" customWidth="1"/>
-    <col min="16135" max="16135" width="27.44140625" style="9" customWidth="1"/>
-    <col min="16136" max="16136" width="24.109375" style="9" customWidth="1"/>
-    <col min="16137" max="16137" width="13.5546875" style="9" customWidth="1"/>
-    <col min="16138" max="16138" width="23.44140625" style="9" customWidth="1"/>
-    <col min="16139" max="16139" width="21.109375" style="9" customWidth="1"/>
-    <col min="16140" max="16140" width="20.44140625" style="9" customWidth="1"/>
-    <col min="16141" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="79.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13" max="256" width="9.140625" style="9"/>
+    <col min="257" max="257" width="10.42578125" style="9" customWidth="1"/>
+    <col min="258" max="258" width="20.7109375" style="9" customWidth="1"/>
+    <col min="259" max="259" width="14.5703125" style="9" customWidth="1"/>
+    <col min="260" max="260" width="14.28515625" style="9" customWidth="1"/>
+    <col min="261" max="261" width="12.42578125" style="9" customWidth="1"/>
+    <col min="262" max="262" width="17.5703125" style="9" customWidth="1"/>
+    <col min="263" max="263" width="27.42578125" style="9" customWidth="1"/>
+    <col min="264" max="264" width="24.140625" style="9" customWidth="1"/>
+    <col min="265" max="265" width="13.5703125" style="9" customWidth="1"/>
+    <col min="266" max="266" width="23.42578125" style="9" customWidth="1"/>
+    <col min="267" max="267" width="21.140625" style="9" customWidth="1"/>
+    <col min="268" max="268" width="20.42578125" style="9" customWidth="1"/>
+    <col min="269" max="512" width="9.140625" style="9"/>
+    <col min="513" max="513" width="10.42578125" style="9" customWidth="1"/>
+    <col min="514" max="514" width="20.7109375" style="9" customWidth="1"/>
+    <col min="515" max="515" width="14.5703125" style="9" customWidth="1"/>
+    <col min="516" max="516" width="14.28515625" style="9" customWidth="1"/>
+    <col min="517" max="517" width="12.42578125" style="9" customWidth="1"/>
+    <col min="518" max="518" width="17.5703125" style="9" customWidth="1"/>
+    <col min="519" max="519" width="27.42578125" style="9" customWidth="1"/>
+    <col min="520" max="520" width="24.140625" style="9" customWidth="1"/>
+    <col min="521" max="521" width="13.5703125" style="9" customWidth="1"/>
+    <col min="522" max="522" width="23.42578125" style="9" customWidth="1"/>
+    <col min="523" max="523" width="21.140625" style="9" customWidth="1"/>
+    <col min="524" max="524" width="20.42578125" style="9" customWidth="1"/>
+    <col min="525" max="768" width="9.140625" style="9"/>
+    <col min="769" max="769" width="10.42578125" style="9" customWidth="1"/>
+    <col min="770" max="770" width="20.7109375" style="9" customWidth="1"/>
+    <col min="771" max="771" width="14.5703125" style="9" customWidth="1"/>
+    <col min="772" max="772" width="14.28515625" style="9" customWidth="1"/>
+    <col min="773" max="773" width="12.42578125" style="9" customWidth="1"/>
+    <col min="774" max="774" width="17.5703125" style="9" customWidth="1"/>
+    <col min="775" max="775" width="27.42578125" style="9" customWidth="1"/>
+    <col min="776" max="776" width="24.140625" style="9" customWidth="1"/>
+    <col min="777" max="777" width="13.5703125" style="9" customWidth="1"/>
+    <col min="778" max="778" width="23.42578125" style="9" customWidth="1"/>
+    <col min="779" max="779" width="21.140625" style="9" customWidth="1"/>
+    <col min="780" max="780" width="20.42578125" style="9" customWidth="1"/>
+    <col min="781" max="1024" width="9.140625" style="9"/>
+    <col min="1025" max="1025" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1026" max="1026" width="20.7109375" style="9" customWidth="1"/>
+    <col min="1027" max="1027" width="14.5703125" style="9" customWidth="1"/>
+    <col min="1028" max="1028" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1029" max="1029" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1030" max="1030" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1031" max="1031" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1032" max="1032" width="24.140625" style="9" customWidth="1"/>
+    <col min="1033" max="1033" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1034" max="1034" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1035" max="1035" width="21.140625" style="9" customWidth="1"/>
+    <col min="1036" max="1036" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1037" max="1280" width="9.140625" style="9"/>
+    <col min="1281" max="1281" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1282" max="1282" width="20.7109375" style="9" customWidth="1"/>
+    <col min="1283" max="1283" width="14.5703125" style="9" customWidth="1"/>
+    <col min="1284" max="1284" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1285" max="1285" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1286" max="1286" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1287" max="1287" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1288" max="1288" width="24.140625" style="9" customWidth="1"/>
+    <col min="1289" max="1289" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1290" max="1290" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1291" max="1291" width="21.140625" style="9" customWidth="1"/>
+    <col min="1292" max="1292" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1293" max="1536" width="9.140625" style="9"/>
+    <col min="1537" max="1537" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1538" max="1538" width="20.7109375" style="9" customWidth="1"/>
+    <col min="1539" max="1539" width="14.5703125" style="9" customWidth="1"/>
+    <col min="1540" max="1540" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1541" max="1541" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1542" max="1542" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1543" max="1543" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1544" max="1544" width="24.140625" style="9" customWidth="1"/>
+    <col min="1545" max="1545" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1546" max="1546" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1547" max="1547" width="21.140625" style="9" customWidth="1"/>
+    <col min="1548" max="1548" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1549" max="1792" width="9.140625" style="9"/>
+    <col min="1793" max="1793" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1794" max="1794" width="20.7109375" style="9" customWidth="1"/>
+    <col min="1795" max="1795" width="14.5703125" style="9" customWidth="1"/>
+    <col min="1796" max="1796" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1797" max="1797" width="12.42578125" style="9" customWidth="1"/>
+    <col min="1798" max="1798" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1799" max="1799" width="27.42578125" style="9" customWidth="1"/>
+    <col min="1800" max="1800" width="24.140625" style="9" customWidth="1"/>
+    <col min="1801" max="1801" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1802" max="1802" width="23.42578125" style="9" customWidth="1"/>
+    <col min="1803" max="1803" width="21.140625" style="9" customWidth="1"/>
+    <col min="1804" max="1804" width="20.42578125" style="9" customWidth="1"/>
+    <col min="1805" max="2048" width="9.140625" style="9"/>
+    <col min="2049" max="2049" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2050" max="2050" width="20.7109375" style="9" customWidth="1"/>
+    <col min="2051" max="2051" width="14.5703125" style="9" customWidth="1"/>
+    <col min="2052" max="2052" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2053" max="2053" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2054" max="2054" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2055" max="2055" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2056" max="2056" width="24.140625" style="9" customWidth="1"/>
+    <col min="2057" max="2057" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2058" max="2058" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2059" max="2059" width="21.140625" style="9" customWidth="1"/>
+    <col min="2060" max="2060" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2061" max="2304" width="9.140625" style="9"/>
+    <col min="2305" max="2305" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2306" max="2306" width="20.7109375" style="9" customWidth="1"/>
+    <col min="2307" max="2307" width="14.5703125" style="9" customWidth="1"/>
+    <col min="2308" max="2308" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2309" max="2309" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2310" max="2310" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2311" max="2311" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2312" max="2312" width="24.140625" style="9" customWidth="1"/>
+    <col min="2313" max="2313" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2314" max="2314" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2315" max="2315" width="21.140625" style="9" customWidth="1"/>
+    <col min="2316" max="2316" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2317" max="2560" width="9.140625" style="9"/>
+    <col min="2561" max="2561" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2562" max="2562" width="20.7109375" style="9" customWidth="1"/>
+    <col min="2563" max="2563" width="14.5703125" style="9" customWidth="1"/>
+    <col min="2564" max="2564" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2565" max="2565" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2566" max="2566" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2567" max="2567" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2568" max="2568" width="24.140625" style="9" customWidth="1"/>
+    <col min="2569" max="2569" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2570" max="2570" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2571" max="2571" width="21.140625" style="9" customWidth="1"/>
+    <col min="2572" max="2572" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2573" max="2816" width="9.140625" style="9"/>
+    <col min="2817" max="2817" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2818" max="2818" width="20.7109375" style="9" customWidth="1"/>
+    <col min="2819" max="2819" width="14.5703125" style="9" customWidth="1"/>
+    <col min="2820" max="2820" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2821" max="2821" width="12.42578125" style="9" customWidth="1"/>
+    <col min="2822" max="2822" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2823" max="2823" width="27.42578125" style="9" customWidth="1"/>
+    <col min="2824" max="2824" width="24.140625" style="9" customWidth="1"/>
+    <col min="2825" max="2825" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2826" max="2826" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2827" max="2827" width="21.140625" style="9" customWidth="1"/>
+    <col min="2828" max="2828" width="20.42578125" style="9" customWidth="1"/>
+    <col min="2829" max="3072" width="9.140625" style="9"/>
+    <col min="3073" max="3073" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3074" max="3074" width="20.7109375" style="9" customWidth="1"/>
+    <col min="3075" max="3075" width="14.5703125" style="9" customWidth="1"/>
+    <col min="3076" max="3076" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3077" max="3077" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3078" max="3078" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3079" max="3079" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3080" max="3080" width="24.140625" style="9" customWidth="1"/>
+    <col min="3081" max="3081" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3082" max="3082" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3083" max="3083" width="21.140625" style="9" customWidth="1"/>
+    <col min="3084" max="3084" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3085" max="3328" width="9.140625" style="9"/>
+    <col min="3329" max="3329" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3330" max="3330" width="20.7109375" style="9" customWidth="1"/>
+    <col min="3331" max="3331" width="14.5703125" style="9" customWidth="1"/>
+    <col min="3332" max="3332" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3333" max="3333" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3334" max="3334" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3335" max="3335" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3336" max="3336" width="24.140625" style="9" customWidth="1"/>
+    <col min="3337" max="3337" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3338" max="3338" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3339" max="3339" width="21.140625" style="9" customWidth="1"/>
+    <col min="3340" max="3340" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3341" max="3584" width="9.140625" style="9"/>
+    <col min="3585" max="3585" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3586" max="3586" width="20.7109375" style="9" customWidth="1"/>
+    <col min="3587" max="3587" width="14.5703125" style="9" customWidth="1"/>
+    <col min="3588" max="3588" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3589" max="3589" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3590" max="3590" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3591" max="3591" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3592" max="3592" width="24.140625" style="9" customWidth="1"/>
+    <col min="3593" max="3593" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3594" max="3594" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3595" max="3595" width="21.140625" style="9" customWidth="1"/>
+    <col min="3596" max="3596" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3597" max="3840" width="9.140625" style="9"/>
+    <col min="3841" max="3841" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3842" max="3842" width="20.7109375" style="9" customWidth="1"/>
+    <col min="3843" max="3843" width="14.5703125" style="9" customWidth="1"/>
+    <col min="3844" max="3844" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3845" max="3845" width="12.42578125" style="9" customWidth="1"/>
+    <col min="3846" max="3846" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3847" max="3847" width="27.42578125" style="9" customWidth="1"/>
+    <col min="3848" max="3848" width="24.140625" style="9" customWidth="1"/>
+    <col min="3849" max="3849" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3850" max="3850" width="23.42578125" style="9" customWidth="1"/>
+    <col min="3851" max="3851" width="21.140625" style="9" customWidth="1"/>
+    <col min="3852" max="3852" width="20.42578125" style="9" customWidth="1"/>
+    <col min="3853" max="4096" width="9.140625" style="9"/>
+    <col min="4097" max="4097" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4098" max="4098" width="20.7109375" style="9" customWidth="1"/>
+    <col min="4099" max="4099" width="14.5703125" style="9" customWidth="1"/>
+    <col min="4100" max="4100" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4101" max="4101" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4102" max="4102" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4103" max="4103" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4104" max="4104" width="24.140625" style="9" customWidth="1"/>
+    <col min="4105" max="4105" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4106" max="4106" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4107" max="4107" width="21.140625" style="9" customWidth="1"/>
+    <col min="4108" max="4108" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4109" max="4352" width="9.140625" style="9"/>
+    <col min="4353" max="4353" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4354" max="4354" width="20.7109375" style="9" customWidth="1"/>
+    <col min="4355" max="4355" width="14.5703125" style="9" customWidth="1"/>
+    <col min="4356" max="4356" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4357" max="4357" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4358" max="4358" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4359" max="4359" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4360" max="4360" width="24.140625" style="9" customWidth="1"/>
+    <col min="4361" max="4361" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4362" max="4362" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4363" max="4363" width="21.140625" style="9" customWidth="1"/>
+    <col min="4364" max="4364" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4365" max="4608" width="9.140625" style="9"/>
+    <col min="4609" max="4609" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4610" max="4610" width="20.7109375" style="9" customWidth="1"/>
+    <col min="4611" max="4611" width="14.5703125" style="9" customWidth="1"/>
+    <col min="4612" max="4612" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4613" max="4613" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4614" max="4614" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4615" max="4615" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4616" max="4616" width="24.140625" style="9" customWidth="1"/>
+    <col min="4617" max="4617" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4618" max="4618" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4619" max="4619" width="21.140625" style="9" customWidth="1"/>
+    <col min="4620" max="4620" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4621" max="4864" width="9.140625" style="9"/>
+    <col min="4865" max="4865" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4866" max="4866" width="20.7109375" style="9" customWidth="1"/>
+    <col min="4867" max="4867" width="14.5703125" style="9" customWidth="1"/>
+    <col min="4868" max="4868" width="14.28515625" style="9" customWidth="1"/>
+    <col min="4869" max="4869" width="12.42578125" style="9" customWidth="1"/>
+    <col min="4870" max="4870" width="17.5703125" style="9" customWidth="1"/>
+    <col min="4871" max="4871" width="27.42578125" style="9" customWidth="1"/>
+    <col min="4872" max="4872" width="24.140625" style="9" customWidth="1"/>
+    <col min="4873" max="4873" width="13.5703125" style="9" customWidth="1"/>
+    <col min="4874" max="4874" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4875" max="4875" width="21.140625" style="9" customWidth="1"/>
+    <col min="4876" max="4876" width="20.42578125" style="9" customWidth="1"/>
+    <col min="4877" max="5120" width="9.140625" style="9"/>
+    <col min="5121" max="5121" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5122" max="5122" width="20.7109375" style="9" customWidth="1"/>
+    <col min="5123" max="5123" width="14.5703125" style="9" customWidth="1"/>
+    <col min="5124" max="5124" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5125" max="5125" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5126" max="5126" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5127" max="5127" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5128" max="5128" width="24.140625" style="9" customWidth="1"/>
+    <col min="5129" max="5129" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5130" max="5130" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5131" max="5131" width="21.140625" style="9" customWidth="1"/>
+    <col min="5132" max="5132" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5133" max="5376" width="9.140625" style="9"/>
+    <col min="5377" max="5377" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5378" max="5378" width="20.7109375" style="9" customWidth="1"/>
+    <col min="5379" max="5379" width="14.5703125" style="9" customWidth="1"/>
+    <col min="5380" max="5380" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5381" max="5381" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5382" max="5382" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5383" max="5383" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5384" max="5384" width="24.140625" style="9" customWidth="1"/>
+    <col min="5385" max="5385" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5386" max="5386" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5387" max="5387" width="21.140625" style="9" customWidth="1"/>
+    <col min="5388" max="5388" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5389" max="5632" width="9.140625" style="9"/>
+    <col min="5633" max="5633" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5634" max="5634" width="20.7109375" style="9" customWidth="1"/>
+    <col min="5635" max="5635" width="14.5703125" style="9" customWidth="1"/>
+    <col min="5636" max="5636" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5637" max="5637" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5638" max="5638" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5639" max="5639" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5640" max="5640" width="24.140625" style="9" customWidth="1"/>
+    <col min="5641" max="5641" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5642" max="5642" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5643" max="5643" width="21.140625" style="9" customWidth="1"/>
+    <col min="5644" max="5644" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5645" max="5888" width="9.140625" style="9"/>
+    <col min="5889" max="5889" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5890" max="5890" width="20.7109375" style="9" customWidth="1"/>
+    <col min="5891" max="5891" width="14.5703125" style="9" customWidth="1"/>
+    <col min="5892" max="5892" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5893" max="5893" width="12.42578125" style="9" customWidth="1"/>
+    <col min="5894" max="5894" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5895" max="5895" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5896" max="5896" width="24.140625" style="9" customWidth="1"/>
+    <col min="5897" max="5897" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5898" max="5898" width="23.42578125" style="9" customWidth="1"/>
+    <col min="5899" max="5899" width="21.140625" style="9" customWidth="1"/>
+    <col min="5900" max="5900" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5901" max="6144" width="9.140625" style="9"/>
+    <col min="6145" max="6145" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6146" max="6146" width="20.7109375" style="9" customWidth="1"/>
+    <col min="6147" max="6147" width="14.5703125" style="9" customWidth="1"/>
+    <col min="6148" max="6148" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6149" max="6149" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6150" max="6150" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6151" max="6151" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6152" max="6152" width="24.140625" style="9" customWidth="1"/>
+    <col min="6153" max="6153" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6154" max="6154" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6155" max="6155" width="21.140625" style="9" customWidth="1"/>
+    <col min="6156" max="6156" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6157" max="6400" width="9.140625" style="9"/>
+    <col min="6401" max="6401" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6402" max="6402" width="20.7109375" style="9" customWidth="1"/>
+    <col min="6403" max="6403" width="14.5703125" style="9" customWidth="1"/>
+    <col min="6404" max="6404" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6405" max="6405" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6406" max="6406" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6407" max="6407" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6408" max="6408" width="24.140625" style="9" customWidth="1"/>
+    <col min="6409" max="6409" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6410" max="6410" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6411" max="6411" width="21.140625" style="9" customWidth="1"/>
+    <col min="6412" max="6412" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6413" max="6656" width="9.140625" style="9"/>
+    <col min="6657" max="6657" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6658" max="6658" width="20.7109375" style="9" customWidth="1"/>
+    <col min="6659" max="6659" width="14.5703125" style="9" customWidth="1"/>
+    <col min="6660" max="6660" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6661" max="6661" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6662" max="6662" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6663" max="6663" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6664" max="6664" width="24.140625" style="9" customWidth="1"/>
+    <col min="6665" max="6665" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6666" max="6666" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6667" max="6667" width="21.140625" style="9" customWidth="1"/>
+    <col min="6668" max="6668" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6669" max="6912" width="9.140625" style="9"/>
+    <col min="6913" max="6913" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6914" max="6914" width="20.7109375" style="9" customWidth="1"/>
+    <col min="6915" max="6915" width="14.5703125" style="9" customWidth="1"/>
+    <col min="6916" max="6916" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6917" max="6917" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6918" max="6918" width="17.5703125" style="9" customWidth="1"/>
+    <col min="6919" max="6919" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6920" max="6920" width="24.140625" style="9" customWidth="1"/>
+    <col min="6921" max="6921" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6922" max="6922" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6923" max="6923" width="21.140625" style="9" customWidth="1"/>
+    <col min="6924" max="6924" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6925" max="7168" width="9.140625" style="9"/>
+    <col min="7169" max="7169" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7170" max="7170" width="20.7109375" style="9" customWidth="1"/>
+    <col min="7171" max="7171" width="14.5703125" style="9" customWidth="1"/>
+    <col min="7172" max="7172" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7173" max="7173" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7174" max="7174" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7175" max="7175" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7176" max="7176" width="24.140625" style="9" customWidth="1"/>
+    <col min="7177" max="7177" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7178" max="7178" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7179" max="7179" width="21.140625" style="9" customWidth="1"/>
+    <col min="7180" max="7180" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7181" max="7424" width="9.140625" style="9"/>
+    <col min="7425" max="7425" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7426" max="7426" width="20.7109375" style="9" customWidth="1"/>
+    <col min="7427" max="7427" width="14.5703125" style="9" customWidth="1"/>
+    <col min="7428" max="7428" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7429" max="7429" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7430" max="7430" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7431" max="7431" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7432" max="7432" width="24.140625" style="9" customWidth="1"/>
+    <col min="7433" max="7433" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7434" max="7434" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7435" max="7435" width="21.140625" style="9" customWidth="1"/>
+    <col min="7436" max="7436" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7437" max="7680" width="9.140625" style="9"/>
+    <col min="7681" max="7681" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7682" max="7682" width="20.7109375" style="9" customWidth="1"/>
+    <col min="7683" max="7683" width="14.5703125" style="9" customWidth="1"/>
+    <col min="7684" max="7684" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7685" max="7685" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7686" max="7686" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7687" max="7687" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7688" max="7688" width="24.140625" style="9" customWidth="1"/>
+    <col min="7689" max="7689" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7690" max="7690" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7691" max="7691" width="21.140625" style="9" customWidth="1"/>
+    <col min="7692" max="7692" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7693" max="7936" width="9.140625" style="9"/>
+    <col min="7937" max="7937" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7938" max="7938" width="20.7109375" style="9" customWidth="1"/>
+    <col min="7939" max="7939" width="14.5703125" style="9" customWidth="1"/>
+    <col min="7940" max="7940" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7941" max="7941" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7942" max="7942" width="17.5703125" style="9" customWidth="1"/>
+    <col min="7943" max="7943" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7944" max="7944" width="24.140625" style="9" customWidth="1"/>
+    <col min="7945" max="7945" width="13.5703125" style="9" customWidth="1"/>
+    <col min="7946" max="7946" width="23.42578125" style="9" customWidth="1"/>
+    <col min="7947" max="7947" width="21.140625" style="9" customWidth="1"/>
+    <col min="7948" max="7948" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7949" max="8192" width="9.140625" style="9"/>
+    <col min="8193" max="8193" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8194" max="8194" width="20.7109375" style="9" customWidth="1"/>
+    <col min="8195" max="8195" width="14.5703125" style="9" customWidth="1"/>
+    <col min="8196" max="8196" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8197" max="8197" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8198" max="8198" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8199" max="8199" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8200" max="8200" width="24.140625" style="9" customWidth="1"/>
+    <col min="8201" max="8201" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8202" max="8202" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8203" max="8203" width="21.140625" style="9" customWidth="1"/>
+    <col min="8204" max="8204" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8205" max="8448" width="9.140625" style="9"/>
+    <col min="8449" max="8449" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8450" max="8450" width="20.7109375" style="9" customWidth="1"/>
+    <col min="8451" max="8451" width="14.5703125" style="9" customWidth="1"/>
+    <col min="8452" max="8452" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8453" max="8453" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8454" max="8454" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8455" max="8455" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8456" max="8456" width="24.140625" style="9" customWidth="1"/>
+    <col min="8457" max="8457" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8458" max="8458" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8459" max="8459" width="21.140625" style="9" customWidth="1"/>
+    <col min="8460" max="8460" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8461" max="8704" width="9.140625" style="9"/>
+    <col min="8705" max="8705" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8706" max="8706" width="20.7109375" style="9" customWidth="1"/>
+    <col min="8707" max="8707" width="14.5703125" style="9" customWidth="1"/>
+    <col min="8708" max="8708" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8709" max="8709" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8710" max="8710" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8711" max="8711" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8712" max="8712" width="24.140625" style="9" customWidth="1"/>
+    <col min="8713" max="8713" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8714" max="8714" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8715" max="8715" width="21.140625" style="9" customWidth="1"/>
+    <col min="8716" max="8716" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8717" max="8960" width="9.140625" style="9"/>
+    <col min="8961" max="8961" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8962" max="8962" width="20.7109375" style="9" customWidth="1"/>
+    <col min="8963" max="8963" width="14.5703125" style="9" customWidth="1"/>
+    <col min="8964" max="8964" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8965" max="8965" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8966" max="8966" width="17.5703125" style="9" customWidth="1"/>
+    <col min="8967" max="8967" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8968" max="8968" width="24.140625" style="9" customWidth="1"/>
+    <col min="8969" max="8969" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8970" max="8970" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8971" max="8971" width="21.140625" style="9" customWidth="1"/>
+    <col min="8972" max="8972" width="20.42578125" style="9" customWidth="1"/>
+    <col min="8973" max="9216" width="9.140625" style="9"/>
+    <col min="9217" max="9217" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9218" max="9218" width="20.7109375" style="9" customWidth="1"/>
+    <col min="9219" max="9219" width="14.5703125" style="9" customWidth="1"/>
+    <col min="9220" max="9220" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9221" max="9221" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9222" max="9222" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9223" max="9223" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9224" max="9224" width="24.140625" style="9" customWidth="1"/>
+    <col min="9225" max="9225" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9226" max="9226" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9227" max="9227" width="21.140625" style="9" customWidth="1"/>
+    <col min="9228" max="9228" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9229" max="9472" width="9.140625" style="9"/>
+    <col min="9473" max="9473" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9474" max="9474" width="20.7109375" style="9" customWidth="1"/>
+    <col min="9475" max="9475" width="14.5703125" style="9" customWidth="1"/>
+    <col min="9476" max="9476" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9477" max="9477" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9478" max="9478" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9479" max="9479" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9480" max="9480" width="24.140625" style="9" customWidth="1"/>
+    <col min="9481" max="9481" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9482" max="9482" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9483" max="9483" width="21.140625" style="9" customWidth="1"/>
+    <col min="9484" max="9484" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9485" max="9728" width="9.140625" style="9"/>
+    <col min="9729" max="9729" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9730" max="9730" width="20.7109375" style="9" customWidth="1"/>
+    <col min="9731" max="9731" width="14.5703125" style="9" customWidth="1"/>
+    <col min="9732" max="9732" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9733" max="9733" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9734" max="9734" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9735" max="9735" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9736" max="9736" width="24.140625" style="9" customWidth="1"/>
+    <col min="9737" max="9737" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9738" max="9738" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9739" max="9739" width="21.140625" style="9" customWidth="1"/>
+    <col min="9740" max="9740" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9741" max="9984" width="9.140625" style="9"/>
+    <col min="9985" max="9985" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9986" max="9986" width="20.7109375" style="9" customWidth="1"/>
+    <col min="9987" max="9987" width="14.5703125" style="9" customWidth="1"/>
+    <col min="9988" max="9988" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9989" max="9989" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9990" max="9990" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9991" max="9991" width="27.42578125" style="9" customWidth="1"/>
+    <col min="9992" max="9992" width="24.140625" style="9" customWidth="1"/>
+    <col min="9993" max="9993" width="13.5703125" style="9" customWidth="1"/>
+    <col min="9994" max="9994" width="23.42578125" style="9" customWidth="1"/>
+    <col min="9995" max="9995" width="21.140625" style="9" customWidth="1"/>
+    <col min="9996" max="9996" width="20.42578125" style="9" customWidth="1"/>
+    <col min="9997" max="10240" width="9.140625" style="9"/>
+    <col min="10241" max="10241" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10242" max="10242" width="20.7109375" style="9" customWidth="1"/>
+    <col min="10243" max="10243" width="14.5703125" style="9" customWidth="1"/>
+    <col min="10244" max="10244" width="14.28515625" style="9" customWidth="1"/>
+    <col min="10245" max="10245" width="12.42578125" style="9" customWidth="1"/>
+    <col min="10246" max="10246" width="17.5703125" style="9" customWidth="1"/>
+    <col min="10247" max="10247" width="27.42578125" style="9" customWidth="1"/>
+    <col min="10248" max="10248" width="24.140625" style="9" customWidth="1"/>
+    <col min="10249" max="10249" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10250" max="10250" width="23.42578125" style="9" customWidth="1"/>
+    <col min="10251" max="10251" width="21.140625" style="9" customWidth="1"/>
+    <col min="10252" max="10252" width="20.42578125" style="9" customWidth="1"/>
+    <col min="10253" max="10496" width="9.140625" style="9"/>
+    <col min="10497" max="10497" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10498" max="10498" width="20.7109375" style="9" customWidth="1"/>
+    <col min="10499" max="10499" width="14.5703125" style="9" customWidth="1"/>
+    <col min="10500" max="10500" width="14.28515625" style="9" customWidth="1"/>
+    <col min="10501" max="10501" width="12.42578125" style="9" customWidth="1"/>
+    <col min="10502" max="10502" width="17.5703125" style="9" customWidth="1"/>
+    <col min="10503" max="10503" width="27.42578125" style="9" customWidth="1"/>
+    <col min="10504" max="10504" width="24.140625" style="9" customWidth="1"/>
+    <col min="10505" max="10505" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10506" max="10506" width="23.42578125" style="9" customWidth="1"/>
+    <col min="10507" max="10507" width="21.140625" style="9" customWidth="1"/>
+    <col min="10508" max="10508" width="20.42578125" style="9" customWidth="1"/>
+    <col min="10509" max="10752" width="9.140625" style="9"/>
+    <col min="10753" max="10753" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10754" max="10754" width="20.7109375" style="9" customWidth="1"/>
+    <col min="10755" max="10755" width="14.5703125" style="9" customWidth="1"/>
+    <col min="10756" max="10756" width="14.28515625" style="9" customWidth="1"/>
+    <col min="10757" max="10757" width="12.42578125" style="9" customWidth="1"/>
+    <col min="10758" max="10758" width="17.5703125" style="9" customWidth="1"/>
+    <col min="10759" max="10759" width="27.42578125" style="9" customWidth="1"/>
+    <col min="10760" max="10760" width="24.140625" style="9" customWidth="1"/>
+    <col min="10761" max="10761" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10762" max="10762" width="23.42578125" style="9" customWidth="1"/>
+    <col min="10763" max="10763" width="21.140625" style="9" customWidth="1"/>
+    <col min="10764" max="10764" width="20.42578125" style="9" customWidth="1"/>
+    <col min="10765" max="11008" width="9.140625" style="9"/>
+    <col min="11009" max="11009" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11010" max="11010" width="20.7109375" style="9" customWidth="1"/>
+    <col min="11011" max="11011" width="14.5703125" style="9" customWidth="1"/>
+    <col min="11012" max="11012" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11013" max="11013" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11014" max="11014" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11015" max="11015" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11016" max="11016" width="24.140625" style="9" customWidth="1"/>
+    <col min="11017" max="11017" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11018" max="11018" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11019" max="11019" width="21.140625" style="9" customWidth="1"/>
+    <col min="11020" max="11020" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11021" max="11264" width="9.140625" style="9"/>
+    <col min="11265" max="11265" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11266" max="11266" width="20.7109375" style="9" customWidth="1"/>
+    <col min="11267" max="11267" width="14.5703125" style="9" customWidth="1"/>
+    <col min="11268" max="11268" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11269" max="11269" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11270" max="11270" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11271" max="11271" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11272" max="11272" width="24.140625" style="9" customWidth="1"/>
+    <col min="11273" max="11273" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11274" max="11274" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11275" max="11275" width="21.140625" style="9" customWidth="1"/>
+    <col min="11276" max="11276" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11277" max="11520" width="9.140625" style="9"/>
+    <col min="11521" max="11521" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11522" max="11522" width="20.7109375" style="9" customWidth="1"/>
+    <col min="11523" max="11523" width="14.5703125" style="9" customWidth="1"/>
+    <col min="11524" max="11524" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11525" max="11525" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11526" max="11526" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11527" max="11527" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11528" max="11528" width="24.140625" style="9" customWidth="1"/>
+    <col min="11529" max="11529" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11530" max="11530" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11531" max="11531" width="21.140625" style="9" customWidth="1"/>
+    <col min="11532" max="11532" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11533" max="11776" width="9.140625" style="9"/>
+    <col min="11777" max="11777" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11778" max="11778" width="20.7109375" style="9" customWidth="1"/>
+    <col min="11779" max="11779" width="14.5703125" style="9" customWidth="1"/>
+    <col min="11780" max="11780" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11781" max="11781" width="12.42578125" style="9" customWidth="1"/>
+    <col min="11782" max="11782" width="17.5703125" style="9" customWidth="1"/>
+    <col min="11783" max="11783" width="27.42578125" style="9" customWidth="1"/>
+    <col min="11784" max="11784" width="24.140625" style="9" customWidth="1"/>
+    <col min="11785" max="11785" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11786" max="11786" width="23.42578125" style="9" customWidth="1"/>
+    <col min="11787" max="11787" width="21.140625" style="9" customWidth="1"/>
+    <col min="11788" max="11788" width="20.42578125" style="9" customWidth="1"/>
+    <col min="11789" max="12032" width="9.140625" style="9"/>
+    <col min="12033" max="12033" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12034" max="12034" width="20.7109375" style="9" customWidth="1"/>
+    <col min="12035" max="12035" width="14.5703125" style="9" customWidth="1"/>
+    <col min="12036" max="12036" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12037" max="12037" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12038" max="12038" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12039" max="12039" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12040" max="12040" width="24.140625" style="9" customWidth="1"/>
+    <col min="12041" max="12041" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12042" max="12042" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12043" max="12043" width="21.140625" style="9" customWidth="1"/>
+    <col min="12044" max="12044" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12045" max="12288" width="9.140625" style="9"/>
+    <col min="12289" max="12289" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12290" max="12290" width="20.7109375" style="9" customWidth="1"/>
+    <col min="12291" max="12291" width="14.5703125" style="9" customWidth="1"/>
+    <col min="12292" max="12292" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12293" max="12293" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12294" max="12294" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12295" max="12295" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12296" max="12296" width="24.140625" style="9" customWidth="1"/>
+    <col min="12297" max="12297" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12298" max="12298" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12299" max="12299" width="21.140625" style="9" customWidth="1"/>
+    <col min="12300" max="12300" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12301" max="12544" width="9.140625" style="9"/>
+    <col min="12545" max="12545" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12546" max="12546" width="20.7109375" style="9" customWidth="1"/>
+    <col min="12547" max="12547" width="14.5703125" style="9" customWidth="1"/>
+    <col min="12548" max="12548" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12549" max="12549" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12550" max="12550" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12551" max="12551" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12552" max="12552" width="24.140625" style="9" customWidth="1"/>
+    <col min="12553" max="12553" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12554" max="12554" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12555" max="12555" width="21.140625" style="9" customWidth="1"/>
+    <col min="12556" max="12556" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12557" max="12800" width="9.140625" style="9"/>
+    <col min="12801" max="12801" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12802" max="12802" width="20.7109375" style="9" customWidth="1"/>
+    <col min="12803" max="12803" width="14.5703125" style="9" customWidth="1"/>
+    <col min="12804" max="12804" width="14.28515625" style="9" customWidth="1"/>
+    <col min="12805" max="12805" width="12.42578125" style="9" customWidth="1"/>
+    <col min="12806" max="12806" width="17.5703125" style="9" customWidth="1"/>
+    <col min="12807" max="12807" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12808" max="12808" width="24.140625" style="9" customWidth="1"/>
+    <col min="12809" max="12809" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12810" max="12810" width="23.42578125" style="9" customWidth="1"/>
+    <col min="12811" max="12811" width="21.140625" style="9" customWidth="1"/>
+    <col min="12812" max="12812" width="20.42578125" style="9" customWidth="1"/>
+    <col min="12813" max="13056" width="9.140625" style="9"/>
+    <col min="13057" max="13057" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13058" max="13058" width="20.7109375" style="9" customWidth="1"/>
+    <col min="13059" max="13059" width="14.5703125" style="9" customWidth="1"/>
+    <col min="13060" max="13060" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13061" max="13061" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13062" max="13062" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13063" max="13063" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13064" max="13064" width="24.140625" style="9" customWidth="1"/>
+    <col min="13065" max="13065" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13066" max="13066" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13067" max="13067" width="21.140625" style="9" customWidth="1"/>
+    <col min="13068" max="13068" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13069" max="13312" width="9.140625" style="9"/>
+    <col min="13313" max="13313" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13314" max="13314" width="20.7109375" style="9" customWidth="1"/>
+    <col min="13315" max="13315" width="14.5703125" style="9" customWidth="1"/>
+    <col min="13316" max="13316" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13317" max="13317" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13318" max="13318" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13319" max="13319" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13320" max="13320" width="24.140625" style="9" customWidth="1"/>
+    <col min="13321" max="13321" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13322" max="13322" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13323" max="13323" width="21.140625" style="9" customWidth="1"/>
+    <col min="13324" max="13324" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13325" max="13568" width="9.140625" style="9"/>
+    <col min="13569" max="13569" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13570" max="13570" width="20.7109375" style="9" customWidth="1"/>
+    <col min="13571" max="13571" width="14.5703125" style="9" customWidth="1"/>
+    <col min="13572" max="13572" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13573" max="13573" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13574" max="13574" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13575" max="13575" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13576" max="13576" width="24.140625" style="9" customWidth="1"/>
+    <col min="13577" max="13577" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13578" max="13578" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13579" max="13579" width="21.140625" style="9" customWidth="1"/>
+    <col min="13580" max="13580" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13581" max="13824" width="9.140625" style="9"/>
+    <col min="13825" max="13825" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13826" max="13826" width="20.7109375" style="9" customWidth="1"/>
+    <col min="13827" max="13827" width="14.5703125" style="9" customWidth="1"/>
+    <col min="13828" max="13828" width="14.28515625" style="9" customWidth="1"/>
+    <col min="13829" max="13829" width="12.42578125" style="9" customWidth="1"/>
+    <col min="13830" max="13830" width="17.5703125" style="9" customWidth="1"/>
+    <col min="13831" max="13831" width="27.42578125" style="9" customWidth="1"/>
+    <col min="13832" max="13832" width="24.140625" style="9" customWidth="1"/>
+    <col min="13833" max="13833" width="13.5703125" style="9" customWidth="1"/>
+    <col min="13834" max="13834" width="23.42578125" style="9" customWidth="1"/>
+    <col min="13835" max="13835" width="21.140625" style="9" customWidth="1"/>
+    <col min="13836" max="13836" width="20.42578125" style="9" customWidth="1"/>
+    <col min="13837" max="14080" width="9.140625" style="9"/>
+    <col min="14081" max="14081" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14082" max="14082" width="20.7109375" style="9" customWidth="1"/>
+    <col min="14083" max="14083" width="14.5703125" style="9" customWidth="1"/>
+    <col min="14084" max="14084" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14085" max="14085" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14086" max="14086" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14087" max="14087" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14088" max="14088" width="24.140625" style="9" customWidth="1"/>
+    <col min="14089" max="14089" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14090" max="14090" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14091" max="14091" width="21.140625" style="9" customWidth="1"/>
+    <col min="14092" max="14092" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14093" max="14336" width="9.140625" style="9"/>
+    <col min="14337" max="14337" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14338" max="14338" width="20.7109375" style="9" customWidth="1"/>
+    <col min="14339" max="14339" width="14.5703125" style="9" customWidth="1"/>
+    <col min="14340" max="14340" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14341" max="14341" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14342" max="14342" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14343" max="14343" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14344" max="14344" width="24.140625" style="9" customWidth="1"/>
+    <col min="14345" max="14345" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14346" max="14346" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14347" max="14347" width="21.140625" style="9" customWidth="1"/>
+    <col min="14348" max="14348" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14349" max="14592" width="9.140625" style="9"/>
+    <col min="14593" max="14593" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14594" max="14594" width="20.7109375" style="9" customWidth="1"/>
+    <col min="14595" max="14595" width="14.5703125" style="9" customWidth="1"/>
+    <col min="14596" max="14596" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14597" max="14597" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14598" max="14598" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14599" max="14599" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14600" max="14600" width="24.140625" style="9" customWidth="1"/>
+    <col min="14601" max="14601" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14602" max="14602" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14603" max="14603" width="21.140625" style="9" customWidth="1"/>
+    <col min="14604" max="14604" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14605" max="14848" width="9.140625" style="9"/>
+    <col min="14849" max="14849" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14850" max="14850" width="20.7109375" style="9" customWidth="1"/>
+    <col min="14851" max="14851" width="14.5703125" style="9" customWidth="1"/>
+    <col min="14852" max="14852" width="14.28515625" style="9" customWidth="1"/>
+    <col min="14853" max="14853" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14854" max="14854" width="17.5703125" style="9" customWidth="1"/>
+    <col min="14855" max="14855" width="27.42578125" style="9" customWidth="1"/>
+    <col min="14856" max="14856" width="24.140625" style="9" customWidth="1"/>
+    <col min="14857" max="14857" width="13.5703125" style="9" customWidth="1"/>
+    <col min="14858" max="14858" width="23.42578125" style="9" customWidth="1"/>
+    <col min="14859" max="14859" width="21.140625" style="9" customWidth="1"/>
+    <col min="14860" max="14860" width="20.42578125" style="9" customWidth="1"/>
+    <col min="14861" max="15104" width="9.140625" style="9"/>
+    <col min="15105" max="15105" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15106" max="15106" width="20.7109375" style="9" customWidth="1"/>
+    <col min="15107" max="15107" width="14.5703125" style="9" customWidth="1"/>
+    <col min="15108" max="15108" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15109" max="15109" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15110" max="15110" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15111" max="15111" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15112" max="15112" width="24.140625" style="9" customWidth="1"/>
+    <col min="15113" max="15113" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15114" max="15114" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15115" max="15115" width="21.140625" style="9" customWidth="1"/>
+    <col min="15116" max="15116" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15117" max="15360" width="9.140625" style="9"/>
+    <col min="15361" max="15361" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15362" max="15362" width="20.7109375" style="9" customWidth="1"/>
+    <col min="15363" max="15363" width="14.5703125" style="9" customWidth="1"/>
+    <col min="15364" max="15364" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15365" max="15365" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15366" max="15366" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15367" max="15367" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15368" max="15368" width="24.140625" style="9" customWidth="1"/>
+    <col min="15369" max="15369" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15370" max="15370" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15371" max="15371" width="21.140625" style="9" customWidth="1"/>
+    <col min="15372" max="15372" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15373" max="15616" width="9.140625" style="9"/>
+    <col min="15617" max="15617" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15618" max="15618" width="20.7109375" style="9" customWidth="1"/>
+    <col min="15619" max="15619" width="14.5703125" style="9" customWidth="1"/>
+    <col min="15620" max="15620" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15621" max="15621" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15622" max="15622" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15623" max="15623" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15624" max="15624" width="24.140625" style="9" customWidth="1"/>
+    <col min="15625" max="15625" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15626" max="15626" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15627" max="15627" width="21.140625" style="9" customWidth="1"/>
+    <col min="15628" max="15628" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15629" max="15872" width="9.140625" style="9"/>
+    <col min="15873" max="15873" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15874" max="15874" width="20.7109375" style="9" customWidth="1"/>
+    <col min="15875" max="15875" width="14.5703125" style="9" customWidth="1"/>
+    <col min="15876" max="15876" width="14.28515625" style="9" customWidth="1"/>
+    <col min="15877" max="15877" width="12.42578125" style="9" customWidth="1"/>
+    <col min="15878" max="15878" width="17.5703125" style="9" customWidth="1"/>
+    <col min="15879" max="15879" width="27.42578125" style="9" customWidth="1"/>
+    <col min="15880" max="15880" width="24.140625" style="9" customWidth="1"/>
+    <col min="15881" max="15881" width="13.5703125" style="9" customWidth="1"/>
+    <col min="15882" max="15882" width="23.42578125" style="9" customWidth="1"/>
+    <col min="15883" max="15883" width="21.140625" style="9" customWidth="1"/>
+    <col min="15884" max="15884" width="20.42578125" style="9" customWidth="1"/>
+    <col min="15885" max="16128" width="9.140625" style="9"/>
+    <col min="16129" max="16129" width="10.42578125" style="9" customWidth="1"/>
+    <col min="16130" max="16130" width="20.7109375" style="9" customWidth="1"/>
+    <col min="16131" max="16131" width="14.5703125" style="9" customWidth="1"/>
+    <col min="16132" max="16132" width="14.28515625" style="9" customWidth="1"/>
+    <col min="16133" max="16133" width="12.42578125" style="9" customWidth="1"/>
+    <col min="16134" max="16134" width="17.5703125" style="9" customWidth="1"/>
+    <col min="16135" max="16135" width="27.42578125" style="9" customWidth="1"/>
+    <col min="16136" max="16136" width="24.140625" style="9" customWidth="1"/>
+    <col min="16137" max="16137" width="13.5703125" style="9" customWidth="1"/>
+    <col min="16138" max="16138" width="23.42578125" style="9" customWidth="1"/>
+    <col min="16139" max="16139" width="21.140625" style="9" customWidth="1"/>
+    <col min="16140" max="16140" width="20.42578125" style="9" customWidth="1"/>
+    <col min="16141" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -6468,7 +6583,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -6506,7 +6621,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -6544,7 +6659,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -6582,7 +6697,7 @@
         <v>10.86</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>273</v>
       </c>
@@ -6600,7 +6715,7 @@
         <v>1053081208</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>275</v>
       </c>
@@ -6617,7 +6732,7 @@
         <v>1053251004</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>278</v>
       </c>
@@ -6635,7 +6750,7 @@
         <v>1053002100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>280</v>
       </c>
@@ -6652,7 +6767,7 @@
         <v>1053071202</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>281</v>
       </c>
@@ -6669,7 +6784,7 @@
         <v>1053251002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -6690,21 +6805,21 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="9" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="19.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="70.140625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="19.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="9"/>
+    <col min="11" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -6736,7 +6851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6768,7 +6883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6800,7 +6915,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6832,7 +6947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6864,7 +6979,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6896,7 +7011,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6928,7 +7043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -6960,7 +7075,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -6992,7 +7107,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -7024,7 +7139,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7056,7 +7171,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7088,7 +7203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -7120,7 +7235,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -7152,7 +7267,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -7184,7 +7299,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -7216,7 +7331,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -7248,7 +7363,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -7280,7 +7395,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -7312,7 +7427,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -7344,7 +7459,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -7373,7 +7488,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>23</v>
       </c>
@@ -7405,7 +7520,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>333</v>
       </c>
@@ -7422,7 +7537,7 @@
         <v>1053081204</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>281</v>
       </c>
@@ -7440,7 +7555,7 @@
         <v>1053251002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>278</v>
       </c>
@@ -7458,7 +7573,7 @@
         <v>1053002100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>338</v>
       </c>
@@ -7475,7 +7590,7 @@
         <v>1054301204</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>275</v>
       </c>
@@ -7492,7 +7607,7 @@
         <v>1053251004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>341</v>
       </c>
@@ -7509,7 +7624,7 @@
         <v>1053071204</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
         <v>344</v>
       </c>
@@ -7546,13 +7661,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -7563,7 +7678,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>322</v>
       </c>
@@ -7574,7 +7689,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>324</v>
       </c>
@@ -7585,7 +7700,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>326</v>
       </c>
@@ -7596,7 +7711,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>327</v>
       </c>
